--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">npv_pa_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1585,532 +1585,532 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.00216717854856514</v>
+        <v>5087.40707824192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00415986709641664</v>
+        <v>5989.10778995674</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>-0.00264358430112903</v>
+        <v>-76259.5298029201</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.000959726581589121</v>
+        <v>-7556.53580668885</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000870747829908651</v>
+        <v>1639.46690566051</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>-0.00298335135740684</v>
+        <v>-13264.8925780065</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.000725773376442739</v>
+        <v>-5918.75120314469</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>345.790153987678</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0309943104144282</v>
+        <v>8777.49854799873</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.00271897128120411</v>
+        <v>-17698.8452084275</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00468110606407323</v>
+        <v>5602.89607722905</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0099119862792009</v>
+        <v>7360.31361204041</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00643199907544825</v>
+        <v>7056.78800649773</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000292376452292025</v>
+        <v>790.029208827903</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2" t="n">
-        <v>0.000493548054546268</v>
+        <v>235.875983215594</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.00000625488864432051</v>
+        <v>-1969.62389565426</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00147827803867997</v>
+        <v>214.30602550165</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000325858912065583</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.000543325311146275</v>
+        <v>-181.730519675228</v>
       </c>
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2" t="n">
-        <v>0.00147887805335205</v>
+        <v>4582.38893884629</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00200293214595539</v>
+        <v>-1808.13224062185</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0239327047238994</v>
+        <v>8878.90858830941</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.00253314281746035</v>
+        <v>-12101.5530549902</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.00135554967005168</v>
+        <v>-12130.6842316118</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.00213630257338467</v>
+        <v>-16852.769484607</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.000762565184705808</v>
+        <v>-1641.31136173489</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00304582239352255</v>
+        <v>5831.2398223268</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0052199731951176</v>
+        <v>6832.42437823356</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.027673917425959</v>
+        <v>8982.82006202271</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00110265508305476</v>
+        <v>1968.26006794361</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.000133586068979985</v>
+        <v>-43.4167974035931</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00624141828023504</v>
+        <v>6976.7889466131</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00223703994148167</v>
+        <v>4403.86463981736</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.000205290197644056</v>
+        <v>-3636.39154096429</v>
       </c>
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2" t="n">
-        <v>-0.000379222240363902</v>
+        <v>-1591.37626628279</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00173901778785452</v>
+        <v>-5814.31858400636</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.000752308438922651</v>
+        <v>-5891.70546649822</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00509458540093588</v>
+        <v>7342.48285702851</v>
       </c>
       <c r="AY2"/>
       <c r="AZ2" t="n">
-        <v>-0.000264458116042482</v>
+        <v>-3338.24263090452</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.000204290577306688</v>
+        <v>-3058.61515660941</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.000215526436160232</v>
+        <v>-275.744498558528</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.000358560825958339</v>
+        <v>-71.6394538272429</v>
       </c>
       <c r="BE2"/>
       <c r="BF2" t="n">
-        <v>0.000343433076082957</v>
+        <v>-1281.5844338078</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00175406818532123</v>
+        <v>-5595.44128280066</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0136115282808133</v>
+        <v>8083.07670913802</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.000726503368760342</v>
+        <v>-5455.5462596874</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00426592614053285</v>
+        <v>5306.81862927146</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00010108140627558</v>
+        <v>-2183.63680724673</v>
       </c>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>0.017094645708044</v>
+        <v>5626.70768377538</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00138224277168467</v>
+        <v>-1000.42895530286</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.000249788522136283</v>
+        <v>-3009.02211891023</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0000551438590046173</v>
+        <v>355.959303648701</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00317557833838492</v>
+        <v>5400.39424569314</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00681720221554842</v>
+        <v>6215.95062083423</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0115890579616573</v>
+        <v>7700.35675629435</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0132427307655388</v>
+        <v>8214.90768749294</v>
       </c>
       <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>0.000926796751577552</v>
+        <v>1635.46869158702</v>
       </c>
       <c r="BW2"/>
       <c r="BX2"/>
       <c r="BY2" t="n">
-        <v>0.00208690022961499</v>
+        <v>1193.76131720777</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2"/>
       <c r="CB2" t="n">
-        <v>0.00508929284268638</v>
+        <v>2979.58022994358</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0000895388194923284</v>
+        <v>676.186401242898</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0135864511335046</v>
+        <v>6913.14744844275</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00031682128841543</v>
+        <v>-456.84558629249</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.000351480009287613</v>
+        <v>3005.2012121265</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00250654936395159</v>
+        <v>4693.79178787952</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.000611303270169869</v>
+        <v>-7294.85903974583</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.00130734028184201</v>
+        <v>-2895.36919812541</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.000295441965673467</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00077847082661135</v>
+        <v>-6374.11559887541</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.00182631630089095</v>
+        <v>-34895.7373698558</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0000100850194729465</v>
+        <v>-2057.28323386359</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.000536469086165</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.000232099274126802</v>
+        <v>-345.204311335911</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.00152556095902755</v>
+        <v>-4455.75806065039</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.00196018757999064</v>
+        <v>-14026.1511957044</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00405457768297083</v>
+        <v>6088.49247881413</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00008401210480532</v>
+        <v>345.790153987678</v>
       </c>
       <c r="CT2"/>
       <c r="CU2" t="n">
-        <v>0.0336200322370551</v>
+        <v>7637.87242642085</v>
       </c>
       <c r="CV2"/>
       <c r="CW2" t="n">
-        <v>-0.00238020740078454</v>
+        <v>-19544.8425423196</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.000117645074162758</v>
+        <v>916.371699001133</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.000779623162453627</v>
+        <v>-6665.74401623944</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0149332570975231</v>
+        <v>7865.93514620824</v>
       </c>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.000104303803059493</v>
+        <v>-773.20958798988</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.00138399234082083</v>
+        <v>5036.01066577544</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0051906479414621</v>
+        <v>3877.39542409761</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.000769273856167588</v>
+        <v>-1980.4767775542</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000954162671345164</v>
+        <v>-13716.9565102023</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.000616846475941161</v>
+        <v>-1506.92971639577</v>
       </c>
       <c r="DJ2"/>
       <c r="DK2" t="n">
-        <v>0.00176354117608046</v>
+        <v>1091.27122212739</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.00184682572652451</v>
+        <v>3580.1303639248</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0155528487640885</v>
+        <v>8010.97149401776</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.000730944522066906</v>
+        <v>-567.951262665559</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.000111905881472186</v>
+        <v>-6915.33942134571</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00346040074979255</v>
+        <v>356.280794443363</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00157499772295514</v>
+        <v>3376.15745166895</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00972844892646066</v>
+        <v>7943.05419021676</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00324621694059519</v>
+        <v>-19026.1973368732</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00789784522692554</v>
+        <v>7557.67134120524</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.000990857525916781</v>
+        <v>3003.53272200065</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000552681755378524</v>
+        <v>-716.867821510615</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0155182472190124</v>
+        <v>6388.13389074285</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00216267548354314</v>
+        <v>4279.57970825923</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00285649265558574</v>
+        <v>-7288.08843625355</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.016627659570773</v>
+        <v>8329.88162564977</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00242799163364335</v>
+        <v>-7904.59166375073</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.000987421732524646</v>
+        <v>-213.305447390725</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>0.0184412256629726</v>
+        <v>8463.25254850747</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.00289130568771876</v>
+        <v>5672.65204568555</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00501988888320205</v>
+        <v>2716.91577793946</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.000639259107083043</v>
+        <v>-5507.61592948269</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.000506007657878022</v>
+        <v>-5101.76791495151</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0102853967666514</v>
+        <v>6874.77081437356</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.000242714425199129</v>
+        <v>120.957284659467</v>
       </c>
       <c r="EK2"/>
       <c r="EL2"/>
       <c r="EM2" t="n">
-        <v>0.00420383366774758</v>
+        <v>6187.37514974342</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.00120187806145311</v>
+        <v>-22476.63100196</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.000346412004840973</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00215109653983241</v>
+        <v>4848.50310640092</v>
       </c>
       <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>0.00815613692721072</v>
+        <v>6819.92599208734</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.000644134948412061</v>
+        <v>-1561.86405093434</v>
       </c>
       <c r="ET2"/>
       <c r="EU2" t="n">
-        <v>0.000773283889192903</v>
+        <v>1183.7911241817</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0003307830614841</v>
+        <v>-32.0699157502063</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00326316818498305</v>
+        <v>5485.08405538668</v>
       </c>
       <c r="EX2"/>
       <c r="EY2"/>
       <c r="EZ2" t="n">
-        <v>0.000484896349596274</v>
+        <v>2482.77312776512</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.00254636465547209</v>
+        <v>-13274.222593925</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0126725901122611</v>
+        <v>8138.45900291174</v>
       </c>
       <c r="FC2"/>
       <c r="FD2" t="n">
-        <v>0.00343837889113396</v>
+        <v>6219.98150272607</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00276045887896712</v>
+        <v>3778.92199467038</v>
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>0.0256978753196181</v>
+        <v>7839.94520869015</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0158341773098964</v>
+        <v>8323.651834885</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0020998595612298</v>
+        <v>1394.75591943737</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0234140652939001</v>
+        <v>8908.46266279781</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.000351022570705184</v>
+        <v>415.115683509185</v>
       </c>
       <c r="FL2"/>
       <c r="FM2" t="n">
-        <v>0.00386515010302006</v>
+        <v>5666.49573954425</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.000500575972009049</v>
+        <v>-1131.06509524835</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.00147149071600511</v>
+        <v>-4572.59894316158</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0000173939123398641</v>
+        <v>-2422.66404862747</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00176025731511591</v>
+        <v>4303.31326809708</v>
       </c>
       <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>-0.00327689847563651</v>
+        <v>-15927.0363206865</v>
       </c>
       <c r="FU2"/>
       <c r="FV2"/>
       <c r="FW2" t="n">
-        <v>0.0144876749831326</v>
+        <v>8386.33608147447</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00479974618995155</v>
+        <v>3917.67172776316</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.000142278704832212</v>
+        <v>659.479187888537</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00907961239124679</v>
+        <v>3214.41505558093</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>345.790153987678</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00995728948322836</v>
+        <v>7613.52468587169</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.00874394912457925</v>
+        <v>4784.69096897365</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.000785642776207661</v>
+        <v>333.702524379264</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.000160622754230067</v>
+        <v>1185.31618593795</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0199985321793611</v>
+        <v>7369.84188987833</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.00853058166958387</v>
+        <v>7291.27346960071</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.00996697266742526</v>
+        <v>7962.94837497158</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.000246244026073394</v>
+        <v>345.790153987678</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.000663084394098749</v>
+        <v>-6930.14995561833</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.00263108586044564</v>
+        <v>-17714.5156633647</v>
       </c>
       <c r="GM2" t="n">
-        <v>0</v>
+        <v>345.790153987678</v>
       </c>
       <c r="GN2"/>
       <c r="GO2"/>
       <c r="GP2"/>
       <c r="GQ2" t="n">
-        <v>0.00147347295554506</v>
+        <v>3920.043471171</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0206571855507757</v>
+        <v>7547.20097854963</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.00897090198547232</v>
+        <v>5363.94669393805</v>
       </c>
       <c r="GT2"/>
       <c r="GU2" t="n">
-        <v>-0.000594854325937819</v>
+        <v>-2247.00943425464</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.00551181043160937</v>
+        <v>6179.30747368172</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.00681736766337823</v>
+        <v>4755.56361110742</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_pa_gcs_adj</t>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1585,532 +1585,532 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>5087.40707824192</v>
+        <v>0.00641268683495083</v>
       </c>
       <c r="E2" t="n">
-        <v>5989.10778995674</v>
+        <v>0.0184202193180169</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>-76259.5298029201</v>
+        <v>-0.0233366399684625</v>
       </c>
       <c r="H2" t="n">
-        <v>-7556.53580668885</v>
+        <v>-0.00134911960910712</v>
       </c>
       <c r="I2" t="n">
-        <v>1639.46690566051</v>
+        <v>0.0129344662728377</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>-13264.8925780065</v>
+        <v>-0.00610710651053</v>
       </c>
       <c r="L2" t="n">
-        <v>-5918.75120314469</v>
+        <v>-0.00556919363670736</v>
       </c>
       <c r="M2" t="n">
-        <v>345.790153987678</v>
+        <v>0.00777052615639754</v>
       </c>
       <c r="N2" t="n">
-        <v>8777.49854799873</v>
+        <v>0.232527006897109</v>
       </c>
       <c r="O2" t="n">
-        <v>-17698.8452084275</v>
+        <v>-0.0159063039086464</v>
       </c>
       <c r="P2" t="n">
-        <v>5602.89607722905</v>
+        <v>0.0212246573666066</v>
       </c>
       <c r="Q2" t="n">
-        <v>7360.31361204041</v>
+        <v>0.0672144275027018</v>
       </c>
       <c r="R2" t="n">
-        <v>7056.78800649773</v>
+        <v>0.0391226218844466</v>
       </c>
       <c r="S2" t="n">
-        <v>790.029208827903</v>
+        <v>0.000581332509406331</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2" t="n">
-        <v>235.875983215594</v>
+        <v>0.00202084767640244</v>
       </c>
       <c r="W2" t="n">
-        <v>-1969.62389565426</v>
+        <v>-0.000503335151786888</v>
       </c>
       <c r="X2" t="n">
-        <v>214.30602550165</v>
+        <v>0.00909439155949883</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.00595489702052736</v>
       </c>
       <c r="AA2" t="n">
-        <v>-181.730519675228</v>
+        <v>0.00373520963792955</v>
       </c>
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2" t="n">
-        <v>4582.38893884629</v>
+        <v>0.00545695005572493</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1808.13224062185</v>
+        <v>-0.0117929116908344</v>
       </c>
       <c r="AF2" t="n">
-        <v>8878.90858830941</v>
+        <v>0.180558320075444</v>
       </c>
       <c r="AG2" t="n">
-        <v>-12101.5530549902</v>
+        <v>-0.0109423555861029</v>
       </c>
       <c r="AH2" t="n">
-        <v>-12130.6842316118</v>
+        <v>-0.00831233634357242</v>
       </c>
       <c r="AI2" t="n">
-        <v>-16852.769484607</v>
+        <v>-0.00627757616239366</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1641.31136173489</v>
+        <v>-0.0000212695282487434</v>
       </c>
       <c r="AK2" t="n">
-        <v>5831.2398223268</v>
+        <v>0.0152102952676037</v>
       </c>
       <c r="AL2" t="n">
-        <v>6832.42437823356</v>
+        <v>0.0328779993940036</v>
       </c>
       <c r="AM2" t="n">
-        <v>8982.82006202271</v>
+        <v>0.209145168484657</v>
       </c>
       <c r="AN2" t="n">
-        <v>1968.26006794361</v>
+        <v>0.000293619961086967</v>
       </c>
       <c r="AO2" t="n">
-        <v>-43.4167974035931</v>
+        <v>0.00347740961418624</v>
       </c>
       <c r="AP2" t="n">
-        <v>6976.7889466131</v>
+        <v>0.0404505593157246</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4403.86463981736</v>
+        <v>0.00460249018187853</v>
       </c>
       <c r="AR2" t="n">
-        <v>-3636.39154096429</v>
+        <v>0.00191850683486207</v>
       </c>
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2" t="n">
-        <v>-1591.37626628279</v>
+        <v>-0.00241187797319362</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5814.31858400636</v>
+        <v>-0.0108194510375018</v>
       </c>
       <c r="AW2" t="n">
-        <v>-5891.70546649822</v>
+        <v>-0.0058044068669322</v>
       </c>
       <c r="AX2" t="n">
-        <v>7342.48285702851</v>
+        <v>0.0344553596633108</v>
       </c>
       <c r="AY2"/>
       <c r="AZ2" t="n">
-        <v>-3338.24263090452</v>
+        <v>-0.00320340197597834</v>
       </c>
       <c r="BA2" t="n">
-        <v>-3058.61515660941</v>
+        <v>0.000805128409445621</v>
       </c>
       <c r="BB2" t="n">
-        <v>-275.744498558528</v>
+        <v>-0.000615781077460653</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>0.0030711097108259</v>
       </c>
       <c r="BD2" t="n">
-        <v>-71.6394538272429</v>
+        <v>0.00282234578424515</v>
       </c>
       <c r="BE2"/>
       <c r="BF2" t="n">
-        <v>-1281.5844338078</v>
+        <v>-0.00232924282288422</v>
       </c>
       <c r="BG2" t="n">
-        <v>-5595.44128280066</v>
+        <v>-0.0131818387674494</v>
       </c>
       <c r="BH2" t="n">
-        <v>8083.07670913802</v>
+        <v>0.0987874548728089</v>
       </c>
       <c r="BI2" t="n">
-        <v>-5455.5462596874</v>
+        <v>-0.00603036623948501</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5306.81862927146</v>
+        <v>0.0153094321720931</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2183.63680724673</v>
+        <v>-0.0023564884863868</v>
       </c>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>5626.70768377538</v>
+        <v>0.0639490509003438</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1000.42895530286</v>
+        <v>-0.0056279960452263</v>
       </c>
       <c r="BO2" t="n">
-        <v>-3009.02211891023</v>
+        <v>-0.00371801117788348</v>
       </c>
       <c r="BP2" t="n">
-        <v>355.959303648701</v>
+        <v>0.00778216263795303</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5400.39424569314</v>
+        <v>0.0130566910588861</v>
       </c>
       <c r="BR2" t="n">
-        <v>6215.95062083423</v>
+        <v>0.0383904000277445</v>
       </c>
       <c r="BS2" t="n">
-        <v>7700.35675629435</v>
+        <v>0.0811389977272957</v>
       </c>
       <c r="BT2" t="n">
-        <v>8214.90768749294</v>
+        <v>0.0957123556641002</v>
       </c>
       <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>1635.46869158702</v>
+        <v>-0.00119085309196403</v>
       </c>
       <c r="BW2"/>
       <c r="BX2"/>
       <c r="BY2" t="n">
-        <v>1193.76131720777</v>
+        <v>0.0134966257522008</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.00344476770537203</v>
       </c>
       <c r="CA2"/>
       <c r="CB2" t="n">
-        <v>2979.58022994358</v>
+        <v>0.0315649474627155</v>
       </c>
       <c r="CC2" t="n">
-        <v>676.186401242898</v>
+        <v>-0.000527762813918124</v>
       </c>
       <c r="CD2" t="n">
-        <v>6913.14744844275</v>
+        <v>0.082475494555902</v>
       </c>
       <c r="CE2" t="n">
-        <v>-456.84558629249</v>
+        <v>-0.00298899453684527</v>
       </c>
       <c r="CF2" t="n">
-        <v>3005.2012121265</v>
+        <v>0.0079800642872873</v>
       </c>
       <c r="CG2" t="n">
-        <v>4693.79178787952</v>
+        <v>0.0100809308974852</v>
       </c>
       <c r="CH2" t="n">
-        <v>-7294.85903974583</v>
+        <v>-0.00430056579468957</v>
       </c>
       <c r="CI2" t="n">
-        <v>-2895.36919812541</v>
+        <v>-0.00584690653879218</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-6374.11559887541</v>
+        <v>-0.00577133180071391</v>
       </c>
       <c r="CL2" t="n">
-        <v>-34895.7373698558</v>
+        <v>-0.0164921533275909</v>
       </c>
       <c r="CM2" t="n">
-        <v>-2057.28323386359</v>
+        <v>-0.00309815346270933</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.00395405100055356</v>
       </c>
       <c r="CO2" t="n">
-        <v>-345.204311335911</v>
+        <v>-0.00036269362267296</v>
       </c>
       <c r="CP2" t="n">
-        <v>-4455.75806065039</v>
+        <v>-0.00218573729803145</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-14026.1511957044</v>
+        <v>-0.00653459539471337</v>
       </c>
       <c r="CR2" t="n">
-        <v>6088.49247881413</v>
+        <v>0.0222623239028254</v>
       </c>
       <c r="CS2" t="n">
-        <v>345.790153987678</v>
+        <v>0.0180466753525032</v>
       </c>
       <c r="CT2"/>
       <c r="CU2" t="n">
-        <v>7637.87242642085</v>
+        <v>0.148980248176447</v>
       </c>
       <c r="CV2"/>
       <c r="CW2" t="n">
-        <v>-19544.8425423196</v>
+        <v>-0.0311764468166846</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>916.371699001133</v>
+        <v>0.00569034499707998</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-6665.74401623944</v>
+        <v>-0.00683873127739731</v>
       </c>
       <c r="DA2" t="n">
-        <v>7865.93514620824</v>
+        <v>0.105520207341205</v>
       </c>
       <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>-773.20958798988</v>
+        <v>0.00233924339359487</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>5036.01066577544</v>
+        <v>0.00527756798417814</v>
       </c>
       <c r="DF2" t="n">
-        <v>3877.39542409761</v>
+        <v>0.00346002983403369</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1980.4767775542</v>
+        <v>-0.00607774178801926</v>
       </c>
       <c r="DH2" t="n">
-        <v>-13716.9565102023</v>
+        <v>-0.00570991127188225</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1506.92971639577</v>
+        <v>-0.00584245229112053</v>
       </c>
       <c r="DJ2"/>
       <c r="DK2" t="n">
-        <v>1091.27122212739</v>
+        <v>0.0112897737758092</v>
       </c>
       <c r="DL2" t="n">
-        <v>3580.1303639248</v>
+        <v>0.0171794842167694</v>
       </c>
       <c r="DM2" t="n">
-        <v>8010.97149401776</v>
+        <v>0.11226239539464</v>
       </c>
       <c r="DN2" t="n">
-        <v>-567.951262665559</v>
+        <v>-0.0101542410328106</v>
       </c>
       <c r="DO2" t="n">
-        <v>-6915.33942134571</v>
+        <v>-0.00147177212718849</v>
       </c>
       <c r="DP2" t="n">
-        <v>356.280794443363</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3376.15745166895</v>
+        <v>0.00638228395481311</v>
       </c>
       <c r="DR2" t="n">
-        <v>7943.05419021676</v>
+        <v>0.0694628872120753</v>
       </c>
       <c r="DS2" t="n">
-        <v>-19026.1973368732</v>
+        <v>-0.021001447598687</v>
       </c>
       <c r="DT2" t="n">
-        <v>7557.67134120524</v>
+        <v>0.0762756025510537</v>
       </c>
       <c r="DU2" t="n">
-        <v>3003.53272200065</v>
+        <v>0.00387796471935532</v>
       </c>
       <c r="DV2" t="n">
-        <v>-716.867821510615</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>6388.13389074285</v>
+        <v>0.0806610405438778</v>
       </c>
       <c r="DX2" t="n">
-        <v>4279.57970825923</v>
+        <v>0.00387348214069519</v>
       </c>
       <c r="DY2" t="n">
-        <v>-7288.08843625355</v>
+        <v>-0.0143646039797256</v>
       </c>
       <c r="DZ2" t="n">
-        <v>8329.88162564977</v>
+        <v>0.117332094933625</v>
       </c>
       <c r="EA2" t="n">
-        <v>-7904.59166375073</v>
+        <v>-0.012617164243458</v>
       </c>
       <c r="EB2" t="n">
-        <v>-213.305447390725</v>
+        <v>-0.00445533180855835</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>8463.25254850747</v>
+        <v>0.135905687694916</v>
       </c>
       <c r="EE2" t="n">
-        <v>5672.65204568555</v>
+        <v>0.0135695421741862</v>
       </c>
       <c r="EF2" t="n">
-        <v>2716.91577793946</v>
+        <v>0.0312646779462704</v>
       </c>
       <c r="EG2" t="n">
-        <v>-5507.61592948269</v>
+        <v>-0.00507498850355337</v>
       </c>
       <c r="EH2" t="n">
-        <v>-5101.76791495151</v>
+        <v>-0.00417620262121858</v>
       </c>
       <c r="EI2" t="n">
-        <v>6874.77081437356</v>
+        <v>0.0619109606116373</v>
       </c>
       <c r="EJ2" t="n">
-        <v>120.957284659467</v>
+        <v>0</v>
       </c>
       <c r="EK2"/>
       <c r="EL2"/>
       <c r="EM2" t="n">
-        <v>6187.37514974342</v>
+        <v>0.0232562051326755</v>
       </c>
       <c r="EN2" t="n">
-        <v>-22476.63100196</v>
+        <v>-0.00684179935416969</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>0.00483366087601132</v>
       </c>
       <c r="EP2" t="n">
-        <v>4848.50310640092</v>
+        <v>0.0212601798005821</v>
       </c>
       <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>6819.92599208734</v>
+        <v>0.086119847604685</v>
       </c>
       <c r="ES2" t="n">
-        <v>-1561.86405093434</v>
+        <v>-0.00585703319906335</v>
       </c>
       <c r="ET2"/>
       <c r="EU2" t="n">
-        <v>1183.7911241817</v>
+        <v>-0.00139668358973608</v>
       </c>
       <c r="EV2" t="n">
-        <v>-32.0699157502063</v>
+        <v>0.00427312172757142</v>
       </c>
       <c r="EW2" t="n">
-        <v>5485.08405538668</v>
+        <v>0.0227707548316721</v>
       </c>
       <c r="EX2"/>
       <c r="EY2"/>
       <c r="EZ2" t="n">
-        <v>2482.77312776512</v>
+        <v>0.00185282476271087</v>
       </c>
       <c r="FA2" t="n">
-        <v>-13274.222593925</v>
+        <v>-0.00603511670222482</v>
       </c>
       <c r="FB2" t="n">
-        <v>8138.45900291174</v>
+        <v>0.0921000830974577</v>
       </c>
       <c r="FC2"/>
       <c r="FD2" t="n">
-        <v>6219.98150272607</v>
+        <v>0.0317457545209469</v>
       </c>
       <c r="FE2" t="n">
-        <v>3778.92199467038</v>
+        <v>0.00185809047557035</v>
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>7839.94520869015</v>
+        <v>0.115491016063985</v>
       </c>
       <c r="FH2" t="n">
-        <v>8323.651834885</v>
+        <v>0.115205813410681</v>
       </c>
       <c r="FI2" t="n">
-        <v>1394.75591943737</v>
+        <v>0.0135115102296099</v>
       </c>
       <c r="FJ2" t="n">
-        <v>8908.46266279781</v>
+        <v>0.176908614196953</v>
       </c>
       <c r="FK2" t="n">
-        <v>415.115683509185</v>
+        <v>0.00122347293667181</v>
       </c>
       <c r="FL2"/>
       <c r="FM2" t="n">
-        <v>5666.49573954425</v>
+        <v>0.0180338280509291</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.00194323486842949</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1131.06509524835</v>
+        <v>-0.00458603468401759</v>
       </c>
       <c r="FP2" t="n">
-        <v>-4572.59894316158</v>
+        <v>-0.00985068832516636</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-2422.66404862747</v>
+        <v>-0.00218747946669355</v>
       </c>
       <c r="FR2" t="n">
-        <v>4303.31326809708</v>
+        <v>0.00260432586586112</v>
       </c>
       <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>-15927.0363206865</v>
+        <v>-0.0214052680966768</v>
       </c>
       <c r="FU2"/>
       <c r="FV2"/>
       <c r="FW2" t="n">
-        <v>8386.33608147447</v>
+        <v>0.106267754563949</v>
       </c>
       <c r="FX2" t="n">
-        <v>3917.67172776316</v>
+        <v>0.00451501095888237</v>
       </c>
       <c r="FY2" t="n">
-        <v>659.479187888537</v>
+        <v>-0.000260655037030633</v>
       </c>
       <c r="FZ2" t="n">
-        <v>3214.41505558093</v>
+        <v>0.0634815177958667</v>
       </c>
       <c r="GA2" t="n">
-        <v>345.790153987678</v>
+        <v>0.000602723134935773</v>
       </c>
       <c r="GB2" t="n">
-        <v>7613.52468587169</v>
+        <v>0.0959537435539072</v>
       </c>
       <c r="GC2" t="n">
-        <v>4784.69096897365</v>
+        <v>0.029298642120945</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>0.00259492106252292</v>
       </c>
       <c r="GE2" t="n">
-        <v>333.702524379264</v>
+        <v>0.00506633400455007</v>
       </c>
       <c r="GF2" t="n">
-        <v>1185.31618593795</v>
+        <v>-0.000755835971789605</v>
       </c>
       <c r="GG2" t="n">
-        <v>7369.84188987833</v>
+        <v>0.0865736172045059</v>
       </c>
       <c r="GH2" t="n">
-        <v>7291.27346960071</v>
+        <v>0.0529089902092967</v>
       </c>
       <c r="GI2" t="n">
-        <v>7962.94837497158</v>
+        <v>0.0721253232400355</v>
       </c>
       <c r="GJ2" t="n">
-        <v>345.790153987678</v>
+        <v>0.00190417230584369</v>
       </c>
       <c r="GK2" t="n">
-        <v>-6930.14995561833</v>
+        <v>0.0000368125942007192</v>
       </c>
       <c r="GL2" t="n">
-        <v>-17714.5156633647</v>
+        <v>-0.0121039113398648</v>
       </c>
       <c r="GM2" t="n">
-        <v>345.790153987678</v>
+        <v>0.0123688852569633</v>
       </c>
       <c r="GN2"/>
       <c r="GO2"/>
       <c r="GP2"/>
       <c r="GQ2" t="n">
-        <v>3920.043471171</v>
+        <v>0.0139532554836458</v>
       </c>
       <c r="GR2" t="n">
-        <v>7547.20097854963</v>
+        <v>0.0912044962216655</v>
       </c>
       <c r="GS2" t="n">
-        <v>5363.94669393805</v>
+        <v>0.0326065495466723</v>
       </c>
       <c r="GT2"/>
       <c r="GU2" t="n">
-        <v>-2247.00943425464</v>
+        <v>-0.0137669884948244</v>
       </c>
       <c r="GV2" t="n">
-        <v>6179.30747368172</v>
+        <v>0.0270116073890253</v>
       </c>
       <c r="GW2" t="n">
-        <v>4755.56361110742</v>
+        <v>0.0157581498783116</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">npv_over_gdp_gcs</t>
   </si>
 </sst>
 </file>
@@ -1582,535 +1582,607 @@
       <c r="A2" t="s">
         <v>205</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="n">
+        <v>-0.0124544378638608</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.121189601854323</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.00641268683495083</v>
+        <v>0.0145019843681018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0184202193180169</v>
-      </c>
-      <c r="F2"/>
+        <v>0.0287524492130971</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.000518630214297933</v>
+      </c>
       <c r="G2" t="n">
-        <v>-0.0233366399684625</v>
+        <v>-0.025928336968382</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00134911960910712</v>
+        <v>-0.00545181736615953</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0129344662728377</v>
-      </c>
-      <c r="J2"/>
+        <v>0.0175764100545075</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00983553283352857</v>
+      </c>
       <c r="K2" t="n">
-        <v>-0.00610710651053</v>
+        <v>-0.00311067007553424</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00556919363670736</v>
+        <v>-0.00495420876054271</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00777052615639754</v>
+        <v>0.00621303191289552</v>
       </c>
       <c r="N2" t="n">
-        <v>0.232527006897109</v>
+        <v>0.377531113354387</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0159063039086464</v>
+        <v>-0.0151734483961618</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0212246573666066</v>
+        <v>0.0407775188863457</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0672144275027018</v>
+        <v>0.110396036964253</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0391226218844466</v>
+        <v>0.0378981976442534</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000581332509406331</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2"/>
+        <v>-0.000586547887261321</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.0305828001680421</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.00772695481258238</v>
+      </c>
       <c r="V2" t="n">
-        <v>0.00202084767640244</v>
+        <v>-0.00532844025426511</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.000503335151786888</v>
+        <v>-0.0063937224381904</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00909439155949883</v>
-      </c>
-      <c r="Y2"/>
+        <v>0.00970600758734208</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.00388304753665665</v>
+      </c>
       <c r="Z2" t="n">
-        <v>0.00595489702052736</v>
+        <v>0.0115937624969378</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00373520963792955</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
+        <v>0.0051669589159444</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.00480306490377886</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.0407361977012756</v>
+      </c>
       <c r="AD2" t="n">
-        <v>0.00545695005572493</v>
+        <v>0.00196096455232989</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0117929116908344</v>
+        <v>-0.027594398598509</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.180558320075444</v>
+        <v>0.260207760821109</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0109423555861029</v>
+        <v>-0.0106154856228645</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.00831233634357242</v>
+        <v>-0.00524511314682951</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.00627757616239366</v>
+        <v>-0.0109980919920454</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0000212695282487434</v>
+        <v>-0.0162521664230007</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0152102952676037</v>
+        <v>0.0226783599262183</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0328779993940036</v>
+        <v>0.0478047568570195</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.209145168484657</v>
+        <v>0.200978109699708</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000293619961086967</v>
+        <v>-0.012020934043917</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00347740961418624</v>
+        <v>0.00548547733911793</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0404505593157246</v>
+        <v>0.0551265846056016</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00460249018187853</v>
+        <v>0.00917972044595081</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.00191850683486207</v>
-      </c>
-      <c r="AS2"/>
-      <c r="AT2"/>
+        <v>0.00224888281672758</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.00902020977116037</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.0277497503225671</v>
+      </c>
       <c r="AU2" t="n">
-        <v>-0.00241187797319362</v>
+        <v>-0.00100562714261893</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0108194510375018</v>
+        <v>-0.00947933466356456</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0058044068669322</v>
+        <v>-0.00532568590875059</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0344553596633108</v>
-      </c>
-      <c r="AY2"/>
+        <v>0.0312848042308132</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.00487639451471793</v>
+      </c>
       <c r="AZ2" t="n">
-        <v>-0.00320340197597834</v>
+        <v>-0.00218400039033338</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.000805128409445621</v>
+        <v>-0.00403567306644625</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.000615781077460653</v>
+        <v>-0.0284976711732081</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0030711097108259</v>
+        <v>-0.000512483543829001</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00282234578424515</v>
-      </c>
-      <c r="BE2"/>
+        <v>-0.000157621388490631</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.125407436861687</v>
+      </c>
       <c r="BF2" t="n">
-        <v>-0.00232924282288422</v>
+        <v>-0.000304547884225127</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0131818387674494</v>
+        <v>-0.0110123667831785</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0987874548728089</v>
+        <v>0.120887634697446</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.00603036623948501</v>
+        <v>-0.00469416310995796</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0153094321720931</v>
+        <v>0.0207584611465717</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0023564884863868</v>
+        <v>-0.00115634033130195</v>
       </c>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>0.0639490509003438</v>
+        <v>0.0417451384682431</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0056279960452263</v>
+        <v>-0.00288149106665307</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00371801117788348</v>
+        <v>-0.00244228834989077</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00778216263795303</v>
+        <v>0.0113899862596629</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0130566910588861</v>
+        <v>0.0236462730364468</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0383904000277445</v>
+        <v>0.0650573241049849</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0811389977272957</v>
+        <v>0.129650352972148</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0957123556641002</v>
-      </c>
-      <c r="BU2"/>
+        <v>0.152593223446405</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-0.00879258509914347</v>
+      </c>
       <c r="BV2" t="n">
-        <v>-0.00119085309196403</v>
-      </c>
-      <c r="BW2"/>
-      <c r="BX2"/>
+        <v>0.00248609066759561</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.000642757463836025</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-0.00523138528441162</v>
+      </c>
       <c r="BY2" t="n">
-        <v>0.0134966257522008</v>
+        <v>0.0182201760166888</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00344476770537203</v>
-      </c>
-      <c r="CA2"/>
+        <v>-0.00940997803418669</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-0.0085825822701454</v>
+      </c>
       <c r="CB2" t="n">
-        <v>0.0315649474627155</v>
+        <v>0.0489541792339331</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.000527762813918124</v>
+        <v>-0.000571462163072887</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.082475494555902</v>
+        <v>0.116935063058073</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00298899453684527</v>
+        <v>-0.00309981734300888</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0079800642872873</v>
+        <v>0.0158648466285177</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0100809308974852</v>
+        <v>0.00435490025812644</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.00430056579468957</v>
+        <v>-0.0036012482598174</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.00584690653879218</v>
+        <v>-0.0608496536216255</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0.0341275319329586</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00577133180071391</v>
+        <v>-0.00415598159982006</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0164921533275909</v>
+        <v>-0.0111509738546511</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.00309815346270933</v>
+        <v>-0.00224980298911539</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00395405100055356</v>
+        <v>0.00446451180048065</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.00036269362267296</v>
+        <v>-0.0100874286426125</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.00218573729803145</v>
+        <v>0.000225563524546324</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.00653459539471337</v>
+        <v>-0.0130691652596176</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0222623239028254</v>
+        <v>0.0367649030614331</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0180466753525032</v>
-      </c>
-      <c r="CT2"/>
+        <v>0.0357585905523946</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.0471114366836246</v>
+      </c>
       <c r="CU2" t="n">
-        <v>0.148980248176447</v>
-      </c>
-      <c r="CV2"/>
+        <v>0.115242566711594</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.00760774561655045</v>
+      </c>
       <c r="CW2" t="n">
-        <v>-0.0311764468166846</v>
-      </c>
-      <c r="CX2"/>
+        <v>-0.0191069557815871</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-0.0519461749159105</v>
+      </c>
       <c r="CY2" t="n">
-        <v>0.00569034499707998</v>
+        <v>0.0100273616994531</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.00683873127739731</v>
+        <v>-0.0167566090989769</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.105520207341205</v>
-      </c>
-      <c r="DB2"/>
+        <v>0.13883909461188</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>-0.0601670452443905</v>
+      </c>
       <c r="DC2" t="n">
-        <v>0.00233924339359487</v>
+        <v>0.000434616228867987</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.00527756798417814</v>
+        <v>0.00359503463706275</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00346002983403369</v>
+        <v>0.015492805639767</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00607774178801926</v>
+        <v>-0.00511839884592505</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.00570991127188225</v>
+        <v>-0.00480063534859656</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00584245229112053</v>
-      </c>
-      <c r="DJ2"/>
+        <v>-0.00647592616789867</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.00180362317313611</v>
+      </c>
       <c r="DK2" t="n">
-        <v>0.0112897737758092</v>
+        <v>0.0134846129299381</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0171794842167694</v>
+        <v>0.029168921834528</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.11226239539464</v>
+        <v>0.19347106700235</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.0101542410328106</v>
+        <v>-0.00884942622108295</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00147177212718849</v>
+        <v>-0.010462970431492</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0.00381087488815394</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00638228395481311</v>
+        <v>0.0116070305647832</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0694628872120753</v>
+        <v>0.107639447047641</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.021001447598687</v>
+        <v>-0.026688925446548</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0762756025510537</v>
+        <v>0.11499215846287</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00387796471935532</v>
+        <v>0.00672953595982313</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.132310013479813</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0806610405438778</v>
+        <v>0.103701165740474</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00387348214069519</v>
+        <v>0.0140088917731162</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0143646039797256</v>
+        <v>-0.0241002626787383</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.117332094933625</v>
+        <v>0.243663678062222</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.012617164243458</v>
+        <v>-0.0240351290185818</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00445533180855835</v>
+        <v>-0.0233967941248617</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>0.135905687694916</v>
+        <v>0.167704742276798</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0135695421741862</v>
+        <v>0.0197176756452131</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0312646779462704</v>
+        <v>0.0588339212809518</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.00507498850355337</v>
+        <v>-0.00439498128394215</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00417620262121858</v>
+        <v>-0.00259484978851074</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0619109606116373</v>
+        <v>0.0508382432058942</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK2"/>
-      <c r="EL2"/>
+        <v>-0.0158516158506781</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.00125736519137588</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>-0.0339090120760992</v>
+      </c>
       <c r="EM2" t="n">
-        <v>0.0232562051326755</v>
+        <v>0.0249411537695795</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.00684179935416969</v>
+        <v>-0.00730224644341081</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00483366087601132</v>
+        <v>0.00699083540856289</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0212601798005821</v>
-      </c>
-      <c r="EQ2"/>
+        <v>0.0291935753882329</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-0.035093165446537</v>
+      </c>
       <c r="ER2" t="n">
-        <v>0.086119847604685</v>
+        <v>0.0570595061974833</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00585703319906335</v>
-      </c>
-      <c r="ET2"/>
+        <v>-0.00680156286491126</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.177461956850155</v>
+      </c>
       <c r="EU2" t="n">
-        <v>-0.00139668358973608</v>
+        <v>0.00208940898327397</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00427312172757142</v>
+        <v>0.00766244308709866</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0227707548316721</v>
-      </c>
-      <c r="EX2"/>
-      <c r="EY2"/>
+        <v>0.032373386473785</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0022044622879731</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-0.0239854647336375</v>
+      </c>
       <c r="EZ2" t="n">
-        <v>0.00185282476271087</v>
+        <v>0.00344752047913369</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.00603511670222482</v>
+        <v>-0.0133182399419584</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0921000830974577</v>
-      </c>
-      <c r="FC2"/>
+        <v>0.11044700653936</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-0.0535444455470985</v>
+      </c>
       <c r="FD2" t="n">
-        <v>0.0317457545209469</v>
+        <v>0.0579709087757735</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00185809047557035</v>
-      </c>
-      <c r="FF2"/>
+        <v>0.00968604376303306</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>-0.0233571045774732</v>
+      </c>
       <c r="FG2" t="n">
-        <v>0.115491016063985</v>
+        <v>0.0731144700460718</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.115205813410681</v>
+        <v>0.159582934126198</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0135115102296099</v>
+        <v>0.0212724362339432</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.176908614196953</v>
+        <v>0.231354499059646</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00122347293667181</v>
-      </c>
-      <c r="FL2"/>
+        <v>-0.0028689057675952</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.294892375488622</v>
+      </c>
       <c r="FM2" t="n">
-        <v>0.0180338280509291</v>
+        <v>0.0303473174153846</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00194323486842949</v>
+        <v>-0.0148728371262166</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.00458603468401759</v>
+        <v>-0.0042876172124091</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.00985068832516636</v>
+        <v>-0.00694246182729503</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.00218747946669355</v>
+        <v>-0.00111091083837388</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00260432586586112</v>
+        <v>0.00683935681839138</v>
       </c>
       <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>-0.0214052680966768</v>
-      </c>
-      <c r="FU2"/>
-      <c r="FV2"/>
+        <v>-0.0220077859013074</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.0862183990857605</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>-0.0144345120847067</v>
+      </c>
       <c r="FW2" t="n">
-        <v>0.106267754563949</v>
+        <v>0.137612724793026</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00451501095888237</v>
+        <v>0.0262972010607648</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.000260655037030633</v>
+        <v>-0.00000442473401615069</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0634815177958667</v>
+        <v>0.0720251502930038</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.000602723134935773</v>
+        <v>-0.0351768325694815</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0959537435539072</v>
+        <v>0.110621876068616</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.029298642120945</v>
+        <v>0.0211997118987001</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.00259492106252292</v>
+        <v>-0.0641480399656337</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00506633400455007</v>
+        <v>0.00676149805017981</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.000755835971789605</v>
+        <v>0.00234575835398378</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0865736172045059</v>
+        <v>0.03832298874963</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0529089902092967</v>
+        <v>0.0737630216593809</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0721253232400355</v>
+        <v>0.0971592368236073</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00190417230584369</v>
+        <v>0.00748532638611002</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0000368125942007192</v>
+        <v>-0.00059630477491415</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0121039113398648</v>
+        <v>-0.0115278615077945</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.0123688852569633</v>
-      </c>
-      <c r="GN2"/>
-      <c r="GO2"/>
+        <v>0.0082923160835319</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.00578414583774171</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.0489724908125465</v>
+      </c>
       <c r="GP2"/>
       <c r="GQ2" t="n">
-        <v>0.0139532554836458</v>
+        <v>0.0303637736513276</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0912044962216655</v>
+        <v>0.0546991385552783</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.0326065495466723</v>
-      </c>
-      <c r="GT2"/>
+        <v>0.0242474320013528</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.180631076242819</v>
+      </c>
       <c r="GU2" t="n">
-        <v>-0.0137669884948244</v>
+        <v>-0.0342823209814113</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0270116073890253</v>
+        <v>0.0448245304480045</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0157581498783116</v>
+        <v>0.0247750350095522</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs</t>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1583,606 +1583,606 @@
         <v>205</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0124544378638608</v>
+        <v>-0.0136414290803282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.121189601854323</v>
+        <v>0.109185870508317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0145019843681018</v>
+        <v>0.0110891204157635</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0287524492130971</v>
+        <v>0.0248693707749476</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000518630214297933</v>
+        <v>-0.00207994551382654</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.025928336968382</v>
+        <v>-0.0262867817046136</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00545181736615953</v>
+        <v>0.000289288789492689</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0175764100545075</v>
+        <v>0.0146994858742183</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00983553283352857</v>
+        <v>-0.00939532350985685</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00311067007553424</v>
+        <v>-0.0052464068965267</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00495420876054271</v>
+        <v>-0.00552884201640955</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00621303191289552</v>
+        <v>0.00379782825636582</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377531113354387</v>
+        <v>0.344274257423379</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0151734483961618</v>
+        <v>-0.0157845268433622</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0407775188863457</v>
+        <v>0.0331264625845866</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.110396036964253</v>
+        <v>0.0977366704936273</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0378981976442534</v>
+        <v>0.0338764697617299</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.000586547887261321</v>
+        <v>0.00168930502500158</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0305828001680421</v>
+        <v>-0.0309721485452021</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00772695481258238</v>
+        <v>-0.00886623665480273</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.00532844025426511</v>
+        <v>0.00179427124566429</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0063937224381904</v>
+        <v>0.000434465977681946</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00970600758734208</v>
+        <v>0.00698428519830725</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00388304753665665</v>
+        <v>-0.00423821358130987</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0115937624969378</v>
+        <v>0.00834314692801768</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0051669589159444</v>
+        <v>0.00360729997679105</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.00480306490377886</v>
+        <v>-0.00460893246945901</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0407361977012756</v>
+        <v>-0.0413715863242424</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00196096455232989</v>
+        <v>0.00574374826935852</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.027594398598509</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.260207760821109</v>
+        <v>0.237659975123727</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0106154856228645</v>
+        <v>-0.0114623059779176</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.00524511314682951</v>
+        <v>-0.00555105797609743</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0109980919920454</v>
+        <v>-0.00312175848307243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0162521664230007</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0226783599262183</v>
+        <v>0.0187738576665441</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0478047568570195</v>
+        <v>0.041628671274042</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.200978109699708</v>
+        <v>0.183849137268455</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.012020934043917</v>
+        <v>0.000654805893959589</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00548547733911793</v>
+        <v>0.00429618498030616</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0551265846056016</v>
+        <v>0.0482429559381013</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00917972044595081</v>
+        <v>0.00615579244123321</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.00224888281672758</v>
+        <v>0.00199895355074951</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00902020977116037</v>
+        <v>0.0068373736435481</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0277497503225671</v>
+        <v>-0.0252221016149324</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.00100562714261893</v>
+        <v>-0.00248255038419311</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00947933466356456</v>
+        <v>-0.0104299425472912</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00532568590875059</v>
+        <v>-0.00594607644107097</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0312848042308132</v>
+        <v>0.0276836316486827</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00487639451471793</v>
+        <v>0.00364420914993985</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00218400039033338</v>
+        <v>-0.002640830468163</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.00403567306644625</v>
+        <v>0.00195583186518923</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0284976711732081</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.000512483543829001</v>
+        <v>0.00320112421158674</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.000157621388490631</v>
+        <v>0.00506867648518111</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.125407436861687</v>
+        <v>0.112136199128306</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.000304547884225127</v>
+        <v>-0.00225064689883249</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0110123667831785</v>
+        <v>-0.0119170707491872</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.120887634697446</v>
+        <v>0.108874019982485</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.00469416310995796</v>
+        <v>-0.00527353979710607</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0207584611465717</v>
+        <v>0.0176121969422164</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00115634033130195</v>
+        <v>-0.00226042337016619</v>
       </c>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>0.0417451384682431</v>
+        <v>0.0358252972972051</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00288149106665307</v>
+        <v>0.00118082763938294</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00244228834989077</v>
+        <v>-0.00302846694973158</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0113899862596629</v>
+        <v>0.00871791588073672</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0236462730364468</v>
+        <v>0.0188256406965373</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0650573241049849</v>
+        <v>0.0551935949172807</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.129650352972148</v>
+        <v>0.115786830979664</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.152593223446405</v>
+        <v>0.13778889887916</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00879258509914347</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00248609066759561</v>
+        <v>0.00115693102625953</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.000642757463836025</v>
+        <v>0.00217864696580446</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00523138528441162</v>
+        <v>-0.00575796050652329</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0182201760166888</v>
+        <v>0.0145873962258038</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.00940997803418669</v>
+        <v>0.00247872368723388</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0085825822701454</v>
+        <v>-0.00904982333233684</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0489541792339331</v>
+        <v>0.0425616963596427</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.000571462163072887</v>
+        <v>-0.000276273230616981</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.116935063058073</v>
+        <v>0.106034228897759</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00309981734300888</v>
+        <v>-0.00279664810948536</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0158648466285177</v>
+        <v>0.0117964134522322</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00435490025812644</v>
+        <v>0.00981766791382467</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0036012482598174</v>
+        <v>-0.00394391532677348</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0608496536216255</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0341275319329586</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00415598159982006</v>
+        <v>-0.00460545903424639</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0111509738546511</v>
+        <v>-0.011505383795504</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.00224980298911539</v>
+        <v>-0.003404095813589</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00446451180048065</v>
+        <v>0.00445528275347818</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0100874286426125</v>
+        <v>0.000679854068594479</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.000225563524546324</v>
+        <v>-0.0020884478189585</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0130691652596176</v>
+        <v>-0.00540128138511341</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0367649030614331</v>
+        <v>0.0309728295761811</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0357585905523946</v>
+        <v>0.0264439859789006</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0471114366836246</v>
+        <v>0.0386833095727341</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.115242566711594</v>
+        <v>0.10360843966023</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.00760774561655045</v>
+        <v>-0.00918081321702542</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0191069557815871</v>
+        <v>-0.0197734807585283</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0519461749159105</v>
+        <v>-0.0525456115459381</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0100273616994531</v>
+        <v>0.00993972389926467</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0167566090989769</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.13883909461188</v>
+        <v>0.124465561282172</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0601670452443905</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.000434616228867987</v>
+        <v>0.0018953693124398</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.00359503463706275</v>
+        <v>0.00487423900622125</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.015492805639767</v>
+        <v>0.00878991326361423</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00511839884592505</v>
+        <v>-0.00589009505466754</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.00480063534859656</v>
+        <v>-0.00504911194193221</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00647592616789867</v>
+        <v>-0.00638979363833238</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00180362317313611</v>
+        <v>-0.000285548792812168</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0134846129299381</v>
+        <v>0.0139843829782589</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.029168921834528</v>
+        <v>0.0254475461853613</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.19347106700235</v>
+        <v>0.173984957380742</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.00884942622108295</v>
+        <v>-0.00835294560039344</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.010462970431492</v>
+        <v>0.00165601787122443</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00381087488815394</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0116070305647832</v>
+        <v>0.00835035957709894</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.107639447047641</v>
+        <v>0.0966586923203142</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.026688925446548</v>
+        <v>-0.0275779454162791</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.11499215846287</v>
+        <v>0.103248387024984</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00672953595982313</v>
+        <v>0.00449855378368366</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.132310013479813</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.103701165740474</v>
+        <v>0.088705321507644</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0140088917731162</v>
+        <v>0.00906992091597227</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0241002626787383</v>
+        <v>-0.0097041940565946</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.243663678062222</v>
+        <v>0.220503555552234</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0240351290185818</v>
+        <v>-0.00163301962655679</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0233967941248617</v>
+        <v>0</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>0.167704742276798</v>
+        <v>0.152131067718698</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0197176756452131</v>
+        <v>0.0161168423899285</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0588339212809518</v>
+        <v>0.0507405582059593</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.00439498128394215</v>
+        <v>-0.0049404364438909</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00259484978851074</v>
+        <v>-0.00294079964388504</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0508382432058942</v>
+        <v>0.0459362299213835</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0158516158506781</v>
+        <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00125736519137588</v>
+        <v>-0.00143064917686159</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.0339090120760992</v>
+        <v>-0.0259323582108603</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0249411537695795</v>
+        <v>0.0238700138002013</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.00730224644341081</v>
+        <v>-0.00381529015847377</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00699083540856289</v>
+        <v>0.0047008272805761</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0291935753882329</v>
+        <v>0.0242850015162571</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.035093165446537</v>
+        <v>-0.0295740625950366</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0570595061974833</v>
+        <v>0.0505346178487078</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00680156286491126</v>
+        <v>-0.0052250643605172</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.177461956850155</v>
+        <v>0.150029236797517</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00208940898327397</v>
+        <v>-0.0000592827741378032</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00766244308709866</v>
+        <v>0.00518671560628573</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.032373386473785</v>
+        <v>0.0290536126962035</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0022044622879731</v>
+        <v>-0.00140585250096413</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0239854647336375</v>
+        <v>-0.0242466059423224</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.00344752047913369</v>
+        <v>0.00239091767483495</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0133182399419584</v>
+        <v>-0.00385208450409692</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.11044700653936</v>
+        <v>0.0995820007731785</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.0535444455470985</v>
+        <v>-0.0431663466977108</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0579709087757735</v>
+        <v>0.0521825641627243</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00968604376303306</v>
+        <v>0.00530597058413293</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0233571045774732</v>
+        <v>-0.0236954369608356</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0731144700460718</v>
+        <v>0.0659409707941564</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.159582934126198</v>
+        <v>0.14439795240642</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0212724362339432</v>
+        <v>0.0172685267814835</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.231354499059646</v>
+        <v>0.211401815460189</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.0028689057675952</v>
+        <v>0.00175111770432692</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.294892375488622</v>
+        <v>0.268281759647721</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0303473174153846</v>
+        <v>0.0247922135410329</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.0148728371262166</v>
+        <v>0.001812981730471</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0042876172124091</v>
+        <v>-0.0054919068638946</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.00694246182729503</v>
+        <v>-0.00778890732824571</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.00111091083837388</v>
+        <v>-0.00181691249894149</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00683935681839138</v>
+        <v>0.00446074957529208</v>
       </c>
       <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>-0.0220077859013074</v>
+        <v>-0.0162504601785466</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0862183990857605</v>
+        <v>0.0809319862939045</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.0144345120847067</v>
+        <v>-0.0158658821659774</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.137612724793026</v>
+        <v>0.124661737385505</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0262972010607648</v>
+        <v>0.0150961721221949</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.00000442473401615069</v>
+        <v>0.0000631485988854535</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0720251502930038</v>
+        <v>0.0624990580356577</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0351768325694815</v>
+        <v>-0.000881037992244424</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.110621876068616</v>
+        <v>0.0994151357573026</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0211997118987001</v>
+        <v>0.0175801092183592</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.0641480399656337</v>
+        <v>-0.0396950400014252</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00676149805017981</v>
+        <v>0.00896981147784283</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00234575835398378</v>
+        <v>0.000998832828082802</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.03832298874963</v>
+        <v>0.0342996743643712</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0737630216593809</v>
+        <v>0.0651782462116789</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0971592368236073</v>
+        <v>0.0872848235921172</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00748532638611002</v>
+        <v>0.00375722707500173</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.00059630477491415</v>
+        <v>-0.000685194068022541</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0115278615077945</v>
+        <v>-0.0121428989378233</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.0082923160835319</v>
+        <v>0.00454479247892818</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00578414583774171</v>
+        <v>0.00388535011080095</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.0489724908125465</v>
+        <v>0.0445822594993561</v>
       </c>
       <c r="GP2"/>
       <c r="GQ2" t="n">
-        <v>0.0303637736513276</v>
+        <v>0.0250947293606591</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0546991385552783</v>
+        <v>0.049104406118646</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.0242474320013528</v>
+        <v>0.0206169664654565</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.180631076242819</v>
+        <v>0.162921049099058</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.0342823209814113</v>
+        <v>0</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0448245304480045</v>
+        <v>0.0379575764848074</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0247750350095522</v>
+        <v>0.0177809432579592</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">gain_adj_2080</t>
   </si>
 </sst>
 </file>
@@ -1583,257 +1583,257 @@
         <v>205</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0136414290803282</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109185870508317</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0110891204157635</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0248693707749476</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00207994551382654</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0262867817046136</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000289288789492689</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0146994858742183</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00939532350985685</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0052464068965267</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00552884201640955</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00379782825636582</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.344274257423379</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0157845268433622</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0331264625845866</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0977366704936273</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0338764697617299</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00168930502500158</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0309721485452021</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00886623665480273</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00179427124566429</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000434465977681946</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00698428519830725</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00423821358130987</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00834314692801768</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00360729997679105</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.00460893246945901</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0413715863242424</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00574374826935852</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.237659975123727</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0114623059779176</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.00555105797609743</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.00312175848307243</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0187738576665441</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.041628671274042</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.183849137268455</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000654805893959589</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00429618498030616</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0482429559381013</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00615579244123321</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.00199895355074951</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0068373736435481</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0252221016149324</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.00248255038419311</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0104299425472912</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00594607644107097</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0276836316486827</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00364420914993985</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.002640830468163</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00195583186518923</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.00320112421158674</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00506867648518111</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.112136199128306</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00225064689883249</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0119170707491872</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.108874019982485</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.00527353979710607</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0176121969422164</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00226042337016619</v>
+        <v>0</v>
       </c>
       <c r="BL2"/>
       <c r="BM2" t="n">
-        <v>0.0358252972972051</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00118082763938294</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00302846694973158</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00871791588073672</v>
+        <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0188256406965373</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0551935949172807</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.115786830979664</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.13778889887916</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00115693102625953</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00217864696580446</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00575796050652329</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0145873962258038</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00247872368723388</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.00904982333233684</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0425616963596427</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.000276273230616981</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.106034228897759</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00279664810948536</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0117964134522322</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00981766791382467</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.00394391532677348</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
@@ -1842,347 +1842,347 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00460545903424639</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.011505383795504</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.003404095813589</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00445528275347818</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.000679854068594479</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.0020884478189585</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.00540128138511341</v>
+        <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0309728295761811</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0264439859789006</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0386833095727341</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.10360843966023</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.00918081321702542</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0197734807585283</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0525456115459381</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00993972389926467</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.124465561282172</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0018953693124398</v>
+        <v>0</v>
       </c>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.00487423900622125</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00878991326361423</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00589009505466754</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.00504911194193221</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00638979363833238</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.000285548792812168</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0139843829782589</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0254475461853613</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.173984957380742</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.00835294560039344</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.00165601787122443</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00835035957709894</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0966586923203142</v>
+        <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0275779454162791</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.103248387024984</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00449855378368366</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.088705321507644</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00906992091597227</v>
+        <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0097041940565946</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.220503555552234</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00163301962655679</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>0.152131067718698</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0161168423899285</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0507405582059593</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0049404364438909</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00294079964388504</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0459362299213835</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00143064917686159</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.0259323582108603</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0238700138002013</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.00381529015847377</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0047008272805761</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0242850015162571</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0295740625950366</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0505346178487078</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0052250643605172</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.150029236797517</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0000592827741378032</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00518671560628573</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0290536126962035</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.00140585250096413</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0242466059423224</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.00239091767483495</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.00385208450409692</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0995820007731785</v>
+        <v>0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.0431663466977108</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0521825641627243</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00530597058413293</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0236954369608356</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0659409707941564</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.14439795240642</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0172685267814835</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.211401815460189</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00175111770432692</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.268281759647721</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0247922135410329</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.001812981730471</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0054919068638946</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.00778890732824571</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.00181691249894149</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00446074957529208</v>
+        <v>0</v>
       </c>
       <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>-0.0162504601785466</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0809319862939045</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.0158658821659774</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.124661737385505</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0150961721221949</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0000631485988854535</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0624990580356577</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.000881037992244424</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0994151357573026</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0175801092183592</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.0396950400014252</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00896981147784283</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.000998832828082802</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0342996743643712</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.0651782462116789</v>
+        <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0872848235921172</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00375722707500173</v>
+        <v>0</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.000685194068022541</v>
+        <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0121428989378233</v>
+        <v>0</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.00454479247892818</v>
+        <v>0</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00388535011080095</v>
+        <v>0</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.0445822594993561</v>
+        <v>0</v>
       </c>
       <c r="GP2"/>
       <c r="GQ2" t="n">
-        <v>0.0250947293606591</v>
+        <v>0</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.049104406118646</v>
+        <v>0</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.0206169664654565</v>
+        <v>0</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.162921049099058</v>
+        <v>0</v>
       </c>
       <c r="GU2" t="n">
         <v>0</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.0379575764848074</v>
+        <v>0</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0177809432579592</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
-    <t xml:space="preserve">Bermuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bolivia</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
-    <t xml:space="preserve">Curacao</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyprus</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Faeroe Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Micronesia (country)</t>
   </si>
   <si>
@@ -239,18 +227,12 @@
     <t xml:space="preserve">Grenada</t>
   </si>
   <si>
-    <t xml:space="preserve">Greenland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -353,9 +335,6 @@
     <t xml:space="preserve">Latvia</t>
   </si>
   <si>
-    <t xml:space="preserve">Macao</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
@@ -410,9 +389,6 @@
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
@@ -473,9 +449,6 @@
     <t xml:space="preserve">Palestine</t>
   </si>
   <si>
-    <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
@@ -536,18 +509,12 @@
     <t xml:space="preserve">Eswatini</t>
   </si>
   <si>
-    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
-    <t xml:space="preserve">Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chad</t>
   </si>
   <si>
@@ -605,9 +572,6 @@
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
-    <t xml:space="preserve">British Virgin Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
@@ -629,7 +593,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">gain_adj_2080</t>
+    <t xml:space="preserve">emissions_pc_2100</t>
   </si>
 </sst>
 </file>
@@ -1541,648 +1505,586 @@
       <c r="GK1" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.00539992716467574</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-1.71877649920727</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.572379919262009</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0421846158158606</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.184509001419445</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-9.38420563006038</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-2.06754542204755</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-12.9552577480838</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-13.9661850316605</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.0669226619438705</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.23576550319072</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0.161271956068275</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-0.118645055710353</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-1.45483882103704</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0.749582857768116</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.01254696953266</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1.47640217495255</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.129166725186047</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-15.0395546589745</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-1.63783938576315</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-5.11818775029546</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-4.89611658183149</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-5.34913053805556</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-5.50883372071207</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-9.78143076134436</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-11.3394661255606</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.0276775281287043</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.0527760000851171</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>-0.119041020131426</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-3.36117653132688</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>-0.0940390905870711</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-12.2280216486973</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0.683749573038183</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-1.35697885013199</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0.949176003690943</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0.0745014622899131</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-3.14754888152695</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>-5.8290365815386</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0.927165569688127</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>-2.26377924220885</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-6.12996252406644</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>-4.67563925779327</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0.0425189165061974</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-2.67926225506212</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0.0666808675917676</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.789243163655744</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-5.71937471218436</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0.0535057511818817</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>-8.10484136388012</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>0.0443352309641465</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-7.07258243756703</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>0.025657477637028</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.60524044949392</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0.0408677181658721</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-2.93390248847099</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0.463072217393299</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0.0655376674169503</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>-0.784939385125691</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>-0.0441248064297707</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0.731397601709553</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>0.0279688328076943</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2"/>
+        <v>-0.0530740087056937</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-2.64401988714517</v>
+      </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-1.62442222370741</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-1.2318671360236</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.619953800556511</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>-0.398741877970319</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>0.0340424582451687</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0.0339955701119492</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-6.70978167106161</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-4.02717563684582</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-9.12829984944025</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-2.50624530839768</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>-1.48858136832103</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0.742294914206655</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>-1.72223577618707</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-1.27345287853793</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>0.0264819711023402</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>-0.0726125834877807</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.0717522175555666</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>0.0514111765296687</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.0688850703773983</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>0.0926334560311791</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.0484437027807201</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>-6.44682168040536</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>0.0322814774333212</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-9.22199357871898</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-7.99425519074686</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-1.31333547846647</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-2.66825165883238</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.259848812603074</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0.301540998373467</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-12.7024494509058</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0</v>
+        <v>-6.33813558241942</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>0.219010783402383</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0.336208268637156</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>0.0472025118954306</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0.541312948817243</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.110532009348463</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-6.8906602167397</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0.0260320390369278</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.0248587552318023</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>-2.34924439141594</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-2.00171568813731</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0.101006803027449</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2"/>
+        <v>-2.12572102899525</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.0196247124296211</v>
+      </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-1.41324678303963</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.484380103833055</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>0.0552133336037578</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-10.7434259941263</v>
       </c>
       <c r="DI2" t="n">
-        <v>0</v>
+        <v>-1.87619856689597</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-1.0141700670694</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0.498635990928563</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0.130440528272326</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0.331455714959813</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-1.06620365691028</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-1.42078878053081</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-1.15375798257334</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-2.12912548332778</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>-8.73527846752764</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0.351278599403668</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-3.86729537406813</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>0.0417002038909097</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.278560397084206</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-1.47425755944605</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-2.74555478647302</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0.0646402447054681</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.0628988999261684</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.0135536740243688</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2"/>
+        <v>-2.65374747642176</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>-7.88133106587364</v>
+      </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>0.11691606363509</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>0.0166972808993579</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-10.8201601130529</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-5.30043159875577</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>-0.880873170338513</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-5.80013212058574</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>-0.465513120345631</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-2.12071588973994</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0.193411029311134</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0.0340118407879929</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>-5.10292704834401</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>0.00790244243363109</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.226459891559181</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>-1.1456868349659</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-7.44673056917552</v>
       </c>
       <c r="ES2" t="n">
-        <v>0</v>
+        <v>-0.436318815778852</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>0.177423165185812</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>0.00581044513363282</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-2.34638061701617</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-12.3691936708085</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0.255452970237343</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.358793612578591</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-3.95412346007068</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.105329147263306</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>-1.56222423502504</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>0.00202434904672476</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-1.49035032266583</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-11.3944640797416</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-1.94234077861632</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-2.53835377228522</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0.0459932948212894</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-2.18551505597557</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-11.2547619251877</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>0.0154678553538454</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0.314610572522988</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>-2.23753750035953</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-1.84373576942289</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>-1.45295514439654</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-11.1863695774827</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.319990478062404</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2"/>
+        <v>-0.876642594057607</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-40.847830743153</v>
+      </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>0.022462277691999</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0.0353957693849005</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0.350327020965796</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0.773234715457311</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0.506424974542001</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-3.70357602732534</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-7.4305005802506</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-4.15946097034454</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>-3.24239962670932</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-5.34652932008734</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0.524521705593389</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0.21634457840895</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0.312071115990477</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.744682626672533</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>0.00476387427631664</v>
       </c>
       <c r="GI2" t="n">
-        <v>0</v>
+        <v>0.0574779093312332</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0</v>
+        <v>-1.22166984113777</v>
       </c>
       <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2"/>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
+        <v>-1.92497356440216</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">emissions_pc_2100</t>
+    <t xml:space="preserve">gain_gdr_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1511,580 +1511,578 @@
         <v>193</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00539992716467574</v>
+        <v>0.0230277598911715</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.71877649920727</v>
+        <v>0.0505453611098448</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.572379919262009</v>
+        <v>0.0164700385164991</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0421846158158606</v>
+        <v>-0.0222154481841252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.184509001419445</v>
+        <v>-0.00389087844877693</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.38420563006038</v>
+        <v>-0.0151495160974441</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.06754542204755</v>
+        <v>0.0217757437126851</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.9552577480838</v>
+        <v>-0.0338141239231971</v>
       </c>
       <c r="J2" t="n">
-        <v>-13.9661850316605</v>
+        <v>-0.0027552299890548</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0669226619438705</v>
+        <v>-0.0265923301790839</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.23576550319072</v>
+        <v>0.0146150513679683</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.161271956068275</v>
+        <v>0.0818491549973272</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.118645055710353</v>
+        <v>-0.0457880392258976</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.45483882103704</v>
+        <v>-0.0179308056047765</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.749582857768116</v>
+        <v>0.148429385491883</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01254696953266</v>
+        <v>0.000395728377816614</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.47640217495255</v>
+        <v>0.00965774729802727</v>
       </c>
       <c r="S2" t="n">
-        <v>0.129166725186047</v>
+        <v>0.106158443256521</v>
       </c>
       <c r="T2" t="n">
-        <v>-15.0395546589745</v>
+        <v>-0.0408879639695589</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.63783938576315</v>
+        <v>-0.00993537038130424</v>
       </c>
       <c r="V2" t="n">
-        <v>-5.11818775029546</v>
+        <v>-0.00890472775503848</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.89611658183149</v>
+        <v>0.00934955003445266</v>
       </c>
       <c r="X2" t="n">
-        <v>-5.34913053805556</v>
+        <v>0.126382409746491</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.50883372071207</v>
+        <v>-0.00547655796018494</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9.78143076134436</v>
+        <v>0.0326935290322097</v>
       </c>
       <c r="AA2" t="n">
-        <v>-11.3394661255606</v>
+        <v>-0.0315881520110936</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0276775281287043</v>
+        <v>0.0133729856212313</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0527760000851171</v>
+        <v>-0.019335611491863</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.119041020131426</v>
+        <v>0.537117844334756</v>
       </c>
       <c r="AE2" t="n">
-        <v>-3.36117653132688</v>
+        <v>-0.0184935747927761</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0940390905870711</v>
+        <v>-0.0286292274775899</v>
       </c>
       <c r="AG2" t="n">
-        <v>-12.2280216486973</v>
+        <v>-0.042555340699595</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.683749573038183</v>
+        <v>0.0722844981297108</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.35697885013199</v>
+        <v>-0.0165815294012428</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.949176003690943</v>
+        <v>0.0492920405164454</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0745014622899131</v>
+        <v>0.198634331387541</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.14754888152695</v>
+        <v>0.00325304032731621</v>
       </c>
       <c r="AM2" t="n">
-        <v>-5.8290365815386</v>
+        <v>-0.0333508668373656</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.927165569688127</v>
+        <v>0.00259122645409284</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.26377924220885</v>
+        <v>-0.0508972191838937</v>
       </c>
       <c r="AP2" t="n">
-        <v>-6.12996252406644</v>
+        <v>-0.0221616277459013</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-4.67563925779327</v>
+        <v>-0.0122612369811975</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0425189165061974</v>
+        <v>-0.0104743242687327</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.67926225506212</v>
+        <v>-0.0384581448239644</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0666808675917676</v>
+        <v>-0.0298843705216019</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.789243163655744</v>
+        <v>0.0420374059956897</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5.71937471218436</v>
+        <v>-0.0180461291285865</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0535057511818817</v>
+        <v>-0.0275360234595156</v>
       </c>
       <c r="AX2" t="n">
-        <v>-8.10484136388012</v>
+        <v>-0.0406194405775815</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0443352309641465</v>
+        <v>0.00822639821031028</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-7.07258243756703</v>
+        <v>-0.0325849700097741</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.025657477637028</v>
+        <v>0.034990218752481</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.60524044949392</v>
+        <v>0.247459370224661</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0408677181658721</v>
+        <v>-0.0202989308890625</v>
       </c>
       <c r="BD2" t="n">
-        <v>-2.93390248847099</v>
+        <v>-0.0104393555513143</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.463072217393299</v>
+        <v>0.0800261769227684</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.0655376674169503</v>
+        <v>-0.026247960475616</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.784939385125691</v>
+        <v>0.0174359115574923</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0441248064297707</v>
+        <v>-0.0274892123315237</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.731397601709553</v>
+        <v>-0.00222606319170611</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0279688328076943</v>
+        <v>0.0596408288721317</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0530740087056937</v>
+        <v>-0.0267847174933975</v>
       </c>
       <c r="BL2" t="n">
-        <v>-2.64401988714517</v>
+        <v>0.0431845673606645</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.62442222370741</v>
+        <v>-0.0348423998082745</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.2318671360236</v>
+        <v>0.117570916811539</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.619953800556511</v>
+        <v>0.0755422723001842</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.398741877970319</v>
+        <v>0.252056227222909</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0340424582451687</v>
+        <v>0.0684959991384215</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0339955701119492</v>
+        <v>-0.0097519782338748</v>
       </c>
       <c r="BS2" t="n">
-        <v>-6.70978167106161</v>
+        <v>-0.0325391328413627</v>
       </c>
       <c r="BT2" t="n">
-        <v>-4.02717563684582</v>
+        <v>-0.0185478690709974</v>
       </c>
       <c r="BU2" t="n">
-        <v>-9.12829984944025</v>
+        <v>0.0352967892753882</v>
       </c>
       <c r="BV2" t="n">
-        <v>-2.50624530839768</v>
+        <v>-0.00328185218605097</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.48858136832103</v>
+        <v>-0.02495794771192</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.742294914206655</v>
+        <v>0.0503908254677269</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.72223577618707</v>
+        <v>-0.0321747456007316</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.27345287853793</v>
+        <v>0.020341985191447</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0264819711023402</v>
+        <v>0.0121281174252849</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0726125834877807</v>
+        <v>-0.0190811531995358</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0717522175555666</v>
+        <v>0.012014762165778</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0514111765296687</v>
+        <v>0.0312586284306633</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0688850703773983</v>
+        <v>-0.0114316335517313</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0926334560311791</v>
+        <v>-0.0201055239638343</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0484437027807201</v>
+        <v>-0.0274133362523512</v>
       </c>
       <c r="CH2" t="n">
-        <v>-6.44682168040536</v>
+        <v>-0.00616059584212559</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0322814774333212</v>
+        <v>0.000378358669444848</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-9.22199357871898</v>
+        <v>-0.0261859406585862</v>
       </c>
       <c r="CK2" t="n">
-        <v>-7.99425519074686</v>
+        <v>0.0384361110943369</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.31333547846647</v>
+        <v>0.0101757807994141</v>
       </c>
       <c r="CM2" t="n">
-        <v>-2.66825165883238</v>
+        <v>0.0302133423227533</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.259848812603074</v>
+        <v>0.043273097341501</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.301540998373467</v>
+        <v>-0.000308239843769123</v>
       </c>
       <c r="CP2" t="n">
-        <v>-12.7024494509058</v>
+        <v>-0.0294751037208365</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-6.33813558241942</v>
+        <v>-0.0279601148730368</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.219010783402383</v>
+        <v>-0.0287998490974246</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.336208268637156</v>
+        <v>0.0333073377552314</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0472025118954306</v>
+        <v>-0.0182840574546509</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.541312948817243</v>
+        <v>0.0618207224493621</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.110532009348463</v>
+        <v>0.077099135002118</v>
       </c>
       <c r="CW2" t="n">
-        <v>-6.8906602167397</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-0.0260320390369278</v>
-      </c>
+        <v>-0.0243261505545351</v>
+      </c>
+      <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.0248587552318023</v>
+        <v>-0.0210760930192372</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-2.34924439141594</v>
+        <v>-0.0901434607055169</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.00171568813731</v>
+        <v>-0.0379356899044223</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.101006803027449</v>
+        <v>-0.0243097646694827</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.12572102899525</v>
+        <v>-0.0425217200254394</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0196247124296211</v>
+        <v>0.015343686891902</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.41324678303963</v>
+        <v>0.0753756052598429</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.484380103833055</v>
+        <v>0.211702227427572</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0552133336037578</v>
+        <v>-0.0176979744130847</v>
       </c>
       <c r="DH2" t="n">
-        <v>-10.7434259941263</v>
+        <v>-0.0428562689205691</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.87619856689597</v>
+        <v>0.00527576239253697</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.0141700670694</v>
+        <v>0.0179086894152578</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.498635990928563</v>
+        <v>0.440810820881203</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.130440528272326</v>
+        <v>-0.0664288277915819</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.331455714959813</v>
+        <v>0.0312672296169778</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.06620365691028</v>
+        <v>0.00328634497027924</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.42078878053081</v>
+        <v>0.0097588608187666</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.15375798257334</v>
+        <v>0.0676748810022752</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-2.12912548332778</v>
+        <v>-0.0126932638088129</v>
       </c>
       <c r="DR2" t="n">
-        <v>-8.73527846752764</v>
+        <v>-0.0717852266342043</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.351278599403668</v>
+        <v>0.09399566769481</v>
       </c>
       <c r="DT2" t="n">
-        <v>-3.86729537406813</v>
+        <v>0.000440324950352962</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0417002038909097</v>
+        <v>-0.00959214502652555</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.278560397084206</v>
+        <v>0.211931083872688</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.47425755944605</v>
+        <v>0.00698966927774503</v>
       </c>
       <c r="DX2" t="n">
-        <v>-2.74555478647302</v>
+        <v>0.0457213802996941</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0646402447054681</v>
+        <v>-0.0244110725798401</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0628988999261684</v>
+        <v>-0.0263073523121186</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0135536740243688</v>
+        <v>0.022328225150044</v>
       </c>
       <c r="EB2" t="n">
-        <v>-2.65374747642176</v>
+        <v>-0.0482760896735763</v>
       </c>
       <c r="EC2" t="n">
-        <v>-7.88133106587364</v>
+        <v>0.00389709027322483</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.11691606363509</v>
+        <v>0.0382278677326915</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0166972808993579</v>
+        <v>0.029284226006864</v>
       </c>
       <c r="EF2" t="n">
-        <v>-10.8201601130529</v>
+        <v>-0.0336677522775417</v>
       </c>
       <c r="EG2" t="n">
-        <v>-5.30043159875577</v>
+        <v>-0.0254985805717174</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.880873170338513</v>
+        <v>0.00341588990575899</v>
       </c>
       <c r="EI2" t="n">
-        <v>-5.80013212058574</v>
+        <v>0.00765281418824258</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.465513120345631</v>
+        <v>0.0298687705938557</v>
       </c>
       <c r="EK2" t="n">
-        <v>-2.12071588973994</v>
+        <v>-0.014452455069007</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.193411029311134</v>
+        <v>0.0131157552113972</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0340118407879929</v>
+        <v>-0.014246697693739</v>
       </c>
       <c r="EN2" t="n">
-        <v>-5.10292704834401</v>
+        <v>0.0313210828265187</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00790244243363109</v>
+        <v>-0.0121636722971969</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.226459891559181</v>
+        <v>0.0670422132319744</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.1456868349659</v>
+        <v>-0.0133258194162888</v>
       </c>
       <c r="ER2" t="n">
-        <v>-7.44673056917552</v>
+        <v>-0.0331304462334687</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.436318815778852</v>
+        <v>0.0222778979692294</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.177423165185812</v>
+        <v>-0.0267591966669645</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00581044513363282</v>
+        <v>0.129623567061233</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.34638061701617</v>
+        <v>-0.0687495868405355</v>
       </c>
       <c r="EW2" t="n">
-        <v>-12.3691936708085</v>
+        <v>-0.0532728830310121</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.255452970237343</v>
+        <v>0.00694122695741686</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.358793612578591</v>
+        <v>0.142951320214347</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-3.95412346007068</v>
+        <v>-0.0276251243341056</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.105329147263306</v>
+        <v>0.52788933136424</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.56222423502504</v>
+        <v>0.0784487283425759</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00202434904672476</v>
+        <v>1.51232428200762</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.49035032266583</v>
+        <v>-0.0474056836256687</v>
       </c>
       <c r="FE2" t="n">
-        <v>-11.3944640797416</v>
+        <v>-0.0361936093758304</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.94234077861632</v>
+        <v>-0.0356944647685888</v>
       </c>
       <c r="FG2" t="n">
-        <v>-2.53835377228522</v>
+        <v>-0.0346997489452946</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0459932948212894</v>
+        <v>-0.0284690851880447</v>
       </c>
       <c r="FI2" t="n">
-        <v>-2.18551505597557</v>
+        <v>-0.0326205892464622</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-11.2547619251877</v>
+        <v>-0.0769287392827656</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0154678553538454</v>
+        <v>0.196472351986643</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.314610572522988</v>
+        <v>0.752501956827302</v>
       </c>
       <c r="FM2" t="n">
-        <v>-2.23753750035953</v>
+        <v>-0.103990679782369</v>
       </c>
       <c r="FN2" t="n">
-        <v>-1.84373576942289</v>
+        <v>0.0166678338791099</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.45295514439654</v>
+        <v>-0.0149924412386141</v>
       </c>
       <c r="FP2" t="n">
-        <v>-11.1863695774827</v>
+        <v>0.0415957583336105</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.319990478062404</v>
+        <v>0.309208123204581</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.876642594057607</v>
+        <v>-0.0101616030937871</v>
       </c>
       <c r="FS2" t="n">
-        <v>-40.847830743153</v>
+        <v>0.0348167996702475</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.022462277691999</v>
+        <v>0.00976330962730051</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.0353957693849005</v>
+        <v>0.00358341790706187</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.350327020965796</v>
+        <v>0.0215904454294762</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.773234715457311</v>
+        <v>0.0921969937288059</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.506424974542001</v>
+        <v>0.0762211407171674</v>
       </c>
       <c r="FY2" t="n">
-        <v>-3.70357602732534</v>
+        <v>-0.0908908081910868</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-7.4305005802506</v>
+        <v>0.0117296795029961</v>
       </c>
       <c r="GA2" t="n">
-        <v>-4.15946097034454</v>
+        <v>-0.0240244901270319</v>
       </c>
       <c r="GB2" t="n">
-        <v>-3.24239962670932</v>
+        <v>0.114018711878107</v>
       </c>
       <c r="GC2" t="n">
-        <v>-5.34652932008734</v>
+        <v>-0.0196640317950924</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.524521705593389</v>
+        <v>0.0478374169445939</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.21634457840895</v>
+        <v>0.125058608222831</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.312071115990477</v>
+        <v>0.0553216091789613</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.744682626672533</v>
+        <v>0.0127428510925928</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.00476387427631664</v>
+        <v>0.091085403640172</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0574779093312332</v>
+        <v>-0.00285287362883819</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.22166984113777</v>
+        <v>0.0740407368622634</v>
       </c>
       <c r="GK2" t="n">
-        <v>-1.92497356440216</v>
+        <v>-0.085085122294651</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">gain_gdr_over_gdp_2030</t>
+    <t xml:space="preserve">diff_gain_gdr_gcs_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1511,578 +1511,578 @@
         <v>193</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0230277598911715</v>
+        <v>-0.347932490685572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0505453611098448</v>
+        <v>0.0114157131096261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0164700385164991</v>
+        <v>-0.0124568650577008</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0222154481841252</v>
+        <v>-0.0267045576279498</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00389087844877693</v>
+        <v>0.0193658948573209</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0151495160974441</v>
+        <v>0.0252692151324697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0217757437126851</v>
+        <v>0.00649425067464866</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0338141239231971</v>
+        <v>0.00650612905975637</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0027552299890548</v>
+        <v>-0.0128474352562139</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0265923301790839</v>
+        <v>-0.0232625313316475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0146150513679683</v>
+        <v>0.0273832087811205</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0818491549973272</v>
+        <v>-1.25534253550951</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0457880392258976</v>
+        <v>-0.0251305959969409</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0179308056047765</v>
+        <v>-0.170317242522937</v>
       </c>
       <c r="P2" t="n">
-        <v>0.148429385491883</v>
+        <v>-0.236362836930315</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000395728377816614</v>
+        <v>-0.142180493016431</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00965774729802727</v>
+        <v>0.0810321911066225</v>
       </c>
       <c r="S2" t="n">
-        <v>0.106158443256521</v>
+        <v>0.164412787675198</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0408879639695589</v>
+        <v>-0.024326048606191</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00993537038130424</v>
+        <v>0.0742270932578576</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.00890472775503848</v>
+        <v>0.0653355470926057</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00934955003445266</v>
+        <v>0.00944121805210727</v>
       </c>
       <c r="X2" t="n">
-        <v>0.126382409746491</v>
+        <v>0.141240297013937</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00547655796018494</v>
+        <v>-0.00642993304565753</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0326935290322097</v>
+        <v>0.0811977440606122</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0315881520110936</v>
+        <v>0.0137684002711549</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0133729856212313</v>
+        <v>-0.00930387774272676</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.019335611491863</v>
+        <v>0.0324824521876734</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.537117844334756</v>
+        <v>-0.241109351750089</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0184935747927761</v>
+        <v>-0.0169024103177524</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0286292274775899</v>
+        <v>-0.0360092959597458</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.042555340699595</v>
+        <v>-0.00834304003065472</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0722844981297108</v>
+        <v>0.0981231781075157</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0165815294012428</v>
+        <v>-0.0980943765651496</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0492920405164454</v>
+        <v>-0.112550358779249</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.198634331387541</v>
+        <v>-0.472005811245795</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00325304032731621</v>
+        <v>0.0493247069301003</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0333508668373656</v>
+        <v>-0.0253965502302999</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00259122645409284</v>
+        <v>-0.19621867145048</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.0508972191838937</v>
+        <v>-0.0843987036346166</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0221616277459013</v>
+        <v>-0.0145030463202139</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0122612369811975</v>
+        <v>0.00142041804506228</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0104743242687327</v>
+        <v>0.000587471777161275</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0384581448239644</v>
+        <v>0.0217364600491286</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0298843705216019</v>
+        <v>-0.0247074196667832</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0420374059956897</v>
+        <v>-0.0658240770295521</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0180461291285865</v>
+        <v>-0.00750148077046193</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0275360234595156</v>
+        <v>-0.0388371729756871</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0406194405775815</v>
+        <v>-0.0128046495219645</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00822639821031028</v>
+        <v>0.0632097721215348</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0325849700097741</v>
+        <v>-0.00717622278689064</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.034990218752481</v>
+        <v>0.0209016443799029</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.247459370224661</v>
+        <v>-0.209412165106476</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0202989308890625</v>
+        <v>-0.0160998004814225</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0104393555513143</v>
+        <v>0.0590879609478048</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0800261769227684</v>
+        <v>-0.349474892591892</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.026247960475616</v>
+        <v>-0.0229198993636719</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0174359115574923</v>
+        <v>-0.0144244742258113</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0274892123315237</v>
+        <v>-0.0270019361116305</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.00222606319170611</v>
+        <v>-0.0830621513762115</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0596408288721317</v>
+        <v>0.0414996471781456</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0267847174933975</v>
+        <v>-0.0234139848091666</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0431845673606645</v>
+        <v>0.0681836138354799</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0348423998082745</v>
+        <v>-0.127425016747098</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.117570916811539</v>
+        <v>-0.114337483938242</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0755422723001842</v>
+        <v>-0.36713484221684</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.252056227222909</v>
+        <v>-0.288997736006966</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0684959991384215</v>
+        <v>0.0848179880163061</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0097519782338748</v>
+        <v>-0.00362180772965345</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.0325391328413627</v>
+        <v>-0.0157027840864144</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0185478690709974</v>
+        <v>-0.0394041325843341</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0352967892753882</v>
+        <v>0.0907741195620599</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00328185218605097</v>
+        <v>-0.0857240273445774</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.02495794771192</v>
+        <v>0.00628890324246236</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0503908254677269</v>
+        <v>-0.184695154789878</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0321747456007316</v>
+        <v>0.00864876164613693</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.020341985191447</v>
+        <v>0.00146222565243276</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0121281174252849</v>
+        <v>-0.0374629567078114</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0190811531995358</v>
+        <v>-0.0406452390674891</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.012014762165778</v>
+        <v>0.146892734872121</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0312586284306633</v>
+        <v>0.0941312834974652</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0114316335517313</v>
+        <v>-0.010480873656399</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0201055239638343</v>
+        <v>-0.00662437091527261</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0274133362523512</v>
+        <v>-0.024296936258873</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.00616059584212559</v>
+        <v>0.0226431513372867</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.000378358669444848</v>
+        <v>0.000535430712759032</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0261859406585862</v>
+        <v>-0.0346734507985617</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0384361110943369</v>
+        <v>0.115860782209625</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0101757807994141</v>
+        <v>-0.120486021109312</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0302133423227533</v>
+        <v>-0.0272088083837883</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.043273097341501</v>
+        <v>-0.101516849130799</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.000308239843769123</v>
+        <v>-0.230778769149097</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.0294751037208365</v>
+        <v>0.000619402701444899</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0279601148730368</v>
+        <v>0.0131423805282381</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.0287998490974246</v>
+        <v>0.00484617393009797</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0333073377552314</v>
+        <v>-0.0155063073170122</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0182840574546509</v>
+        <v>0.00486572633978687</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0618207224493621</v>
+        <v>-0.440421584541448</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.077099135002118</v>
+        <v>0.209860079501229</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0243261505545351</v>
+        <v>-0.00689880199247666</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>-0.0210760930192372</v>
+        <v>-0.0428134161035951</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0901434607055169</v>
+        <v>-0.161932637417537</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0379356899044223</v>
+        <v>0.0083324354400043</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0243097646694827</v>
+        <v>-0.0456614303041297</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0425217200254394</v>
+        <v>0.00139843786107778</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.015343686891902</v>
+        <v>-0.0318535190332921</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0753756052598429</v>
+        <v>0.0532383139300635</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.211702227427572</v>
+        <v>-0.477777699095296</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.0176979744130847</v>
+        <v>-0.000252941234870924</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.0428562689205691</v>
+        <v>-0.000189475594279636</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00527576239253697</v>
+        <v>0.0184457079372827</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0179086894152578</v>
+        <v>0.0454236839269412</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.440810820881203</v>
+        <v>0.0752860081813982</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0664288277915819</v>
+        <v>-0.0208891329477218</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0312672296169778</v>
+        <v>-0.205247517738343</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00328634497027924</v>
+        <v>0.037990026101432</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0097588608187666</v>
+        <v>0.278696039507704</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0676748810022752</v>
+        <v>-0.30896042547602</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0126932638088129</v>
+        <v>-0.0633109616229129</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0717852266342043</v>
+        <v>0.0279410199864189</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.09399566769481</v>
+        <v>-0.766804653205959</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.000440324950352962</v>
+        <v>0.0627989265478746</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.00959214502652555</v>
+        <v>-0.00602416495250339</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.211931083872688</v>
+        <v>-0.353952031739101</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00698966927774503</v>
+        <v>-0.0528310111125126</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0457213802996941</v>
+        <v>-0.0428806157612723</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0244110725798401</v>
+        <v>-0.0281626761561373</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0263073523121186</v>
+        <v>-0.0478233261989965</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.022328225150044</v>
+        <v>-0.173453749283452</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0482760896735763</v>
+        <v>0.000274471006870922</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00389709027322483</v>
+        <v>-0.00067432868623436</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0382278677326915</v>
+        <v>0.107044733097566</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.029284226006864</v>
+        <v>-0.0785738934507016</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0336677522775417</v>
+        <v>-0.00740846792317005</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0254985805717174</v>
+        <v>-0.0186521644587316</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00341588990575899</v>
+        <v>-0.0459909476580237</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00765281418824258</v>
+        <v>0.109658779013322</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0298687705938557</v>
+        <v>-0.0776346799065359</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.014452455069007</v>
+        <v>0.0371465085762858</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0131157552113972</v>
+        <v>-0.259554925930619</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.014246697693739</v>
+        <v>-0.010589567703765</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0313210828265187</v>
+        <v>0.0424142132889541</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0121636722971969</v>
+        <v>-0.0962314152748592</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0670422132319744</v>
+        <v>0.0543046807675358</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0133258194162888</v>
+        <v>0.0187089297698419</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.0331304462334687</v>
+        <v>0.0534961634074628</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0222778979692294</v>
+        <v>-0.37109662379063</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.0267591966669645</v>
+        <v>0.06923933030119</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.129623567061233</v>
+        <v>-0.0126812557335247</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.0687495868405355</v>
+        <v>-0.111641548720515</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0532728830310121</v>
+        <v>-0.0256341495153405</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.00694122695741686</v>
+        <v>-0.139770038165529</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.142951320214347</v>
+        <v>-0.424874848880786</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0276251243341056</v>
+        <v>-0.0495878362169121</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.52788933136424</v>
+        <v>-0.239590615830039</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0784487283425759</v>
+        <v>0.156308020637407</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.51232428200762</v>
+        <v>0.817143463254654</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0474056836256687</v>
+        <v>-0.166351207227322</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0361936093758304</v>
+        <v>0.026309648787192</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0356944647685888</v>
+        <v>0.00591892378554352</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.0346997489452946</v>
+        <v>-0.00425482134701402</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0284690851880447</v>
+        <v>-0.0343560570280886</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.0326205892464622</v>
+        <v>-0.0433752212001985</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0769287392827656</v>
+        <v>0.00803175535029601</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.196472351986643</v>
+        <v>-0.0843862771561721</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.752501956827302</v>
+        <v>0.292592725782815</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.103990679782369</v>
+        <v>-0.251880285075034</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0166678338791099</v>
+        <v>0.0361450601138833</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0149924412386141</v>
+        <v>-0.168078616628223</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0415957583336105</v>
+        <v>0.170526971796748</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.309208123204581</v>
+        <v>0.0991668526090799</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0101616030937871</v>
+        <v>-0.0424109232281942</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0348167996702475</v>
+        <v>0.208520849794969</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00976330962730051</v>
+        <v>-0.0169162466246798</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00358341790706187</v>
+        <v>0.0113694957758167</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0215904454294762</v>
+        <v>-0.0379458470969155</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0921969937288059</v>
+        <v>-0.162459353316771</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0762211407171674</v>
+        <v>-0.247411307623925</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.0908908081910868</v>
+        <v>0.080640829521529</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0117296795029961</v>
+        <v>0.0379873391390971</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0240244901270319</v>
+        <v>-0.0393502176552741</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.114018711878107</v>
+        <v>0.123983437172471</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.0196640317950924</v>
+        <v>-0.0105465576171231</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0478374169445939</v>
+        <v>-0.0426716732988977</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.125058608222831</v>
+        <v>0.0510797196433357</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0553216091789613</v>
+        <v>-0.0424417289061</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0127428510925928</v>
+        <v>-0.0286380753361947</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.091085403640172</v>
+        <v>-0.382388366860091</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.00285287362883819</v>
+        <v>0.0636163292641694</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.0740407368622634</v>
+        <v>-0.0805284418321706</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.085085122294651</v>
+        <v>-0.163901614327682</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">diff_gain_gdr_gcs_over_gdp_2030</t>
+    <t xml:space="preserve">gain_adj_2080</t>
   </si>
 </sst>
 </file>
@@ -1511,578 +1511,578 @@
         <v>193</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.347932490685572</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0114157131096261</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0124568650577008</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0267045576279498</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0193658948573209</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0252692151324697</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00649425067464866</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00650612905975637</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0128474352562139</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0232625313316475</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0273832087811205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.25534253550951</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0251305959969409</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.170317242522937</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.236362836930315</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.142180493016431</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0810321911066225</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.164412787675198</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.024326048606191</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0742270932578576</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0653355470926057</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00944121805210727</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.141240297013937</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00642993304565753</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0811977440606122</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0137684002711549</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.00930387774272676</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0324824521876734</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.241109351750089</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0169024103177524</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0360092959597458</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.00834304003065472</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0981231781075157</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0980943765651496</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.112550358779249</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.472005811245795</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0493247069301003</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0253965502302999</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19621867145048</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.0843987036346166</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0145030463202139</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00142041804506228</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.000587471777161275</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0217364600491286</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0247074196667832</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0658240770295521</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00750148077046193</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0388371729756871</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0128046495219645</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0632097721215348</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00717622278689064</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0209016443799029</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.209412165106476</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0160998004814225</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0590879609478048</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.349474892591892</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.0229198993636719</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0144244742258113</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0270019361116305</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.0830621513762115</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0414996471781456</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0234139848091666</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0681836138354799</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.127425016747098</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.114337483938242</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.36713484221684</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.288997736006966</v>
+        <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0848179880163061</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.00362180772965345</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.0157027840864144</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0394041325843341</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0907741195620599</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0857240273445774</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00628890324246236</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.184695154789878</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.00864876164613693</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00146222565243276</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0374629567078114</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0406452390674891</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.146892734872121</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0941312834974652</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.010480873656399</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00662437091527261</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.024296936258873</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0226431513372867</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.000535430712759032</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0346734507985617</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.115860782209625</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.120486021109312</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0272088083837883</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.101516849130799</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.230778769149097</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.000619402701444899</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0131423805282381</v>
+        <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00484617393009797</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0155063073170122</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.00486572633978687</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.440421584541448</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.209860079501229</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.00689880199247666</v>
+        <v>0</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>-0.0428134161035951</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.161932637417537</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0083324354400043</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0456614303041297</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00139843786107778</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.0318535190332921</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0532383139300635</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.477777699095296</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.000252941234870924</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000189475594279636</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0184457079372827</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0454236839269412</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0752860081813982</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0208891329477218</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.205247517738343</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.037990026101432</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.278696039507704</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.30896042547602</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0633109616229129</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0279410199864189</v>
+        <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.766804653205959</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0627989265478746</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.00602416495250339</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.353952031739101</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0528310111125126</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.0428806157612723</v>
+        <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0281626761561373</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0478233261989965</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.173453749283452</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.000274471006870922</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00067432868623436</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.107044733097566</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0785738934507016</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00740846792317005</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0186521644587316</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0459909476580237</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.109658779013322</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0776346799065359</v>
+        <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0371465085762858</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.259554925930619</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.010589567703765</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0424142132889541</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0962314152748592</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0543046807675358</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0187089297698419</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0534961634074628</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.37109662379063</v>
+        <v>0</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.06923933030119</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0126812557335247</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.111641548720515</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0256341495153405</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.139770038165529</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.424874848880786</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0495878362169121</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.239590615830039</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.156308020637407</v>
+        <v>0</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.817143463254654</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.166351207227322</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.026309648787192</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00591892378554352</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00425482134701402</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0343560570280886</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.0433752212001985</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00803175535029601</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.0843862771561721</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.292592725782815</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.251880285075034</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0361450601138833</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.168078616628223</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.170526971796748</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0991668526090799</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0424109232281942</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.208520849794969</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0169162466246798</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0113694957758167</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.0379458470969155</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.162459353316771</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.247411307623925</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.080640829521529</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0379873391390971</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0393502176552741</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.123983437172471</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.0105465576171231</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.0426716732988977</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0510797196433357</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0424417289061</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.0286380753361947</v>
+        <v>0</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.382388366860091</v>
+        <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.0636163292641694</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.0805284418321706</v>
+        <v>0</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.163901614327682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
   </si>
   <si>
     <t xml:space="preserve">A maximum wealth limit of $10 billion
@@ -458,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199541385518588</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235407197992704</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.360022360990976</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.263509714054735</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.337874186541836</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.615258955195884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -481,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0570432872770611</v>
+        <v>0.199541385518588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.146714122769711</v>
+        <v>0.235407197992704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204610110362681</v>
+        <v>0.360022360990976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.10849487286792</v>
+        <v>0.263509714054735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.199799135689725</v>
+        <v>0.337874186541836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.483956303867612</v>
+        <v>0.615258955195884</v>
       </c>
     </row>
     <row r="6">
@@ -504,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0575260463918615</v>
+        <v>0.0570432872770611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128434426580614</v>
+        <v>0.146714122769711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206406954597061</v>
+        <v>0.204610110362681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0639947015928308</v>
+        <v>0.10849487286792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.153454882094592</v>
+        <v>0.199799135689725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.373485958136766</v>
+        <v>0.483956303867612</v>
       </c>
     </row>
     <row r="7">
@@ -527,21 +530,44 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0575260463918615</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.128434426580614</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.206406954597061</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.0639947015928308</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.153454882094592</v>
       </c>
       <c r="G7" t="n">
+        <v>0.373485958136766</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -424,13 +424,13 @@
         <v>0.289858651736075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.284918716072511</v>
+        <v>0.262335089669612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.479548458268599</v>
+        <v>0.46614910275994</v>
       </c>
       <c r="G2" t="n">
-        <v>0.746468637584983</v>
+        <v>0.741156055217005</v>
       </c>
     </row>
     <row r="3">

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,50 +12,588 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe PNR/Non-voter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. PNR/Non-voter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (country)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npv_over_gdp_gcs</t>
   </si>
 </sst>
 </file>
@@ -409,166 +947,1142 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="B2" t="n">
-        <v>0.153621490337775</v>
+        <v>0.121189335156492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.277163614268964</v>
+        <v>0.0145019117332055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289858651736075</v>
+        <v>0.0287523665707756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.262335089669612</v>
+        <v>-0.000519773008393147</v>
       </c>
       <c r="F2" t="n">
-        <v>0.46614910275994</v>
+        <v>-0.0259283445970471</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741156055217005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0576635085621428</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.13161303175407</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19642586372266</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.129103144020014</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.219591613208015</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.498473088377177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.199541385518588</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.235407197992704</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.360022360990976</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.263509714054735</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.337874186541836</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.615258955195884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0570432872770611</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.146714122769711</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.204610110362681</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.10849487286792</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.199799135689725</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.483956303867612</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0575260463918615</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.128434426580614</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.206406954597061</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0639947015928308</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.153454882094592</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.373485958136766</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.00547775432937353</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0175763488258466</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00985458947296776</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00311068054807518</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.00495629916477243</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.00621298051088541</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.377530405559316</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.0151781864974638</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0407773560513515</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.110395767538989</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.037898079727255</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.00058659348707256</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.0305828140754081</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.00773761024313913</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.00532850890917096</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.0063937672562995</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.00965085363848333</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0114982721617372</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.00512699611860998</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.00482299185498826</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.0408065864233756</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.00196090509905458</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.02759444370177</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.260207280943768</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.0106155036454724</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.00524688854868144</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.0110227858765858</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.0159888053943722</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0226782768279405</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0478046254133573</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.200977745149244</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.012021045841265</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.00543224360977349</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0551264381035253</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00917965108084856</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.00222155694757417</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.00897598142308125</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.00100724461683787</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.00947935277023841</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.00532793719444651</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0312847275882042</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.00483312749872102</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.0021852164222995</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.00407473714010784</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.02849774423386</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.000568325313968199</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.000157698475666766</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.125407154414162</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.000306028660926927</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.0110123849637776</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.12088737901551</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-0.00469619400632049</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0207181056981311</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-0.00115760614302405</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0416729641228759</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-0.00288153144868681</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-0.00244370723038048</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0113899293908402</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0236461704404642</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0650571141783785</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.129650057919225</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.152592908370681</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.00879262770940464</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.00248465723738431</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.000607076079571048</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0181462237064841</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-0.00945925528228319</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.0488231988186379</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-0.000571488876458269</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.11670997375531</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-0.00309984188181155</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.015782211271222</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.00435480552112566</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-0.00360265811075591</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-0.0608497180409308</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-0.034127588908749</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-0.00415768686097507</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.011150981397445</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-0.0022516108483528</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00439892888194144</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-0.0100875046517103</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.000225545383251565</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.0130691869670754</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0367647797905781</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0357583923126324</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0458108198909905</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.11514679799531</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>-0.0076228211054807</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>-0.0191480445637599</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-0.0519461876735294</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.00962101256728473</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.0167566479014084</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.138838788704549</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.0601670783976712</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.000403283135021996</v>
+      </c>
+      <c r="CX2"/>
+      <c r="CY2" t="n">
+        <v>0.0035949927647434</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.0154926131619242</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>-0.0051184202629618</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>-0.00480221430397737</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.00647594921145967</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.0134845204280304</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0291688426336754</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.193470652285685</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.00884944407662273</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.0104956875560607</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.00389353069515429</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.011606961254092</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.107639213347736</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-0.026697096893014</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.114893444946162</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.00672948847854012</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.129814792626814</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.103700846588697</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.0140087751289058</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.0241002846986656</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.243663185152711</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-0.0241061416522039</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>-0.0233968545023881</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.167704410827243</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.0197175990098259</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0586682727223289</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>-0.00439688720347449</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-0.0025960094694528</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.0508380738475239</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>-0.0159211459789812</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00125735007009989</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0339090293557681</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.024941040431187</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-0.00732325150946678</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.00694090796694403</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.0291262054943977</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-0.0351689240684816</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0569952853110227</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>-0.00680158767135896</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.173054674452515</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.00208812241297465</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.00761156544254792</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.0323733040040691</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-0.0239854702914227</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.00344748788358049</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-0.0133182678758549</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.110446775302903</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-0.0535444621093533</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.0579707741362778</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.00968590694194422</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-0.0233968591338997</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0730583003603013</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.159582610949069</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.0211909522406432</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.231354074413037</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-0.00286896275215855</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.294891809143361</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.0303471991878783</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>-0.0149084963741827</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>-0.00428763750563606</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-0.00694247723630342</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>-0.00111189905989017</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.00683930095802552</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-0.0220077993215606</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.0862180209849197</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.137612449161286</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.0262968896960361</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>-0.0000736294865169034</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.0720249475522167</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-0.0351768665879904</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.110529188374932</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.0211495865439074</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-0.0641671192678034</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.00676142073863808</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.00234331121692997</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.0382876956428679</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.0737628389523396</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.0971590266696158</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.00748520777810155</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-0.000617619623534901</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-0.0115278745974403</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.00829223632618073</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.00574294758377899</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.0488818256378786</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.0295889554114286</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.0546521086613805</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.0242013013960134</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.180630683890819</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-0.0342823697743033</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.0448243843008106</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.0247748866340463</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -593,7 +593,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs</t>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1510,579 +1510,523 @@
       <c r="A2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.121189335156492</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.0145019117332055</v>
+        <v>0.00625623331624981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0287523665707756</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.000519773008393147</v>
-      </c>
+        <v>0.0113688754550801</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>-0.0259283445970471</v>
+        <v>-0.0142103657617632</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00547775432937353</v>
+        <v>-0.0000795077406562624</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0175763488258466</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.00985458947296776</v>
-      </c>
+        <v>0.00149494284273702</v>
+      </c>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>-0.00311068054807518</v>
+        <v>-0.00928873088421666</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00495629916477243</v>
+        <v>-0.00391914610320059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00621298051088541</v>
+        <v>0.000723826971890996</v>
       </c>
       <c r="M2" t="n">
-        <v>0.377530405559316</v>
+        <v>0.108831231286842</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0151781864974638</v>
+        <v>-0.0109755178977342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0407773560513515</v>
+        <v>0.0165134083666861</v>
       </c>
       <c r="P2" t="n">
-        <v>0.110395767538989</v>
+        <v>0.0353088645239577</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.037898079727255</v>
+        <v>0.0186927240189897</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00058659348707256</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.0305828140754081</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.00773761024313913</v>
-      </c>
+        <v>0.000128482487601098</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
       <c r="U2" t="n">
-        <v>-0.00532850890917096</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0063937672562995</v>
+        <v>0.000275614413520347</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00965085363848333</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0114982721617372</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00512699611860998</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.00482299185498826</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.0408065864233756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
       <c r="AB2" t="n">
-        <v>0.00196090509905458</v>
+        <v>0.00461945560796194</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.02759444370177</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.260207280943768</v>
+        <v>0.0833378841882594</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0106155036454724</v>
+        <v>-0.00787297341612567</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00524688854868144</v>
+        <v>-0.00578618279320101</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0110227858765858</v>
+        <v>-0.00632706246475336</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0159888053943722</v>
+        <v>-0.000000543104684142521</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0226782768279405</v>
+        <v>0.0108777761954946</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0478046254133573</v>
+        <v>0.0186466005655045</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.200977745149244</v>
+        <v>0.0968582570588457</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.012021045841265</v>
+        <v>0.00231544377130536</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00543224360977349</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0551264381035253</v>
+        <v>0.0225181098194215</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00917965108084856</v>
+        <v>0.00727926108019512</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00222155694757417</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.00897598142308125</v>
-      </c>
+        <v>-0.000075502994099762</v>
+      </c>
+      <c r="AQ2"/>
       <c r="AR2" t="n">
-        <v>-0.00100724461683787</v>
+        <v>-0.00112716588670504</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00947935277023841</v>
+        <v>-0.00432500976980534</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00532793719444651</v>
+        <v>-0.00408451045874466</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0312847275882042</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.00483312749872102</v>
-      </c>
+        <v>0.0185074177376034</v>
+      </c>
+      <c r="AV2"/>
       <c r="AW2" t="n">
-        <v>-0.0021852164222995</v>
+        <v>-0.00226964326085289</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.00407473714010784</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.02849774423386</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000568325313968199</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.000157698475666766</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.125407154414162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BB2"/>
       <c r="BC2" t="n">
-        <v>-0.000306028660926927</v>
+        <v>-0.000864073390419775</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0110123849637776</v>
+        <v>-0.00332848675216262</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.12088737901551</v>
+        <v>0.0488417984785853</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00469619400632049</v>
+        <v>-0.00408550023558737</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0207181056981311</v>
+        <v>0.00523247503135597</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00115760614302405</v>
+        <v>-0.00143692096190799</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0416729641228759</v>
+        <v>0.0218883803792439</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.00288153144868681</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00244370723038048</v>
+        <v>-0.00239984015207708</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0113899293908402</v>
+        <v>0.00036535388479317</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0236461704404642</v>
+        <v>0.0111058819833255</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0650571141783785</v>
+        <v>0.0244115692559997</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.129650057919225</v>
+        <v>0.041170497336257</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.152592908370681</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.00879262770940464</v>
-      </c>
+        <v>0.046949987280581</v>
+      </c>
+      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.00248465723738431</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.000607076079571048</v>
-      </c>
+        <v>0.000603938238965874</v>
+      </c>
+      <c r="BS2"/>
       <c r="BT2" t="n">
-        <v>0.0181462237064841</v>
+        <v>0.0012093382977305</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00945925528228319</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0488231988186379</v>
+        <v>0.00672170717563146</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.000571488876458269</v>
+        <v>0.0000489411098548662</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.11670997375531</v>
+        <v>0.0288798186166176</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00309984188181155</v>
+        <v>-0.000360374123331775</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.015782211271222</v>
+        <v>0.00252125577699563</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00435480552112566</v>
+        <v>0.00762103578801099</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00360265811075591</v>
+        <v>-0.0030172172178801</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.0608497180409308</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.034127588908749</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00415768686097507</v>
+        <v>-0.00405861097680639</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.011150981397445</v>
+        <v>-0.0107226075508676</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0022516108483528</v>
+        <v>-0.00158026654772721</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00439892888194144</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0100875046517103</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.000225545383251565</v>
+        <v>-0.0035450986782388</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0130691869670754</v>
+        <v>-0.00380589990821506</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0367647797905781</v>
+        <v>0.0146858490942369</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0357583923126324</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.0458108198909905</v>
-      </c>
+        <v>0.000956504245238858</v>
+      </c>
+      <c r="CN2"/>
       <c r="CO2" t="n">
-        <v>0.11514679799531</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-0.0076228211054807</v>
-      </c>
+        <v>0.0513496528493809</v>
+      </c>
+      <c r="CP2"/>
       <c r="CQ2" t="n">
-        <v>-0.0191480445637599</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>-0.0519461876735294</v>
-      </c>
+        <v>-0.0109236084539788</v>
+      </c>
+      <c r="CR2"/>
       <c r="CS2" t="n">
-        <v>0.00962101256728473</v>
+        <v>0.000215958440226085</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0167566479014084</v>
+        <v>-0.00166674918335609</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.138838788704549</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>-0.0601670783976712</v>
-      </c>
+        <v>0.0532234126341198</v>
+      </c>
+      <c r="CV2"/>
       <c r="CW2" t="n">
-        <v>0.000403283135021996</v>
+        <v>0</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.0035949927647434</v>
+        <v>0.00438297345345337</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0154926131619242</v>
+        <v>0.0122219163813007</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0051184202629618</v>
+        <v>-0.00157008230232639</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00480221430397737</v>
+        <v>-0.00397012290092794</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00647594921145967</v>
+        <v>-0.000453277849925829</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0134845204280304</v>
+        <v>0.000459837160818329</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0291688426336754</v>
+        <v>0.00373486560954123</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.193470652285685</v>
+        <v>0.0560941196473134</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00884944407662273</v>
+        <v>-0.000408818742383707</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.0104956875560607</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00389353069515429</v>
+        <v>0.000303495586152594</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.011606961254092</v>
+        <v>0.00439571081736944</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.107639213347736</v>
+        <v>0.0343917767044916</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.026697096893014</v>
+        <v>-0.0131678684487853</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.114893444946162</v>
+        <v>0.026190701198758</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00672948847854012</v>
+        <v>0.00280613510605424</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.129814792626814</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.103700846588697</v>
+        <v>0.049268974396628</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0140087751289058</v>
+        <v>0.00687921789036621</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0241002846986656</v>
+        <v>-0.00379391113787823</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.243663185152711</v>
+        <v>0.0567395839872629</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0241061416522039</v>
+        <v>-0.00581356785342188</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.0233968545023881</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.167704410827243</v>
+        <v>0.0648836323992118</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0197175990098259</v>
+        <v>0.0101856616549739</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0586682727223289</v>
+        <v>0.0062916132478247</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00439688720347449</v>
+        <v>-0.00357691344743982</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0025960094694528</v>
+        <v>-0.00294880447399388</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0508380738475239</v>
+        <v>0.0301314987663587</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0159211459789812</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.00125735007009989</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-0.0339090293557681</v>
-      </c>
+        <v>0.0000530213634363979</v>
+      </c>
+      <c r="EC2"/>
+      <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>0.024941040431187</v>
+        <v>0.0126039544865142</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00732325150946678</v>
+        <v>-0.0121453057457476</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00694090796694403</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0291262054943977</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>-0.0351689240684816</v>
-      </c>
+        <v>0.007213663141951</v>
+      </c>
+      <c r="EI2"/>
       <c r="EJ2" t="n">
-        <v>0.0569952853110227</v>
+        <v>0.0295022478771715</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00680158767135896</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.173054674452515</v>
-      </c>
+        <v>-0.000534719500168939</v>
+      </c>
+      <c r="EL2"/>
       <c r="EM2" t="n">
-        <v>0.00208812241297465</v>
+        <v>0.000471613396198588</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00761156544254792</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0323733040040691</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>-0.0239854702914227</v>
-      </c>
+        <v>0.0064842280303975</v>
+      </c>
+      <c r="EP2"/>
       <c r="EQ2" t="n">
-        <v>0.00344748788358049</v>
+        <v>0.00142829533970627</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.0133182678758549</v>
+        <v>-0.00527821149389981</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.110446775302903</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-0.0535444621093533</v>
-      </c>
+        <v>0.045516832176355</v>
+      </c>
+      <c r="ET2"/>
       <c r="EU2" t="n">
-        <v>0.0579707741362778</v>
+        <v>0.00979775412073997</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00968590694194422</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-0.0233968591338997</v>
-      </c>
+        <v>0.00824140429107606</v>
+      </c>
+      <c r="EW2"/>
       <c r="EX2" t="n">
-        <v>0.0730583003603013</v>
+        <v>0.0398152543510677</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.159582610949069</v>
+        <v>0.056029510862748</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0211909522406432</v>
+        <v>0.00150117195734675</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.231354074413037</v>
+        <v>0.0819989762738425</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.00286896275215855</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.294891809143361</v>
-      </c>
+        <v>0.0000173717278671605</v>
+      </c>
+      <c r="FC2"/>
       <c r="FD2" t="n">
-        <v>0.0303471991878783</v>
+        <v>0.0136751209708775</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0149084963741827</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.00428763750563606</v>
+        <v>-0.000440571061447596</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00694247723630342</v>
+        <v>-0.00334263951999997</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.00111189905989017</v>
+        <v>-0.0015070765105384</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00683930095802552</v>
+        <v>0.00467520640046549</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0220077993215606</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.0862180209849197</v>
-      </c>
+        <v>-0.00955569903931477</v>
+      </c>
+      <c r="FK2"/>
       <c r="FL2" t="n">
-        <v>0.137612449161286</v>
+        <v>0.0509645464754691</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0262968896960361</v>
+        <v>0.0146787040619018</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.0000736294865169034</v>
+        <v>0.000132518725329791</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0720249475522167</v>
+        <v>0.0124263413423956</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.0351768665879904</v>
+        <v>0.00122686246789261</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.110529188374932</v>
+        <v>0.0329391782734003</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0211495865439074</v>
+        <v>0.00997404765530456</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.0641671192678034</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00676142073863808</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00234331121692997</v>
+        <v>0.00023576526318133</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0382876956428679</v>
+        <v>0.0298172377455762</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0737628389523396</v>
+        <v>0.0280704909826518</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0971590266696158</v>
+        <v>0.0356216547638779</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00748520777810155</v>
+        <v>0.00043765594785198</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.000617619623534901</v>
+        <v>-0.00160620131632057</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0115278745974403</v>
+        <v>-0.00869202877891722</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00829223632618073</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.00574294758377899</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.0488818256378786</v>
-      </c>
+        <v>0.00145562362204564</v>
+      </c>
+      <c r="GC2"/>
+      <c r="GD2"/>
       <c r="GE2" t="n">
-        <v>0.0295889554114286</v>
+        <v>0.00324106672915392</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0546521086613805</v>
+        <v>0.0314257243630696</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0242013013960134</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.180630683890819</v>
-      </c>
+        <v>0.011140824636242</v>
+      </c>
+      <c r="GH2"/>
       <c r="GI2" t="n">
-        <v>-0.0342823697743033</v>
+        <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.0448243843008106</v>
+        <v>0.0173366980360881</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0247748866340463</v>
+        <v>0.0189384014634763</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -1510,218 +1510,242 @@
       <c r="A2" t="s">
         <v>193</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.108887140444102</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.00625623331624981</v>
+        <v>0.0110037200275776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0113688754550801</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0247722041692448</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.00208408490165956</v>
+      </c>
       <c r="F2" t="n">
-        <v>-0.0142103657617632</v>
+        <v>-0.0262957510980746</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0000795077406562624</v>
+        <v>0.000255248017093437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00149494284273702</v>
-      </c>
-      <c r="I2"/>
+        <v>0.0146274963530393</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00952418752944953</v>
+      </c>
       <c r="J2" t="n">
-        <v>-0.00928873088421666</v>
+        <v>-0.00525449072947456</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00391914610320059</v>
+        <v>-0.00554537937860059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000723826971890996</v>
+        <v>0.00373739240756085</v>
       </c>
       <c r="M2" t="n">
-        <v>0.108831231286842</v>
+        <v>0.343442068257327</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0109755178977342</v>
+        <v>-0.0158046281183817</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0165134083666861</v>
+        <v>0.0329350095447564</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0353088645239577</v>
+        <v>0.0974198940777267</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0186927240189897</v>
+        <v>0.0337657519077931</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000128482487601098</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0.00166723414742693</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.0309891254547789</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.00888657713454943</v>
+      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.0017610414146476</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000275614413520347</v>
+        <v>0.000423852987262193</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.00686586432735748</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.00823296412303885</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
+        <v>0.00356117720613319</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.00468063008087869</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.0414575793033487</v>
+      </c>
       <c r="AB2" t="n">
-        <v>0.00461945560796194</v>
+        <v>0.00570262228263466</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0833378841882594</v>
+        <v>0.237095759943111</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00787297341612567</v>
+        <v>-0.0114834960364887</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00578618279320101</v>
+        <v>-0.00556052519036778</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.00632706246475336</v>
+        <v>-0.00321498607627463</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.000000543104684142521</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0108777761954946</v>
+        <v>0.0186761549707129</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0186466005655045</v>
+        <v>0.0414741265533555</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0968582570588457</v>
+        <v>0.183420517518215</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00231544377130536</v>
+        <v>0.000648585276686194</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>0.00423475216064677</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0225181098194215</v>
+        <v>0.048070706305962</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00727926108019512</v>
+        <v>0.00608680265552369</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.000075502994099762</v>
-      </c>
-      <c r="AQ2"/>
+        <v>0.00196742003781327</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.00674238718449077</v>
+      </c>
       <c r="AR2" t="n">
-        <v>-0.00112716588670504</v>
+        <v>-0.00249298808663389</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00432500976980534</v>
+        <v>-0.0104473766066253</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00408451045874466</v>
+        <v>-0.0059639251093458</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0185074177376034</v>
-      </c>
-      <c r="AV2"/>
+        <v>0.027593519197459</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.00359427505225345</v>
+      </c>
       <c r="AW2" t="n">
-        <v>-0.00226964326085289</v>
+        <v>-0.0026535317371019</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.00194263976598783</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
+        <v>0.00315987244374518</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.00501535248972177</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.111804111805177</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.0022612845681537</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.0119345505859691</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.108573402268301</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-0.00529013686845409</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0174945713251826</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-0.00226710997139519</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0356077308993374</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.00116154090122794</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-0.00304073981463449</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.00865105243384666</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0187050135989212</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0549467739735356</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.115439922876583</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.137418448992341</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>0</v>
       </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2"/>
-      <c r="BC2" t="n">
-        <v>-0.000864073390419775</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-0.00332848675216262</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.0488417984785853</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>-0.00408550023558737</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.00523247503135597</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>-0.00143692096190799</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.0218883803792439</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>-0.00239984015207708</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.00036535388479317</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0111058819833255</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.0244115692559997</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.041170497336257</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.046949987280581</v>
-      </c>
-      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.000603938238965874</v>
-      </c>
-      <c r="BS2"/>
+        <v>0.00112702865813094</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.00215229923404564</v>
+      </c>
       <c r="BT2" t="n">
-        <v>0.0012093382977305</v>
+        <v>0.0144290108757639</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>0.00246200267508261</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00672170717563146</v>
+        <v>0.042282128301971</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0000489411098548662</v>
+        <v>-0.000317212064551087</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0288798186166176</v>
+        <v>0.105555751739304</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.000360374123331775</v>
+        <v>-0.00283470010986426</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00252125577699563</v>
+        <v>0.0116251304406202</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00762103578801099</v>
+        <v>0.00975213489455363</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0030172172178801</v>
+        <v>-0.00395394012748461</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
@@ -1730,303 +1754,335 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00405861097680639</v>
+        <v>-0.00461846455600237</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0107226075508676</v>
+        <v>-0.0115142522259332</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.00158026654772721</v>
+        <v>-0.00341862898290177</v>
       </c>
       <c r="CH2" t="n">
+        <v>0.00440687561250563</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.000666729721842782</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-0.00210140811037177</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.005417411936934</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0308278940232411</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0262109058276016</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0373710110887162</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.103226931948861</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>-0.00920944885274189</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>-0.0198309376553362</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-0.0525606113002829</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.00950127731875283</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CU2" t="n">
+        <v>0.124105891121539</v>
+      </c>
+      <c r="CV2" t="n">
         <v>0</v>
       </c>
-      <c r="CJ2" t="n">
-        <v>-0.0035450986782388</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-0.00380589990821506</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.0146858490942369</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.000956504245238858</v>
-      </c>
-      <c r="CN2"/>
-      <c r="CO2" t="n">
-        <v>0.0513496528493809</v>
-      </c>
-      <c r="CP2"/>
-      <c r="CQ2" t="n">
-        <v>-0.0109236084539788</v>
-      </c>
-      <c r="CR2"/>
-      <c r="CS2" t="n">
-        <v>0.000215958440226085</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>-0.00166674918335609</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.0532234126341198</v>
-      </c>
-      <c r="CV2"/>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>0.00187223506214237</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.00438297345345337</v>
+        <v>0.00484433102042086</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0122219163813007</v>
+        <v>0.00864605952560958</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00157008230232639</v>
+        <v>-0.00590479290331772</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00397012290092794</v>
+        <v>-0.00505693787251562</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.000453277849925829</v>
+        <v>-0.00640530448724469</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.000459837160818329</v>
+        <v>0.0138975285565704</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00373486560954123</v>
+        <v>0.0253544258824537</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0560941196473134</v>
+        <v>0.173497354783874</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.000408818742383707</v>
+        <v>-0.00836659333428446</v>
       </c>
       <c r="DH2" t="n">
+        <v>0.00164484910454923</v>
+      </c>
+      <c r="DI2" t="n">
         <v>0</v>
       </c>
-      <c r="DI2" t="n">
-        <v>0.000303495586152594</v>
-      </c>
       <c r="DJ2" t="n">
-        <v>0.00439571081736944</v>
+        <v>0.00826886761890025</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0343917767044916</v>
+        <v>0.0963839199504269</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0131678684487853</v>
+        <v>-0.0276098937700174</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.026190701198758</v>
+        <v>0.102861261344411</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00280613510605424</v>
+        <v>0.00444272772482555</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.049268974396628</v>
+        <v>0.0883300792077625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00687921789036621</v>
+        <v>0.00895390783713398</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00379391113787823</v>
+        <v>-0.00971767675920828</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0567395839872629</v>
+        <v>0.219924017814895</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00581356785342188</v>
+        <v>-0.00166324617576075</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0648836323992118</v>
+        <v>0.151741366320894</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0101856616549739</v>
+        <v>0.0160267384297097</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0062916132478247</v>
+        <v>0.0503867848445468</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00357691344743982</v>
+        <v>-0.00495605572779548</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00294880447399388</v>
+        <v>-0.00295065687140861</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0301314987663587</v>
+        <v>0.0457772113272712</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0000530213634363979</v>
-      </c>
-      <c r="EC2"/>
-      <c r="ED2"/>
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>-0.00150289017400864</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0259486091973192</v>
+      </c>
       <c r="EE2" t="n">
-        <v>0.0126039544865142</v>
+        <v>0.0237635950162155</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0121453057457476</v>
+        <v>-0.00387443803641743</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.0046432126726209</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.007213663141951</v>
-      </c>
-      <c r="EI2"/>
+        <v>0.0240970778635434</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-0.0296927948507129</v>
+      </c>
       <c r="EJ2" t="n">
-        <v>0.0295022478771715</v>
+        <v>0.0503101436901928</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.000534719500168939</v>
-      </c>
-      <c r="EL2"/>
+        <v>-0.00525085882094427</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.145568354353361</v>
+      </c>
       <c r="EM2" t="n">
-        <v>0.000471613396198588</v>
+        <v>-0.000141700520967292</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.00509649178924633</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0064842280303975</v>
-      </c>
-      <c r="EP2"/>
+        <v>0.028961237803318</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-0.0242531405012455</v>
+      </c>
       <c r="EQ2" t="n">
-        <v>0.00142829533970627</v>
+        <v>0.00236816135539102</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00527821149389981</v>
+        <v>-0.00386889030674031</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.045516832176355</v>
-      </c>
-      <c r="ET2"/>
+        <v>0.0993101247995003</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-0.0431847809177645</v>
+      </c>
       <c r="EU2" t="n">
-        <v>0.00979775412073997</v>
+        <v>0.0520317535427039</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00824140429107606</v>
-      </c>
-      <c r="EW2"/>
+        <v>0.0052037134890277</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-0.0237434999889371</v>
+      </c>
       <c r="EX2" t="n">
-        <v>0.0398152543510677</v>
+        <v>0.0657086142192976</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.056029510862748</v>
+        <v>0.144017977302937</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.00150117195734675</v>
+        <v>0.0170939664796153</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0819989762738425</v>
+        <v>0.210902537742548</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0000173717278671605</v>
-      </c>
-      <c r="FC2"/>
+        <v>0.00172353646468634</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.26761587991902</v>
+      </c>
       <c r="FD2" t="n">
-        <v>0.0136751209708775</v>
+        <v>0.0246532076990458</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>0.00180075630074131</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.000440571061447596</v>
+        <v>-0.00550656675219813</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00334263951999997</v>
+        <v>-0.00780376304943126</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0015070765105384</v>
+        <v>-0.00182518149622324</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00467520640046549</v>
+        <v>0.00440519145534735</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.00955569903931477</v>
-      </c>
-      <c r="FK2"/>
+        <v>-0.0162638592479343</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.0805769695089553</v>
+      </c>
       <c r="FL2" t="n">
-        <v>0.0509645464754691</v>
+        <v>0.124337663713821</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0146787040619018</v>
+        <v>0.0148634649208408</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.000132518725329791</v>
+        <v>0.0000586530168694682</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0124263413423956</v>
+        <v>0.0622606858098577</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00122686246789261</v>
+        <v>-0.000887332559606418</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0329391782734003</v>
+        <v>0.0990471954841045</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00997404765530456</v>
+        <v>0.0174410856399936</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.0400209118736685</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>0.00891633228056771</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00023576526318133</v>
+        <v>0.000977374717971643</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0298172377455762</v>
+        <v>0.034165572580637</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0280704909826518</v>
+        <v>0.06496342863736</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0356216547638779</v>
+        <v>0.0870377353006256</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00043765594785198</v>
+        <v>0.00367442186187241</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.00160620131632057</v>
+        <v>-0.000802031089572651</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.00869202877891722</v>
+        <v>-0.0121582890723282</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00145562362204564</v>
-      </c>
-      <c r="GC2"/>
-      <c r="GD2"/>
+        <v>0.00445101787348296</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.00383780040653276</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.0443895360951264</v>
+      </c>
       <c r="GE2" t="n">
-        <v>0.00324106672915392</v>
+        <v>0.0243411413378213</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0314257243630696</v>
+        <v>0.0489199648899973</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.011140824636242</v>
-      </c>
-      <c r="GH2"/>
+        <v>0.0204816697927513</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.162481572939206</v>
+      </c>
       <c r="GI2" t="n">
         <v>0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.0173366980360881</v>
+        <v>0.037785744105228</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0189384014634763</v>
+        <v>0.0176333705733482</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -560,40 +560,46 @@
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dem USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Dem USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">Soptimistic_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1505,247 +1511,235 @@
       <c r="GK1" t="s">
         <v>192</v>
       </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" t="n">
-        <v>0.108887140444102</v>
+        <v>0.442607759855407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0110037200275776</v>
+        <v>0.0363536571999655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0247722041692448</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.00208408490165956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.0262957510980746</v>
-      </c>
+        <v>0.034703609775288</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.000255248017093437</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0146274963530393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.00952418752944953</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.00525449072947456</v>
-      </c>
+        <v>0.0256863986529112</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2" t="n">
-        <v>-0.00554537937860059</v>
+        <v>-0.0116626134644162</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00373739240756085</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.343442068257327</v>
+        <v>1.4709087207359</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0158046281183817</v>
+        <v>-0.0306372508031646</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0329350095447564</v>
+        <v>0.12104285292686</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0974198940777267</v>
+        <v>0.397682602404877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0337657519077931</v>
+        <v>0.122900124175341</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00166723414742693</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.0309891254547789</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.00888657713454943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
       <c r="U2" t="n">
-        <v>0.0017610414146476</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000423852987262193</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00686586432735748</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00823296412303885</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00356117720613319</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.00468063008087869</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.0414575793033487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
       <c r="AB2" t="n">
-        <v>0.00570262228263466</v>
+        <v>0.0142264644065338</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.237095759943111</v>
+        <v>1.06289942058061</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0114834960364887</v>
+        <v>-0.0218098754504761</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00556052519036778</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.00321498607627463</v>
-      </c>
+        <v>-0.0109297623983196</v>
+      </c>
+      <c r="AG2"/>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0186761549707129</v>
+        <v>0.0699447047896936</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0414741265533555</v>
+        <v>0.166924533875106</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.183420517518215</v>
+        <v>0.83598408692024</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.000648585276686194</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00423475216064677</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.048070706305962</v>
+        <v>0.184039347608431</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00608680265552369</v>
+        <v>0.00967565394739187</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00196742003781327</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00674238718449077</v>
+        <v>0.000378398450013442</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00249298808663389</v>
+        <v>-0.00642636942332954</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0104473766066253</v>
+        <v>-0.0339079420262336</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0059639251093458</v>
+        <v>-0.0125275397455969</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.027593519197459</v>
+        <v>0.10046898710192</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00359427505225345</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0026535317371019</v>
+        <v>-0.00629443676154853</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00194263976598783</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00315987244374518</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00501535248972177</v>
+        <v>0.00611945496414839</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.111804111805177</v>
+        <v>0.441877554415933</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0022612845681537</v>
+        <v>-0.00520198258476762</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0119345505859691</v>
+        <v>-0.0377241945038636</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.108573402268301</v>
+        <v>0.435619187319076</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00529013686845409</v>
+        <v>-0.0112525711859789</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0174945713251826</v>
+        <v>0.0285925010970675</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00226710997139519</v>
+        <v>-0.00549881143792919</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0356077308993374</v>
+        <v>0.0600040226405731</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00116154090122794</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00304073981463449</v>
+        <v>-0.00722320759664687</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00865105243384666</v>
+        <v>0.00920144043933313</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0187050135989212</v>
+        <v>0.0613071884669687</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0549467739735356</v>
+        <v>0.206697427830322</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.115439922876583</v>
+        <v>0.466268485014821</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.137418448992341</v>
+        <v>0.556466144145017</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00112702865813094</v>
+        <v>-0.00240428666241817</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00215229923404564</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0144290108757639</v>
+        <v>0.011063572316679</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00246200267508261</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.042282128301971</v>
+        <v>0.0732534504730981</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.000317212064551087</v>
+        <v>-0.00770412686575331</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.105555751739304</v>
+        <v>0.239818813414395</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00283470010986426</v>
+        <v>-0.0159233152086035</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0116251304406202</v>
+        <v>0.0107923373320534</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00975213489455363</v>
+        <v>0.0269657637302264</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00395394012748461</v>
+        <v>-0.00843252236211339</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
@@ -1753,337 +1747,301 @@
       <c r="CD2" t="n">
         <v>0</v>
       </c>
-      <c r="CE2" t="n">
-        <v>-0.00461846455600237</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>-0.0115142522259332</v>
-      </c>
+      <c r="CE2"/>
+      <c r="CF2"/>
       <c r="CG2" t="n">
-        <v>-0.00341862898290177</v>
+        <v>-0.00801015730541485</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00440687561250563</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.000666729721842782</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00210140811037177</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-0.005417411936934</v>
-      </c>
+        <v>-0.00703889615832972</v>
+      </c>
+      <c r="CK2"/>
       <c r="CL2" t="n">
-        <v>0.0308278940232411</v>
+        <v>0.110774487067026</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0262109058276016</v>
+        <v>0.0221046114216444</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0373710110887162</v>
+        <v>0.113640404369409</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.103226931948861</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-0.00920944885274189</v>
-      </c>
+        <v>0.199528461102441</v>
+      </c>
+      <c r="CP2"/>
       <c r="CQ2" t="n">
-        <v>-0.0198309376553362</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>-0.0525606113002829</v>
-      </c>
+        <v>-0.0359451846669731</v>
+      </c>
+      <c r="CR2"/>
       <c r="CS2" t="n">
-        <v>0.00950127731875283</v>
+        <v>0.0171256720666182</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.124105891121539</v>
+        <v>0.50440643242093</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00187223506214237</v>
+        <v>0</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.00484433102042086</v>
+        <v>0.0162633852633878</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00864605952560958</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00590479290331772</v>
+        <v>-0.0237662133450578</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00505693787251562</v>
+        <v>-0.00989873175103032</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00640530448724469</v>
+        <v>-0.0280415130012458</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0138975285565704</v>
+        <v>0.04349375032316</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0253544258824537</v>
+        <v>0.0540543683312584</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.173497354783874</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>-0.00836659333428446</v>
-      </c>
+        <v>0.702493908685207</v>
+      </c>
+      <c r="DG2"/>
       <c r="DH2" t="n">
-        <v>0.00164484910454923</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00826886761890025</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0963839199504269</v>
+        <v>0.424785877035098</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0276098937700174</v>
+        <v>-0.0514504791319278</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.102861261344411</v>
+        <v>0.177521122890708</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00444272772482555</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0883300792077625</v>
+        <v>0.345603258832404</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00895390783713398</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>-0.00971767675920828</v>
-      </c>
+        <v>0.012554352502925</v>
+      </c>
+      <c r="DR2"/>
       <c r="DS2" t="n">
-        <v>0.219924017814895</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>-0.00166324617576075</v>
-      </c>
+        <v>0.912860825052543</v>
+      </c>
+      <c r="DT2"/>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.151741366320894</v>
+        <v>0.714849617938332</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0160267384297097</v>
+        <v>0.0582353547092945</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0503867848445468</v>
+        <v>0.082041159510952</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00495605572779548</v>
+        <v>-0.0106723678437547</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00295065687140861</v>
+        <v>-0.00645138847787756</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0457772113272712</v>
+        <v>0.170288272515342</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00150289017400864</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-0.0259486091973192</v>
-      </c>
+        <v>-0.00403775267183949</v>
+      </c>
+      <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>0.0237635950162155</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>-0.00387443803641743</v>
-      </c>
+        <v>0.0965625495302393</v>
+      </c>
+      <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0046432126726209</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0240970778635434</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>-0.0296927948507129</v>
-      </c>
+        <v>0.0385582353552717</v>
+      </c>
+      <c r="EI2"/>
       <c r="EJ2" t="n">
-        <v>0.0503101436901928</v>
+        <v>0.093229198535131</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00525085882094427</v>
+        <v>-0.0233160180060687</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.145568354353361</v>
+        <v>0.427363521268592</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.000141700520967292</v>
+        <v>-0.00237631977058196</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00509649178924633</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.028961237803318</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>-0.0242531405012455</v>
-      </c>
+        <v>0.103922639150555</v>
+      </c>
+      <c r="EP2"/>
       <c r="EQ2" t="n">
-        <v>0.00236816135539102</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-0.00386889030674031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="ER2"/>
       <c r="ES2" t="n">
-        <v>0.0993101247995003</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-0.0431847809177645</v>
-      </c>
+        <v>0.397774447916352</v>
+      </c>
+      <c r="ET2"/>
       <c r="EU2" t="n">
-        <v>0.0520317535427039</v>
+        <v>0.196251455354028</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0052037134890277</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-0.0237434999889371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="EW2"/>
       <c r="EX2" t="n">
-        <v>0.0657086142192976</v>
+        <v>0.133783254435204</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.144017977302937</v>
+        <v>0.572657174465654</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0170939664796153</v>
+        <v>0.0151096473898082</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.210902537742548</v>
+        <v>0.951619693117974</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00172353646468634</v>
+        <v>0</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.26761587991902</v>
+        <v>0.97992583675477</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0246532076990458</v>
+        <v>0.0867064489873992</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00180075630074131</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.00550656675219813</v>
+        <v>-0.0210040337213707</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00780376304943126</v>
+        <v>-0.0254741140578765</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.00182518149622324</v>
+        <v>-0.00448931863020271</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00440519145534735</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>-0.0162638592479343</v>
-      </c>
+        <v>0.00613231900291519</v>
+      </c>
+      <c r="FJ2"/>
       <c r="FK2" t="n">
-        <v>0.0805769695089553</v>
+        <v>0.274290325231816</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.124337663713821</v>
+        <v>0.561155004743766</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0148634649208408</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0000586530168694682</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0622606858098577</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-0.000887332559606418</v>
-      </c>
+        <v>0.149096837497506</v>
+      </c>
+      <c r="FP2"/>
       <c r="FQ2" t="n">
-        <v>0.0990471954841045</v>
+        <v>0.184878674715778</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0174410856399936</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-0.0400209118736685</v>
-      </c>
+        <v>0.0291827994614112</v>
+      </c>
+      <c r="FS2"/>
       <c r="FT2" t="n">
-        <v>0.00891633228056771</v>
+        <v>0.0238281065389928</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.000977374717971643</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.034165572580637</v>
+        <v>0.0645946780307104</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.06496342863736</v>
+        <v>0.269052124065286</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0870377353006256</v>
+        <v>0.360758420250027</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00367442186187241</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>-0.000802031089572651</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FZ2"/>
       <c r="GA2" t="n">
-        <v>-0.0121582890723282</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00445101787348296</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.00383780040653276</v>
+        <v>0.0972200902726076</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0443895360951264</v>
+        <v>0.0733079630670761</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0243411413378213</v>
+        <v>0.0984667030473454</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0489199648899973</v>
+        <v>0.0374017235368603</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0204816697927513</v>
+        <v>0.58046366968681</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.162481572939206</v>
+        <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0</v>
+        <v>0.145663151967098</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.037785744105228</v>
+        <v>0.0473984698509576</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0176333705733482</v>
-      </c>
+        <v>-0.00990695992677429</v>
+      </c>
+      <c r="GL2"/>
+      <c r="GM2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -560,9 +560,6 @@
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
@@ -593,7 +590,13 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">Dem USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Dem USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gain_adj_over_gdp_2050</t>
   </si>
 </sst>
 </file>
@@ -1505,247 +1508,250 @@
       <c r="GK1" t="s">
         <v>192</v>
       </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" t="n">
-        <v>0.108887140444102</v>
+        <v>0.168308310179155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0110037200275776</v>
+        <v>0.0143357143933036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0247722041692448</v>
+        <v>0.0351328584817891</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00208408490165956</v>
+        <v>-0.0026891092300933</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0262957510980746</v>
+        <v>-0.0536380290249457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000255248017093437</v>
+        <v>-0.00316804055149988</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0146274963530393</v>
+        <v>0.019855607210169</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00952418752944953</v>
+        <v>-0.0100817560863341</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00525449072947456</v>
+        <v>-0.00138708782240674</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00554537937860059</v>
+        <v>-0.00584322430674927</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00373739240756085</v>
+        <v>0.00649922261197283</v>
       </c>
       <c r="M2" t="n">
-        <v>0.343442068257327</v>
+        <v>0.593871310406865</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0158046281183817</v>
+        <v>-0.0197997115862017</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0329350095447564</v>
+        <v>0.0482247594955585</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0974198940777267</v>
+        <v>0.160107595857911</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0337657519077931</v>
+        <v>0.0344360917859061</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00166723414742693</v>
+        <v>0.00424268097695465</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0309891254547789</v>
+        <v>-0.0662520252068987</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.00888657713454943</v>
+        <v>-0.00829115283941213</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0017610414146476</v>
+        <v>0.00229360467151876</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000423852987262193</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00686586432735748</v>
+        <v>0.0161415240736257</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00823296412303885</v>
+        <v>0.0225352312361626</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00356117720613319</v>
+        <v>0.00887509264958834</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.00468063008087869</v>
+        <v>-0.00449070938023682</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0414575793033487</v>
+        <v>-0.0549796146450484</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00570262228263466</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.237095759943111</v>
+        <v>0.429200861248903</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0114834960364887</v>
+        <v>-0.0126431412817693</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00556052519036778</v>
+        <v>-0.0066334169305694</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.00321498607627463</v>
+        <v>-0.0107603126112406</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0186761549707129</v>
+        <v>0.0279402846682881</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0414741265533555</v>
+        <v>0.0670877509371618</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.183420517518215</v>
+        <v>0.337619277164764</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.000648585276686194</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00423475216064677</v>
+        <v>0.0102432748735863</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.048070706305962</v>
+        <v>0.0740055465434524</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00608680265552369</v>
+        <v>0.00358840328361836</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00196742003781327</v>
+        <v>0.00451606389530999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00674238718449077</v>
+        <v>0.0132643487920503</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00249298808663389</v>
+        <v>-0.0000687145600554693</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0104473766066253</v>
+        <v>-0.00700506626868776</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0059639251093458</v>
+        <v>-0.00626642876296623</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.027593519197459</v>
+        <v>0.0404469344038407</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00359427505225345</v>
+        <v>0.00875892060739672</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0026535317371019</v>
+        <v>-0.00235925283457103</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00194263976598783</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00315987244374518</v>
+        <v>0.00346248724949358</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00501535248972177</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.111804111805177</v>
+        <v>0.178076540112334</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0022612845681537</v>
+        <v>0.000893059261916493</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0119345505859691</v>
+        <v>-0.00838465637596652</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.108573402268301</v>
+        <v>0.175675813514969</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00529013686845409</v>
+        <v>-0.00550457822122728</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0174945713251826</v>
+        <v>0.0235136597955379</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00226710997139519</v>
+        <v>-0.00293786938834612</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0356077308993374</v>
+        <v>0.048607963498117</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00116154090122794</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00304073981463449</v>
+        <v>-0.00287293269152803</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00865105243384666</v>
+        <v>0.0128699231083698</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0187050135989212</v>
+        <v>0.0243500588770716</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0549467739735356</v>
+        <v>0.082825570322599</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.115439922876583</v>
+        <v>0.187883358702056</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.137418448992341</v>
+        <v>0.224466262007157</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00112702865813094</v>
+        <v>0.00519332076501244</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00215229923404564</v>
+        <v>0.00337720453143494</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0144290108757639</v>
+        <v>0.0291709559597487</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00246200267508261</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.042282128301971</v>
+        <v>0.0724585415501013</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.000317212064551087</v>
+        <v>0.00227332591004405</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.105555751739304</v>
+        <v>0.172128375491847</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00283470010986426</v>
+        <v>-0.002292688498056</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0116251304406202</v>
+        <v>0.0129452842794452</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00975213489455363</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00395394012748461</v>
+        <v>-0.00452176298473278</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
@@ -1754,335 +1760,338 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00461846455600237</v>
+        <v>-0.00510246771566342</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0115142522259332</v>
+        <v>-0.0270842841874115</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.00341862898290177</v>
+        <v>-0.00378737475119908</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00440687561250563</v>
+        <v>0.00968990110135105</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.000666729721842782</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00210140811037177</v>
+        <v>-0.00145297025952553</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.005417411936934</v>
+        <v>-0.0182466973687311</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0308278940232411</v>
+        <v>0.044350313076275</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0262109058276016</v>
+        <v>0.0446256715603096</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0373710110887162</v>
+        <v>0.0269733489083311</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.103226931948861</v>
+        <v>0.152825520650865</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.00920944885274189</v>
+        <v>-0.00786109727663814</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0198309376553362</v>
+        <v>-0.0241540707056896</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.0525606113002829</v>
+        <v>-0.108475858125364</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00950127731875283</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.124105891121539</v>
+        <v>0.203326322951616</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00187223506214237</v>
+        <v>0.00266462180773058</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.00484433102042086</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00864605952560958</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00590479290331772</v>
+        <v>-0.00372834048032739</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00505693787251562</v>
+        <v>-0.0061455025518477</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00640530448724469</v>
+        <v>-0.00421073669057847</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0138975285565704</v>
+        <v>0.00209848903143635</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0253544258824537</v>
+        <v>0.0342982650782651</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.173497354783874</v>
+        <v>0.283260474156514</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00836659333428446</v>
+        <v>-0.0205483430007045</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00164484910454923</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00826886761890025</v>
+        <v>0.0180569923628674</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0963839199504269</v>
+        <v>0.171259055523317</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0276098937700174</v>
+        <v>-0.0337508683731316</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.102861261344411</v>
+        <v>0.13616920128887</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00444272772482555</v>
+        <v>0.0114996588576599</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0883300792077625</v>
+        <v>0.138621444968196</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00895390783713398</v>
+        <v>0.00441730320102973</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00971767675920828</v>
+        <v>-0.0403677403100337</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.219924017814895</v>
+        <v>0.368303147571607</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00166324617576075</v>
+        <v>-0.00445137958134049</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.151741366320894</v>
+        <v>0.288478058109989</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0160267384297097</v>
+        <v>0.0232221209415532</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0503867848445468</v>
+        <v>0.0870197809754186</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00495605572779548</v>
+        <v>-0.00520932818586835</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00295065687140861</v>
+        <v>-0.00305780484488429</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0457772113272712</v>
+        <v>0.0438246813552173</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00150289017400864</v>
+        <v>-0.00112673625349389</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0259486091973192</v>
+        <v>-0.0772519903574198</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0237635950162155</v>
+        <v>0.0134831073452567</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00387443803641743</v>
+        <v>-0.00748814832967139</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0046432126726209</v>
+        <v>0.0123115109346357</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0240970778635434</v>
+        <v>0.0325880057603974</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.0296927948507129</v>
+        <v>-0.0501732675021097</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0503101436901928</v>
+        <v>0.07264869449493</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00525085882094427</v>
+        <v>-0.00420532603182431</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.145568354353361</v>
+        <v>0.207294728589192</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.000141700520967292</v>
+        <v>0.00443878772324958</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00509649178924633</v>
+        <v>0.0136411453907962</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.028961237803318</v>
+        <v>0.0506264014056522</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.0242531405012455</v>
+        <v>-0.0495682544753764</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00236816135539102</v>
+        <v>0.00674819800927579</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00386889030674031</v>
+        <v>-0.0166674651227034</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0993101247995003</v>
+        <v>0.160430799599108</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.0431847809177645</v>
+        <v>-0.118082738273103</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0520317535427039</v>
+        <v>0.100665270029532</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0052037134890277</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0237434999889371</v>
+        <v>-0.0292138642711779</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0657086142192976</v>
+        <v>0.102108615645505</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.144017977302937</v>
+        <v>0.231041973022955</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0170939664796153</v>
+        <v>0.0317448693717815</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.210902537742548</v>
+        <v>0.38428141599918</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00172353646468634</v>
+        <v>0.00334717143999047</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.26761587991902</v>
+        <v>0.548605171116973</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0246532076990458</v>
+        <v>0.0345727551778746</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00180075630074131</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.00550656675219813</v>
+        <v>-0.0034043216429078</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00780376304943126</v>
+        <v>-0.00482168395461516</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.00182518149622324</v>
+        <v>-0.00221864503677586</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00440519145534735</v>
+        <v>0.00218864516961873</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0162638592479343</v>
+        <v>-0.0379226392363313</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0805769695089553</v>
+        <v>0.0789676471119051</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.124337663713821</v>
+        <v>0.226425611575717</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0148634649208408</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0000586530168694682</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0622606858098577</v>
+        <v>0.0968255793745865</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.000887332559606418</v>
+        <v>-0.00406241335626285</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0990471954841045</v>
+        <v>0.141667288901441</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0174410856399936</v>
+        <v>0.0247755596737995</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.0400209118736685</v>
+        <v>-0.0733572576638697</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00891633228056771</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.000977374717971643</v>
+        <v>0.00639534977698315</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.034165572580637</v>
+        <v>0.0497270676096063</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.06496342863736</v>
+        <v>0.10829946014595</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0870377353006256</v>
+        <v>0.145451334938971</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00367442186187241</v>
+        <v>0.00633163958106932</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.000802031089572651</v>
+        <v>0.000329640655920202</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0121582890723282</v>
+        <v>0.0091991679436148</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00445101787348296</v>
+        <v>0.0098350973531517</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.00383780040653276</v>
+        <v>0.0679171581086768</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0443895360951264</v>
+        <v>0.0312866305672069</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0243411413378213</v>
+        <v>0.0755445017562677</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0489199648899973</v>
+        <v>0.0306691786908115</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0204816697927513</v>
+        <v>0.307858072797724</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.162481572939206</v>
+        <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0</v>
+        <v>0.0583554079828658</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.037785744105228</v>
+        <v>0.0184186676872255</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0176333705733482</v>
+        <v>-0.00742838022987399</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>-0.00742838022987399</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -599,7 +599,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Soptimistic_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1523,223 +1523,241 @@
         <v>195</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442607759855407</v>
+        <v>0.108873623054747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363536571999655</v>
+        <v>0.0110163628955812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.034703609775288</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>0.0247679719697045</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.00208415152646644</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.0262961417699789</v>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.000255065534813646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0256863986529112</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
+        <v>0.014624360769407</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00952445358834749</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00525489939298486</v>
+      </c>
       <c r="K2" t="n">
-        <v>-0.0116626134644162</v>
+        <v>-0.00554600576133543</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.00373476005697411</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4709087207359</v>
+        <v>0.343529875418156</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0306372508031646</v>
+        <v>-0.0158052942283723</v>
       </c>
       <c r="O2" t="n">
-        <v>0.12104285292686</v>
+        <v>0.0329619717173332</v>
       </c>
       <c r="P2" t="n">
-        <v>0.397682602404877</v>
+        <v>0.0974581957614077</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.122900124175341</v>
+        <v>0.0337602416237141</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0.00166665774084438</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.0309897783113565</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.00888712711111857</v>
+      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.00176017357904523</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.000423652163999749</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.00686290298324803</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.00823073023932166</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
+        <v>0.003560242130717</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.00468120926058127</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.0414582715192659</v>
+      </c>
       <c r="AB2" t="n">
-        <v>0.0142264644065338</v>
+        <v>0.00570032914030758</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.06289942058061</v>
+        <v>0.237155499055406</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0218098754504761</v>
+        <v>-0.0114844189930487</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0109297623983196</v>
-      </c>
-      <c r="AG2"/>
+        <v>-0.00556085868752616</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.00321484633421812</v>
+      </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0699447047896936</v>
+        <v>0.0186896122946916</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.166924533875106</v>
+        <v>0.0414936067244555</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.83598408692024</v>
+        <v>0.183464718997128</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.000648735147288134</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>0.00423350510509936</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.184039347608431</v>
+        <v>0.0480920484284839</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00967565394739187</v>
+        <v>0.00609907721283046</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>0.00196677921972964</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.000378398450013442</v>
+        <v>0.00674001215162621</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00642636942332954</v>
+        <v>-0.00249323282178402</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0339079420262336</v>
+        <v>-0.0104482301736516</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0125275397455969</v>
+        <v>-0.00596460137013357</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.10046898710192</v>
+        <v>0.027604179809474</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.00359326184246385</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00629443676154853</v>
+        <v>-0.00265402970770212</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.00194245351852164</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>0.00315912503070841</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00611945496414839</v>
+        <v>0.00501237919909027</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.441877554415933</v>
+        <v>0.111842535761498</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00520198258476762</v>
+        <v>-0.0022615375289194</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0377241945038636</v>
+        <v>-0.0119354076193679</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.435619187319076</v>
+        <v>0.108607076732309</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.0112525711859789</v>
+        <v>-0.00529076842175632</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0285925010970675</v>
+        <v>0.0174911436658775</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00549881143792919</v>
+        <v>-0.00226734238626039</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0600040226405731</v>
+        <v>0.0356012815953465</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>0.00116037128397763</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00722320759664687</v>
+        <v>-0.00304124553580586</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00920144043933313</v>
+        <v>0.00864814012207918</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0613071884669687</v>
+        <v>0.0187222762393737</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.206697427830322</v>
+        <v>0.054979702986812</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.466268485014821</v>
+        <v>0.115480598873134</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.556466144145017</v>
+        <v>0.137459259632904</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.00240428666241817</v>
+        <v>0.00112560951804334</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>0.0021518223077025</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.011063572316679</v>
+        <v>0.0144250582766369</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>0.00246176663453201</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0732534504730981</v>
+        <v>0.0422751730290848</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00770412686575331</v>
+        <v>-0.000317733210169132</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.239818813414395</v>
+        <v>0.105543891194802</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0159233152086035</v>
+        <v>-0.00283488477264662</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0107923373320534</v>
+        <v>0.0116203435118315</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0269657637302264</v>
+        <v>0.00974848084142851</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00843252236211339</v>
+        <v>-0.00395431365384855</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
@@ -1747,301 +1765,343 @@
       <c r="CD2" t="n">
         <v>0</v>
       </c>
-      <c r="CE2"/>
-      <c r="CF2"/>
+      <c r="CE2" t="n">
+        <v>-0.00461895451167563</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.0115146385002804</v>
+      </c>
       <c r="CG2" t="n">
-        <v>-0.00801015730541485</v>
+        <v>-0.00341923700113054</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>0.00440600119352983</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>0.000665834684721511</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00703889615832972</v>
-      </c>
-      <c r="CK2"/>
+        <v>-0.00210201483968658</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.0054172994574866</v>
+      </c>
       <c r="CL2" t="n">
-        <v>0.110774487067026</v>
+        <v>0.030847384315282</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0221046114216444</v>
+        <v>0.0262007537624754</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.113640404369409</v>
+        <v>0.0373591425079251</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.199528461102441</v>
-      </c>
-      <c r="CP2"/>
+        <v>0.103214257277198</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>-0.00921021918384129</v>
+      </c>
       <c r="CQ2" t="n">
-        <v>-0.0359451846669731</v>
-      </c>
-      <c r="CR2"/>
+        <v>-0.0198316637914926</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-0.05256126463126</v>
+      </c>
       <c r="CS2" t="n">
-        <v>0.0171256720666182</v>
+        <v>0.00949574016205593</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.50440643242093</v>
+        <v>0.12414695292713</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>0.00187181615766617</v>
       </c>
       <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>0.0162633852633878</v>
+        <v>0.00484281877389841</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>0.00867783810548272</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0237662133450578</v>
+        <v>-0.00590551323030466</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00989873175103032</v>
+        <v>-0.00505720872602885</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0280415130012458</v>
+        <v>-0.00640588075758179</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.04349375032316</v>
+        <v>0.0138932059245828</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0540543683312584</v>
+        <v>0.0253503699241303</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.702493908685207</v>
-      </c>
-      <c r="DG2"/>
+        <v>0.173552026681832</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.00836696477716248</v>
+      </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.00164469140728423</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>0.00826531814605887</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.424785877035098</v>
+        <v>0.0964155873496176</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0514504791319278</v>
+        <v>-0.0276108935159781</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.177521122890708</v>
+        <v>0.102848467242872</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>0.00444029615876507</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.345603258832404</v>
+        <v>0.0883795409549875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.012554352502925</v>
-      </c>
-      <c r="DR2"/>
+        <v>0.00897485466064297</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.00971892598795822</v>
+      </c>
       <c r="DS2" t="n">
-        <v>0.912860825052543</v>
-      </c>
-      <c r="DT2"/>
+        <v>0.219987696461372</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-0.00166216344477124</v>
+      </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.714849617938332</v>
+        <v>0.151783961080652</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0582353547092945</v>
+        <v>0.0160393992616153</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.082041159510952</v>
+        <v>0.0503779789452759</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0106723678437547</v>
+        <v>-0.00495665030473302</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00645138847787756</v>
+        <v>-0.00295103397626518</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.170288272515342</v>
+        <v>0.0457692971779606</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00403775267183949</v>
-      </c>
-      <c r="ED2"/>
+        <v>-0.00150236392758032</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0259486175450426</v>
+      </c>
       <c r="EE2" t="n">
-        <v>0.0965625495302393</v>
-      </c>
-      <c r="EF2"/>
+        <v>0.0237582986912755</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-0.00387489997303145</v>
+      </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.00464204555970118</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0385582353552717</v>
-      </c>
-      <c r="EI2"/>
+        <v>0.0240917302748019</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-0.0296930139689508</v>
+      </c>
       <c r="EJ2" t="n">
-        <v>0.093229198535131</v>
+        <v>0.0503030352231403</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0233160180060687</v>
+        <v>-0.00525136671381786</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.427363521268592</v>
+        <v>0.145537544625955</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.00237631977058196</v>
+        <v>-0.000142174738085483</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.00509438508958801</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.103922639150555</v>
-      </c>
-      <c r="EP2"/>
+        <v>0.0289570578845774</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-0.0242534251212245</v>
+      </c>
       <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2"/>
+        <v>0.00236743619425658</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-0.00386907984677347</v>
+      </c>
       <c r="ES2" t="n">
-        <v>0.397774447916352</v>
-      </c>
-      <c r="ET2"/>
+        <v>0.0993402467252457</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-0.043184497515048</v>
+      </c>
       <c r="EU2" t="n">
-        <v>0.196251455354028</v>
+        <v>0.05202492943588</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2"/>
+        <v>0.00522654579359203</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-0.0237438685802455</v>
+      </c>
       <c r="EX2" t="n">
-        <v>0.133783254435204</v>
+        <v>0.0657007991265527</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.572657174465654</v>
+        <v>0.144059386653587</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0151096473898082</v>
+        <v>0.0170896100590713</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.951619693117974</v>
+        <v>0.210954719977994</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>0.00172281614860331</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.97992583675477</v>
+        <v>0.267586876787117</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0867064489873992</v>
+        <v>0.0246726694245097</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>0.00180058365612437</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0210040337213707</v>
+        <v>-0.00550729959580847</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.0254741140578765</v>
+        <v>-0.00780448945971445</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.00448931863020271</v>
+        <v>-0.00182552881028993</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00613231900291519</v>
-      </c>
-      <c r="FJ2"/>
+        <v>0.00441518337440475</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-0.0162634089110255</v>
+      </c>
       <c r="FK2" t="n">
-        <v>0.274290325231816</v>
+        <v>0.0805593007837376</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.561155004743766</v>
+        <v>0.124373352062592</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>0.0149147055877202</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.0000586177226781662</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.149096837497506</v>
-      </c>
-      <c r="FP2"/>
+        <v>0.0622503032425429</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-0.000886765950383894</v>
+      </c>
       <c r="FQ2" t="n">
-        <v>0.184878674715778</v>
+        <v>0.0990349864131842</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0291827994614112</v>
-      </c>
-      <c r="FS2"/>
+        <v>0.0174371423044616</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-0.0400198998566499</v>
+      </c>
       <c r="FT2" t="n">
-        <v>0.0238281065389928</v>
+        <v>0.00891335033604407</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>0.000976579985374075</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0645946780307104</v>
+        <v>0.0341611894310142</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.269052124065286</v>
+        <v>0.0649895114582972</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.360758420250027</v>
+        <v>0.0870661430577106</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2"/>
+        <v>0.00367178316089805</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-0.000802301102957229</v>
+      </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>0.00444693341628502</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.00383683696331087</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0972200902726076</v>
+        <v>0.0443847593388487</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0733079630670761</v>
+        <v>0.0243355922833817</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0984667030473454</v>
+        <v>0.0489138697677919</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0374017235368603</v>
+        <v>0.020477714621687</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.58046366968681</v>
+        <v>0.162461686857834</v>
       </c>
       <c r="GH2" t="n">
         <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.145663151967098</v>
+        <v>0.0378087323295231</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.0473984698509576</v>
+        <v>0.0176588920830069</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.00990695992677429</v>
-      </c>
-      <c r="GL2"/>
-      <c r="GM2"/>
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>-0.0121589594067472</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -26,9 +26,6 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Micronesia (country)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
@@ -290,12 +275,6 @@
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t xml:space="preserve">South Korea</t>
   </si>
   <si>
@@ -314,12 +293,6 @@
     <t xml:space="preserve">Libya</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
@@ -350,9 +323,6 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Macedonia</t>
   </si>
   <si>
@@ -407,9 +377,6 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
@@ -428,27 +395,18 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
@@ -488,12 +446,6 @@
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
@@ -509,9 +461,6 @@
     <t xml:space="preserve">Eswatini</t>
   </si>
   <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
@@ -533,9 +482,6 @@
     <t xml:space="preserve">Timor</t>
   </si>
   <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
@@ -545,9 +491,6 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
@@ -560,12 +503,12 @@
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
@@ -588,15 +531,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dem USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Dem USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
@@ -1451,656 +1385,526 @@
       <c r="FQ1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B2" t="n">
-        <v>0.108873623054747</v>
+        <v>0.0473115544403191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0110163628955812</v>
+        <v>0.027683098944982</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0247679719697045</v>
+        <v>0.00646933050295286</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00208415152646644</v>
+        <v>-0.0209684670020598</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0262961417699789</v>
+        <v>0.000845951004653832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000255065534813646</v>
+        <v>0.0060239720279802</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014624360769407</v>
+        <v>-0.021422938153989</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00952445358834749</v>
+        <v>-0.00627333734947143</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00525489939298486</v>
+        <v>0.00321366432749366</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00554600576133543</v>
+        <v>0.0691716690881289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00373476005697411</v>
+        <v>-0.00834471896408628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.343529875418156</v>
+        <v>0.0312608822758166</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0158052942283723</v>
+        <v>0.0471365439020625</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0329619717173332</v>
+        <v>0.0248557634924505</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0974581957614077</v>
+        <v>-0.00340490904291284</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0337602416237141</v>
+        <v>-0.0307593821874734</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00166665774084438</v>
+        <v>0.000263419289630564</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0309897783113565</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.00888712711111857</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00176017357904523</v>
+        <v>0.011505453388521</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000423652163999749</v>
+        <v>0.00582319732688445</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00686290298324803</v>
+        <v>0.00361116196041247</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00823073023932166</v>
+        <v>0.00247852247707509</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003560242130717</v>
+        <v>-0.0116051101941872</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.00468120926058127</v>
+        <v>0.00363033466706034</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0414582715192659</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00570032914030758</v>
+        <v>0.0998253684115784</v>
       </c>
       <c r="AC2" t="n">
+        <v>-0.0196663799525681</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.00171942325381162</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.000737240603796377</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.237155499055406</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.0114844189930487</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.00556085868752616</v>
-      </c>
       <c r="AG2" t="n">
-        <v>-0.00321484633421812</v>
+        <v>0.00655666101581609</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.0200587751132735</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0388801081666401</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0177142228090692</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.00679895884989255</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0225605146388077</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.011475913029326</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.00638947205078423</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00528540475597671</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0.0186896122946916</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0414936067244555</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.183464718997128</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.000648735147288134</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.00423350510509936</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.0480920484284839</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00609907721283046</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.00196677921972964</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>0.00674001215162621</v>
+        <v>-0.0149742989951371</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00249323282178402</v>
+        <v>-0.00975019897784493</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0104482301736516</v>
+        <v>0.0149277541082539</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00596460137013357</v>
+        <v>-0.00345948018453657</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.027604179809474</v>
+        <v>0.00684484228623837</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00359326184246385</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00265402970770212</v>
+        <v>0.00416965907212757</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00194245351852164</v>
+        <v>0.0000655412854622844</v>
       </c>
       <c r="AY2" t="n">
+        <v>0.0545116067121763</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.000341854778693429</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.0299755706625139</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0478987255873311</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.00701861429322501</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0146913855811081</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.00236664949364971</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.000598972099262507</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-0.00391023724708056</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.00155695708816377</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0136048428381538</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0120017027501727</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0374154706795202</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0346284118700587</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.000656068583580235</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-0.000159118901403247</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.0111445599922747</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.00197901173587301</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.0184660043330005</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.0000323976781954318</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0356377792913219</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-0.0022091155208913</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.00553261904391908</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.0102813784061415</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-0.00495643798904049</v>
+      </c>
+      <c r="BX2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>0.00315912503070841</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.00501237919909027</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.111842535761498</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>-0.0022615375289194</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-0.0119354076193679</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.108607076732309</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>-0.00529076842175632</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.0174911436658775</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>-0.00226734238626039</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.0356012815953465</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.00116037128397763</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>-0.00304124553580586</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.00864814012207918</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0187222762393737</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.054979702986812</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.115480598873134</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.137459259632904</v>
-      </c>
-      <c r="BQ2" t="n">
+      <c r="BY2" t="n">
         <v>0</v>
       </c>
-      <c r="BR2" t="n">
-        <v>0.00112560951804334</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.0021518223077025</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.0144250582766369</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.00246176663453201</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.0422751730290848</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>-0.000317733210169132</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.105543891194802</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>-0.00283488477264662</v>
-      </c>
       <c r="BZ2" t="n">
-        <v>0.0116203435118315</v>
+        <v>-0.0118571139391708</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00974848084142851</v>
+        <v>-0.000176194117031815</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00395431365384855</v>
+        <v>-0.00200566218562204</v>
       </c>
       <c r="CC2" t="n">
+        <v>0.0138873531678787</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.0000803365308710959</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-0.008174034575885</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.0230297942818188</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0281169615568363</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00644377449918904</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0195205785875397</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-0.00671418159062439</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.0374502329731794</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0121084774343685</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0000119411901955365</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0451749826657626</v>
+      </c>
+      <c r="CO2" t="n">
         <v>0</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CP2" t="n">
+        <v>0.00750125190389791</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.00796599713507144</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-0.00285205567296823</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>-0.00994488041388503</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.000890832078768026</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.00114833054464046</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.00115738795961354</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0442854112053684</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.00671788964808634</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.000745194808669985</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>0</v>
       </c>
-      <c r="CE2" t="n">
-        <v>-0.00461895451167563</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>-0.0115146385002804</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-0.00341923700113054</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.00440600119352983</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.000665834684721511</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>-0.00210201483968658</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-0.0054172994574866</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.030847384315282</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.0262007537624754</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.0373591425079251</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.103214257277198</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-0.00921021918384129</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>-0.0198316637914926</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>-0.05256126463126</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.00949574016205593</v>
-      </c>
-      <c r="CT2" t="n">
+      <c r="DA2" t="n">
+        <v>0.0262319943760962</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>-0.00233255307046466</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.028698970876484</v>
+      </c>
+      <c r="DD2" t="n">
         <v>0</v>
       </c>
-      <c r="CU2" t="n">
-        <v>0.12414695292713</v>
-      </c>
-      <c r="CV2" t="n">
+      <c r="DE2" t="n">
+        <v>-0.00215691474097922</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.0397685017923518</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.0195734633552438</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.000341767897087424</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.0709809793256854</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.00188947875362367</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.00139635063055405</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.0727056835303598</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0126872854615296</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.0110579455530388</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.00975527683276491</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.00590987865005575</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.0369484387288584</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.00613163583315443</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>-0.0167866267135453</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.0187436424570455</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.000301727492352522</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00198877354217597</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.01893766787156</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0276252169021498</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>-0.00878349380015038</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-0.000160226683455865</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.00735731044043458</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>-0.0337191883031047</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>-0.00129305244918867</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0103399018676428</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.044810091189074</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-0.0248052138753236</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.0106411551954263</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.018918543128615</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-0.00444368848834366</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0564146370863929</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0519096981370061</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0156285713710293</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.023762367047538</v>
+      </c>
+      <c r="EN2" t="n">
         <v>0</v>
       </c>
-      <c r="CW2" t="n">
-        <v>0.00187181615766617</v>
-      </c>
-      <c r="CX2"/>
-      <c r="CY2" t="n">
-        <v>0.00484281877389841</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.00867783810548272</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-0.00590551323030466</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>-0.00505720872602885</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>-0.00640588075758179</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.0138932059245828</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.0253503699241303</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.173552026681832</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>-0.00836696477716248</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.00164469140728423</v>
-      </c>
-      <c r="DI2" t="n">
+      <c r="EO2" t="n">
+        <v>0.000612027441181282</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-0.00717363514901583</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-0.00369549574481091</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-0.00197832501337339</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.0086647071572602</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.000556530172233543</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.0520947340267544</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.0356922101279335</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.000385974513226746</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0219852684326196</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-0.0200436972802212</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.0120279326867949</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-0.0581328338828642</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.000334845649985921</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-0.00338209086750734</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.0283667379035772</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.0386024456351803</v>
+      </c>
+      <c r="FF2" t="n">
         <v>0</v>
       </c>
-      <c r="DJ2" t="n">
-        <v>0.00826531814605887</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.0964155873496176</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-0.0276108935159781</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.102848467242872</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.00444029615876507</v>
-      </c>
-      <c r="DO2" t="n">
+      <c r="FG2" t="n">
+        <v>0.00143525891932353</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>-0.019200629817618</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.00000725359318094457</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.00190375512491479</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.00309717584488171</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.0440512309544695</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.0234884725315612</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.0143529476603696</v>
+      </c>
+      <c r="FO2" t="n">
         <v>0</v>
       </c>
-      <c r="DP2" t="n">
-        <v>0.0883795409549875</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.00897485466064297</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>-0.00971892598795822</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.219987696461372</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>-0.00166216344477124</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.151783961080652</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.0160393992616153</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.0503779789452759</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>-0.00495665030473302</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>-0.00295103397626518</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.0457692971779606</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>-0.00150236392758032</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-0.0259486175450426</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.0237582986912755</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>-0.00387489997303145</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.00464204555970118</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.0240917302748019</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>-0.0296930139689508</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.0503030352231403</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-0.00525136671381786</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.145537544625955</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>-0.000142174738085483</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.00509438508958801</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.0289570578845774</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>-0.0242534251212245</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.00236743619425658</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-0.00386907984677347</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.0993402467252457</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-0.043184497515048</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.05202492943588</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.00522654579359203</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-0.0237438685802455</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.0657007991265527</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.144059386653587</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.0170896100590713</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.210954719977994</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.00172281614860331</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.267586876787117</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.0246726694245097</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.00180058365612437</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-0.00550729959580847</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-0.00780448945971445</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-0.00182552881028993</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.00441518337440475</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>-0.0162634089110255</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.0805593007837376</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.124373352062592</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.0149147055877202</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.0000586177226781662</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.0622503032425429</v>
-      </c>
       <c r="FP2" t="n">
-        <v>-0.000886765950383894</v>
+        <v>0.0164629136836297</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0990349864131842</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.0174371423044616</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>-0.0400198998566499</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.00891335033604407</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.000976579985374075</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.0341611894310142</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.0649895114582972</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.0870661430577106</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.00367178316089805</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>-0.000802301102957229</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.00444693341628502</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.00383683696331087</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.0443847593388487</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.0243355922833817</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.0489138697677919</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.020477714621687</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.162461686857834</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.0378087323295231</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.0176588920830069</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-0.0121589594067472</v>
+        <v>0.00661848062256457</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -446,6 +446,9 @@
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">Eswatini</t>
+    <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
@@ -491,6 +494,9 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
@@ -531,6 +537,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
   </si>
   <si>
     <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
@@ -1385,61 +1394,70 @@
       <c r="FQ1" t="s">
         <v>172</v>
       </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0473115544403191</v>
+        <v>0.0356875191410064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.027683098944982</v>
+        <v>0.0245093245453326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00646933050295286</v>
+        <v>0.00485902340826297</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0209684670020598</v>
+        <v>-0.0192670547030884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000845951004653832</v>
+        <v>0.00108512899450586</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0060239720279802</v>
+        <v>0.00449424818629026</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.021422938153989</v>
+        <v>-0.0195639231891367</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00627333734947143</v>
+        <v>-0.00596032831881557</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00321366432749366</v>
+        <v>0.0032536988768513</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0691716690881289</v>
+        <v>0.0483747658269906</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00834471896408628</v>
+        <v>-0.00789080659297457</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0312608822758166</v>
+        <v>0.0212675033974482</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0471365439020625</v>
+        <v>0.0342776155554819</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0248557634924505</v>
+        <v>0.0188932931639619</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00340490904291284</v>
+        <v>-0.00357872757948836</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0307593821874734</v>
+        <v>-0.028050563280491</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000263419289630564</v>
+        <v>0.000948396869510171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1448,169 +1466,169 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.011505453388521</v>
+        <v>0.00935424148242623</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00582319732688445</v>
+        <v>0.00440499697238454</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00361116196041247</v>
+        <v>0.00332627429809869</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00247852247707509</v>
+        <v>0.00303748194340396</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0116051101941872</v>
+        <v>-0.00940032780937369</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00363033466706034</v>
+        <v>0.00259078284405133</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0998253684115784</v>
+        <v>0.0720853751182868</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0196663799525681</v>
+        <v>-0.0174662344061285</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00171942325381162</v>
+        <v>-0.00168903634032235</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.000737240603796377</v>
+        <v>-0.000452751125956252</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00655666101581609</v>
+        <v>0.00381108654538279</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0200587751132735</v>
+        <v>0.0141145555006051</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0388801081666401</v>
+        <v>0.0267719634217861</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0177142228090692</v>
+        <v>0.0134779986074219</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00679895884989255</v>
+        <v>0.00552328418156858</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0225605146388077</v>
+        <v>0.0157497236895028</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.011475913029326</v>
+        <v>0.00822445907053969</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00638947205078423</v>
+        <v>0.00526921534587604</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00528540475597671</v>
+        <v>0.00471382247896825</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0149742989951371</v>
+        <v>-0.0139657077075483</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00975019897784493</v>
+        <v>-0.00911783350691932</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0149277541082539</v>
+        <v>0.0097576341144787</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00345948018453657</v>
+        <v>-0.00339776498715599</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00684484228623837</v>
+        <v>0.00553805759636965</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00416965907212757</v>
+        <v>0.00354576237831884</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0000655412854622844</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0545116067121763</v>
+        <v>0.0386959335978544</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000341854778693429</v>
+        <v>-0.000175342219450234</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0299755706625139</v>
+        <v>-0.0274994598051434</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0478987255873311</v>
+        <v>0.0343323336334576</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00701861429322501</v>
+        <v>-0.00641204888385086</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0146913855811081</v>
+        <v>0.0114080130803961</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00236664949364971</v>
+        <v>-0.00215723629597085</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000598972099262507</v>
+        <v>0.00027259568638115</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00391023724708056</v>
+        <v>-0.00361932923857326</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00155695708816377</v>
+        <v>0.000864284087766568</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0136048428381538</v>
+        <v>0.00978622874234512</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0120017027501727</v>
+        <v>0.00782774561651669</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0374154706795202</v>
+        <v>0.0277495643509862</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0346284118700587</v>
+        <v>0.0237829750424552</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.000656068583580235</v>
+        <v>0.00087514199821241</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000159118901403247</v>
+        <v>-0.0000456385848944426</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0111445599922747</v>
+        <v>0.0084903254931292</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00197901173587301</v>
+        <v>0.00195197825112725</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0184660043330005</v>
+        <v>0.0141076548899157</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0000323976781954318</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0356377792913219</v>
+        <v>0.0251736522365122</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0022091155208913</v>
+        <v>-0.00231476456003901</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00553261904391908</v>
+        <v>0.00417653419895301</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0102813784061415</v>
+        <v>0.00791721275666003</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00495643798904049</v>
+        <v>-0.00478115517446086</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1619,292 +1637,301 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0118571139391708</v>
+        <v>-0.0111873316964491</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.000176194117031815</v>
+        <v>-0.0000425842361025672</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00200566218562204</v>
+        <v>-0.00168739076673791</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0138873531678787</v>
+        <v>0.0119701379252103</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0000803365308710959</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.008174034575885</v>
+        <v>-0.00681428756912262</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0230297942818188</v>
+        <v>-0.0185156790422546</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0281169615568363</v>
+        <v>0.020479930717612</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00644377449918904</v>
+        <v>0.00378719029399407</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0195205785875397</v>
+        <v>0.0143844156650474</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00671418159062439</v>
+        <v>-0.00553352163372765</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0374502329731794</v>
+        <v>-0.0336755245683259</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0121084774343685</v>
+        <v>0.00921245988178436</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0000119411901955365</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0451749826657626</v>
+        <v>0.0298767366239188</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00750125190389791</v>
+        <v>0.00601780172410653</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00796599713507144</v>
+        <v>0.00422090096016206</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.00285205567296823</v>
+        <v>-0.0026577546000342</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00994488041388503</v>
+        <v>-0.00930710478481006</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.000890832078768026</v>
+        <v>-0.000949689490165741</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00114833054464046</v>
+        <v>0.000402191926225262</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00115738795961354</v>
+        <v>0.000369642433183947</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0442854112053684</v>
+        <v>0.0311679581683741</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00671788964808634</v>
+        <v>0.0055971138226317</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.000745194808669985</v>
+        <v>0.000941290671386018</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0262319943760962</v>
+        <v>0.0186058210254922</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00233255307046466</v>
+        <v>-0.00227375956591908</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.028698970876484</v>
+        <v>0.0234979287060741</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.00215691474097922</v>
+        <v>-0.0023201591927836</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0397685017923518</v>
+        <v>0.0270156792832291</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0195734633552438</v>
+        <v>0.0136939480038112</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000341767897087424</v>
+        <v>-0.000493770695573336</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0709809793256854</v>
+        <v>0.0507055324246146</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.00188947875362367</v>
+        <v>-0.00165267414881285</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00139635063055405</v>
+        <v>0.000710620443974512</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0727056835303598</v>
+        <v>0.0508260395287347</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0126872854615296</v>
+        <v>0.00905537616689578</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0110579455530388</v>
+        <v>0.00790150701364007</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00975527683276491</v>
+        <v>-0.0091759707073975</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00590987865005575</v>
+        <v>-0.00542917202585966</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0369484387288584</v>
+        <v>0.0272860223193478</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00613163583315443</v>
+        <v>-0.00547607191617818</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0167866267135453</v>
+        <v>-0.0128877588171232</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0187436424570455</v>
+        <v>0.0143211983784643</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.000301727492352522</v>
+        <v>0.000225967467783011</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00198877354217597</v>
+        <v>0.00159986770542296</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01893766787156</v>
+        <v>0.0150041297271365</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0276252169021498</v>
+        <v>0.0207380247279573</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00878349380015038</v>
+        <v>-0.00753370610178701</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.000160226683455865</v>
+        <v>-0.0000663916710112407</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00735731044043458</v>
+        <v>0.00540535486818598</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0337191883031047</v>
+        <v>-0.03061972379237</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00129305244918867</v>
+        <v>-0.00146784459846493</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0103399018676428</v>
+        <v>-0.00883457882085307</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.044810091189074</v>
+        <v>0.0333759824518872</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0248052138753236</v>
+        <v>-0.0223352267104535</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0106411551954263</v>
+        <v>0.00710597632312938</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.018918543128615</v>
+        <v>0.0129364504028897</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.00444368848834366</v>
+        <v>-0.00343989285860491</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0564146370863929</v>
+        <v>0.043602115956949</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0519096981370061</v>
+        <v>0.0368949834078866</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0156285713710293</v>
+        <v>0.0126714808434525</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.023762367047538</v>
+        <v>0.0157160393620034</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.000612027441181282</v>
+        <v>0.0184514599384831</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.00717363514901583</v>
+        <v>0.000753019804966783</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.00369549574481091</v>
+        <v>-0.00671190374929643</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00197832501337339</v>
+        <v>-0.00313607806484724</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0086647071572602</v>
+        <v>-0.00188860615536026</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.000556530172233543</v>
+        <v>0.00612973875503128</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0520947340267544</v>
+        <v>0.0000736262607416137</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0356922101279335</v>
+        <v>0.0379975293287518</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.000385974513226746</v>
+        <v>0.0238117068840801</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0219852684326196</v>
+        <v>0.000105141673696271</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0200436972802212</v>
+        <v>0.0166224737730836</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0120279326867949</v>
+        <v>-0.0184272232164803</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0581328338828642</v>
+        <v>0.00893013741790224</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.000334845649985921</v>
+        <v>-0.0477331772302383</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.00338209086750734</v>
+        <v>0.0000395077307772004</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0283667379035772</v>
+        <v>-0.00325575873096219</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0386024456351803</v>
+        <v>-0.00361399040331989</v>
       </c>
       <c r="FF2" t="n">
+        <v>0.0207913883145536</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.0281358634225232</v>
+      </c>
+      <c r="FH2" t="n">
         <v>0</v>
       </c>
-      <c r="FG2" t="n">
-        <v>0.00143525891932353</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-0.019200629817618</v>
-      </c>
       <c r="FI2" t="n">
-        <v>0.00000725359318094457</v>
+        <v>0.00109782220453865</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00190375512491479</v>
+        <v>-0.0180946978367277</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00309717584488171</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0440512309544695</v>
+        <v>0.00237970218824875</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0234884725315612</v>
+        <v>0.00191744912894136</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0143529476603696</v>
+        <v>0.0337649851889989</v>
       </c>
       <c r="FO2" t="n">
+        <v>0.0189125984800407</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.00916881990959784</v>
+      </c>
+      <c r="FQ2" t="n">
         <v>0</v>
       </c>
-      <c r="FP2" t="n">
-        <v>0.0164629136836297</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.00661848062256457</v>
+      <c r="FR2" t="n">
+        <v>0.0117674259759046</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.00319430573264842</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.0789934738013299</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -542,7 +542,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1409,55 +1409,55 @@
         <v>176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0356875191410064</v>
+        <v>0.164266537136604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0245093245453326</v>
+        <v>0.0527521539636407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00485902340826297</v>
+        <v>0.0180462516227774</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0192670547030884</v>
+        <v>-0.0337043132162136</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00108512899450586</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00449424818629026</v>
+        <v>0.00948799555444297</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0195639231891367</v>
+        <v>-0.0248399630323665</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00596032831881557</v>
+        <v>-0.00526547917905425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0032536988768513</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0483747658269906</v>
+        <v>0.352854303879506</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00789080659297457</v>
+        <v>-0.00736442943474671</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0212675033974482</v>
+        <v>0.13562494888146</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0342776155554819</v>
+        <v>0.186358481430868</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0188932931639619</v>
+        <v>0.0660842478891452</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00357872757948836</v>
+        <v>-0.000194335279228223</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.028050563280491</v>
+        <v>-0.0522860819454499</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000948396869510171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1466,169 +1466,169 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00935424148242623</v>
+        <v>0.0270794438031018</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00440499697238454</v>
+        <v>0.0196498844744483</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00332627429809869</v>
+        <v>0.00615330358195034</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00303748194340396</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00940032780937369</v>
+        <v>-0.0270630946649349</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00259078284405133</v>
+        <v>0.00612387489621563</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0720853751182868</v>
+        <v>0.454404057955538</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0174662344061285</v>
+        <v>-0.0260867105151736</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00168903634032235</v>
+        <v>-0.00187295080330778</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.000452751125956252</v>
+        <v>-0.000872913767786104</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00381108654538279</v>
+        <v>0.0440007380494976</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0141145555006051</v>
+        <v>0.0858723101018849</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0267719634217861</v>
+        <v>0.240422880824189</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0134779986074219</v>
+        <v>0.0557193104725903</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00552328418156858</v>
+        <v>0.0162223877259028</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0157497236895028</v>
+        <v>0.0980776184675569</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00822445907053969</v>
+        <v>0.0322246275401042</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00526921534587604</v>
+        <v>0.0144582311002392</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00471382247896825</v>
+        <v>0.00752202857963947</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0139657077075483</v>
+        <v>-0.0144132218574454</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00911783350691932</v>
+        <v>-0.0094880060278092</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0097576341144787</v>
+        <v>0.0688192398753578</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00339776498715599</v>
+        <v>-0.00309277967692547</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00553805759636965</v>
+        <v>0.0180663069646871</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00354576237831884</v>
+        <v>0.0100509284701125</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0386959335978544</v>
+        <v>0.201669752970351</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000175342219450234</v>
+        <v>0.00130100215111222</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0274994598051434</v>
+        <v>-0.0252478016942266</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0343323336334576</v>
+        <v>0.196420823134073</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00641204888385086</v>
+        <v>-0.00633616630152658</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0114080130803961</v>
+        <v>0.0294507549217854</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00215723629597085</v>
+        <v>-0.00294079825399755</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00027259568638115</v>
+        <v>0.0038678274457997</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00361932923857326</v>
+        <v>-0.00356746121384291</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.000864284087766568</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00978622874234512</v>
+        <v>0.0485038600988583</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00782774561651669</v>
+        <v>0.0557426005229718</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0277495643509862</v>
+        <v>0.139914441699247</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0237829750424552</v>
+        <v>0.178067491923291</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00087514199821241</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0000456385848944426</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0084903254931292</v>
+        <v>0.0330887823638099</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00195197825112725</v>
+        <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0141076548899157</v>
+        <v>0.0567162023354657</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>0.0030374871412303</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0251736522365122</v>
+        <v>0.164742038802444</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.00231476456003901</v>
+        <v>0.000317378020768631</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00417653419895301</v>
+        <v>0.00772394854700653</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00791721275666003</v>
+        <v>0.0199485509283272</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00478115517446086</v>
+        <v>-0.00410992073947409</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1637,301 +1637,301 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0111873316964491</v>
+        <v>-0.0119439307268439</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0000425842361025672</v>
+        <v>-0.00133576585300693</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00168739076673791</v>
+        <v>-0.000186344898310582</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0119701379252103</v>
+        <v>0.0259646904145203</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00681428756912262</v>
+        <v>-0.00988696013300728</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0185156790422546</v>
+        <v>-0.0629941073785796</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.020479930717612</v>
+        <v>0.0997308252962209</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00378719029399407</v>
+        <v>0.02471646695234</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0143844156650474</v>
+        <v>0.0689323086532703</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00553352163372765</v>
+        <v>-0.0153630018182892</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0336755245683259</v>
+        <v>-0.0666828212572035</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.00921245988178436</v>
+        <v>0.0396747713664763</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0298767366239188</v>
+        <v>0.233555627324621</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00601780172410653</v>
+        <v>0.0156063099754456</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00422090096016206</v>
+        <v>0.0540046853645961</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.0026577546000342</v>
+        <v>-0.000913450434826505</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00930710478481006</v>
+        <v>-0.0113034680209845</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.000949689490165741</v>
+        <v>0.0010398626394034</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.000402191926225262</v>
+        <v>0.0097370463004836</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.000369642433183947</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0311679581683741</v>
+        <v>0.199364566716148</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0055971138226317</v>
+        <v>0.00956317549261851</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.000941290671386018</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0186058210254922</v>
+        <v>0.115485223902211</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00227375956591908</v>
+        <v>-0.0024543672812212</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0234979287060741</v>
+        <v>0.0466180163738245</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.00233345250541733</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0023201591927836</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0270156792832291</v>
+        <v>0.189371039850178</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0136939480038112</v>
+        <v>0.0812706347857124</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000493770695573336</v>
+        <v>0.000220562622618978</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0507055324246146</v>
+        <v>0.290936559725026</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.00165267414881285</v>
+        <v>-0.00508129276203395</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.000710620443974512</v>
+        <v>0.00962632997916195</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0508260395287347</v>
+        <v>0.351402489890124</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00905537616689578</v>
+        <v>0.0501908936023758</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00790150701364007</v>
+        <v>0.0446602526670897</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0091759707073975</v>
+        <v>-0.00939666151974407</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00542917202585966</v>
+        <v>-0.00611382531981931</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0272860223193478</v>
+        <v>0.117203701647565</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00547607191617818</v>
+        <v>-0.00489287176932057</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0128877588171232</v>
+        <v>-0.0560435069376605</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0143211983784643</v>
+        <v>0.0565539487601773</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.000225967467783011</v>
+        <v>0.0019118973307328</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00159986770542296</v>
+        <v>0.00552669721268816</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0150041297271365</v>
+        <v>0.0372465757468087</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0207380247279573</v>
+        <v>0.0731025633230253</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00753370610178701</v>
+        <v>-0.00672790116468923</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0000663916710112407</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00540535486818598</v>
+        <v>0.0255631094980311</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.03061972379237</v>
+        <v>-0.056646345186717</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00146784459846493</v>
+        <v>0.00121488419858853</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.00883457882085307</v>
+        <v>-0.0216219940968515</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0333759824518872</v>
+        <v>0.154683283049049</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0223352267104535</v>
+        <v>-0.0473878453807988</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00710597632312938</v>
+        <v>0.0641539595388621</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0129364504028897</v>
+        <v>0.0809692005915881</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.00343989285860491</v>
+        <v>-0.0105050448341667</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.043602115956949</v>
+        <v>0.141995237291746</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0368949834078866</v>
+        <v>0.216287482883739</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0126714808434525</v>
+        <v>0.03755967404867</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0157160393620034</v>
+        <v>0.154584095443854</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0184514599384831</v>
+        <v>0.136641857471692</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.000753019804966783</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.00671190374929643</v>
+        <v>-0.00329784693609698</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00313607806484724</v>
+        <v>-0.00175126270636785</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00188860615536026</v>
+        <v>-0.00237328727205943</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00612973875503128</v>
+        <v>0.030571438720063</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0000736262607416137</v>
+        <v>0.00506977863202895</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0379975293287518</v>
+        <v>0.222509514105187</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0238117068840801</v>
+        <v>0.168408167262578</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.000105141673696271</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0166224737730836</v>
+        <v>0.0676658739150413</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0184272232164803</v>
+        <v>-0.04564302429838</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00893013741790224</v>
+        <v>0.0316741502781826</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0477331772302383</v>
+        <v>-0.121647088714446</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0000395077307772004</v>
+        <v>0.00274376358513695</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00325575873096219</v>
+        <v>-0.00184728340228416</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.00361399040331989</v>
+        <v>-0.0133902679576536</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0207913883145536</v>
+        <v>0.112146853193983</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0281358634225232</v>
+        <v>0.154389406566758</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00109782220453865</v>
+        <v>0.0045129039498038</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0180946978367277</v>
+        <v>-0.0236798068521297</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00237970218824875</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00191744912894136</v>
+        <v>0.00458239581659819</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0337649851889989</v>
+        <v>0.113734275065427</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0189125984800407</v>
+        <v>0.0478262651093759</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00916881990959784</v>
+        <v>0.086223372952515</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0117674259759046</v>
+        <v>0.0670943104766395</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00319430573264842</v>
+        <v>0.0787882601769989</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0789934738013299</v>
+        <v>0.095448311079706</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -542,7 +542,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1409,226 +1409,226 @@
         <v>176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.164266537136604</v>
+        <v>0.0255622814314474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0527521539636407</v>
+        <v>0.0186191693730359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0180462516227774</v>
+        <v>0.0023622890836031</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0337043132162136</v>
+        <v>-0.0110767412938509</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.00000258578121444978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00948799555444297</v>
+        <v>0.00600230685028771</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0248399630323665</v>
+        <v>-0.0167673092250191</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00526547917905425</v>
+        <v>-0.00540183972522466</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.00490083958559065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.352854303879506</v>
+        <v>0.0342107133333838</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00736442943474671</v>
+        <v>-0.00700161442455344</v>
       </c>
       <c r="M2" t="n">
-        <v>0.13562494888146</v>
+        <v>0.0169063046665289</v>
       </c>
       <c r="N2" t="n">
-        <v>0.186358481430868</v>
+        <v>0.024643277578324</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0660842478891452</v>
+        <v>0.0137216286485764</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.000194335279228223</v>
+        <v>-0.00321081681377409</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0522860819454499</v>
+        <v>-0.0161144823391176</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.0000424449109837436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.00158387673981452</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0270794438031018</v>
+        <v>0.00611386896478956</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0196498844744483</v>
+        <v>0.00190029339809227</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00615330358195034</v>
+        <v>0.00223450228948484</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.0000946593240735624</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0270630946649349</v>
+        <v>-0.00542485032411385</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00612387489621563</v>
+        <v>0.0025620564614125</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.454404057955538</v>
+        <v>0.0514952029278901</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0260867105151736</v>
+        <v>-0.0149730448594256</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00187295080330778</v>
+        <v>-0.00156703647083143</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.000872913767786104</v>
+        <v>-0.000743713672588329</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.00000173186966757823</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0440007380494976</v>
+        <v>0.00356312924344432</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0858723101018849</v>
+        <v>0.0111493422624074</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.240422880824189</v>
+        <v>0.0191003660743935</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0557193104725903</v>
+        <v>0.0104827531829004</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0162223877259028</v>
+        <v>0.00424748397204825</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0980776184675569</v>
+        <v>0.0114950606959849</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0322246275401042</v>
+        <v>0.00719635828987738</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0144582311002392</v>
+        <v>0.00442873481672957</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00752202857963947</v>
+        <v>0.00120078324300891</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0144132218574454</v>
+        <v>-0.0119676434184588</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0094880060278092</v>
+        <v>-0.00802787295849589</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0688192398753578</v>
+        <v>0.00845771725396394</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00309277967692547</v>
+        <v>-0.00332782386965677</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0180663069646871</v>
+        <v>0.00485735959316192</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0100509284701125</v>
+        <v>0.00152397279214186</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.000028684167889563</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.201669752970351</v>
+        <v>0.0275843508485075</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00130100215111222</v>
+        <v>-0.000267970093303176</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0252478016942266</v>
+        <v>-0.0231371186453133</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.196420823134073</v>
+        <v>0.0245640750314494</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00633616630152658</v>
+        <v>-0.00584460155612546</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0294507549217854</v>
+        <v>0.00855149965417546</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00294079825399755</v>
+        <v>-0.00217946584641972</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0038678274457997</v>
+        <v>0.000802469641548976</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00356746121384291</v>
+        <v>-0.00353160057669575</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.00240945892113946</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0485038600988583</v>
+        <v>0.0074585027214988</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0557426005229718</v>
+        <v>0.00636869149117947</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.139914441699247</v>
+        <v>0.0202865801110206</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.178067491923291</v>
+        <v>0.0173360798487671</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
+        <v>-0.0000947592391362419</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.006207265611746</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.000142711159176669</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.00879458482387623</v>
+      </c>
+      <c r="BR2" t="n">
         <v>0</v>
       </c>
-      <c r="BO2" t="n">
-        <v>0.0330887823638099</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.0567162023354657</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.0030374871412303</v>
-      </c>
       <c r="BS2" t="n">
-        <v>0.164742038802444</v>
+        <v>0.0176173447799679</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.000317378020768631</v>
+        <v>-0.00227309295294394</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00772394854700653</v>
+        <v>0.00359329300778845</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0199485509283272</v>
+        <v>0.00648153303600552</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00410992073947409</v>
+        <v>-0.00428720961146925</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1637,301 +1637,301 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0119439307268439</v>
+        <v>-0.00964208785316861</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.00133576585300693</v>
+        <v>-0.0000210039019144716</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.000186344898310582</v>
+        <v>-0.0017875309723129</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0259646904145203</v>
+        <v>0.00642340199329884</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>0.00003399028606946</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00988696013300728</v>
+        <v>-0.00626660090221315</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0629941073785796</v>
+        <v>-0.00961131674180206</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0997308252962209</v>
+        <v>0.0151906372870469</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02471646695234</v>
+        <v>0.00762622778552696</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0689323086532703</v>
+        <v>0.0104820651741282</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0153630018182892</v>
+        <v>-0.00275060606267713</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0666828212572035</v>
+        <v>-0.0198273940874418</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0396747713664763</v>
+        <v>0.0065449414314938</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>0.0000587428943937119</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.233555627324621</v>
+        <v>0.0226876754670374</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0156063099754456</v>
+        <v>0.00450966575383672</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0540046853645961</v>
+        <v>0.00428078390075328</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.000913450434826505</v>
+        <v>-0.00273815475325163</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0113034680209845</v>
+        <v>-0.00799290111669123</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0010398626394034</v>
+        <v>-0.00110538004748271</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0097370463004836</v>
+        <v>0.000623341754746353</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.00298261717021803</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.199364566716148</v>
+        <v>0.02233019431116</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00956317549261851</v>
+        <v>0.00452795847920797</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.00000256030820531878</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.115485223902211</v>
+        <v>0.0136228605964745</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0024543672812212</v>
+        <v>-0.00220904055449418</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0466180163738245</v>
+        <v>0.0167407771482102</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00233345250541733</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0.00111658390889299</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.189371039850178</v>
+        <v>0.0207358728510832</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0812706347857124</v>
+        <v>0.0114478258852294</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.000220562622618978</v>
+        <v>-0.000026306229322239</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.290936559725026</v>
+        <v>0.0358757307655863</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.00508129276203395</v>
+        <v>-0.000586664976517687</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00962632997916195</v>
+        <v>0.00107230022918386</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.351402489890124</v>
+        <v>0.0369993095479445</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0501908936023758</v>
+        <v>0.00715645741936391</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0446602526670897</v>
+        <v>0.00524379683725937</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00939666151974407</v>
+        <v>-0.00805144473076199</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00611382531981931</v>
+        <v>-0.00500225253652411</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.117203701647565</v>
+        <v>0.0194794318032668</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00489287176932057</v>
+        <v>-0.00511519228288896</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0560435069376605</v>
+        <v>-0.00795208596323123</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0565539487601773</v>
+        <v>0.0106461976429028</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0019118973307328</v>
+        <v>0.000186922716878514</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00552669721268816</v>
+        <v>0.000842198834217685</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0372465757468087</v>
+        <v>0.0110196088800451</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0731025633230253</v>
+        <v>0.0152188312926866</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00672790116468923</v>
+        <v>-0.00679588930043657</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.0000964617698555129</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0255631094980311</v>
+        <v>0.00429529543198674</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.056646345186717</v>
+        <v>-0.0182390716612138</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00121488419858853</v>
+        <v>-0.00153627838988129</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0216219940968515</v>
+        <v>-0.00233018973745629</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.154683283049049</v>
+        <v>0.0236673794442614</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0473878453807988</v>
+        <v>-0.0129869665676152</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0641539595388621</v>
+        <v>0.00563883896150743</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0809692005915881</v>
+        <v>0.0103482660080272</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.0105050448341667</v>
+        <v>-0.00187831819964696</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.141995237291746</v>
+        <v>0.031146301479247</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.216287482883739</v>
+        <v>0.0265744837847131</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.03755967404867</v>
+        <v>0.00875608130315126</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.154584095443854</v>
+        <v>0.0111140158406764</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.136641857471692</v>
+        <v>0.0137089056102254</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.00329784693609698</v>
+        <v>-0.00616588089918104</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00175126270636785</v>
+        <v>-0.00300801458654335</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00237328727205943</v>
+        <v>-0.00178750824571803</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.030571438720063</v>
+        <v>0.00512109212653788</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00506977863202895</v>
+        <v>0.000300745799275325</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.222509514105187</v>
+        <v>0.0268539209455111</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.168408167262578</v>
+        <v>0.0184988174082218</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>0.000817525878179666</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0676658739150413</v>
+        <v>0.0136022213155854</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.04564302429838</v>
+        <v>-0.0147034929743342</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0316741502781826</v>
+        <v>0.00639623546987618</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.121647088714446</v>
+        <v>-0.0436381870027626</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00274376358513695</v>
+        <v>0.000195849532666017</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00184728340228416</v>
+        <v>-0.00303166693923533</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0133902679576536</v>
+        <v>-0.00182216417751692</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.112146853193983</v>
+        <v>0.015187862443765</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.154389406566758</v>
+        <v>0.0201528073699907</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>0.00242299733573897</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0045129039498038</v>
+        <v>0.00119759266230253</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0236798068521297</v>
+        <v>-0.0154289145106944</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>0.00163142924910895</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>0.00000201185925205637</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00458239581659819</v>
+        <v>0.00217819900630207</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.113734275065427</v>
+        <v>0.0243842397909109</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0478262651093759</v>
+        <v>0.013984300545409</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.086223372952515</v>
+        <v>0.00905062443183096</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0670943104766395</v>
+        <v>0.00872593802816176</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0787882601769989</v>
+        <v>0.00307783336438823</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.095448311079706</v>
+        <v>0.0209741852933106</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -542,7 +542,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">gain_adj_2030</t>
   </si>
 </sst>
 </file>
@@ -1409,226 +1409,226 @@
         <v>176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0255622814314474</v>
+        <v>483.897807501677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0186191693730359</v>
+        <v>323.198300065262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0023622890836031</v>
+        <v>217.400771525817</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0110767412938509</v>
+        <v>-2385.89518013665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00000258578121444978</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00600230685028771</v>
+        <v>229.770928762055</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0167673092250191</v>
+        <v>-1587.842910909</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00540183972522466</v>
+        <v>-433.30807207762</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00490083958559065</v>
+        <v>63.5792274455708</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0342107133333838</v>
+        <v>526.493279864417</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00700161442455344</v>
+        <v>-545.530691736846</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0169063046665289</v>
+        <v>413.91062921435</v>
       </c>
       <c r="N2" t="n">
-        <v>0.024643277578324</v>
+        <v>503.682867767819</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0137216286485764</v>
+        <v>460.797243472532</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00321081681377409</v>
+        <v>-39.9874135133268</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0161144823391176</v>
+        <v>-2588.75132463664</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0000424449109837436</v>
+        <v>-51.3782821100137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00158387673981452</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00611386896478956</v>
+        <v>289.688881245111</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00190029339809227</v>
+        <v>194.596474331404</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00223450228948484</v>
+        <v>118.968404842512</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0000946593240735624</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00542485032411385</v>
+        <v>-1245.39730885791</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0025620564614125</v>
+        <v>211.75068263689</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0514952029278901</v>
+        <v>512.307479077664</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0149730448594256</v>
+        <v>-1576.53822488323</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00156703647083143</v>
+        <v>-135.026684935983</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.000743713672588329</v>
+        <v>-58.424544132126</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00000173186966757823</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00356312924344432</v>
+        <v>369.262490837784</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0111493422624074</v>
+        <v>416.538980073165</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0191003660743935</v>
+        <v>520.305712608786</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0104827531829004</v>
+        <v>404.668303612345</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00424748397204825</v>
+        <v>267.734909928993</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0114950606959849</v>
+        <v>492.788570972665</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00719635828987738</v>
+        <v>325.687047670838</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00442873481672957</v>
+        <v>283.369526132597</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00120078324300891</v>
+        <v>99.0317256252722</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0119676434184588</v>
+        <v>-849.839843640548</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00802787295849589</v>
+        <v>-661.990952779135</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00845771725396394</v>
+        <v>383.106337180212</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00332782386965677</v>
+        <v>-193.013992416471</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00485735959316192</v>
+        <v>322.183505731143</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00152397279214186</v>
+        <v>130.221385837624</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000028684167889563</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0275843508485075</v>
+        <v>509.956796407298</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000267970093303176</v>
+        <v>-36.6836129847986</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0231371186453133</v>
+        <v>-1645.51454707163</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0245640750314494</v>
+        <v>511.032311471242</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00584460155612546</v>
+        <v>-435.885337579942</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00855149965417546</v>
+        <v>389.362512727422</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00217946584641972</v>
+        <v>-151.08944682325</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000802469641548976</v>
+        <v>60.0980432553015</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00353160057669575</v>
+        <v>-244.071390118082</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00240945892113946</v>
+        <v>135.850822046343</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0074585027214988</v>
+        <v>440.813005446399</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00636869149117947</v>
+        <v>433.174141195869</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0202865801110206</v>
+        <v>482.268805566986</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0173360798487671</v>
+        <v>501.49436976003</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0000947592391362419</v>
+        <v>-19.3187780818772</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.006207265611746</v>
+        <v>356.75422202758</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000142711159176669</v>
+        <v>16.279502254367</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00879458482387623</v>
+        <v>348.828374111879</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0176173447799679</v>
+        <v>475.94033249937</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.00227309295294394</v>
+        <v>-43.5313819489311</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00359329300778845</v>
+        <v>260.76596994314</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00648153303600552</v>
+        <v>299.601409294978</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00428720961146925</v>
+        <v>-446.999766149355</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1637,301 +1637,301 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.00964208785316861</v>
+        <v>-831.863794171129</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0000210039019144716</v>
+        <v>-31.8387322079578</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0017875309723129</v>
+        <v>-140.889331576619</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00642340199329884</v>
+        <v>224.734967530364</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00003399028606946</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00626660090221315</v>
+        <v>-593.979077811553</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00961131674180206</v>
+        <v>-2261.1580025878</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0151906372870469</v>
+        <v>466.280589803882</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00762622778552696</v>
+        <v>239.889068519688</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0104820651741282</v>
+        <v>457.870505400465</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.00275060606267713</v>
+        <v>-472.106856496392</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0198273940874418</v>
+        <v>-3566.40870970195</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0065449414314938</v>
+        <v>491.174423120867</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0000587428943937119</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0226876754670374</v>
+        <v>469.92111257226</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00450966575383672</v>
+        <v>372.747699807125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00428078390075328</v>
+        <v>289.512168359759</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.00273815475325163</v>
+        <v>-136.164778076365</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00799290111669123</v>
+        <v>-1394.72583726368</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.00110538004748271</v>
+        <v>-18.6101800263347</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.000623341754746353</v>
+        <v>139.370285642988</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00298261717021803</v>
+        <v>90.9472516038973</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.02233019431116</v>
+        <v>511.63001737348</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00452795847920797</v>
+        <v>254.466387746133</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00000256030820531878</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0136228605964745</v>
+        <v>486.196928154568</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00220904055449418</v>
+        <v>-125.406840284893</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0167407771482102</v>
+        <v>489.449741620075</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.00111658390889299</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0207358728510832</v>
+        <v>446.383662596748</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0114478258852294</v>
+        <v>370.42818736339</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000026306229322239</v>
+        <v>3.27272785629134</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0358757307655863</v>
+        <v>523.794200996284</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.000586664976517687</v>
+        <v>-90.541752298685</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00107230022918386</v>
+        <v>154.310728467387</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0369993095479445</v>
+        <v>489.080813249134</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00715645741936391</v>
+        <v>396.137396031222</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00524379683725937</v>
+        <v>361.429580741948</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00805144473076199</v>
+        <v>-681.226206967485</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00500225253652411</v>
+        <v>-504.964890947733</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0194794318032668</v>
+        <v>498.325199328735</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00511519228288896</v>
+        <v>-391.926844332473</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00795208596323123</v>
+        <v>-1757.30804915688</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0106461976429028</v>
+        <v>416.991981677732</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.000186922716878514</v>
+        <v>32.0327492792739</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.000842198834217685</v>
+        <v>106.394190276961</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0110196088800451</v>
+        <v>423.520942939666</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0152188312926866</v>
+        <v>446.58398103476</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00679588930043657</v>
+        <v>-505.501583744946</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0000964617698555129</v>
+        <v>-21.5254418957297</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00429529543198674</v>
+        <v>336.21739975579</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0182390716612138</v>
+        <v>-6493.06872442665</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.00153627838988129</v>
+        <v>-10.77768206122</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.00233018973745629</v>
+        <v>-657.346743712075</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0236673794442614</v>
+        <v>522.723223135889</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0129869665676152</v>
+        <v>-2459.15677511099</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00563883896150743</v>
+        <v>420.479263539798</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0103482660080272</v>
+        <v>412.873466985386</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.00187831819964696</v>
+        <v>-639.419920087773</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.031146301479247</v>
+        <v>495.137554084376</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0265744837847131</v>
+        <v>502.891514450409</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00875608130315126</v>
+        <v>339.702526636264</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0111140158406764</v>
+        <v>527.533488750232</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0137089056102254</v>
+        <v>482.057261896222</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.00616588089918104</v>
+        <v>-347.79376922429</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00300801458654335</v>
+        <v>-213.003811114404</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00178750824571803</v>
+        <v>-133.378267062104</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00512109212653788</v>
+        <v>364.306135133092</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.000300745799275325</v>
+        <v>41.3239420371467</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0268539209455111</v>
+        <v>524.426615012503</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0184988174082218</v>
+        <v>438.665498905136</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.000817525878179666</v>
+        <v>57.5040935191704</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0136022213155854</v>
+        <v>472.823597285548</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0147034929743342</v>
+        <v>-1678.8213884154</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00639623546987618</v>
+        <v>478.984140833195</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0436381870027626</v>
+        <v>-6439.10024095589</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.000195849532666017</v>
+        <v>36.8287152660816</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00303166693923533</v>
+        <v>-139.0842696129</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.00182216417751692</v>
+        <v>-518.422476258312</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.015187862443765</v>
+        <v>484.053587909404</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0201528073699907</v>
+        <v>506.921417053918</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.00242299733573897</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00119759266230253</v>
+        <v>123.838889155169</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.0154289145106944</v>
+        <v>-1799.67656746255</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00163142924910895</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00000201185925205637</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00217819900630207</v>
+        <v>172.331510519712</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0243842397909109</v>
+        <v>472.754155654672</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.013984300545409</v>
+        <v>409.447833185562</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00905062443183096</v>
+        <v>278.392325611086</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00872593802816176</v>
+        <v>471.71880021407</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00307783336438823</v>
+        <v>332.741405163617</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0209741852933106</v>
+        <v>270.683779671369</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,539 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">NA</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npv_over_gdp_gcs_adj</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,203 +1403,535 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
+        <v>176</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0356417544752746</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0244664521934628</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00483892338412555</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0192712985342322</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00108359855662071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0044774371122755</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.0195717271443222</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00596695660400728</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00323676970640937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0483166270267044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.00789759985709733</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0212262170557649</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03423324601227</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0188670888826858</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.00358118041156015</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.0280556235915172</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.000947053257325101</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0093334432759394</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.00438786773542196</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.00331176172113796</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.00302991420991293</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.00940678635230721</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.00257964692277603</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0719947217890095</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.0173395563862329</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.00169036289321295</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.000455904019167469</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.00379970909680805</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.014087606872744</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0267384153605182</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.013453408837766</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.00550878216766879</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0157277628160406</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.00820216892813754</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.00525569363589783</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00469127693651325</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.0139726531014243</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.00912487956354494</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.00973304325424477</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.00340481951953658</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.00552504817286032</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.00352966385612285</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.038647375109714</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.000177148564934614</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.0275070193690499</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0342888840980799</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.00641945493244874</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0113891872425333</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.00216028439022242</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.000267578413323539</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-0.00362657602764752</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.00085733747005835</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.00976982219855519</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.00781158876047643</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0277108619497336</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0237501790527562</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.000874171173790747</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-0.0000457353504827675</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.00847333686893322</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.00194657228801244</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.0140809648704422</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0251385267409466</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>-0.00231933987707151</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.00416452926954186</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.00789843359777541</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>-0.004786174156364</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-0.0111934772820746</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-0.0000426744812390294</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-0.00169179616819977</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0119414314984817</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-0.0068215550402213</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.0185212749211531</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0204492774325214</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00376957597028457</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0143640296901282</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-0.00554183378256908</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.0336808921430349</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.00920070021524097</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0298280865020559</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.00600740979668673</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.00420503263482661</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-0.00266365785481679</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>-0.00931145771735298</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.000953847864664159</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.000398752119047884</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.000364584529935822</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0311281169591293</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0009401108274393</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.0185794969575912</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>-0.00227643796537245</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.0234686072620027</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-0.00232112151341276</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.0269695228037036</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.0136622020401809</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.050644590868115</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.00165788409200241</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.000705100277384639</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.0507558757733427</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.00903777326286233</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.00788463575951458</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.0091826973929484</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.00543592736530967</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.0272517040912646</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.00548319389517455</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>-0.0128911314286692</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.0142988234434171</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.000222114286705167</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00159078652652115</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.0149818279353806</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0207079063320722</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>-0.00753932602153256</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-0.0000668186468105431</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.00539232666361764</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>-0.0306227954601764</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>-0.00147194681107763</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.00883966497300547</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.0333359125820045</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-0.0223404311613828</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.00709222857622334</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.0129107726897122</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-0.00344570067011926</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0435475310859596</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0368465643347456</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0126475917301354</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.0156969348998748</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.0184246749732933</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.000752264465486869</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-0.00671954015564844</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-0.00314081884308398</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-0.00188919888904768</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.00611546419622892</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.0000713286125885163</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.0379522578758371</v>
+      </c>
       <c r="EW2" t="n">
-        <v>-0.0237172318051038</v>
-      </c>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2" t="n">
-        <v>4.0994329576991</v>
-      </c>
-      <c r="FV2"/>
-      <c r="FW2" t="n">
-        <v>3.05433640262519</v>
+        <v>0.0237692612757315</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0000967011896565561</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.0165986267234926</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>-0.0184325074262501</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.00891820920018246</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-0.0477418444638528</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.0000382594909023417</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>-0.00325984839856073</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>-0.00361996402326676</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.0207623378749716</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.0281000840089603</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.00109283031539212</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-0.0179872237509174</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.00237615204949782</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.00190643440243298</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.0337200410407786</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.0188836784669257</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.00913521675575485</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.0117498489423475</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.00318404228786775</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.0787671381762025</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,30 +12,585 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">États-Unis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allemagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espagne</t>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (country)</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Royaume-Uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan mondial pour le climat</t>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_below_global_mean</t>
   </si>
 </sst>
 </file>
@@ -389,28 +944,1086 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.542040004729187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714184300632022</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.821162322917585</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.802845995450502</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.73482067298493</v>
+        <v>95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>70</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69</v>
+      </c>
+      <c r="M2" t="n">
+        <v>53</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>71</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64</v>
+      </c>
+      <c r="T2" t="n">
+        <v>100</v>
+      </c>
+      <c r="U2" t="n">
+        <v>99</v>
+      </c>
+      <c r="V2" t="n">
+        <v>57</v>
+      </c>
+      <c r="W2" t="n">
+        <v>78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>93</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>99</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>99</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>89</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>88</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>58</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>54</v>
+      </c>
+      <c r="AV2"/>
+      <c r="AW2" t="n">
+        <v>89</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>68</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>93</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2" t="n">
+        <v>43</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>89</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BK2"/>
+      <c r="BL2" t="n">
+        <v>88</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>98</v>
+      </c>
+      <c r="BP2"/>
+      <c r="BQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>96</v>
+      </c>
+      <c r="BS2"/>
+      <c r="BT2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>97</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>62</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>95</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>58</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>60</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>96</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>73</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>49</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>87</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>58</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>92</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>91</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>100</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>92</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>95</v>
+      </c>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2" t="n">
+        <v>97</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>74</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>74</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2" t="n">
+        <v>98</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>100</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>96</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>60</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>84</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>55</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>88</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>94</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>65</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI2"/>
+      <c r="DJ2" t="n">
+        <v>68</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>93</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>97</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>84</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>98</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>91</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>67</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>94</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>90</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>52</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>98</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>96</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>59</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>66</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>98</v>
+      </c>
+      <c r="EB2"/>
+      <c r="EC2" t="n">
+        <v>79</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>61</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>82</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>95</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>97</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>98</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>97</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>49</v>
+      </c>
+      <c r="EK2"/>
+      <c r="EL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="EM2"/>
+      <c r="EN2" t="n">
+        <v>64</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>84</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>79</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>76</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>55</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>99</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>80</v>
+      </c>
+      <c r="EU2"/>
+      <c r="EV2" t="n">
+        <v>57</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>99</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>45</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>80</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>52</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>58</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>85</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>100</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>94</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>85</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>91</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>98</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>88</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>100</v>
+      </c>
+      <c r="FO2"/>
+      <c r="FP2" t="n">
+        <v>74</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>95</v>
+      </c>
+      <c r="FR2"/>
+      <c r="FS2" t="n">
+        <v>83</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>77</v>
+      </c>
+      <c r="FU2"/>
+      <c r="FV2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>62</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>84</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>53</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>78</v>
+      </c>
+      <c r="GB2"/>
+      <c r="GC2" t="n">
+        <v>69</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>93</v>
+      </c>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2" t="n">
+        <v>99</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>82</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>97</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,23 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">Micronesia (country)</t>
-  </si>
-  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t xml:space="preserve">UK</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
@@ -284,15 +269,9 @@
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comoros</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
@@ -311,12 +290,6 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
@@ -350,9 +323,6 @@
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">North Macedonia</t>
   </si>
   <si>
@@ -389,6 +359,9 @@
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
@@ -407,9 +380,6 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
@@ -434,15 +404,9 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
@@ -467,9 +431,6 @@
     <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
@@ -500,9 +461,6 @@
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
@@ -533,16 +491,13 @@
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuvalu</t>
+    <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
     <t xml:space="preserve">Tanzania</t>
@@ -561,9 +516,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t xml:space="preserve">Venezuela</t>
@@ -1451,578 +1403,514 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2"/>
+        <v>176</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>99</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97</v>
+      </c>
+      <c r="P2" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>100</v>
+      </c>
+      <c r="S2" t="n">
+        <v>98</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>69</v>
+      </c>
+      <c r="V2" t="n">
+        <v>86</v>
+      </c>
+      <c r="W2" t="n">
+        <v>38</v>
+      </c>
+      <c r="X2" t="n">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>97</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>99</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>83</v>
+      </c>
+      <c r="AM2" t="n">
         <v>82</v>
       </c>
-      <c r="D2" t="n">
-        <v>99</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" t="n">
-        <v>95</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>71</v>
-      </c>
-      <c r="J2" t="n">
-        <v>70</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="AN2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>97</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>87</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>91</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>98</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>42</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC2"/>
+      <c r="BD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE2" t="n">
         <v>84</v>
       </c>
-      <c r="L2" t="n">
-        <v>69</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="BF2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>83</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>71</v>
-      </c>
-      <c r="S2" t="n">
-        <v>64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" t="n">
-        <v>99</v>
-      </c>
-      <c r="V2" t="n">
-        <v>57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>78</v>
-      </c>
-      <c r="X2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>94</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>66</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>83</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>98</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>98</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>99</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>99</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>91</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>89</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>88</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>58</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>98</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>54</v>
-      </c>
-      <c r="AV2"/>
-      <c r="AW2" t="n">
-        <v>89</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>68</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>93</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>99</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>55</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2" t="n">
-        <v>43</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>89</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>51</v>
       </c>
       <c r="BK2"/>
       <c r="BL2" t="n">
+        <v>35</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>95</v>
+      </c>
+      <c r="BN2"/>
+      <c r="BO2" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>96</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>49</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>99</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>35</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>92</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>94</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>62</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>30</v>
+      </c>
+      <c r="CB2" t="n">
         <v>88</v>
       </c>
-      <c r="BM2" t="n">
-        <v>99</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>99</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>98</v>
-      </c>
-      <c r="BP2"/>
-      <c r="BQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BR2" t="n">
+      <c r="CC2" t="n">
+        <v>86</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>99</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>88</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH2"/>
+      <c r="CI2" t="n">
         <v>96</v>
       </c>
-      <c r="BS2"/>
-      <c r="BT2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BU2" t="n">
+      <c r="CJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>13</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>96</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>100</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>18</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>21</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>85</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>91</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>99</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>24</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>99</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>59</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>90</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>96</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
         <v>97</v>
       </c>
-      <c r="BV2" t="n">
-        <v>62</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>100</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>48</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>95</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>58</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>60</v>
-      </c>
-      <c r="CB2" t="n">
+      <c r="DE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>53</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>91</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>84</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>97</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>73</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>94</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>13</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>14</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>97</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>9</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>74</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>92</v>
+      </c>
+      <c r="DW2" t="n">
         <v>96</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>73</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>49</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>87</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>58</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>92</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>91</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>55</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>100</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>92</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>95</v>
-      </c>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2" t="n">
-        <v>97</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>72</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>90</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>74</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>74</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>90</v>
-      </c>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2" t="n">
-        <v>98</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>100</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>96</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>60</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>84</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>55</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>88</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>94</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>99</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>65</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>99</v>
-      </c>
-      <c r="DI2"/>
-      <c r="DJ2" t="n">
-        <v>68</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>93</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>97</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>84</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>98</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>91</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>67</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>94</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>99</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>90</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>52</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>98</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>99</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>99</v>
       </c>
       <c r="DX2" t="n">
         <v>96</v>
       </c>
       <c r="DY2" t="n">
+        <v>96</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>55</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>44</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>71</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>14</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>99</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2"/>
+      <c r="EJ2" t="n">
+        <v>99</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>17</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>18</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>99</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>98</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>98</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>79</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>99</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>99</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>91</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>76</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>88</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>97</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>81</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FA2"/>
+      <c r="FB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>92</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>73</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>100</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>98</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>52</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>99</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>70</v>
+      </c>
+      <c r="FM2" t="n">
         <v>59</v>
       </c>
-      <c r="DZ2" t="n">
-        <v>66</v>
-      </c>
-      <c r="EA2" t="n">
+      <c r="FN2" t="n">
+        <v>89</v>
+      </c>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2" t="n">
         <v>98</v>
       </c>
-      <c r="EB2"/>
-      <c r="EC2" t="n">
-        <v>79</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>61</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>82</v>
-      </c>
-      <c r="EF2" t="n">
+      <c r="FR2" t="n">
+        <v>69</v>
+      </c>
+      <c r="FS2" t="n">
         <v>95</v>
       </c>
-      <c r="EG2" t="n">
-        <v>97</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>98</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>97</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>49</v>
-      </c>
-      <c r="EK2"/>
-      <c r="EL2" t="n">
-        <v>67</v>
-      </c>
-      <c r="EM2"/>
-      <c r="EN2" t="n">
-        <v>64</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>84</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>79</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>76</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>55</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>99</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>80</v>
-      </c>
-      <c r="EU2"/>
-      <c r="EV2" t="n">
-        <v>57</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>99</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>45</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>80</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>52</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>58</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>85</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>100</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>94</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>85</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>91</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>98</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>88</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>100</v>
-      </c>
-      <c r="FO2"/>
-      <c r="FP2" t="n">
-        <v>74</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>95</v>
-      </c>
-      <c r="FR2"/>
-      <c r="FS2" t="n">
-        <v>83</v>
-      </c>
       <c r="FT2" t="n">
-        <v>77</v>
-      </c>
-      <c r="FU2"/>
-      <c r="FV2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>62</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>84</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>53</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>78</v>
-      </c>
-      <c r="GB2"/>
-      <c r="GC2" t="n">
-        <v>69</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>93</v>
-      </c>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2" t="n">
-        <v>99</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>82</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>97</v>
-      </c>
-      <c r="GJ2" t="n">
         <v>99</v>
       </c>
     </row>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,128 +12,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
+    <t xml:space="preserve">Argentina</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
+    <t xml:space="preserve">Australia</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brunei</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">Central African Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Democratic Republic of the Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Republic of Congo</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivory Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyprus</t>
   </si>
   <si>
@@ -158,18 +164,18 @@
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
@@ -194,10 +200,13 @@
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gambia</t>
   </si>
   <si>
-    <t xml:space="preserve">Guinea</t>
+    <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
     <t xml:space="preserve">Equatorial Guinea</t>
@@ -209,12 +218,12 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -230,24 +239,24 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland</t>
   </si>
   <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
@@ -269,280 +281,274 @@
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve">Comoros</t>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_below_global_mean</t>
+    <t xml:space="preserve">Safrica_EU_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1403,516 +1409,350 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="n">
+        <v>0.00971714124407427</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>60</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29</v>
-      </c>
-      <c r="L2"/>
+        <v>-0.00805736141939256</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" t="n">
+        <v>0.0284157521071391</v>
+      </c>
       <c r="M2" t="n">
-        <v>99</v>
+        <v>-0.0100257067296089</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>0.00716917504106457</v>
       </c>
       <c r="O2" t="n">
-        <v>97</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60</v>
-      </c>
+        <v>0.0190180323445444</v>
+      </c>
+      <c r="P2"/>
       <c r="Q2" t="n">
-        <v>17</v>
-      </c>
-      <c r="R2" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" t="n">
-        <v>98</v>
-      </c>
-      <c r="T2" t="n">
-        <v>45</v>
-      </c>
-      <c r="U2" t="n">
-        <v>69</v>
-      </c>
-      <c r="V2" t="n">
-        <v>86</v>
-      </c>
-      <c r="W2" t="n">
-        <v>38</v>
-      </c>
-      <c r="X2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>90</v>
-      </c>
+        <v>-0.00687822374671656</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>97</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>99</v>
-      </c>
+        <v>0.0409246192685246</v>
+      </c>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
       <c r="AH2" t="n">
-        <v>75</v>
+        <v>0.0007641287153507</v>
       </c>
       <c r="AI2" t="n">
-        <v>98</v>
+        <v>0.00484132131091388</v>
       </c>
       <c r="AJ2" t="n">
-        <v>61</v>
+        <v>0.0152458587548238</v>
       </c>
       <c r="AK2" t="n">
-        <v>86</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>83</v>
-      </c>
+        <v>0.00498832779901487</v>
+      </c>
+      <c r="AL2"/>
       <c r="AM2" t="n">
-        <v>82</v>
+        <v>0.00819254127414292</v>
       </c>
       <c r="AN2" t="n">
-        <v>94</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>16</v>
-      </c>
+        <v>0.00119177864264767</v>
+      </c>
+      <c r="AO2"/>
+      <c r="AP2"/>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>97</v>
+        <v>-0.0163628626569513</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>-0.0113377672622474</v>
       </c>
       <c r="AT2" t="n">
-        <v>85</v>
+        <v>0.0022217626852159</v>
       </c>
       <c r="AU2" t="n">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>87</v>
-      </c>
+        <v>-0.00569241630569131</v>
+      </c>
+      <c r="AV2"/>
       <c r="AW2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX2"/>
       <c r="AY2" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>42</v>
+        <v>0.0220212249454861</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>-0.0011577148119419</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC2"/>
+        <v>-0.0300458717627332</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0193967963961937</v>
+      </c>
       <c r="BD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>84</v>
-      </c>
+        <v>-0.00920647811839938</v>
+      </c>
+      <c r="BE2"/>
       <c r="BF2" t="n">
-        <v>18</v>
+        <v>-0.00461378675667078</v>
       </c>
       <c r="BG2" t="n">
-        <v>83</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>99</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BH2"/>
+      <c r="BI2"/>
       <c r="BJ2" t="n">
-        <v>98</v>
-      </c>
-      <c r="BK2"/>
+        <v>0.00412763023914866</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.00248374834547289</v>
+      </c>
       <c r="BL2" t="n">
-        <v>35</v>
+        <v>0.0144186865256034</v>
       </c>
       <c r="BM2" t="n">
-        <v>95</v>
-      </c>
-      <c r="BN2"/>
+        <v>0.0125009708732119</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.000827881319622062</v>
+      </c>
       <c r="BO2" t="n">
-        <v>73</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>96</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>49</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>99</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>35</v>
-      </c>
+        <v>-0.00125101017291752</v>
+      </c>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
       <c r="BT2" t="n">
-        <v>92</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>14</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>94</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>62</v>
-      </c>
+        <v>-0.00501005344453832</v>
+      </c>
+      <c r="BW2"/>
+      <c r="BX2"/>
       <c r="BY2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>30</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>88</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>86</v>
-      </c>
+        <v>-0.00637209526207956</v>
+      </c>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
       <c r="CD2" t="n">
-        <v>13</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>99</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>88</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>93</v>
-      </c>
+        <v>-0.0041551445875708</v>
+      </c>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
       <c r="CH2"/>
       <c r="CI2" t="n">
-        <v>96</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK2" t="n">
+        <v>0.00991616649665718</v>
+      </c>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2" t="n">
+        <v>0.013158711856547</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0</v>
       </c>
-      <c r="CL2" t="n">
-        <v>13</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>60</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>83</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>96</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>100</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>93</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>18</v>
-      </c>
+      <c r="CR2"/>
       <c r="CS2" t="n">
+        <v>0.000388698405355875</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.00577865516272947</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.0106468139780964</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.00323888076202368</v>
+      </c>
+      <c r="CW2" t="n">
         <v>0</v>
       </c>
-      <c r="CT2" t="n">
-        <v>21</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>85</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>91</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>99</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>24</v>
-      </c>
+      <c r="CX2"/>
       <c r="CY2" t="n">
-        <v>99</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>59</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>90</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>96</v>
-      </c>
+        <v>0.0174750467493282</v>
+      </c>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>0.00954384912097086</v>
       </c>
       <c r="DD2" t="n">
-        <v>97</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>9</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>53</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>91</v>
-      </c>
+        <v>-0.00411882361227642</v>
+      </c>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
       <c r="DH2" t="n">
-        <v>99</v>
+        <v>0.0111475687933329</v>
       </c>
       <c r="DI2" t="n">
-        <v>84</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>24</v>
-      </c>
+        <v>0.00327373449642627</v>
+      </c>
+      <c r="DJ2"/>
       <c r="DK2" t="n">
-        <v>97</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>73</v>
-      </c>
+        <v>0.0297811946278574</v>
+      </c>
+      <c r="DL2"/>
       <c r="DM2" t="n">
-        <v>99</v>
+        <v>0.00000729592368596347</v>
       </c>
       <c r="DN2" t="n">
-        <v>99</v>
+        <v>0.026696020949582</v>
       </c>
       <c r="DO2" t="n">
-        <v>94</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>13</v>
-      </c>
+        <v>0.00300177168213557</v>
+      </c>
+      <c r="DP2"/>
       <c r="DQ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>97</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>9</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>74</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>92</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>96</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>96</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>96</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>22</v>
-      </c>
+        <v>-0.0112790313441645</v>
+      </c>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
       <c r="EA2" t="n">
-        <v>55</v>
+        <v>-0.0119867419295178</v>
       </c>
       <c r="EB2" t="n">
-        <v>44</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>71</v>
-      </c>
+        <v>-0.000659263519695754</v>
+      </c>
+      <c r="EC2"/>
+      <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>14</v>
-      </c>
+        <v>-0.0038075073482975</v>
+      </c>
+      <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>99</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI2"/>
+        <v>0.0196018030821897</v>
+      </c>
+      <c r="EH2"/>
+      <c r="EI2" t="n">
+        <v>0.00476169913381168</v>
+      </c>
       <c r="EJ2" t="n">
-        <v>99</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00419911153238608</v>
+      </c>
+      <c r="EK2"/>
+      <c r="EL2"/>
       <c r="EM2" t="n">
-        <v>17</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>18</v>
-      </c>
+        <v>0.0202449810582418</v>
+      </c>
+      <c r="EN2"/>
       <c r="EO2" t="n">
-        <v>99</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>98</v>
-      </c>
+        <v>0.00916545773548023</v>
+      </c>
+      <c r="EP2"/>
       <c r="EQ2" t="n">
-        <v>98</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>79</v>
-      </c>
+        <v>0.0176966839757711</v>
+      </c>
+      <c r="ER2"/>
       <c r="ES2" t="n">
-        <v>99</v>
+        <v>-0.0101466797628701</v>
       </c>
       <c r="ET2" t="n">
-        <v>99</v>
+        <v>-0.00628848240318827</v>
       </c>
       <c r="EU2" t="n">
-        <v>91</v>
+        <v>-0.00361546419438392</v>
       </c>
       <c r="EV2" t="n">
-        <v>76</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>88</v>
-      </c>
+        <v>0.0014237252772167</v>
+      </c>
+      <c r="EW2"/>
       <c r="EX2" t="n">
-        <v>97</v>
+        <v>0.0224460809473615</v>
       </c>
       <c r="EY2" t="n">
-        <v>81</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>99</v>
-      </c>
+        <v>0.00924007936676681</v>
+      </c>
+      <c r="EZ2"/>
       <c r="FA2"/>
-      <c r="FB2" t="n">
-        <v>15</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>92</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>73</v>
-      </c>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
-      <c r="FF2" t="n">
-        <v>100</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>98</v>
-      </c>
+      <c r="FF2"/>
+      <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>52</v>
+        <v>0.0107858215755072</v>
       </c>
       <c r="FI2" t="n">
-        <v>99</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>16</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>70</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>59</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>89</v>
-      </c>
+        <v>0.0158336494730774</v>
+      </c>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
       <c r="FO2"/>
       <c r="FP2"/>
-      <c r="FQ2" t="n">
-        <v>98</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>69</v>
-      </c>
+      <c r="FQ2"/>
+      <c r="FR2"/>
       <c r="FS2" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>99</v>
-      </c>
+        <v>0.00571122127405247</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.000535199873920968</v>
+      </c>
+      <c r="FV2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -548,7 +548,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Safrica_EU_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">Sall_but_OPEC_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1421,338 +1421,516 @@
         <v>178</v>
       </c>
       <c r="B2"/>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.033519453741654</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.00971714124407427</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0188576053225011</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00207734645299709</v>
+      </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="G2" t="n">
+        <v>0.000996423979594947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00305354839372588</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0201694155594112</v>
+      </c>
       <c r="J2" t="n">
-        <v>-0.00805736141939256</v>
-      </c>
-      <c r="K2"/>
+        <v>-0.00661345656855146</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00182691540931348</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.0284157521071391</v>
+        <v>0.0408226291567813</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0100257067296089</v>
+        <v>-0.00854310729742083</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00716917504106457</v>
+        <v>0.0158540630033169</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0190180323445444</v>
-      </c>
-      <c r="P2"/>
+        <v>0.0284808997623218</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0176123193617139</v>
+      </c>
       <c r="Q2" t="n">
-        <v>-0.00687822374671656</v>
+        <v>-0.00381444893572922</v>
       </c>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
+      <c r="S2" t="n">
+        <v>0.000865407899161107</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.00798387171655375</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.00324000602255232</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.00233118390196019</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0025644937565129</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.0108894575729849</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.00198743604473224</v>
+      </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0409246192685246</v>
-      </c>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
+        <v>0.0602613125493292</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.0170391063546624</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.0019469355281653</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.000652432013701673</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
       <c r="AH2" t="n">
-        <v>0.0007641287153507</v>
+        <v>0.00243956506453904</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00484132131091388</v>
+        <v>0.0105545701547095</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0152458587548238</v>
+        <v>0.0224040593614804</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00498832779901487</v>
-      </c>
-      <c r="AL2"/>
+        <v>0.0102225090212675</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.00455363847729705</v>
+      </c>
       <c r="AM2" t="n">
-        <v>0.00819254127414292</v>
+        <v>0.0128773606604394</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00119177864264767</v>
-      </c>
-      <c r="AO2"/>
-      <c r="AP2"/>
+        <v>0.00530201022897109</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00436309647940783</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.00345477788177928</v>
+      </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0163628626569513</v>
+        <v>-0.0149206581344523</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0113377672622474</v>
+        <v>-0.00977784789729499</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0022217626852159</v>
+        <v>0.00659179330049966</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.00569241630569131</v>
-      </c>
-      <c r="AV2"/>
+        <v>-0.00411022457102002</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.00467149679941774</v>
+      </c>
       <c r="AW2" t="n">
         <v>0</v>
       </c>
-      <c r="AX2"/>
+      <c r="AX2" t="n">
+        <v>0.00248009025733628</v>
+      </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0220212249454861</v>
+        <v>0.032385767564418</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0011577148119419</v>
+        <v>-0.000312976324593989</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0300458717627332</v>
+        <v>-0.0284758231532803</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0193967963961937</v>
+        <v>0.0286650617303358</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.00920647811839938</v>
-      </c>
-      <c r="BE2"/>
+        <v>-0.00705180325141518</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00770594644886527</v>
+      </c>
       <c r="BF2" t="n">
-        <v>-0.00461378675667078</v>
+        <v>-0.00266746674113774</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2"/>
-      <c r="BI2"/>
+        <v>0.000538021604111227</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-0.00428787601058925</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.000391304815849326</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>0.00412763023914866</v>
+        <v>0.00762869602621267</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00248374834547289</v>
+        <v>0.00572038981841382</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0144186865256034</v>
+        <v>0.0226685260201729</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0125009708732119</v>
+        <v>0.0194984843748815</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.000827881319622062</v>
+        <v>0.0010865203266699</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00125101017291752</v>
-      </c>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
+        <v>-0.0000392933743065161</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.00739001012592759</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.00169732166049932</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-0.000965580250671612</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0123930810555767</v>
+      </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
-      <c r="BU2"/>
+      <c r="BU2" t="n">
+        <v>0.0230573314598219</v>
+      </c>
       <c r="BV2" t="n">
-        <v>-0.00501005344453832</v>
-      </c>
-      <c r="BW2"/>
-      <c r="BX2"/>
+        <v>-0.00294969652247283</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.00174903571100508</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.00694144911172679</v>
+      </c>
       <c r="BY2" t="n">
-        <v>-0.00637209526207956</v>
-      </c>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
+        <v>-0.00527806417261903</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-0.011743159519076</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-0.0000365892066705101</v>
+      </c>
       <c r="CD2" t="n">
-        <v>-0.0041551445875708</v>
-      </c>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
+        <v>-0.0021290234786586</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0100646523710648</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-0.00747354965572559</v>
+      </c>
       <c r="CH2"/>
       <c r="CI2" t="n">
-        <v>0.00991616649665718</v>
-      </c>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
+        <v>0.0164517475188286</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.00246267660489576</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.0193059563176662</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.0073610115656556</v>
+      </c>
       <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
+      <c r="CN2" t="n">
+        <v>0.0120343347782621</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
       <c r="CP2" t="n">
-        <v>0.013158711856547</v>
+        <v>0.0234910125151906</v>
       </c>
       <c r="CQ2" t="n">
         <v>0</v>
       </c>
-      <c r="CR2"/>
+      <c r="CR2" t="n">
+        <v>0.00548555962634055</v>
+      </c>
       <c r="CS2" t="n">
-        <v>0.000388698405355875</v>
+        <v>0.00237217028649431</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.00577865516272947</v>
+        <v>-0.00354841883515017</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.0106468139780964</v>
+        <v>-0.00969553724429225</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.00323888076202368</v>
+        <v>-0.00147932846124972</v>
       </c>
       <c r="CW2" t="n">
+        <v>0.000572046110813141</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.000101775091948643</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0259754393074801</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.00489287812385733</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.000863689760667792</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0</v>
       </c>
-      <c r="CX2"/>
-      <c r="CY2" t="n">
-        <v>0.0174750467493282</v>
-      </c>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
       <c r="DC2" t="n">
-        <v>0.00954384912097086</v>
+        <v>0.0151585186467876</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.00411882361227642</v>
-      </c>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
+        <v>-0.00268176159077846</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0177890671625196</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.00212669777547695</v>
+      </c>
       <c r="DH2" t="n">
-        <v>0.0111475687933329</v>
+        <v>0.0209467381633422</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00327373449642627</v>
-      </c>
-      <c r="DJ2"/>
+        <v>0.00953318324618205</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.000639190360815043</v>
+      </c>
       <c r="DK2" t="n">
-        <v>0.0297811946278574</v>
+        <v>0.0427847882995826</v>
       </c>
       <c r="DL2"/>
       <c r="DM2" t="n">
-        <v>0.00000729592368596347</v>
+        <v>0.00107169897495472</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.026696020949582</v>
+        <v>0.0416692053510681</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.00300177168213557</v>
-      </c>
-      <c r="DP2"/>
+        <v>0.00673337042666427</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.0068082469285699</v>
+      </c>
       <c r="DQ2" t="n">
-        <v>-0.0112790313441645</v>
-      </c>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
+        <v>-0.00980877866883455</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.00608244683473224</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.0256686580148459</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-0.00633759131046514</v>
+      </c>
       <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
+      <c r="DV2" t="n">
+        <v>0.0132099364942922</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>-0.00000162860613268462</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.00116544870578437</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.010634949823309</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.014902010319608</v>
+      </c>
       <c r="EA2" t="n">
-        <v>-0.0119867419295178</v>
+        <v>-0.00810132500577462</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.000659263519695754</v>
-      </c>
-      <c r="EC2"/>
+        <v>-0.0000914202871211864</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00454586944363137</v>
+      </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.0038075073482975</v>
+        <v>-0.00203856935535582</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0196018030821897</v>
+        <v>0.0281449491634877</v>
       </c>
       <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.00476169913381168</v>
+        <v>0.00872222314181451</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00419911153238608</v>
-      </c>
-      <c r="EK2"/>
-      <c r="EL2"/>
+        <v>0.00956658302138506</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>-0.00470004023693472</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0331204795534151</v>
+      </c>
       <c r="EM2" t="n">
-        <v>0.0202449810582418</v>
-      </c>
-      <c r="EN2"/>
+        <v>0.0305739298420178</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.0111193212445177</v>
+      </c>
       <c r="EO2" t="n">
-        <v>0.00916545773548023</v>
-      </c>
-      <c r="EP2"/>
+        <v>0.0132461325172873</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0</v>
+      </c>
       <c r="EQ2" t="n">
-        <v>0.0176966839757711</v>
-      </c>
-      <c r="ER2"/>
+        <v>0.0268525530647178</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.00070422129676209</v>
+      </c>
       <c r="ES2" t="n">
-        <v>-0.0101466797628701</v>
+        <v>-0.00768373409757431</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00628848240318827</v>
+        <v>-0.00367221243858193</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00361546419438392</v>
+        <v>-0.0021484768432792</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0014237252772167</v>
-      </c>
-      <c r="EW2"/>
+        <v>0.00425866015722667</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.000153803025956787</v>
+      </c>
       <c r="EX2" t="n">
-        <v>0.0224460809473615</v>
+        <v>0.0321020742303227</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.00924007936676681</v>
-      </c>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
+        <v>0.0182597537256155</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>-0.000619760411720857</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.0144865277906222</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-0.0188898038978545</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.00664135900186254</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>-0.0473869891158857</v>
+      </c>
       <c r="FE2" t="n">
+        <v>0.0000889860789570875</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>-0.00359929603601613</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-0.00393451025561507</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.0169787484227703</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.0234646085344169</v>
+      </c>
+      <c r="FJ2" t="n">
         <v>0</v>
       </c>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2" t="n">
-        <v>0.0107858215755072</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.0158336494730774</v>
-      </c>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
+      <c r="FK2" t="n">
+        <v>0.000792061734624411</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-0.0179174720793094</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.00215582930572082</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.00369087892390073</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.0251042174359784</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.0132234554026154</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.0124058057946932</v>
+      </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00571122127405247</v>
+        <v>0.00946098691869384</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.000535199873920968</v>
-      </c>
-      <c r="FV2"/>
+        <v>0.00197416428676372</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.00358013281576259</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -548,7 +542,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Sall_but_OPEC_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">share_basic_income_2040</t>
   </si>
 </sst>
 </file>
@@ -1409,527 +1403,535 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2"/>
+        <v>176</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.033519453741654</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0188576053225011</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00207734645299709</v>
-      </c>
-      <c r="F2"/>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.000996423979594947</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00305354839372588</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0201694155594112</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00661345656855146</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00182691540931348</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0408226291567813</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.00854310729742083</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0158540630033169</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0284808997623218</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0176123193617139</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00381444893572922</v>
-      </c>
-      <c r="R2"/>
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
       <c r="S2" t="n">
-        <v>0.000865407899161107</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00798387171655375</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00324000602255232</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00233118390196019</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0025644937565129</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0108894575729849</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00198743604473224</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0602613125493292</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0170391063546624</v>
+        <v>0.656345005472441</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0019469355281653</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.000652432013701673</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00243956506453904</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0105545701547095</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0224040593614804</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0102225090212675</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00455363847729705</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0128773606604394</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00530201022897109</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00436309647940783</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00345477788177928</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0149206581344523</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00977784789729499</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00659179330049966</v>
+        <v>0.82881135030331</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.00411022457102002</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00467149679941774</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00248009025733628</v>
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.032385767564418</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.000312976324593989</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0284758231532803</v>
+        <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0286650617303358</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.00705180325141518</v>
+        <v>1</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00770594644886527</v>
+        <v>0.971576548764886</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00266746674113774</v>
+        <v>1</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.000538021604111227</v>
+        <v>0.941526673275892</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00428787601058925</v>
+        <v>1</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.000391304815849326</v>
+        <v>1</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00762869602621267</v>
+        <v>1</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00572038981841382</v>
+        <v>1</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0226685260201729</v>
+        <v>1</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0194984843748815</v>
+        <v>1</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0010865203266699</v>
+        <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.0000392933743065161</v>
+        <v>1</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00739001012592759</v>
+        <v>1</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00169732166049932</v>
+        <v>1</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.000965580250671612</v>
+        <v>1</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0123930810555767</v>
+        <v>1</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0230573314598219</v>
+        <v>1</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00294969652247283</v>
+        <v>1</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00174903571100508</v>
+        <v>1</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.00694144911172679</v>
+        <v>1</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00527806417261903</v>
+        <v>1</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.011743159519076</v>
+        <v>1</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.0000365892066705101</v>
+        <v>1</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.0021290234786586</v>
+        <v>1</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0100646523710648</v>
+        <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.00747354965572559</v>
-      </c>
-      <c r="CH2"/>
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
       <c r="CI2" t="n">
-        <v>0.0164517475188286</v>
+        <v>1</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00246267660489576</v>
+        <v>1</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0193059563176662</v>
+        <v>1</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0073610115656556</v>
-      </c>
-      <c r="CM2"/>
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
       <c r="CN2" t="n">
-        <v>0.0120343347782621</v>
+        <v>1</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0234910125151906</v>
+        <v>1</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00548555962634055</v>
+        <v>1</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00237217028649431</v>
+        <v>1</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.00354841883515017</v>
+        <v>1</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00969553724429225</v>
+        <v>1</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.00147932846124972</v>
+        <v>1</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.000572046110813141</v>
+        <v>1</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.000101775091948643</v>
+        <v>1</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0259754393074801</v>
+        <v>1</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00489287812385733</v>
+        <v>1</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.000863689760667792</v>
+        <v>1</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>0.676514654917366</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0151585186467876</v>
+        <v>1</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.00268176159077846</v>
+        <v>1</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0177890671625196</v>
+        <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.00212669777547695</v>
+        <v>1</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0209467381633422</v>
+        <v>1</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00953318324618205</v>
+        <v>1</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.000639190360815043</v>
+        <v>1</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0427847882995826</v>
-      </c>
-      <c r="DL2"/>
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
       <c r="DM2" t="n">
-        <v>0.00107169897495472</v>
+        <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0416692053510681</v>
+        <v>1</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.00673337042666427</v>
+        <v>1</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0068082469285699</v>
+        <v>1</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00980877866883455</v>
+        <v>1</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00608244683473224</v>
+        <v>1</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0256686580148459</v>
+        <v>1</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00633759131046514</v>
-      </c>
-      <c r="DU2"/>
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
       <c r="DV2" t="n">
-        <v>0.0132099364942922</v>
+        <v>1</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.00000162860613268462</v>
+        <v>1</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00116544870578437</v>
+        <v>1</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.010634949823309</v>
+        <v>1</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.014902010319608</v>
+        <v>1</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00810132500577462</v>
+        <v>1</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0000914202871211864</v>
+        <v>1</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00454586944363137</v>
-      </c>
-      <c r="ED2"/>
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>1</v>
+      </c>
       <c r="EE2" t="n">
-        <v>-0.00203856935535582</v>
-      </c>
-      <c r="EF2"/>
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
       <c r="EG2" t="n">
-        <v>0.0281449491634877</v>
-      </c>
-      <c r="EH2"/>
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.00872222314181451</v>
+        <v>1</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00956658302138506</v>
+        <v>1</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00470004023693472</v>
+        <v>1</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0331204795534151</v>
+        <v>1</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0305739298420178</v>
+        <v>1</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0111193212445177</v>
+        <v>1</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0132461325172873</v>
+        <v>1</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0268525530647178</v>
+        <v>1</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00070422129676209</v>
+        <v>1</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00768373409757431</v>
+        <v>0.655715591868919</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00367221243858193</v>
+        <v>1</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0021484768432792</v>
+        <v>1</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00425866015722667</v>
+        <v>1</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.000153803025956787</v>
+        <v>1</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0321020742303227</v>
+        <v>1</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0182597537256155</v>
+        <v>1</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.000619760411720857</v>
+        <v>1</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0144865277906222</v>
+        <v>1</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0188898038978545</v>
+        <v>1</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00664135900186254</v>
+        <v>1</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0473869891158857</v>
+        <v>1</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0000889860789570875</v>
+        <v>1</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.00359929603601613</v>
+        <v>1</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.00393451025561507</v>
+        <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0169787484227703</v>
+        <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0234646085344169</v>
+        <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.000792061734624411</v>
+        <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0179174720793094</v>
+        <v>1</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00215582930572082</v>
+        <v>1</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00369087892390073</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0251042174359784</v>
+        <v>1</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0132234554026154</v>
+        <v>1</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0124058057946932</v>
+        <v>1</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00946098691869384</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.00197416428676372</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.00358013281576259</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -542,7 +542,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">share_basic_income_2040</t>
+    <t xml:space="preserve">npv_pa_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1409,529 +1409,529 @@
         <v>176</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>16724.3199939839</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13170.7571451773</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7264.42780919361</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-74107.7710489145</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>796.657555273694</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>7558.03206796017</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>-37993.3332164902</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-11943.9327837908</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>6309.53549918239</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>17616.475027131</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>-16422.772940337</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>12050.2459221737</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>16600.4157220683</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>15720.2695896445</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-13976.7262552672</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>-91237.2766895412</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>6117.14893564724</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>-13669.2046552423</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>-2675.8152520416</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>11089.0705415183</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>7800.57342508217</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7323.1244689596</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>5152.41681144098</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>-21441.6908363384</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>7287.87771481083</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>-5008.53048842689</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>16986.7716741738</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>-35245.1732967335</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.656345005472441</v>
+        <v>-788.904111363773</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>-1328.83260749747</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>-1650.48578246452</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>7588.32953445467</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>12298.1037412388</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>17035.2957723486</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>12768.3624933617</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>9912.675200476</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>15654.9052113797</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>9562.63284260006</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>10063.3100325856</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>6979.60010879075</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>-1817.9575465715</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>-30923.0320993982</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>-18678.9261874474</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>9819.42166881295</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.82881135030331</v>
+        <v>-4877.81233719491</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>10678.1595436077</v>
       </c>
       <c r="AV2" t="n">
-        <v>1</v>
+        <v>-5209.3241717191</v>
       </c>
       <c r="AW2" t="n">
-        <v>1</v>
+        <v>7170.3861469535</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>-7541.80320048896</v>
       </c>
       <c r="AY2" t="n">
-        <v>1</v>
+        <v>17016.08884572</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>-191.731510324487</v>
       </c>
       <c r="BA2" t="n">
-        <v>1</v>
+        <v>-58701.4782702935</v>
       </c>
       <c r="BB2" t="n">
-        <v>1</v>
+        <v>16901.2204384</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>-11237.4106685738</v>
       </c>
       <c r="BD2" t="n">
-        <v>1</v>
+        <v>13756.3198902172</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.971576548764886</v>
+        <v>-2257.9968830612</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>1384.03067517952</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.941526673275892</v>
+        <v>-5367.61270107695</v>
       </c>
       <c r="BH2" t="n">
-        <v>1</v>
+        <v>2725.25946106459</v>
       </c>
       <c r="BI2" t="n">
-        <v>1</v>
+        <v>13580.1051116818</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>11486.0096102511</v>
       </c>
       <c r="BK2" t="n">
-        <v>1</v>
+        <v>15651.9430212226</v>
       </c>
       <c r="BL2" t="n">
-        <v>1</v>
+        <v>15791.6251236354</v>
       </c>
       <c r="BM2" t="n">
-        <v>1</v>
+        <v>9048.83564421348</v>
       </c>
       <c r="BN2" t="n">
-        <v>1</v>
+        <v>-6899.29000197058</v>
       </c>
       <c r="BO2" t="n">
-        <v>1</v>
+        <v>11942.8427425644</v>
       </c>
       <c r="BP2" t="n">
-        <v>1</v>
+        <v>4426.52415016258</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1</v>
+        <v>12434.7328417095</v>
       </c>
       <c r="BR2" t="n">
-        <v>1</v>
+        <v>1073.29219409136</v>
       </c>
       <c r="BS2" t="n">
-        <v>1</v>
+        <v>15646.4618111744</v>
       </c>
       <c r="BT2" t="n">
-        <v>1</v>
+        <v>-4668.73161350022</v>
       </c>
       <c r="BU2" t="n">
-        <v>1</v>
+        <v>9327.51140504691</v>
       </c>
       <c r="BV2" t="n">
-        <v>1</v>
+        <v>10599.4100069251</v>
       </c>
       <c r="BW2" t="n">
-        <v>1</v>
+        <v>-12855.4988251964</v>
       </c>
       <c r="BX2" t="n">
-        <v>1</v>
+        <v>-17125.8319192124</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>-7134.3149813494</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1</v>
+        <v>-27672.0544250038</v>
       </c>
       <c r="CA2" t="n">
-        <v>1</v>
+        <v>-5900.84416898472</v>
       </c>
       <c r="CB2" t="n">
-        <v>1</v>
+        <v>-2659.34931889673</v>
       </c>
       <c r="CC2" t="n">
-        <v>1</v>
+        <v>10529.4212553378</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>-8651.97347527585</v>
       </c>
       <c r="CE2" t="n">
-        <v>1</v>
+        <v>-9820.54455493437</v>
       </c>
       <c r="CF2" t="n">
-        <v>1</v>
+        <v>-36188.8754187354</v>
       </c>
       <c r="CG2" t="n">
-        <v>1</v>
+        <v>14817.2983279678</v>
       </c>
       <c r="CH2" t="n">
-        <v>1</v>
+        <v>4969.55626435118</v>
       </c>
       <c r="CI2" t="n">
-        <v>1</v>
+        <v>15457.381627316</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1</v>
+        <v>-7944.59008084716</v>
       </c>
       <c r="CK2" t="n">
-        <v>1</v>
+        <v>-102829.610291282</v>
       </c>
       <c r="CL2" t="n">
-        <v>1</v>
+        <v>16785.6092377773</v>
       </c>
       <c r="CM2" t="n">
-        <v>1</v>
+        <v>-3607.64170933012</v>
       </c>
       <c r="CN2" t="n">
-        <v>1</v>
+        <v>13829.5948351565</v>
       </c>
       <c r="CO2" t="n">
-        <v>1</v>
+        <v>-18850.4742872436</v>
       </c>
       <c r="CP2" t="n">
-        <v>1</v>
+        <v>13297.1564919992</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1</v>
+        <v>4086.02200171107</v>
       </c>
       <c r="CR2" t="n">
-        <v>1</v>
+        <v>-3804.88941329288</v>
       </c>
       <c r="CS2" t="n">
-        <v>1</v>
+        <v>-33097.2011246243</v>
       </c>
       <c r="CT2" t="n">
-        <v>1</v>
+        <v>-1508.93832848277</v>
       </c>
       <c r="CU2" t="n">
-        <v>1</v>
+        <v>-2100.20099147566</v>
       </c>
       <c r="CV2" t="n">
-        <v>1</v>
+        <v>-1498.48166087514</v>
       </c>
       <c r="CW2" t="n">
-        <v>1</v>
+        <v>16766.9960549584</v>
       </c>
       <c r="CX2" t="n">
-        <v>1</v>
+        <v>10511.6107185565</v>
       </c>
       <c r="CY2" t="n">
-        <v>1</v>
+        <v>2133.47643948131</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1</v>
+        <v>-5749.04940860327</v>
       </c>
       <c r="DA2" t="n">
-        <v>1</v>
+        <v>15477.7910928263</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.676514654917366</v>
+        <v>-813.061536665345</v>
       </c>
       <c r="DC2" t="n">
-        <v>1</v>
+        <v>17092.8765448279</v>
       </c>
       <c r="DD2" t="n">
-        <v>1</v>
+        <v>-1312.78556441275</v>
       </c>
       <c r="DE2" t="n">
-        <v>1</v>
+        <v>-11533.1802764958</v>
       </c>
       <c r="DF2" t="n">
-        <v>1</v>
+        <v>13339.5551255168</v>
       </c>
       <c r="DG2" t="n">
-        <v>1</v>
+        <v>10609.2015952821</v>
       </c>
       <c r="DH2" t="n">
-        <v>1</v>
+        <v>-1640.25777131554</v>
       </c>
       <c r="DI2" t="n">
-        <v>1</v>
+        <v>17616.1150344981</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1</v>
+        <v>-30.3215656082084</v>
       </c>
       <c r="DK2" t="n">
-        <v>1</v>
+        <v>2852.73497761318</v>
       </c>
       <c r="DL2" t="n">
-        <v>1</v>
+        <v>15778.1756675004</v>
       </c>
       <c r="DM2" t="n">
-        <v>1</v>
+        <v>12136.3301147471</v>
       </c>
       <c r="DN2" t="n">
-        <v>1</v>
+        <v>11406.3018701038</v>
       </c>
       <c r="DO2" t="n">
-        <v>1</v>
+        <v>-19879.7115834289</v>
       </c>
       <c r="DP2" t="n">
-        <v>1</v>
+        <v>-10289.9238959513</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1</v>
+        <v>16985.2702056833</v>
       </c>
       <c r="DR2" t="n">
-        <v>1</v>
+        <v>-8590.62523413244</v>
       </c>
       <c r="DS2" t="n">
-        <v>1</v>
+        <v>-37579.0988769607</v>
       </c>
       <c r="DT2" t="n">
-        <v>1</v>
+        <v>14338.194923551</v>
       </c>
       <c r="DU2" t="n">
-        <v>1</v>
+        <v>2357.10246309846</v>
       </c>
       <c r="DV2" t="n">
-        <v>1</v>
+        <v>5511.63228623028</v>
       </c>
       <c r="DW2" t="n">
-        <v>1</v>
+        <v>14896.8902505888</v>
       </c>
       <c r="DX2" t="n">
-        <v>1</v>
+        <v>15166.2068776126</v>
       </c>
       <c r="DY2" t="n">
-        <v>1</v>
+        <v>-14895.5998137553</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1</v>
+        <v>-2432.34911529656</v>
       </c>
       <c r="EA2" t="n">
-        <v>1</v>
+        <v>10493.7663074262</v>
       </c>
       <c r="EB2" t="n">
-        <v>1</v>
+        <v>-166794.162609226</v>
       </c>
       <c r="EC2" t="n">
-        <v>1</v>
+        <v>-2388.64348207187</v>
       </c>
       <c r="ED2" t="n">
-        <v>1</v>
+        <v>-17137.7337287755</v>
       </c>
       <c r="EE2" t="n">
-        <v>1</v>
+        <v>17631.6392490078</v>
       </c>
       <c r="EF2" t="n">
-        <v>1</v>
+        <v>-69432.4445458381</v>
       </c>
       <c r="EG2" t="n">
-        <v>1</v>
+        <v>12066.9303245658</v>
       </c>
       <c r="EH2" t="n">
-        <v>1</v>
+        <v>11862.8284232503</v>
       </c>
       <c r="EI2" t="n">
-        <v>1</v>
+        <v>-6703.16990442176</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1</v>
+        <v>17048.5571990399</v>
       </c>
       <c r="EK2" t="n">
-        <v>1</v>
+        <v>16420.1874072007</v>
       </c>
       <c r="EL2" t="n">
-        <v>1</v>
+        <v>12466.4044135369</v>
       </c>
       <c r="EM2" t="n">
-        <v>1</v>
+        <v>17455.6458351046</v>
       </c>
       <c r="EN2" t="n">
-        <v>1</v>
+        <v>-4652.94079303275</v>
       </c>
       <c r="EO2" t="n">
-        <v>1</v>
+        <v>15171.7331727909</v>
       </c>
       <c r="EP2" t="n">
-        <v>1</v>
+        <v>-1525.01735014429</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1</v>
+        <v>-11588.3270755132</v>
       </c>
       <c r="ER2" t="n">
-        <v>1</v>
+        <v>-6912.78346043721</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.655715591868919</v>
+        <v>110.133953433044</v>
       </c>
       <c r="ET2" t="n">
-        <v>1</v>
+        <v>10603.012643428</v>
       </c>
       <c r="EU2" t="n">
-        <v>1</v>
+        <v>-6517.51437804776</v>
       </c>
       <c r="EV2" t="n">
-        <v>1</v>
+        <v>17740.6049969009</v>
       </c>
       <c r="EW2" t="n">
-        <v>1</v>
+        <v>12855.797795435</v>
       </c>
       <c r="EX2" t="n">
-        <v>1</v>
+        <v>3039.44864041607</v>
       </c>
       <c r="EY2" t="n">
-        <v>1</v>
+        <v>15311.2561301849</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1</v>
+        <v>-56132.1319076443</v>
       </c>
       <c r="FA2" t="n">
-        <v>1</v>
+        <v>16192.4798364847</v>
       </c>
       <c r="FB2" t="n">
-        <v>1</v>
+        <v>-124640.136145221</v>
       </c>
       <c r="FC2" t="n">
-        <v>1</v>
+        <v>-3578.15095876736</v>
       </c>
       <c r="FD2" t="n">
-        <v>1</v>
+        <v>-7832.52087162107</v>
       </c>
       <c r="FE2" t="n">
-        <v>1</v>
+        <v>-6920.08857310577</v>
       </c>
       <c r="FF2" t="n">
-        <v>1</v>
+        <v>15629.7651180677</v>
       </c>
       <c r="FG2" t="n">
-        <v>1</v>
+        <v>16836.4140139931</v>
       </c>
       <c r="FH2" t="n">
-        <v>1</v>
+        <v>-7452.73469595688</v>
       </c>
       <c r="FI2" t="n">
-        <v>1</v>
+        <v>5127.54097694829</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1</v>
+        <v>-44981.1104488244</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>-3972.5876437022</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>6313.56168273922</v>
       </c>
       <c r="FM2" t="n">
-        <v>1</v>
+        <v>5270.31377883656</v>
       </c>
       <c r="FN2" t="n">
-        <v>1</v>
+        <v>16237.0260180271</v>
       </c>
       <c r="FO2" t="n">
-        <v>1</v>
+        <v>14575.6450582973</v>
       </c>
       <c r="FP2" t="n">
-        <v>1</v>
+        <v>7194.88355404671</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1</v>
+        <v>-18601.19458814</v>
       </c>
       <c r="FR2" t="n">
-        <v>1</v>
+        <v>14840.5533892637</v>
       </c>
       <c r="FS2" t="n">
-        <v>1</v>
+        <v>1869.13853971949</v>
       </c>
       <c r="FT2" t="n">
-        <v>1</v>
+        <v>9368.80966140435</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -218,6 +218,9 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -542,7 +545,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">npv_pa_gcs_adj</t>
+    <t xml:space="preserve">Scentral_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1403,535 +1406,489 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>16724.3199939839</v>
+        <v>0.0181978479454534</v>
       </c>
       <c r="C2" t="n">
-        <v>13170.7571451773</v>
+        <v>0.00605031278738703</v>
       </c>
       <c r="D2" t="n">
-        <v>7264.42780919361</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-74107.7710489145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>796.657555273694</v>
+        <v>0.000478969338267119</v>
       </c>
       <c r="G2" t="n">
-        <v>7558.03206796017</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-37993.3332164902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="n">
-        <v>-11943.9327837908</v>
+        <v>-0.00865528391275657</v>
       </c>
       <c r="J2" t="n">
-        <v>6309.53549918239</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17616.475027131</v>
+        <v>0.023278051478139</v>
       </c>
       <c r="L2" t="n">
-        <v>-16422.772940337</v>
+        <v>-0.0106350667875789</v>
       </c>
       <c r="M2" t="n">
-        <v>12050.2459221737</v>
+        <v>0.0046695949530543</v>
       </c>
       <c r="N2" t="n">
-        <v>16600.4157220683</v>
+        <v>0.0150994491515351</v>
       </c>
       <c r="O2" t="n">
-        <v>15720.2695896445</v>
+        <v>0.00885096520762095</v>
       </c>
       <c r="P2" t="n">
-        <v>-13976.7262552672</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-91237.2766895412</v>
-      </c>
+        <v>-0.0045165510205679</v>
+      </c>
+      <c r="Q2"/>
       <c r="R2" t="n">
-        <v>6117.14893564724</v>
+        <v>0.000359472231601866</v>
       </c>
       <c r="S2" t="n">
-        <v>-13669.2046552423</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-2675.8152520416</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11089.0705415183</v>
+        <v>0.0013842547654194</v>
       </c>
       <c r="V2" t="n">
-        <v>7800.57342508217</v>
+        <v>0.000741413449639804</v>
       </c>
       <c r="W2" t="n">
-        <v>7323.1244689596</v>
+        <v>0.000608722598182665</v>
       </c>
       <c r="X2" t="n">
-        <v>5152.41681144098</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-21441.6908363384</v>
-      </c>
+        <v>0.000971757976059452</v>
+      </c>
+      <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>7287.87771481083</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5008.53048842689</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>16986.7716741738</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-35245.1732967335</v>
-      </c>
+        <v>0.0329172745649323</v>
+      </c>
+      <c r="AC2"/>
       <c r="AD2" t="n">
-        <v>-788.904111363773</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1328.83260749747</v>
-      </c>
+        <v>-0.00349480425447978</v>
+      </c>
+      <c r="AE2"/>
       <c r="AF2" t="n">
-        <v>-1650.48578246452</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>7588.32953445467</v>
+        <v>0.000410494002487127</v>
       </c>
       <c r="AH2" t="n">
-        <v>12298.1037412388</v>
+        <v>0.00306499063281215</v>
       </c>
       <c r="AI2" t="n">
-        <v>17035.2957723486</v>
+        <v>0.0122816404739317</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12768.3624933617</v>
+        <v>0.00304841892547369</v>
       </c>
       <c r="AK2" t="n">
-        <v>9912.675200476</v>
+        <v>0.000654666414933222</v>
       </c>
       <c r="AL2" t="n">
-        <v>15654.9052113797</v>
+        <v>0.00628293228499559</v>
       </c>
       <c r="AM2" t="n">
-        <v>9562.63284260006</v>
+        <v>0.000444405181865187</v>
       </c>
       <c r="AN2" t="n">
-        <v>10063.3100325856</v>
+        <v>0.000659965957749407</v>
       </c>
       <c r="AO2" t="n">
-        <v>6979.60010879075</v>
+        <v>0.00110500222193367</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1817.9575465715</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-30923.0320993982</v>
+        <v>-0.0169600810425889</v>
       </c>
       <c r="AR2" t="n">
-        <v>-18678.9261874474</v>
+        <v>-0.0119444840139767</v>
       </c>
       <c r="AS2" t="n">
-        <v>9819.42166881295</v>
+        <v>0.00125396849546878</v>
       </c>
       <c r="AT2" t="n">
-        <v>-4877.81233719491</v>
+        <v>-0.00627330640791115</v>
       </c>
       <c r="AU2" t="n">
-        <v>10678.1595436077</v>
+        <v>0.00086513660730614</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5209.3241717191</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>7170.3861469535</v>
+        <v>0.000689210528692942</v>
       </c>
       <c r="AX2" t="n">
-        <v>-7541.80320048896</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>17016.08884572</v>
+        <v>0.0177292571183268</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-191.731510324487</v>
+        <v>-0.000774423179377822</v>
       </c>
       <c r="BA2" t="n">
-        <v>-58701.4782702935</v>
+        <v>-0.0306953923805776</v>
       </c>
       <c r="BB2" t="n">
-        <v>16901.2204384</v>
+        <v>0.0155587981274566</v>
       </c>
       <c r="BC2" t="n">
-        <v>-11237.4106685738</v>
+        <v>-0.00925562788127847</v>
       </c>
       <c r="BD2" t="n">
-        <v>13756.3198902172</v>
+        <v>0.00251791918166959</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2257.9968830612</v>
+        <v>-0.00472857116732212</v>
       </c>
       <c r="BF2" t="n">
-        <v>1384.03067517952</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-5367.61270107695</v>
+        <v>-0.00643959705411009</v>
       </c>
       <c r="BH2" t="n">
-        <v>2725.25946106459</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>13580.1051116818</v>
+        <v>0.00283614798395324</v>
       </c>
       <c r="BJ2" t="n">
-        <v>11486.0096102511</v>
+        <v>0.00163737134680268</v>
       </c>
       <c r="BK2" t="n">
-        <v>15651.9430212226</v>
+        <v>0.0110142177584514</v>
       </c>
       <c r="BL2" t="n">
-        <v>15791.6251236354</v>
+        <v>0.00965363467152715</v>
       </c>
       <c r="BM2" t="n">
-        <v>9048.83564421348</v>
+        <v>0.000508428649343776</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6899.29000197058</v>
+        <v>-0.0000583683856867862</v>
       </c>
       <c r="BO2" t="n">
-        <v>11942.8427425644</v>
+        <v>0.00179682838237708</v>
       </c>
       <c r="BP2" t="n">
-        <v>4426.52415016258</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>12434.7328417095</v>
-      </c>
+        <v>0.000739703153161538</v>
+      </c>
+      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>1073.29219409136</v>
+        <v>0.00359674469487541</v>
       </c>
       <c r="BS2" t="n">
-        <v>15646.4618111744</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-4668.73161350022</v>
+        <v>0.0114552119165973</v>
       </c>
       <c r="BU2" t="n">
-        <v>9327.51140504691</v>
+        <v>-0.00429388859354976</v>
       </c>
       <c r="BV2" t="n">
-        <v>10599.4100069251</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>-12855.4988251964</v>
+        <v>0.000906494177921472</v>
       </c>
       <c r="BX2" t="n">
-        <v>-17125.8319192124</v>
+        <v>-0.00682513466869068</v>
       </c>
       <c r="BY2" t="n">
-        <v>-7134.3149813494</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-27672.0544250038</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>-5900.84416898472</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>-2659.34931889673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CA2"/>
+      <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>10529.4212553378</v>
+        <v>-0.00374143572943994</v>
       </c>
       <c r="CD2" t="n">
-        <v>-8651.97347527585</v>
+        <v>0.00194933285006078</v>
       </c>
       <c r="CE2" t="n">
-        <v>-9820.54455493437</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-36188.8754187354</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>14817.2983279678</v>
-      </c>
+        <v>-0.00935283145433649</v>
+      </c>
+      <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>4969.55626435118</v>
+        <v>0.00728525552765742</v>
       </c>
       <c r="CI2" t="n">
-        <v>15457.381627316</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-7944.59008084716</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-102829.610291282</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>16785.6092377773</v>
-      </c>
+        <v>0.00998666987943473</v>
+      </c>
+      <c r="CK2"/>
+      <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>-3607.64170933012</v>
+        <v>0.00671133354183992</v>
       </c>
       <c r="CN2" t="n">
-        <v>13829.5948351565</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-18850.4742872436</v>
+        <v>0.00956506266535249</v>
       </c>
       <c r="CP2" t="n">
-        <v>13297.1564919992</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4086.02200171107</v>
+        <v>0.00200525107845883</v>
       </c>
       <c r="CR2" t="n">
-        <v>-3804.88941329288</v>
+        <v>0.0000578468284673332</v>
       </c>
       <c r="CS2" t="n">
-        <v>-33097.2011246243</v>
+        <v>-0.00553938474617888</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1508.93832848277</v>
+        <v>-0.0110407386582607</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2100.20099147566</v>
+        <v>-0.00262095151439916</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1498.48166087514</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>16766.9960549584</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>10511.6107185565</v>
+        <v>0.0139550253919775</v>
       </c>
       <c r="CY2" t="n">
-        <v>2133.47643948131</v>
+        <v>0.000504715696748122</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-5749.04940860327</v>
+        <v>0.000420013155013044</v>
       </c>
       <c r="DA2" t="n">
-        <v>15477.7910928263</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-813.061536665345</v>
+        <v>0.00725845366622247</v>
       </c>
       <c r="DC2" t="n">
-        <v>17092.8765448279</v>
+        <v>-0.00476159627923135</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1312.78556441275</v>
+        <v>0.00967838874412597</v>
       </c>
       <c r="DE2" t="n">
-        <v>-11533.1802764958</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>13339.5551255168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="DF2"/>
       <c r="DG2" t="n">
-        <v>10609.2015952821</v>
+        <v>0.00780054832898522</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1640.25777131554</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>17616.1150344981</v>
-      </c>
+        <v>0.00175218409449732</v>
+      </c>
+      <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>-30.3215656082084</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>2852.73497761318</v>
-      </c>
+        <v>0.0243963930279728</v>
+      </c>
+      <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>15778.1756675004</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>12136.3301147471</v>
+        <v>0.0205940605211111</v>
       </c>
       <c r="DN2" t="n">
-        <v>11406.3018701038</v>
+        <v>0.00182679848860471</v>
       </c>
       <c r="DO2" t="n">
-        <v>-19879.7115834289</v>
+        <v>0.00149061479157976</v>
       </c>
       <c r="DP2" t="n">
-        <v>-10289.9238959513</v>
+        <v>-0.0118806388077742</v>
       </c>
       <c r="DQ2" t="n">
-        <v>16985.2702056833</v>
+        <v>-0.00815345515943452</v>
       </c>
       <c r="DR2" t="n">
-        <v>-8590.62523413244</v>
+        <v>0.0141778587263339</v>
       </c>
       <c r="DS2" t="n">
-        <v>-37579.0988769607</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>14338.194923551</v>
-      </c>
+        <v>-0.00825860748085086</v>
+      </c>
+      <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>2357.10246309846</v>
+        <v>0.00573605320307047</v>
       </c>
       <c r="DV2" t="n">
-        <v>5511.63228623028</v>
+        <v>-0.00433530877879111</v>
       </c>
       <c r="DW2" t="n">
-        <v>14896.8902505888</v>
+        <v>0.00047698724543377</v>
       </c>
       <c r="DX2" t="n">
-        <v>15166.2068776126</v>
+        <v>0.00445430222296178</v>
       </c>
       <c r="DY2" t="n">
-        <v>-14895.5998137553</v>
+        <v>0.00653278217144444</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-2432.34911529656</v>
+        <v>-0.00965151222961706</v>
       </c>
       <c r="EA2" t="n">
-        <v>10493.7663074262</v>
+        <v>-0.000193952609045612</v>
       </c>
       <c r="EB2" t="n">
-        <v>-166794.162609226</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>-2388.64348207187</v>
-      </c>
+        <v>0.000902342706480571</v>
+      </c>
+      <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>-17137.7337287755</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>17631.6392490078</v>
-      </c>
+        <v>-0.00323388169270435</v>
+      </c>
+      <c r="EE2"/>
       <c r="EF2" t="n">
-        <v>-69432.4445458381</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>12066.9303245658</v>
-      </c>
+        <v>0.0160640774466487</v>
+      </c>
+      <c r="EG2"/>
       <c r="EH2" t="n">
-        <v>11862.8284232503</v>
+        <v>0.00332306840230412</v>
       </c>
       <c r="EI2" t="n">
-        <v>-6703.16990442176</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>17048.5571990399</v>
-      </c>
+        <v>0.00268837678385215</v>
+      </c>
+      <c r="EJ2"/>
       <c r="EK2" t="n">
-        <v>16420.1874072007</v>
+        <v>0.0179558707837201</v>
       </c>
       <c r="EL2" t="n">
-        <v>12466.4044135369</v>
+        <v>0.0159718112421604</v>
       </c>
       <c r="EM2" t="n">
-        <v>17455.6458351046</v>
+        <v>0.00325966061619425</v>
       </c>
       <c r="EN2" t="n">
-        <v>-4652.94079303275</v>
+        <v>0.00747564608430084</v>
       </c>
       <c r="EO2" t="n">
-        <v>15171.7331727909</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1525.01735014429</v>
+        <v>0.0139052291085141</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-11588.3270755132</v>
+        <v>0.000356401444898818</v>
       </c>
       <c r="ER2" t="n">
-        <v>-6912.78346043721</v>
+        <v>-0.00986778490493046</v>
       </c>
       <c r="ES2" t="n">
-        <v>110.133953433044</v>
+        <v>-0.00496364984952597</v>
       </c>
       <c r="ET2" t="n">
-        <v>10603.012643428</v>
+        <v>-0.00418096634146452</v>
       </c>
       <c r="EU2" t="n">
-        <v>-6517.51437804776</v>
+        <v>0.000742046527091167</v>
       </c>
       <c r="EV2" t="n">
-        <v>17740.6049969009</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>12855.797795435</v>
+        <v>0.018447524133669</v>
       </c>
       <c r="EX2" t="n">
-        <v>3039.44864041607</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>15311.2561301849</v>
-      </c>
+        <v>0.00641068097009834</v>
+      </c>
+      <c r="EY2"/>
       <c r="EZ2" t="n">
-        <v>-56132.1319076443</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>16192.4798364847</v>
-      </c>
+        <v>0.00694460606538522</v>
+      </c>
+      <c r="FA2"/>
       <c r="FB2" t="n">
-        <v>-124640.136145221</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-3578.15095876736</v>
-      </c>
+        <v>0.0033207298063737</v>
+      </c>
+      <c r="FC2"/>
       <c r="FD2" t="n">
-        <v>-7832.52087162107</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>-6920.08857310577</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>15629.7651180677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FE2"/>
+      <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>16836.4140139931</v>
+        <v>0.00823372919088676</v>
       </c>
       <c r="FH2" t="n">
-        <v>-7452.73469595688</v>
+        <v>0.0126736614267342</v>
       </c>
       <c r="FI2" t="n">
-        <v>5127.54097694829</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-44981.1104488244</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>-3972.5876437022</v>
-      </c>
+        <v>-0.000943463651716223</v>
+      </c>
+      <c r="FK2"/>
       <c r="FL2" t="n">
-        <v>6313.56168273922</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>5270.31377883656</v>
+        <v>0.000986391210062495</v>
       </c>
       <c r="FN2" t="n">
-        <v>16237.0260180271</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>14575.6450582973</v>
+        <v>0.0126098883587276</v>
       </c>
       <c r="FP2" t="n">
-        <v>7194.88355404671</v>
+        <v>0.00521601773520042</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-18601.19458814</v>
+        <v>0.00111634929055457</v>
       </c>
       <c r="FR2" t="n">
-        <v>14840.5533892637</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>1869.13853971949</v>
+        <v>0.00420498272175106</v>
       </c>
       <c r="FT2" t="n">
-        <v>9368.80966140435</v>
+        <v>0.000218148523181066</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Scentral_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">Safrica_EU_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1414,433 +1414,307 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0181978479454534</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.00605031278738703</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00884142160562055</v>
+      </c>
+      <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="n">
-        <v>0.000478969338267119</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00865528391275657</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00819612439979672</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" t="n">
-        <v>0.023278051478139</v>
+        <v>0.0272234192218293</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0106350667875789</v>
+        <v>-0.0101649811441045</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0046695949530543</v>
+        <v>0.00641967142177939</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0150994491515351</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.00885096520762095</v>
-      </c>
+        <v>0.0181086263782889</v>
+      </c>
+      <c r="O2"/>
       <c r="P2" t="n">
-        <v>-0.0045165510205679</v>
+        <v>-0.00436878056640007</v>
       </c>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>0.000359472231601866</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0013842547654194</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.000741413449639804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.000608722598182665</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.000971757976059452</v>
-      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z2"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0329172745649323</v>
+        <v>0.0390663131694472</v>
       </c>
       <c r="AC2"/>
-      <c r="AD2" t="n">
-        <v>-0.00349480425447978</v>
-      </c>
+      <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF2"/>
       <c r="AG2" t="n">
-        <v>0.000410494002487127</v>
+        <v>0.000650697536009506</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00306499063281215</v>
+        <v>0.00430678331521504</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0122816404739317</v>
+        <v>0.0145579372135034</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00304841892547369</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.000654666414933222</v>
-      </c>
+        <v>0.00448852032758551</v>
+      </c>
+      <c r="AK2"/>
       <c r="AL2" t="n">
-        <v>0.00628293228499559</v>
+        <v>0.00774231804764778</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.000444405181865187</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.000659965957749407</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00110500222193367</v>
-      </c>
+        <v>0.000927867351779793</v>
+      </c>
+      <c r="AN2"/>
+      <c r="AO2"/>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0169600810425889</v>
+        <v>-0.0165014622314162</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0119444840139767</v>
+        <v>-0.0114599218719354</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00125396849546878</v>
+        <v>0.00190523048766445</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00627330640791115</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.00086513660730614</v>
-      </c>
+        <v>-0.00579468180765326</v>
+      </c>
+      <c r="AU2"/>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
-      <c r="AW2" t="n">
-        <v>0.000689210528692942</v>
-      </c>
+      <c r="AW2"/>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0177292571183268</v>
+        <v>0.0210251656667247</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000774423179377822</v>
+        <v>-0.00069218438952605</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0306953923805776</v>
+        <v>-0.0301962881144858</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0155587981274566</v>
+        <v>0.0185060921921093</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00925562788127847</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.00251791918166959</v>
-      </c>
+        <v>-0.00880707689437297</v>
+      </c>
+      <c r="BD2"/>
       <c r="BE2" t="n">
-        <v>-0.00472857116732212</v>
+        <v>-0.004320288663853</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" t="n">
-        <v>-0.00643959705411009</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG2"/>
+      <c r="BH2"/>
       <c r="BI2" t="n">
-        <v>0.00283614798395324</v>
+        <v>0.00379490566437072</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00163737134680268</v>
+        <v>0.00222352529519356</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0110142177584514</v>
+        <v>0.0136258556715097</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00965363467152715</v>
+        <v>0.0118284917771382</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.000508428649343776</v>
+        <v>0.000798581413575312</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0000583683856867862</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.00179682838237708</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.000739703153161538</v>
-      </c>
+        <v>-0.0000546989856394132</v>
+      </c>
+      <c r="BO2"/>
+      <c r="BP2"/>
       <c r="BQ2"/>
-      <c r="BR2" t="n">
-        <v>0.00359674469487541</v>
-      </c>
+      <c r="BR2"/>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
-      <c r="BT2" t="n">
-        <v>0.0114552119165973</v>
-      </c>
+      <c r="BT2"/>
       <c r="BU2" t="n">
-        <v>-0.00429388859354976</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.000906494177921472</v>
-      </c>
+        <v>-0.00398317591798789</v>
+      </c>
+      <c r="BV2"/>
+      <c r="BW2"/>
       <c r="BX2" t="n">
-        <v>-0.00682513466869068</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00647723447159181</v>
+      </c>
+      <c r="BY2"/>
+      <c r="BZ2"/>
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00374143572943994</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.00194933285006078</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>-0.00935283145433649</v>
-      </c>
+        <v>-0.00341958674678099</v>
+      </c>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.00728525552765742</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.00998666987943473</v>
-      </c>
+        <v>0.00928811550064852</v>
+      </c>
+      <c r="CI2"/>
+      <c r="CJ2"/>
       <c r="CK2"/>
       <c r="CL2"/>
-      <c r="CM2" t="n">
-        <v>0.00671133354183992</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CM2"/>
+      <c r="CN2"/>
       <c r="CO2" t="n">
-        <v>0.00956506266535249</v>
+        <v>0.012183925125057</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
-      <c r="CQ2" t="n">
-        <v>0.00200525107845883</v>
-      </c>
+      <c r="CQ2"/>
       <c r="CR2" t="n">
-        <v>0.0000578468284673332</v>
+        <v>0.000273585897013662</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00553938474617888</v>
+        <v>-0.00514152421128368</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0110407386582607</v>
+        <v>-0.0107382341258263</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00262095151439916</v>
+        <v>-0.00239839434728373</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0139550253919775</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.000504715696748122</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.000420013155013044</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0166581370995772</v>
+      </c>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
       <c r="DB2" t="n">
-        <v>0.00725845366622247</v>
+        <v>0.00900426489772176</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00476159627923135</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.00967838874412597</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.00426318249873814</v>
+      </c>
+      <c r="DD2"/>
+      <c r="DE2"/>
       <c r="DF2"/>
       <c r="DG2" t="n">
-        <v>0.00780054832898522</v>
+        <v>0.0102243488455435</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00175218409449732</v>
+        <v>0.00278804566146632</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.0243963930279728</v>
+        <v>0.0285315157360647</v>
       </c>
       <c r="DK2"/>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0205940605211111</v>
+        <v>0.0252570593085287</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00182679848860471</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.00149061479157976</v>
-      </c>
+        <v>0.00265314537798609</v>
+      </c>
+      <c r="DO2"/>
       <c r="DP2" t="n">
-        <v>-0.0118806388077742</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>-0.00815345515943452</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.0141778587263339</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>-0.00825860748085086</v>
-      </c>
+        <v>-0.0114152248598492</v>
+      </c>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
       <c r="DT2"/>
-      <c r="DU2" t="n">
-        <v>0.00573605320307047</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>-0.00433530877879111</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.00047698724543377</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.00445430222296178</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.00653278217144444</v>
-      </c>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
       <c r="DZ2" t="n">
-        <v>-0.00965151222961706</v>
+        <v>-0.00934785793780647</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.000193952609045612</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.000902342706480571</v>
-      </c>
+        <v>-0.000175033368796349</v>
+      </c>
+      <c r="EB2"/>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>-0.00323388169270435</v>
+        <v>-0.00296045019229186</v>
       </c>
       <c r="EE2"/>
       <c r="EF2" t="n">
-        <v>0.0160640774466487</v>
+        <v>0.0187807847085909</v>
       </c>
       <c r="EG2"/>
       <c r="EH2" t="n">
-        <v>0.00332306840230412</v>
+        <v>0.00438428741220101</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00268837678385215</v>
+        <v>0.00374508430984998</v>
       </c>
       <c r="EJ2"/>
-      <c r="EK2" t="n">
-        <v>0.0179558707837201</v>
-      </c>
+      <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0159718112421604</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.00325966061619425</v>
-      </c>
+        <v>0.0192523424388455</v>
+      </c>
+      <c r="EM2"/>
       <c r="EN2" t="n">
-        <v>0.00747564608430084</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00877329436373604</v>
+      </c>
+      <c r="EO2"/>
       <c r="EP2" t="n">
-        <v>0.0139052291085141</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.000356401444898818</v>
-      </c>
+        <v>0.0168167813407516</v>
+      </c>
+      <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>-0.00986778490493046</v>
+        <v>-0.00940103665621721</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00496364984952597</v>
+        <v>-0.0047159951208327</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00418096634146452</v>
+        <v>-0.00371300762912504</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.000742046527091167</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00120529369260418</v>
+      </c>
+      <c r="EV2"/>
       <c r="EW2" t="n">
-        <v>0.018447524133669</v>
+        <v>0.0215181150873357</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.00641068097009834</v>
+        <v>0.00841427041817804</v>
       </c>
       <c r="EY2"/>
-      <c r="EZ2" t="n">
-        <v>0.00694460606538522</v>
-      </c>
+      <c r="EZ2"/>
       <c r="FA2"/>
-      <c r="FB2" t="n">
-        <v>0.0033207298063737</v>
-      </c>
+      <c r="FB2"/>
       <c r="FC2"/>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1848,48 +1722,30 @@
       <c r="FE2"/>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>0.00823372919088676</v>
+        <v>0.0101906653321782</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0126736614267342</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>-0.000943463651716223</v>
-      </c>
+        <v>0.0151002946248845</v>
+      </c>
+      <c r="FI2"/>
+      <c r="FJ2"/>
       <c r="FK2"/>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.000986391210062495</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.0126098883587276</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.00521601773520042</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.00111634929055457</v>
-      </c>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00420498272175106</v>
+        <v>0.00535204018881211</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.000218148523181066</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.000433723283238179</v>
+      </c>
+      <c r="FU2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Safrica_EU_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">mean_gain_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,34 +1415,20 @@
         <v>177</v>
       </c>
       <c r="B2"/>
-      <c r="C2" t="n">
-        <v>0.00884142160562055</v>
-      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" t="n">
-        <v>-0.00819612439979672</v>
-      </c>
+      <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" t="n">
-        <v>0.0272234192218293</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.0101649811441045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.00641967142177939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0181086263782889</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>-0.00436878056640007</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -1453,200 +1439,100 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0390663131694472</v>
-      </c>
+      <c r="AA2"/>
+      <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
-      <c r="AG2" t="n">
-        <v>0.000650697536009506</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.00430678331521504</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.0145579372135034</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.00448852032758551</v>
-      </c>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AL2" t="n">
-        <v>0.00774231804764778</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.000927867351779793</v>
-      </c>
+      <c r="AL2"/>
+      <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-0.0165014622314162</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-0.0114599218719354</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.00190523048766445</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-0.00579468180765326</v>
-      </c>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
       <c r="AU2"/>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV2"/>
       <c r="AW2"/>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.0210251656667247</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>-0.00069218438952605</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>-0.0301962881144858</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.0185060921921093</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>-0.00880707689437297</v>
-      </c>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
       <c r="BD2"/>
-      <c r="BE2" t="n">
-        <v>-0.004320288663853</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE2"/>
+      <c r="BF2"/>
       <c r="BG2"/>
       <c r="BH2"/>
-      <c r="BI2" t="n">
-        <v>0.00379490566437072</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.00222352529519356</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.0136258556715097</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.0118284917771382</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.000798581413575312</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>-0.0000546989856394132</v>
-      </c>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
       <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
       <c r="BR2"/>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS2"/>
       <c r="BT2"/>
-      <c r="BU2" t="n">
-        <v>-0.00398317591798789</v>
-      </c>
+      <c r="BU2"/>
       <c r="BV2"/>
       <c r="BW2"/>
-      <c r="BX2" t="n">
-        <v>-0.00647723447159181</v>
-      </c>
+      <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2"/>
       <c r="CA2"/>
       <c r="CB2"/>
-      <c r="CC2" t="n">
-        <v>-0.00341958674678099</v>
-      </c>
+      <c r="CC2"/>
       <c r="CD2"/>
       <c r="CE2"/>
       <c r="CF2"/>
       <c r="CG2"/>
-      <c r="CH2" t="n">
-        <v>0.00928811550064852</v>
-      </c>
+      <c r="CH2"/>
       <c r="CI2"/>
       <c r="CJ2"/>
       <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2"/>
       <c r="CN2"/>
-      <c r="CO2" t="n">
-        <v>0.012183925125057</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CO2"/>
+      <c r="CP2"/>
       <c r="CQ2"/>
-      <c r="CR2" t="n">
-        <v>0.000273585897013662</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-0.00514152421128368</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>-0.0107382341258263</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-0.00239839434728373</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
       <c r="CW2"/>
-      <c r="CX2" t="n">
-        <v>0.0166581370995772</v>
-      </c>
+      <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
       <c r="DA2"/>
-      <c r="DB2" t="n">
-        <v>0.00900426489772176</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>-0.00426318249873814</v>
-      </c>
+      <c r="DB2"/>
+      <c r="DC2"/>
       <c r="DD2"/>
       <c r="DE2"/>
       <c r="DF2"/>
-      <c r="DG2" t="n">
-        <v>0.0102243488455435</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.00278804566146632</v>
-      </c>
+      <c r="DG2"/>
+      <c r="DH2"/>
       <c r="DI2"/>
-      <c r="DJ2" t="n">
-        <v>0.0285315157360647</v>
-      </c>
+      <c r="DJ2"/>
       <c r="DK2"/>
-      <c r="DL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.0252570593085287</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.00265314537798609</v>
-      </c>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
       <c r="DO2"/>
-      <c r="DP2" t="n">
-        <v>-0.0114152248598492</v>
-      </c>
+      <c r="DP2"/>
       <c r="DQ2"/>
       <c r="DR2"/>
       <c r="DS2"/>
@@ -1656,77 +1542,41 @@
       <c r="DW2"/>
       <c r="DX2"/>
       <c r="DY2"/>
-      <c r="DZ2" t="n">
-        <v>-0.00934785793780647</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>-0.000175033368796349</v>
-      </c>
+      <c r="DZ2"/>
+      <c r="EA2"/>
       <c r="EB2"/>
       <c r="EC2"/>
-      <c r="ED2" t="n">
-        <v>-0.00296045019229186</v>
-      </c>
+      <c r="ED2"/>
       <c r="EE2"/>
-      <c r="EF2" t="n">
-        <v>0.0187807847085909</v>
-      </c>
+      <c r="EF2"/>
       <c r="EG2"/>
-      <c r="EH2" t="n">
-        <v>0.00438428741220101</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.00374508430984998</v>
-      </c>
+      <c r="EH2"/>
+      <c r="EI2"/>
       <c r="EJ2"/>
       <c r="EK2"/>
-      <c r="EL2" t="n">
-        <v>0.0192523424388455</v>
-      </c>
+      <c r="EL2"/>
       <c r="EM2"/>
-      <c r="EN2" t="n">
-        <v>0.00877329436373604</v>
-      </c>
+      <c r="EN2"/>
       <c r="EO2"/>
-      <c r="EP2" t="n">
-        <v>0.0168167813407516</v>
-      </c>
+      <c r="EP2"/>
       <c r="EQ2"/>
-      <c r="ER2" t="n">
-        <v>-0.00940103665621721</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-0.0047159951208327</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-0.00371300762912504</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.00120529369260418</v>
-      </c>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
       <c r="EV2"/>
-      <c r="EW2" t="n">
-        <v>0.0215181150873357</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.00841427041817804</v>
-      </c>
+      <c r="EW2"/>
+      <c r="EX2"/>
       <c r="EY2"/>
       <c r="EZ2"/>
       <c r="FA2"/>
       <c r="FB2"/>
       <c r="FC2"/>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
+      <c r="FD2"/>
       <c r="FE2"/>
       <c r="FF2"/>
-      <c r="FG2" t="n">
-        <v>0.0101906653321782</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.0151002946248845</v>
-      </c>
+      <c r="FG2"/>
+      <c r="FH2"/>
       <c r="FI2"/>
       <c r="FJ2"/>
       <c r="FK2"/>
@@ -1736,15 +1586,9 @@
       <c r="FO2"/>
       <c r="FP2"/>
       <c r="FQ2"/>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.00535204018881211</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.000433723283238179</v>
-      </c>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
       <c r="FU2"/>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_gain_2030</t>
+    <t xml:space="preserve">Scentral_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1414,182 +1414,482 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="B2" t="n">
+        <v>0.0181978479454534</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00605031278738703</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+      <c r="F2" t="n">
+        <v>0.000478969338267119</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="I2" t="n">
+        <v>-0.00865528391275657</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.023278051478139</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.0106350667875789</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0046695949530543</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0150994491515351</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00885096520762095</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.0045165510205679</v>
+      </c>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
+      <c r="R2" t="n">
+        <v>0.000359472231601866</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0013842547654194</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.000741413449639804</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.000608722598182665</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.000971757976059452</v>
+      </c>
       <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0329172745649323</v>
+      </c>
       <c r="AC2"/>
-      <c r="AD2"/>
+      <c r="AD2" t="n">
+        <v>-0.00349480425447978</v>
+      </c>
       <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.000410494002487127</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.00306499063281215</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0122816404739317</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00304841892547369</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.000654666414933222</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.00628293228499559</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.000444405181865187</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.000659965957749407</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00110500222193367</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.0169600810425889</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.0119444840139767</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.00125396849546878</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.00627330640791115</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.00086513660730614</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.000689210528692942</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0177292571183268</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.000774423179377822</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.0306953923805776</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0155587981274566</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.00925562788127847</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.00251791918166959</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.00472857116732212</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-0.00643959705411009</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.00283614798395324</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.00163737134680268</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0110142177584514</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.00965363467152715</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.000508428649343776</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-0.0000583683856867862</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.00179682838237708</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.000739703153161538</v>
+      </c>
       <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
+      <c r="BR2" t="n">
+        <v>0.00359674469487541</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0114552119165973</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-0.00429388859354976</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.000906494177921472</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-0.00682513466869068</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
       <c r="CA2"/>
       <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
+      <c r="CC2" t="n">
+        <v>-0.00374143572943994</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00194933285006078</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.00935283145433649</v>
+      </c>
       <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
+      <c r="CH2" t="n">
+        <v>0.00728525552765742</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.00998666987943473</v>
+      </c>
       <c r="CK2"/>
       <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
+      <c r="CM2" t="n">
+        <v>0.00671133354183992</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.00956506266535249</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.00200525107845883</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.0000578468284673332</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>-0.00553938474617888</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.0110407386582607</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.00262095151439916</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.0139550253919775</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.000504715696748122</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.000420013155013044</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.00725845366622247</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.00476159627923135</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.00967838874412597</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
       <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
+      <c r="DG2" t="n">
+        <v>0.00780054832898522</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.00175218409449732</v>
+      </c>
       <c r="DI2"/>
-      <c r="DJ2"/>
+      <c r="DJ2" t="n">
+        <v>0.0243963930279728</v>
+      </c>
       <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
+      <c r="DL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0205940605211111</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.00182679848860471</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.00149061479157976</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.0118806388077742</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.00815345515943452</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.0141778587263339</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>-0.00825860748085086</v>
+      </c>
       <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
+      <c r="DU2" t="n">
+        <v>0.00573605320307047</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>-0.00433530877879111</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.00047698724543377</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.00445430222296178</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.00653278217144444</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-0.00965151222961706</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>-0.000193952609045612</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.000902342706480571</v>
+      </c>
       <c r="EC2"/>
-      <c r="ED2"/>
+      <c r="ED2" t="n">
+        <v>-0.00323388169270435</v>
+      </c>
       <c r="EE2"/>
-      <c r="EF2"/>
+      <c r="EF2" t="n">
+        <v>0.0160640774466487</v>
+      </c>
       <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
+      <c r="EH2" t="n">
+        <v>0.00332306840230412</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.00268837678385215</v>
+      </c>
       <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
+      <c r="EK2" t="n">
+        <v>0.0179558707837201</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0159718112421604</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.00325966061619425</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.00747564608430084</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.0139052291085141</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.000356401444898818</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-0.00986778490493046</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-0.00496364984952597</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-0.00418096634146452</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.000742046527091167</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.018447524133669</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.00641068097009834</v>
+      </c>
       <c r="EY2"/>
-      <c r="EZ2"/>
+      <c r="EZ2" t="n">
+        <v>0.00694460606538522</v>
+      </c>
       <c r="FA2"/>
-      <c r="FB2"/>
+      <c r="FB2" t="n">
+        <v>0</v>
+      </c>
       <c r="FC2"/>
-      <c r="FD2"/>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
       <c r="FE2"/>
       <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
+      <c r="FG2" t="n">
+        <v>0.00823372919088676</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.0126736614267342</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-0.000943463651716223</v>
+      </c>
       <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.000986391210062495</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.0126098883587276</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.00521601773520042</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.00111634929055457</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.00420498272175106</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.000218148523181066</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Scentral_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">Sprudent_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1415,49 +1415,49 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0181978479454534</v>
+        <v>0.0151043838170846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00605031278738703</v>
+        <v>0.00359379866853409</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.000478969338267119</v>
+        <v>0.000410639911282762</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00865528391275657</v>
+        <v>-0.00906753310710586</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.023278051478139</v>
+        <v>0.0197357646957889</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0106350667875789</v>
+        <v>-0.0110574671035766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0046695949530543</v>
+        <v>0.00281927431191736</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0150994491515351</v>
+        <v>0.0123989249979428</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00885096520762095</v>
+        <v>0.0070820295521727</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0045165510205679</v>
+        <v>-0.00465620993605702</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.000359472231601866</v>
+        <v>0.000289105637803429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0013842547654194</v>
+        <v>0.000876068697373236</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000741413449639804</v>
+        <v>0.000623788839979223</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000608722598182665</v>
+        <v>0.000514636877426194</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000971757976059452</v>
+        <v>0.000805313115135587</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
@@ -1485,145 +1485,141 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0329172745649323</v>
+        <v>0.0273964563325208</v>
       </c>
       <c r="AC2"/>
-      <c r="AD2" t="n">
-        <v>-0.00349480425447978</v>
-      </c>
+      <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.000410494002487127</v>
+        <v>0.000156350839541344</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00306499063281215</v>
+        <v>0.00181616904949319</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0122816404739317</v>
+        <v>0.0102379030134157</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00304841892547369</v>
+        <v>0.00170710968242554</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.000654666414933222</v>
+        <v>0.000512474295276406</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00628293228499559</v>
+        <v>0.00496401053353295</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.000444405181865187</v>
+        <v>0.00004134735942103</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000659965957749407</v>
+        <v>0.00046950652686288</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00110500222193367</v>
+        <v>0.000911133887080572</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0169600810425889</v>
+        <v>-0.017371844776287</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0119444840139767</v>
+        <v>-0.0123825197143604</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00125396849546878</v>
+        <v>0.000574858850398968</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00627330640791115</v>
+        <v>-0.00671104301656217</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00086513660730614</v>
+        <v>0.000511633593603243</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.000689210528692942</v>
+        <v>0.000580556903979908</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0177292571183268</v>
+        <v>0.014770077126678</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000774423179377822</v>
+        <v>-0.000880917648465152</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0306953923805776</v>
+        <v>-0.0311435299324767</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0155587981274566</v>
+        <v>0.0129126162029414</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00925562788127847</v>
+        <v>-0.00970686304218662</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00251791918166959</v>
+        <v>0.00151572673886781</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00472857116732212</v>
+        <v>-0.00515433738859531</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" t="n">
-        <v>-0.00643959705411009</v>
-      </c>
+      <c r="BG2"/>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00283614798395324</v>
+        <v>0.00191845711714543</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00163737134680268</v>
+        <v>0.00101119869884897</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0110142177584514</v>
+        <v>0.00867115959277107</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00965363467152715</v>
+        <v>0.00768467925022399</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.000508428649343776</v>
+        <v>0.000435977988835038</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0000583683856867862</v>
+        <v>-0.000062918905487202</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00179682838237708</v>
+        <v>0.000997688315160532</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000739703153161538</v>
+        <v>0.000627857482623868</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.00359674469487541</v>
+        <v>0.00193630465305304</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0114552119165973</v>
+        <v>0.00911271981117367</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00429388859354976</v>
+        <v>-0.0045623288140523</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.000906494177921472</v>
+        <v>0.0000481930823676458</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00682513466869068</v>
+        <v>-0.00713749142471962</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,55 +1630,53 @@
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00374143572943994</v>
+        <v>-0.00407972585902377</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00194933285006078</v>
+        <v>0.00145364858923396</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
-      <c r="CF2" t="n">
-        <v>-0.00935283145433649</v>
-      </c>
+      <c r="CF2"/>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.00728525552765742</v>
+        <v>0.00547561253493542</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00998666987943473</v>
+        <v>0.00810508653352903</v>
       </c>
       <c r="CK2"/>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.00671133354183992</v>
+        <v>0.00563660850327913</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00956506266535249</v>
+        <v>0.00688455444802085</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00200525107845883</v>
+        <v>0.00031973800393597</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0000578468284673332</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00553938474617888</v>
+        <v>-0.00594978512968433</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0110407386582607</v>
+        <v>-0.0113123376260774</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00262095151439916</v>
+        <v>-0.00285742455829926</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1691,155 +1685,151 @@
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0139550253919775</v>
+        <v>0.0115300983234055</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.000504715696748122</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.000420013155013044</v>
+        <v>0.000358727919134943</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00725845366622247</v>
+        <v>0.0056792195898242</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00476159627923135</v>
+        <v>-0.00521040600490127</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00967838874412597</v>
+        <v>0.00804082587520934</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2"/>
       <c r="DG2" t="n">
-        <v>0.00780054832898522</v>
+        <v>0.00531935055390146</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00175218409449732</v>
+        <v>0.000722589352761333</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.0243963930279728</v>
+        <v>0.0206837377157536</v>
       </c>
       <c r="DK2"/>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0205940605211111</v>
+        <v>0.0163720718627636</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00182679848860471</v>
+        <v>0.000995848385274252</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.00149061479157976</v>
+        <v>0.000931642352597824</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0118806388077742</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>-0.00815345515943452</v>
-      </c>
+        <v>-0.0122990023591668</v>
+      </c>
+      <c r="DQ2"/>
       <c r="DR2" t="n">
-        <v>0.0141778587263339</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>-0.00825860748085086</v>
-      </c>
+        <v>0.0118578424122401</v>
+      </c>
+      <c r="DS2"/>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.00573605320307047</v>
+        <v>0.00423373735789115</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00433530877879111</v>
+        <v>-0.00205414744280956</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00047698724543377</v>
+        <v>0.000408714782782181</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00445430222296178</v>
+        <v>0.00321012755637867</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00653278217144444</v>
+        <v>0.00485096659966935</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00965151222961706</v>
+        <v>-0.00997287707281265</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.000193952609045612</v>
+        <v>-0.000218165248823758</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.000902342706480571</v>
+        <v>0.000551340277322914</v>
       </c>
       <c r="EC2"/>
       <c r="ED2" t="n">
-        <v>-0.00323388169270435</v>
+        <v>-0.00347339128967313</v>
       </c>
       <c r="EE2"/>
       <c r="EF2" t="n">
-        <v>0.0160640774466487</v>
+        <v>0.0136249242800312</v>
       </c>
       <c r="EG2"/>
       <c r="EH2" t="n">
-        <v>0.00332306840230412</v>
+        <v>0.0022793872973777</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00268837678385215</v>
+        <v>0.00158428263815852</v>
       </c>
       <c r="EJ2"/>
       <c r="EK2" t="n">
-        <v>0.0179558707837201</v>
+        <v>0.0148941046820604</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0159718112421604</v>
+        <v>0.0130299989590248</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00325966061619425</v>
+        <v>0.001714630929229</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00747564608430084</v>
+        <v>0.00631057285234826</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0139052291085141</v>
+        <v>0.0112928448214244</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.000356401444898818</v>
+        <v>0.000306592455004204</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00986778490493046</v>
+        <v>-0.0103121841994999</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00496364984952597</v>
+        <v>-0.00523376878821256</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00418096634146452</v>
+        <v>-0.00461662233276537</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.000742046527091167</v>
+        <v>0.000289396351640338</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.018447524133669</v>
+        <v>0.0156906420238651</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.00641068097009834</v>
+        <v>0.00427737927459854</v>
       </c>
       <c r="EY2"/>
       <c r="EZ2" t="n">
-        <v>0.00694460606538522</v>
+        <v>0.00543701416122187</v>
       </c>
       <c r="FA2"/>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>0.00244177260296653</v>
       </c>
       <c r="FC2"/>
       <c r="FD2" t="n">
@@ -1848,44 +1838,44 @@
       <c r="FE2"/>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>0.00823372919088676</v>
+        <v>0.0064762855540297</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0126736614267342</v>
+        <v>0.0104949467258887</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.000943463651716223</v>
+        <v>-0.000536334110083664</v>
       </c>
       <c r="FK2"/>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.000986391210062495</v>
+        <v>0.000831871945226889</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0126098883587276</v>
+        <v>0.0100872572897246</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00521601773520042</v>
+        <v>0.00360472029934705</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.00111634929055457</v>
+        <v>0.000112782239843026</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00420498272175106</v>
+        <v>0.00318834924369617</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.000218148523181066</v>
+        <v>0.0000349231624274589</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -404,6 +404,9 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
@@ -542,10 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprudent_npv_over_gdp_gcs_adj</t>
+    <t xml:space="preserve">net_gain_all_taxes_pc</t>
   </si>
 </sst>
 </file>
@@ -1414,471 +1414,515 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0151043838170846</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.00359379866853409</v>
+        <v>143.409393886515</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2"/>
+        <v>168.639558819865</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1100.97513405339</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.000410639911282762</v>
+        <v>6.25570550147051</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2"/>
+        <v>152.758299538036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1289.9146083007</v>
+      </c>
       <c r="I2" t="n">
-        <v>-0.00906753310710586</v>
+        <v>-547.053671471371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.951557918648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0197357646957889</v>
+        <v>207.088311245121</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0110574671035766</v>
+        <v>-275.176706448841</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00281927431191736</v>
+        <v>204.229050977001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0123989249979428</v>
+        <v>206.46864253029</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0070820295521727</v>
+        <v>260.859226667799</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00465620993605702</v>
-      </c>
-      <c r="Q2"/>
+        <v>-7.98184572698369</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-431.792746475264</v>
+      </c>
       <c r="R2" t="n">
-        <v>0.000289105637803429</v>
+        <v>-273.303735512854</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>167.996399987714</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>152.624378550863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000876068697373236</v>
+        <v>131.30627605769</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000623788839979223</v>
+        <v>198.230011946533</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000514636877426194</v>
+        <v>59.4445327500726</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000805313115135587</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
+        <v>-106.492298242389</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-371.587532192645</v>
+      </c>
+      <c r="Z2"/>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>134.324446810054</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0273964563325208</v>
-      </c>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
+        <v>195.859887451739</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-558.549211353626</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1800.62183091095</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-84.0049854705434</v>
+      </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>-10.6778367752665</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.000156350839541344</v>
+        <v>183.133990704133</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00181616904949319</v>
+        <v>195.660364897698</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0102379030134157</v>
+        <v>206.930361809342</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00170710968242554</v>
+        <v>126.086429908275</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.000512474295276406</v>
+        <v>140.308494736565</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00496401053353295</v>
+        <v>215.31818437111</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00004134735942103</v>
+        <v>212.088613947147</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00046950652686288</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.000911133887080572</v>
-      </c>
+        <v>-39.9837424779363</v>
+      </c>
+      <c r="AO2"/>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-244.882731674327</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.017371844776287</v>
+        <v>-232.920617912088</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0123825197143604</v>
+        <v>-511.438215541767</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.000574858850398968</v>
+        <v>213.654391234779</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00671104301656217</v>
+        <v>-1235.38854581829</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.000511633593603243</v>
+        <v>93.5675998633401</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>170.077713417708</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.000580556903979908</v>
+        <v>155.51960535635</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>196.092803195308</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.014770077126678</v>
+        <v>224.471045387976</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000880917648465152</v>
+        <v>-230.246152472394</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0311435299324767</v>
+        <v>-249.544431020225</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0129126162029414</v>
+        <v>218.766745173625</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00970686304218662</v>
+        <v>-397.311912018252</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00151572673886781</v>
+        <v>39.5341913664369</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00515433738859531</v>
+        <v>-610.361066380005</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2"/>
+        <v>-4.0258132605518</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1385.00415909099</v>
+      </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>134.076255786894</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00191845711714543</v>
+        <v>200.678897196908</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00101119869884897</v>
+        <v>150.097292493941</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00867115959277107</v>
+        <v>207.817210836551</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00768467925022399</v>
+        <v>217.456104803615</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.000435977988835038</v>
+        <v>-45.8573113096867</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000062918905487202</v>
+        <v>-229.797584749281</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.000997688315160532</v>
+        <v>165.482294745936</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000627857482623868</v>
+        <v>-94.5863298432474</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.00193630465305304</v>
+        <v>217.511718475224</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-127.169910133841</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00911271981117367</v>
+        <v>238.433435388084</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.0045623288140523</v>
+        <v>-55.6106095555704</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>195.45238156266</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0000481930823676458</v>
+        <v>224.407637557826</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00713749142471962</v>
+        <v>-818.213639797646</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>188.900694090682</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2"/>
-      <c r="CB2"/>
+        <v>70.7718047161104</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-1861.18967704674</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-367.537086187999</v>
+      </c>
       <c r="CC2" t="n">
-        <v>-0.00407972585902377</v>
+        <v>-233.736263016668</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00145364858923396</v>
+        <v>160.841316743479</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2"/>
-      <c r="CG2"/>
+        <v>169.162837243482</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-264.635924166443</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>2.43480496890075</v>
+      </c>
       <c r="CH2" t="n">
-        <v>0.00547561253493542</v>
+        <v>211.455307149995</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>219.005838003631</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00810508653352903</v>
-      </c>
-      <c r="CK2"/>
-      <c r="CL2"/>
+        <v>239.468724533638</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-224.201161289987</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-574.278596844366</v>
+      </c>
       <c r="CM2" t="n">
-        <v>0.00563660850327913</v>
+        <v>232.759302143842</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>216.797485697664</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00688455444802085</v>
+        <v>211.985505455395</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>105.150138933505</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00031973800393597</v>
+        <v>214.091285005871</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>241.321010947748</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00594978512968433</v>
+        <v>-209.652183461914</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0113123376260774</v>
+        <v>-3386.3416322839</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00285742455829926</v>
+        <v>-217.361056427962</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>204.356992684075</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>186.462831948461</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0115300983234055</v>
+        <v>234.133175290046</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>75.6966013677964</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.000358727919134943</v>
+        <v>24.5515982731845</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>169.117449122951</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0056792195898242</v>
+        <v>192.698302979678</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00521040600490127</v>
+        <v>-595.98411888471</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00804082587520934</v>
+        <v>268.803662829531</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2"/>
+        <v>85.3270220511585</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>165.435265264414</v>
+      </c>
       <c r="DG2" t="n">
-        <v>0.00531935055390146</v>
+        <v>203.525425910764</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.000722589352761333</v>
-      </c>
-      <c r="DI2"/>
+        <v>132.901993880669</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-81.5724400104323</v>
+      </c>
       <c r="DJ2" t="n">
-        <v>0.0206837377157536</v>
-      </c>
-      <c r="DK2"/>
+        <v>213.734161298425</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-21.0091960911196</v>
+      </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>165.122118692209</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0163720718627636</v>
+        <v>193.164631427579</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.000995848385274252</v>
+        <v>195.497146770179</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.000931642352597824</v>
+        <v>228.213887238075</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0122990023591668</v>
-      </c>
-      <c r="DQ2"/>
+        <v>-601.887478358581</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-655.277447730575</v>
+      </c>
       <c r="DR2" t="n">
-        <v>0.0118578424122401</v>
-      </c>
-      <c r="DS2"/>
-      <c r="DT2"/>
+        <v>255.169719676921</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>-534.939188033917</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-355.556693015911</v>
+      </c>
       <c r="DU2" t="n">
-        <v>0.00423373735789115</v>
+        <v>227.982504358712</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00205414744280956</v>
+        <v>-199.308480741729</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.000408714782782181</v>
+        <v>116.971412145985</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00321012755637867</v>
+        <v>204.065018550283</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00485096659966935</v>
+        <v>197.759222385163</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00997287707281265</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>-0.000218165248823758</v>
-      </c>
+        <v>-4.73464896585228</v>
+      </c>
+      <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>0.000551340277322914</v>
-      </c>
-      <c r="EC2"/>
-      <c r="ED2" t="n">
-        <v>-0.00347339128967313</v>
-      </c>
-      <c r="EE2"/>
+        <v>-144.042952432229</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>163.626138363074</v>
+      </c>
+      <c r="ED2"/>
+      <c r="EE2" t="n">
+        <v>57.0895819099619</v>
+      </c>
       <c r="EF2" t="n">
-        <v>0.0136249242800312</v>
-      </c>
-      <c r="EG2"/>
+        <v>-46.5139714935541</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>224.703848455585</v>
+      </c>
       <c r="EH2" t="n">
-        <v>0.0022793872973777</v>
+        <v>-238.491821535875</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00158428263815852</v>
-      </c>
-      <c r="EJ2"/>
+        <v>196.712120573614</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>199.809777691515</v>
+      </c>
       <c r="EK2" t="n">
-        <v>0.0148941046820604</v>
+        <v>-3915.52272967454</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0130299989590248</v>
+        <v>185.811234915227</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.001714630929229</v>
+        <v>-1564.80103092644</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00631057285234826</v>
+        <v>153.205812495172</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>196.620951951001</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0112928448214244</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.000306592455004204</v>
-      </c>
+        <v>118.756331000429</v>
+      </c>
+      <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>-0.0103121841994999</v>
+        <v>170.726207926267</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00523376878821256</v>
+        <v>-163.325595930992</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00461662233276537</v>
+        <v>-241.605540378305</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.000289396351640338</v>
+        <v>-810.107862367249</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.0156906420238651</v>
-      </c>
+        <v>182.726001759872</v>
+      </c>
+      <c r="EW2"/>
       <c r="EX2" t="n">
-        <v>0.00427737927459854</v>
-      </c>
-      <c r="EY2"/>
+        <v>192.84362075354</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>214.812653603885</v>
+      </c>
       <c r="EZ2" t="n">
-        <v>0.00543701416122187</v>
-      </c>
-      <c r="FA2"/>
+        <v>124.988431111307</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>228.052001494068</v>
+      </c>
       <c r="FB2" t="n">
-        <v>0.00244177260296653</v>
-      </c>
-      <c r="FC2"/>
+        <v>93.4142640597317</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>223.011586520781</v>
+      </c>
       <c r="FD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2" t="n">
-        <v>0.0064762855540297</v>
-      </c>
+        <v>-289.490171104686</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>206.733308827961</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>69.3449893348494</v>
+      </c>
+      <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.0104949467258887</v>
+        <v>203.283037943749</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>200.389667143952</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.000536334110083664</v>
-      </c>
-      <c r="FK2"/>
+        <v>213.458735771433</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-153.3522359672</v>
+      </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-1256.84772859951</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.000831871945226889</v>
+        <v>226.239722625196</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>191.266724746965</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0100872572897246</v>
+        <v>245.062183400689</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00360472029934705</v>
+        <v>138.808538433483</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.000112782239843026</v>
+        <v>173.883739737477</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>225.520312798273</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00318834924369617</v>
+        <v>143.300669973747</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0000349231624274589</v>
+        <v>199.045278066756</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>204.938181987822</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">net_gain_all_taxes_pc</t>
+    <t xml:space="preserve">net_gain_over_gdp_both_taxes</t>
   </si>
 </sst>
 </file>
@@ -1416,513 +1416,519 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>143.409393886515</v>
+        <v>0.0554797945076173</v>
       </c>
       <c r="D2" t="n">
-        <v>168.639558819865</v>
+        <v>0.0129024344362939</v>
       </c>
       <c r="E2" t="n">
-        <v>-1100.97513405339</v>
+        <v>-0.00907353559559031</v>
       </c>
       <c r="F2" t="n">
-        <v>6.25570550147051</v>
+        <v>0.0000163747199237199</v>
       </c>
       <c r="G2" t="n">
-        <v>152.758299538036</v>
+        <v>0.0106324424208023</v>
       </c>
       <c r="H2" t="n">
-        <v>-1289.9146083007</v>
+        <v>-0.0102335150258698</v>
       </c>
       <c r="I2" t="n">
-        <v>-547.053671471371</v>
+        <v>-0.0101115082087499</v>
       </c>
       <c r="J2" t="n">
-        <v>146.951557918648</v>
+        <v>0.015477426961176</v>
       </c>
       <c r="K2" t="n">
-        <v>207.088311245121</v>
+        <v>0.789619405779374</v>
       </c>
       <c r="L2" t="n">
-        <v>-275.176706448841</v>
+        <v>-0.00755895616341378</v>
       </c>
       <c r="M2" t="n">
-        <v>204.229050977001</v>
+        <v>0.103455779623179</v>
       </c>
       <c r="N2" t="n">
-        <v>206.46864253029</v>
+        <v>0.175176818064048</v>
       </c>
       <c r="O2" t="n">
-        <v>260.859226667799</v>
+        <v>0.0722748853579111</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.98184572698369</v>
+        <v>-0.000929710169814111</v>
       </c>
       <c r="Q2" t="n">
-        <v>-431.792746475264</v>
+        <v>-0.00861943245393953</v>
       </c>
       <c r="R2" t="n">
-        <v>-273.303735512854</v>
+        <v>-0.0095171207147385</v>
       </c>
       <c r="S2" t="n">
-        <v>167.996399987714</v>
+        <v>0.0131564764340339</v>
       </c>
       <c r="T2" t="n">
-        <v>152.624378550863</v>
+        <v>0.0148779622897232</v>
       </c>
       <c r="U2" t="n">
-        <v>131.30627605769</v>
+        <v>0.0105422399936347</v>
       </c>
       <c r="V2" t="n">
-        <v>198.230011946533</v>
+        <v>0.0394252399567359</v>
       </c>
       <c r="W2" t="n">
-        <v>59.4445327500726</v>
+        <v>0.00682700468282203</v>
       </c>
       <c r="X2" t="n">
-        <v>-106.492298242389</v>
+        <v>-0.00625232663419843</v>
       </c>
       <c r="Y2" t="n">
-        <v>-371.587532192645</v>
+        <v>-0.00946330134021608</v>
       </c>
       <c r="Z2"/>
       <c r="AA2" t="n">
-        <v>134.324446810054</v>
+        <v>0.0116506047892811</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.859887451739</v>
+        <v>0.330572049134553</v>
       </c>
       <c r="AC2" t="n">
-        <v>-558.549211353626</v>
+        <v>-0.0104918713885681</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1800.62183091095</v>
+        <v>-0.0129471597449789</v>
       </c>
       <c r="AE2" t="n">
-        <v>-84.0049854705434</v>
+        <v>-0.00243558538447</v>
       </c>
       <c r="AF2" t="n">
-        <v>-10.6778367752665</v>
+        <v>-0.000517694850838378</v>
       </c>
       <c r="AG2" t="n">
-        <v>183.133990704133</v>
+        <v>0.0480795182981497</v>
       </c>
       <c r="AH2" t="n">
-        <v>195.660364897698</v>
+        <v>0.0869785677505306</v>
       </c>
       <c r="AI2" t="n">
-        <v>206.930361809342</v>
+        <v>0.228707711930858</v>
       </c>
       <c r="AJ2" t="n">
-        <v>126.086429908275</v>
+        <v>0.0544393950832617</v>
       </c>
       <c r="AK2" t="n">
-        <v>140.308494736565</v>
+        <v>0.0168592690348284</v>
       </c>
       <c r="AL2" t="n">
-        <v>215.31818437111</v>
+        <v>0.100167469110071</v>
       </c>
       <c r="AM2" t="n">
-        <v>212.088613947147</v>
+        <v>0.0343769545300587</v>
       </c>
       <c r="AN2" t="n">
-        <v>-39.9837424779363</v>
+        <v>-0.00254921873935699</v>
       </c>
       <c r="AO2"/>
       <c r="AP2" t="n">
-        <v>-244.882731674327</v>
+        <v>-0.009331083919905</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-232.920617912088</v>
+        <v>-0.00835462614799892</v>
       </c>
       <c r="AR2" t="n">
-        <v>-511.438215541767</v>
+        <v>-0.0099398810905758</v>
       </c>
       <c r="AS2" t="n">
-        <v>213.654391234779</v>
+        <v>0.0410361407764799</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1235.38854581829</v>
+        <v>-0.0113257484416708</v>
       </c>
       <c r="AU2" t="n">
-        <v>93.5675998633401</v>
+        <v>0.00385014580310056</v>
       </c>
       <c r="AV2" t="n">
-        <v>170.077713417708</v>
+        <v>0.0234231043037971</v>
       </c>
       <c r="AW2" t="n">
-        <v>155.51960535635</v>
+        <v>0.0174146801465747</v>
       </c>
       <c r="AX2" t="n">
-        <v>196.092803195308</v>
+        <v>0.0410269129249882</v>
       </c>
       <c r="AY2" t="n">
-        <v>224.471045387976</v>
+        <v>0.234314432982926</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-230.246152472394</v>
+        <v>-0.00662361308629112</v>
       </c>
       <c r="BA2" t="n">
-        <v>-249.544431020225</v>
+        <v>-0.00856361677655926</v>
       </c>
       <c r="BB2" t="n">
-        <v>218.766745173625</v>
+        <v>0.12215158238687</v>
       </c>
       <c r="BC2" t="n">
-        <v>-397.311912018252</v>
+        <v>-0.008084922737678</v>
       </c>
       <c r="BD2" t="n">
-        <v>39.5341913664369</v>
+        <v>0.0199313070906881</v>
       </c>
       <c r="BE2" t="n">
-        <v>-610.361066380005</v>
+        <v>-0.0111928165824325</v>
       </c>
       <c r="BF2" t="n">
-        <v>-4.0258132605518</v>
+        <v>0.00669776402214505</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1385.00415909099</v>
+        <v>-0.00834981959027565</v>
       </c>
       <c r="BH2" t="n">
-        <v>134.076255786894</v>
+        <v>0.0123648394346744</v>
       </c>
       <c r="BI2" t="n">
-        <v>200.678897196908</v>
+        <v>0.0678744185122088</v>
       </c>
       <c r="BJ2" t="n">
-        <v>150.097292493941</v>
+        <v>0.0887029125717033</v>
       </c>
       <c r="BK2" t="n">
-        <v>207.817210836551</v>
+        <v>0.184270841559761</v>
       </c>
       <c r="BL2" t="n">
-        <v>217.456104803615</v>
+        <v>0.178045339179464</v>
       </c>
       <c r="BM2" t="n">
-        <v>-45.8573113096867</v>
+        <v>0.0102438480202267</v>
       </c>
       <c r="BN2" t="n">
-        <v>-229.797584749281</v>
+        <v>-0.00612752882406242</v>
       </c>
       <c r="BO2" t="n">
-        <v>165.482294745936</v>
+        <v>0.0186221182946832</v>
       </c>
       <c r="BP2" t="n">
-        <v>-94.5863298432474</v>
-      </c>
-      <c r="BQ2"/>
+        <v>-0.00625640405800414</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.028223916514768</v>
+      </c>
       <c r="BR2" t="n">
-        <v>217.511718475224</v>
+        <v>0.0475872240488716</v>
       </c>
       <c r="BS2" t="n">
-        <v>-127.169910133841</v>
+        <v>-0.00533363159648985</v>
       </c>
       <c r="BT2" t="n">
-        <v>238.433435388084</v>
+        <v>0.102734128398795</v>
       </c>
       <c r="BU2" t="n">
-        <v>-55.6106095555704</v>
+        <v>-0.00362131707279129</v>
       </c>
       <c r="BV2" t="n">
-        <v>195.45238156266</v>
+        <v>0.0299246919277721</v>
       </c>
       <c r="BW2" t="n">
-        <v>224.407637557826</v>
+        <v>0.0678499586074979</v>
       </c>
       <c r="BX2" t="n">
-        <v>-818.213639797646</v>
+        <v>-0.010568308730027</v>
       </c>
       <c r="BY2" t="n">
-        <v>188.900694090682</v>
+        <v>0.0342091749353612</v>
       </c>
       <c r="BZ2" t="n">
-        <v>70.7718047161104</v>
+        <v>0.017895002392496</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1861.18967704674</v>
+        <v>-0.0123325536022693</v>
       </c>
       <c r="CB2" t="n">
-        <v>-367.537086187999</v>
+        <v>-0.00983036672746588</v>
       </c>
       <c r="CC2" t="n">
-        <v>-233.736263016668</v>
+        <v>-0.00787636374125158</v>
       </c>
       <c r="CD2" t="n">
-        <v>160.841316743479</v>
+        <v>0.017907189158568</v>
       </c>
       <c r="CE2" t="n">
-        <v>169.162837243482</v>
+        <v>0.0290136024019786</v>
       </c>
       <c r="CF2" t="n">
-        <v>-264.635924166443</v>
+        <v>-0.00678890785088785</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.43480496890075</v>
+        <v>-0.000352215050198817</v>
       </c>
       <c r="CH2" t="n">
-        <v>211.455307149995</v>
+        <v>0.0784314118077139</v>
       </c>
       <c r="CI2" t="n">
-        <v>219.005838003631</v>
+        <v>0.0836736955438467</v>
       </c>
       <c r="CJ2" t="n">
-        <v>239.468724533638</v>
+        <v>0.0961282355562424</v>
       </c>
       <c r="CK2" t="n">
-        <v>-224.201161289987</v>
+        <v>-0.00708376242035143</v>
       </c>
       <c r="CL2" t="n">
-        <v>-574.278596844366</v>
+        <v>-0.00816404733092149</v>
       </c>
       <c r="CM2" t="n">
-        <v>232.759302143842</v>
+        <v>0.0828349463661617</v>
       </c>
       <c r="CN2" t="n">
-        <v>216.797485697664</v>
+        <v>0.0485711669551898</v>
       </c>
       <c r="CO2" t="n">
-        <v>211.985505455395</v>
+        <v>0.203887160794594</v>
       </c>
       <c r="CP2" t="n">
-        <v>105.150138933505</v>
+        <v>0.0128206053736642</v>
       </c>
       <c r="CQ2" t="n">
-        <v>214.091285005871</v>
+        <v>0.043289318752861</v>
       </c>
       <c r="CR2" t="n">
-        <v>241.321010947748</v>
+        <v>0.206384438649469</v>
       </c>
       <c r="CS2" t="n">
-        <v>-209.652183461914</v>
+        <v>-0.00793561672957124</v>
       </c>
       <c r="CT2" t="n">
-        <v>-3386.3416322839</v>
+        <v>-0.0133553244582469</v>
       </c>
       <c r="CU2" t="n">
-        <v>-217.361056427962</v>
+        <v>-0.00636716510885614</v>
       </c>
       <c r="CV2" t="n">
-        <v>204.356992684075</v>
+        <v>0.0431602333854073</v>
       </c>
       <c r="CW2" t="n">
-        <v>186.462831948461</v>
+        <v>0.0192425442354574</v>
       </c>
       <c r="CX2" t="n">
-        <v>234.133175290046</v>
+        <v>0.323943080813677</v>
       </c>
       <c r="CY2" t="n">
-        <v>75.6966013677964</v>
+        <v>0.0017527180876042</v>
       </c>
       <c r="CZ2" t="n">
-        <v>24.5515982731845</v>
+        <v>-0.000156367878642314</v>
       </c>
       <c r="DA2" t="n">
-        <v>169.117449122951</v>
+        <v>0.0138205033187177</v>
       </c>
       <c r="DB2" t="n">
-        <v>192.698302979678</v>
+        <v>0.158851076641342</v>
       </c>
       <c r="DC2" t="n">
-        <v>-595.98411888471</v>
+        <v>-0.00963303352207844</v>
       </c>
       <c r="DD2" t="n">
-        <v>268.803662829531</v>
+        <v>0.170871118988726</v>
       </c>
       <c r="DE2" t="n">
-        <v>85.3270220511585</v>
+        <v>0.00343764047055441</v>
       </c>
       <c r="DF2" t="n">
-        <v>165.435265264414</v>
+        <v>0.0192905364677233</v>
       </c>
       <c r="DG2" t="n">
-        <v>203.525425910764</v>
+        <v>0.259305458103695</v>
       </c>
       <c r="DH2" t="n">
-        <v>132.901993880669</v>
+        <v>0.0650549214189317</v>
       </c>
       <c r="DI2" t="n">
-        <v>-81.5724400104323</v>
+        <v>0.00479501612049481</v>
       </c>
       <c r="DJ2" t="n">
-        <v>213.734161298425</v>
+        <v>0.235579956809643</v>
       </c>
       <c r="DK2" t="n">
-        <v>-21.0091960911196</v>
+        <v>0.00270732580199523</v>
       </c>
       <c r="DL2" t="n">
-        <v>165.122118692209</v>
+        <v>0.0243301896060396</v>
       </c>
       <c r="DM2" t="n">
-        <v>193.164631427579</v>
+        <v>0.229358346561031</v>
       </c>
       <c r="DN2" t="n">
-        <v>195.497146770179</v>
+        <v>0.090241355877416</v>
       </c>
       <c r="DO2" t="n">
-        <v>228.213887238075</v>
+        <v>0.0662531936277668</v>
       </c>
       <c r="DP2" t="n">
-        <v>-601.887478358581</v>
+        <v>-0.00881086116248702</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-655.277447730575</v>
+        <v>-0.0101441211655547</v>
       </c>
       <c r="DR2" t="n">
-        <v>255.169719676921</v>
+        <v>0.141516115206</v>
       </c>
       <c r="DS2" t="n">
-        <v>-534.939188033917</v>
+        <v>-0.00898067758845822</v>
       </c>
       <c r="DT2" t="n">
-        <v>-355.556693015911</v>
+        <v>-0.00723725899446942</v>
       </c>
       <c r="DU2" t="n">
-        <v>227.982504358712</v>
+        <v>0.119724580728579</v>
       </c>
       <c r="DV2" t="n">
-        <v>-199.308480741729</v>
+        <v>-0.00485302081878224</v>
       </c>
       <c r="DW2" t="n">
-        <v>116.971412145985</v>
+        <v>0.0118334343811982</v>
       </c>
       <c r="DX2" t="n">
-        <v>204.065018550283</v>
+        <v>0.04011367395908</v>
       </c>
       <c r="DY2" t="n">
-        <v>197.759222385163</v>
+        <v>0.0492345501011211</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-4.73464896585228</v>
-      </c>
-      <c r="EA2"/>
+        <v>-0.00296024089471961</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.348565930072377</v>
+      </c>
       <c r="EB2" t="n">
-        <v>-144.042952432229</v>
+        <v>-0.00494120740851191</v>
       </c>
       <c r="EC2" t="n">
-        <v>163.626138363074</v>
+        <v>0.0175764190605002</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>57.0895819099619</v>
+        <v>-0.000588654096674635</v>
       </c>
       <c r="EF2" t="n">
-        <v>-46.5139714935541</v>
+        <v>-0.000984699061795826</v>
       </c>
       <c r="EG2" t="n">
-        <v>224.703848455585</v>
+        <v>0.165571987405025</v>
       </c>
       <c r="EH2" t="n">
-        <v>-238.491821535875</v>
+        <v>-0.00601450835301345</v>
       </c>
       <c r="EI2" t="n">
-        <v>196.712120573614</v>
+        <v>0.0617762587291685</v>
       </c>
       <c r="EJ2" t="n">
-        <v>199.809777691515</v>
+        <v>0.0838833978080644</v>
       </c>
       <c r="EK2" t="n">
-        <v>-3915.52272967454</v>
+        <v>-0.0115201206773332</v>
       </c>
       <c r="EL2" t="n">
-        <v>185.811234915227</v>
+        <v>0.0663784348809583</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1564.80103092644</v>
+        <v>-1.66532950403912</v>
       </c>
       <c r="EN2" t="n">
-        <v>153.205812495172</v>
+        <v>0.0251180452085923</v>
       </c>
       <c r="EO2" t="n">
-        <v>196.620951951001</v>
+        <v>0.227737614076292</v>
       </c>
       <c r="EP2" t="n">
-        <v>118.756331000429</v>
-      </c>
-      <c r="EQ2"/>
+        <v>0.00541850398096604</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.340456377245486</v>
+      </c>
       <c r="ER2" t="n">
-        <v>170.726207926267</v>
+        <v>0.019718305881635</v>
       </c>
       <c r="ES2" t="n">
-        <v>-163.325595930992</v>
+        <v>-0.00698810239820828</v>
       </c>
       <c r="ET2" t="n">
-        <v>-241.605540378305</v>
+        <v>-0.00889623251544363</v>
       </c>
       <c r="EU2" t="n">
-        <v>-810.107862367249</v>
+        <v>-0.0115222602003836</v>
       </c>
       <c r="EV2" t="n">
-        <v>182.726001759872</v>
+        <v>0.0352252829795519</v>
       </c>
       <c r="EW2"/>
       <c r="EX2" t="n">
-        <v>192.84362075354</v>
+        <v>0.200648545194043</v>
       </c>
       <c r="EY2" t="n">
-        <v>214.812653603885</v>
+        <v>0.159634384196473</v>
       </c>
       <c r="EZ2" t="n">
-        <v>124.988431111307</v>
+        <v>0.0181197601254355</v>
       </c>
       <c r="FA2" t="n">
-        <v>228.052001494068</v>
+        <v>0.143668262069825</v>
       </c>
       <c r="FB2" t="n">
-        <v>93.4142640597317</v>
+        <v>0.00627555164679976</v>
       </c>
       <c r="FC2" t="n">
-        <v>223.011586520781</v>
+        <v>0.100703866873689</v>
       </c>
       <c r="FD2" t="n">
-        <v>-289.490171104686</v>
+        <v>-0.0038067880503672</v>
       </c>
       <c r="FE2" t="n">
-        <v>206.733308827961</v>
+        <v>0.0412091229483493</v>
       </c>
       <c r="FF2" t="n">
-        <v>69.3449893348494</v>
+        <v>0.00342587998763033</v>
       </c>
       <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>203.283037943749</v>
+        <v>0.122820018839066</v>
       </c>
       <c r="FI2" t="n">
-        <v>200.389667143952</v>
+        <v>0.145368884111957</v>
       </c>
       <c r="FJ2" t="n">
-        <v>213.458735771433</v>
+        <v>0.0320191385233061</v>
       </c>
       <c r="FK2" t="n">
-        <v>-153.3522359672</v>
+        <v>-0.0063641492630994</v>
       </c>
       <c r="FL2" t="n">
-        <v>-1256.84772859951</v>
+        <v>-0.0131466416726561</v>
       </c>
       <c r="FM2" t="n">
-        <v>226.239722625196</v>
+        <v>0.0674176898174362</v>
       </c>
       <c r="FN2" t="n">
-        <v>191.266724746965</v>
+        <v>0.0429357069093085</v>
       </c>
       <c r="FO2" t="n">
-        <v>245.062183400689</v>
+        <v>0.039118018285367</v>
       </c>
       <c r="FP2" t="n">
-        <v>138.808538433483</v>
+        <v>0.038073933208721</v>
       </c>
       <c r="FQ2" t="n">
-        <v>173.883739737477</v>
+        <v>0.0291418439261827</v>
       </c>
       <c r="FR2" t="n">
-        <v>225.520312798273</v>
+        <v>0.23934883268883</v>
       </c>
       <c r="FS2" t="n">
-        <v>143.300669973747</v>
+        <v>0.0186523440867955</v>
       </c>
       <c r="FT2" t="n">
-        <v>199.045278066756</v>
+        <v>0.107992993054817</v>
       </c>
       <c r="FU2" t="n">
-        <v>204.938181987822</v>
+        <v>0.0953703749050241</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -1414,521 +1414,529 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.433906562640127</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.0554797945076173</v>
+        <v>0.0593173780096966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0129024344362939</v>
+        <v>0.0156397524409999</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00907353559559031</v>
+        <v>-0.00886600952785279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000163747199237199</v>
+        <v>0.0017407171686067</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0106324424208023</v>
+        <v>0.0154082838268779</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0102335150258698</v>
+        <v>-0.00996821165568082</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0101115082087499</v>
+        <v>-0.00980689584272435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.015477426961176</v>
+        <v>0.017274930296103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.789619405779374</v>
+        <v>0.659469045849701</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00755895616341378</v>
+        <v>-0.00755339752207493</v>
       </c>
       <c r="M2" t="n">
-        <v>0.103455779623179</v>
+        <v>0.0994281073657829</v>
       </c>
       <c r="N2" t="n">
-        <v>0.175176818064048</v>
+        <v>0.174261511501341</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0722748853579111</v>
+        <v>0.0600533070647141</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.000929710169814111</v>
+        <v>0.000745248139166248</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00861943245393953</v>
+        <v>-0.00804251291047833</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0095171207147385</v>
+        <v>-0.00869351165932713</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0131564764340339</v>
+        <v>0.0138042476143273</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0148779622897232</v>
+        <v>0.0147041400772016</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0105422399936347</v>
+        <v>0.013181448815828</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0394252399567359</v>
+        <v>0.0396385362933192</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00682700468282203</v>
+        <v>0.00878796719633547</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.00625232663419843</v>
+        <v>-0.00515894403125441</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00946330134021608</v>
-      </c>
-      <c r="Z2"/>
+        <v>-0.00925797857790893</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0461022696811555</v>
+      </c>
       <c r="AA2" t="n">
-        <v>0.0116506047892811</v>
+        <v>0.0100474147184072</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.330572049134553</v>
+        <v>0.301213361085931</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0104918713885681</v>
+        <v>-0.0101398897706139</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0129471597449789</v>
+        <v>-0.0126169807391846</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00243558538447</v>
+        <v>-0.00138719666555374</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.000517694850838378</v>
+        <v>-0.00095704022861152</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0480795182981497</v>
+        <v>0.0478029727855266</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0869785677505306</v>
+        <v>0.0853814208017139</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.228707711930858</v>
+        <v>0.216754575468351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0544393950832617</v>
+        <v>0.0536613290706173</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0168592690348284</v>
+        <v>0.0169217997629569</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.100167469110071</v>
+        <v>0.0958137169229698</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0343769545300587</v>
+        <v>0.0337635855711975</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.00254921873935699</v>
-      </c>
-      <c r="AO2"/>
+        <v>0.000485369602436831</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.000233681522475502</v>
+      </c>
       <c r="AP2" t="n">
-        <v>-0.009331083919905</v>
+        <v>-0.00832691735875476</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.00835462614799892</v>
+        <v>-0.00774538664348714</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0099398810905758</v>
+        <v>-0.00964327633914889</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0410361407764799</v>
+        <v>0.0421840709486072</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0113257484416708</v>
+        <v>-0.0108881729967841</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00385014580310056</v>
+        <v>0.00591278310017856</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0234231043037971</v>
+        <v>0.0250240597534375</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0174146801465747</v>
+        <v>0.0170483792442912</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0410269129249882</v>
+        <v>0.034236687239057</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.234314432982926</v>
+        <v>0.267486356125603</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00662361308629112</v>
+        <v>-0.00640329161952246</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.00856361677655926</v>
+        <v>-0.0076143484993343</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.12215158238687</v>
+        <v>0.137075335415994</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.008084922737678</v>
+        <v>-0.0079614636681658</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0199313070906881</v>
+        <v>0.0211491035558724</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0111928165824325</v>
+        <v>-0.0107088600386092</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00669776402214505</v>
+        <v>0.00783595679104176</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00834981959027565</v>
+        <v>-0.00815160642716294</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0123648394346744</v>
+        <v>0.0181210950718074</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0678744185122088</v>
+        <v>0.0620702781729457</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0887029125717033</v>
+        <v>0.108008781201934</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.184270841559761</v>
+        <v>0.181035394283747</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.178045339179464</v>
+        <v>0.174793173730682</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0102438480202267</v>
+        <v>0.0187537791555566</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00612752882406242</v>
+        <v>-0.00553802693552574</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0186221182946832</v>
+        <v>0.0193839186904492</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00625640405800414</v>
+        <v>-0.00577397955635166</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.028223916514768</v>
+        <v>-0.0247587047353458</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0475872240488716</v>
+        <v>0.0533429235455884</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00533363159648985</v>
+        <v>-0.00452226919167366</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.102734128398795</v>
+        <v>0.0961167621106141</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00362131707279129</v>
+        <v>-0.00235603569500511</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0299246919277721</v>
+        <v>0.0294297421180491</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0678499586074979</v>
+        <v>0.0640715278763332</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.010568308730027</v>
+        <v>-0.0104682869984857</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0342091749353612</v>
+        <v>0.0312908321456207</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.017895002392496</v>
+        <v>0.0168543094943846</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0123325536022693</v>
+        <v>-0.0119587013935011</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00983036672746588</v>
+        <v>-0.00960480461934614</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.00787636374125158</v>
+        <v>-0.00764317709217149</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.017907189158568</v>
+        <v>0.0213501128189482</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0290136024019786</v>
+        <v>0.0283184132240039</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00678890785088785</v>
+        <v>-0.00706351535912649</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.000352215050198817</v>
+        <v>0.00222878947742188</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0784314118077139</v>
+        <v>0.0688869795588064</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0836736955438467</v>
+        <v>0.0959971543411787</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0961282355562424</v>
+        <v>0.0967168615693439</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00708376242035143</v>
+        <v>-0.00707500077739481</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.00816404733092149</v>
+        <v>-0.00832244146778309</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0828349463661617</v>
+        <v>0.0780103902018841</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0485711669551898</v>
+        <v>0.0404946528064064</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.203887160794594</v>
+        <v>0.216846506929475</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0128206053736642</v>
+        <v>0.0116031024240657</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.043289318752861</v>
+        <v>0.0465636139602724</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.206384438649469</v>
+        <v>0.147178703822484</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00793561672957124</v>
+        <v>-0.00667317955282677</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0133553244582469</v>
+        <v>-0.0121537445816004</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00636716510885614</v>
+        <v>-0.00537697531460153</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0431602333854073</v>
+        <v>0.0413277368872961</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0192425442354574</v>
+        <v>0.0217706765937036</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.323943080813677</v>
+        <v>0.311697304741834</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0017527180876042</v>
+        <v>0.00451745491902814</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.000156367878642314</v>
+        <v>0.00184437663864276</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0138205033187177</v>
+        <v>0.0153770515830614</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.158851076641342</v>
+        <v>0.160556760821818</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00963303352207844</v>
+        <v>-0.00872053412814055</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.170871118988726</v>
+        <v>0.16157500863899</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00343764047055441</v>
+        <v>0.00436297907845996</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0192905364677233</v>
+        <v>0.0243428774531399</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.259305458103695</v>
+        <v>0.289279761379389</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0650549214189317</v>
+        <v>0.0628148152834123</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00479501612049481</v>
+        <v>0.0045774470268802</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.235579956809643</v>
+        <v>0.239734296351143</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00270732580199523</v>
+        <v>0.00229140119921112</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0243301896060396</v>
+        <v>0.0225549563826303</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.229358346561031</v>
+        <v>0.22839309000519</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.090241355877416</v>
+        <v>0.0710452094587352</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0662531936277668</v>
+        <v>0.0730929531849555</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00881086116248702</v>
+        <v>-0.00863170966909949</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0101441211655547</v>
+        <v>-0.00995636175226407</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.141516115206</v>
+        <v>0.131521811918013</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00898067758845822</v>
+        <v>-0.00876529839104959</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00723725899446942</v>
+        <v>-0.0060652897610207</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.119724580728579</v>
+        <v>0.107419957181425</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00485302081878224</v>
+        <v>-0.00412312971316966</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0118334343811982</v>
+        <v>0.0146714085420261</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.04011367395908</v>
+        <v>0.0325383450579791</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0492345501011211</v>
+        <v>0.0509965983819988</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00296024089471961</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.348565930072377</v>
-      </c>
+        <v>-0.001662963540298</v>
+      </c>
+      <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>-0.00494120740851191</v>
+        <v>-0.0045650496869816</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0175764190605002</v>
-      </c>
-      <c r="ED2"/>
+        <v>0.0173928543455131</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0115279235424369</v>
+      </c>
       <c r="EE2" t="n">
-        <v>-0.000588654096674635</v>
+        <v>0.000679044758118493</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.000984699061795826</v>
+        <v>-0.00110857727063101</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.165571987405025</v>
+        <v>0.163377673615963</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00601450835301345</v>
+        <v>-0.00589006725873077</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0617762587291685</v>
+        <v>0.155735281788355</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0838833978080644</v>
+        <v>0.0859378215839101</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0115201206773332</v>
+        <v>-0.0114046879383514</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0663784348809583</v>
+        <v>0.0617916139647211</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.66532950403912</v>
+        <v>-1.14271860451988</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0251180452085923</v>
+        <v>0.0278071906019431</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.227737614076292</v>
+        <v>0.232623774492087</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00541850398096604</v>
+        <v>0.00828965092927678</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.340456377245486</v>
+        <v>0.139856728779371</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.019718305881635</v>
+        <v>0.0237464824564285</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00698810239820828</v>
+        <v>-0.00581944011801416</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00889623251544363</v>
+        <v>-0.00820927993013272</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0115222602003836</v>
+        <v>-0.0109958373183545</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0352252829795519</v>
-      </c>
-      <c r="EW2"/>
+        <v>0.033285684675482</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.326979741472797</v>
+      </c>
       <c r="EX2" t="n">
-        <v>0.200648545194043</v>
+        <v>0.196321781779197</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.159634384196473</v>
+        <v>0.151266943046762</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0181197601254355</v>
+        <v>0.0176009864450271</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.143668262069825</v>
+        <v>0.11196007605642</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00627555164679976</v>
+        <v>0.0124777967113096</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.100703866873689</v>
+        <v>0.0715174530591484</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0038067880503672</v>
+        <v>-0.00323156776926522</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0412091229483493</v>
+        <v>0.0417249408125926</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00342587998763033</v>
+        <v>0.00508338055817942</v>
       </c>
       <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.122820018839066</v>
+        <v>0.118644768534193</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.145368884111957</v>
+        <v>0.145692040409002</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0320191385233061</v>
+        <v>0.0320858056034125</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.0063641492630994</v>
+        <v>-0.00432956659956543</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0131466416726561</v>
+        <v>-0.0126866288263845</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0674176898174362</v>
+        <v>0.0697589430306654</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0429357069093085</v>
+        <v>0.000289218321754673</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.039118018285367</v>
+        <v>0.0396317664756518</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.038073933208721</v>
+        <v>0.0326807209160431</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0291418439261827</v>
+        <v>0.0294837609299596</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.23934883268883</v>
+        <v>0.195684536907471</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0186523440867955</v>
+        <v>0.0157193569610947</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.107992993054817</v>
+        <v>0.10866297211696</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0953703749050241</v>
+        <v>0.0830465246249105</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">net_gain_over_gdp_both_taxes</t>
+    <t xml:space="preserve">budget_gain_over_gdp_both_taxes</t>
   </si>
 </sst>
 </file>
@@ -1415,528 +1415,524 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.433906562640127</v>
+        <v>0.455626614160475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0593173780096966</v>
+        <v>0.0926297049529778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0156397524409999</v>
+        <v>0.0259248911875146</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00886600952785279</v>
+        <v>0.0153722796760863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0017407171686067</v>
+        <v>0.0163409332566377</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0154082838268779</v>
+        <v>0.0251945815111548</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00996821165568082</v>
+        <v>0.0154758875659647</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00980689584272435</v>
+        <v>0.00550703935815766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.017274930296103</v>
+        <v>0.034156004807428</v>
       </c>
       <c r="K2" t="n">
-        <v>0.659469045849701</v>
+        <v>0.682498189554441</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00755339752207493</v>
+        <v>0.0135252205546187</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0994281073657829</v>
+        <v>0.111717975557713</v>
       </c>
       <c r="N2" t="n">
-        <v>0.174261511501341</v>
+        <v>0.185953733047955</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0600533070647141</v>
+        <v>0.0643612469920816</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000745248139166248</v>
+        <v>0.0156197859229501</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00804251291047833</v>
+        <v>0.0148980868994689</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00869351165932713</v>
+        <v>0.00204076035067683</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0138042476143273</v>
+        <v>0.0303658064776569</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0147041400772016</v>
+        <v>0.0342605996219096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.013181448815828</v>
+        <v>0.023826423496797</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0396385362933192</v>
+        <v>0.0552069012411672</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00878796719633547</v>
+        <v>0.0298043597815067</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.00515894403125441</v>
+        <v>0.00383886535151779</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00925797857790893</v>
+        <v>0.0109196782493715</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0461022696811555</v>
+        <v>0.0599086137543758</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0100474147184072</v>
+        <v>0.02212622226321</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.301213361085931</v>
+        <v>0.316460905195384</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0101398897706139</v>
+        <v>0.0118564343934166</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0126169807391846</v>
+        <v>0.0110027529868353</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00138719666555374</v>
+        <v>0.015007493003202</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00095704022861152</v>
+        <v>0.0196325987869093</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0478029727855266</v>
+        <v>0.0582658191999419</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0853814208017139</v>
+        <v>0.0992241916123686</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.216754575468351</v>
+        <v>0.224412171312107</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0536613290706173</v>
+        <v>0.0902702593421681</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0169217997629569</v>
+        <v>0.0328378798063286</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0958137169229698</v>
+        <v>0.106402164100443</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0337635855711975</v>
+        <v>0.0437699912687561</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000485369602436831</v>
+        <v>0.0122855742324817</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.000233681522475502</v>
+        <v>0.0356046392139005</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.00832691735875476</v>
+        <v>0.00458190958304446</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.00774538664348714</v>
+        <v>0.00667379775247055</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00964327633914889</v>
+        <v>0.0057705490145851</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0421840709486072</v>
+        <v>0.0508711658847368</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0108881729967841</v>
+        <v>0.0123258827418404</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00591278310017856</v>
+        <v>0.0144849826481364</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0250240597534375</v>
+        <v>0.0427414207604852</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0170483792442912</v>
+        <v>0.0312387074571612</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.034236687239057</v>
+        <v>0.0505823686141382</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.267486356125603</v>
+        <v>0.283193745738959</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00640329161952246</v>
+        <v>0.00730142971398444</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0076143484993343</v>
+        <v>0.0123585001186336</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.137075335415994</v>
+        <v>0.147736320218695</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0079614636681658</v>
+        <v>0.00669396180987515</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0211491035558724</v>
+        <v>0.0557429138917159</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0107088600386092</v>
+        <v>0.00772809383720141</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00783595679104176</v>
+        <v>0.0322022420312148</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00815160642716294</v>
+        <v>0.0278023255116985</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0181210950718074</v>
+        <v>0.0335166958134733</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0620702781729457</v>
+        <v>0.0759643695812041</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.108008781201934</v>
+        <v>0.157400904881635</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.181035394283747</v>
+        <v>0.194983919548228</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.174793173730682</v>
+        <v>0.186888580438005</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0187537791555566</v>
+        <v>0.0701630900901558</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00553802693552574</v>
+        <v>0.0151136400240429</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0193839186904492</v>
+        <v>0.0282617114275652</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00577397955635166</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.0247587047353458</v>
-      </c>
+        <v>0.0030699270823821</v>
+      </c>
+      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0533429235455884</v>
+        <v>0.0642301318712439</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00452226919167366</v>
+        <v>0.00703404331673748</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0961167621106141</v>
+        <v>0.104369437720632</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00235603569500511</v>
+        <v>0.0104460470392387</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0294297421180491</v>
+        <v>0.0445671252693678</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0640715278763332</v>
+        <v>0.0876553486820567</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0104682869984857</v>
+        <v>0.0153860048088264</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0312908321456207</v>
+        <v>0.0618723274634004</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0168543094943846</v>
+        <v>0.0491485473934421</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0119587013935011</v>
+        <v>0.0173435266010548</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00960480461934614</v>
+        <v>0.0118320052456187</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.00764317709217149</v>
+        <v>0.00303095792914676</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0213501128189482</v>
+        <v>0.0359058465233394</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0283184132240039</v>
+        <v>0.0469193126791338</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00706351535912649</v>
+        <v>0.0061415647314759</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00222878947742188</v>
+        <v>0.0302112562986506</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0688869795588064</v>
+        <v>0.0805440606548447</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0959971543411787</v>
+        <v>0.118666047232868</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0967168615693439</v>
+        <v>0.11201700950177</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00707500077739481</v>
+        <v>0.00750041865322334</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.00832244146778309</v>
+        <v>0.0105716492852346</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0780103902018841</v>
+        <v>0.0881376135446467</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0404946528064064</v>
+        <v>0.0656057682321444</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.216846506929475</v>
+        <v>0.244006787010072</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0116031024240657</v>
+        <v>0.0325302623662337</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0465636139602724</v>
+        <v>0.0631946048060054</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.147178703822484</v>
+        <v>0.167566474233628</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00667317955282677</v>
+        <v>0.0048971582504088</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0121537445816004</v>
+        <v>0.0770024452269112</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00537697531460153</v>
+        <v>0.0132049832582108</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0413277368872961</v>
+        <v>0.0592797317654585</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0217706765937036</v>
+        <v>0.0342644260761965</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.311697304741834</v>
+        <v>0.325159401558145</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00451745491902814</v>
+        <v>0.0136300626068656</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00184437663864276</v>
+        <v>0.0153661628534226</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0153770515830614</v>
+        <v>0.0289293847618465</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.160556760821818</v>
+        <v>0.173958593435625</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00872053412814055</v>
+        <v>0.0136485857748725</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.16157500863899</v>
+        <v>0.176588161151411</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00436297907845996</v>
+        <v>0.015825391161808</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0243428774531399</v>
+        <v>0.0468457789530909</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.289279761379389</v>
+        <v>0.323615111615138</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0628148152834123</v>
+        <v>0.102602429625608</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0045774470268802</v>
+        <v>0.0317811629391862</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.239734296351143</v>
+        <v>0.251274256527639</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00229140119921112</v>
+        <v>0.0318644379370592</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0225549563826303</v>
+        <v>0.0394593161503596</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.22839309000519</v>
+        <v>0.242230637622513</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0710452094587352</v>
+        <v>0.0823178940133509</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0730929531849555</v>
+        <v>0.0856505915728947</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00863170966909949</v>
+        <v>0.00797859533404999</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00995636175226407</v>
+        <v>0.0000546031346171696</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.131521811918013</v>
+        <v>0.143402383780648</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00876529839104959</v>
+        <v>0.0100481425323492</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0060652897610207</v>
+        <v>0.019469621196205</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.107419957181425</v>
+        <v>0.11820437366571</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00412312971316966</v>
+        <v>0.0132318730399093</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0146714085420261</v>
+        <v>0.0316281380366489</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0325383450579791</v>
+        <v>0.0435206807883309</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0509965983819988</v>
+        <v>0.065599448401177</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.001662963540298</v>
+        <v>0.013011114066751</v>
       </c>
       <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>-0.0045650496869816</v>
+        <v>0.00551353957135101</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0173928543455131</v>
+        <v>0.0272285273439721</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0115279235424369</v>
+        <v>0.0214238617556632</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.000679044758118493</v>
+        <v>0.00695042708537913</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00110857727063101</v>
+        <v>0.021233145082503</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.163377673615963</v>
+        <v>0.173735179805506</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00589006725873077</v>
+        <v>0.0101654080987471</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.155735281788355</v>
+        <v>0.171553148032306</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0859378215839101</v>
+        <v>0.0985297428987308</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0114046879383514</v>
+        <v>0.0446016838973511</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0617916139647211</v>
+        <v>0.0783193621458199</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.14271860451988</v>
+        <v>1.75810943787694</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0278071906019431</v>
+        <v>0.0466668481032426</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.232623774492087</v>
+        <v>0.244365308022179</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00828965092927678</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.139856728779371</v>
-      </c>
+        <v>0.021527446616561</v>
+      </c>
+      <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>0.0237464824564285</v>
+        <v>0.0499790025829476</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00581944011801416</v>
+        <v>0.00600768445951934</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00820927993013272</v>
+        <v>0.002880796197849</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0109958373183545</v>
+        <v>0.00964221870136086</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.033285684675482</v>
+        <v>0.0452043784447061</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.326979741472797</v>
+        <v>0.385369820954975</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.196321781779197</v>
+        <v>0.210630735853343</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.151266943046762</v>
+        <v>0.168366707736113</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0176009864450271</v>
+        <v>0.0409918358254696</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.11196007605642</v>
+        <v>0.125331323967164</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0124777967113096</v>
+        <v>0.0392180059608293</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0715174530591484</v>
+        <v>0.082512539719686</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00323156776926522</v>
+        <v>0.0442896626149958</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0417249408125926</v>
+        <v>0.0613806746307939</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00508338055817942</v>
+        <v>0.0180396760350649</v>
       </c>
       <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.118644768534193</v>
+        <v>0.129183616573319</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.145692040409002</v>
+        <v>0.156043740572572</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0320858056034125</v>
+        <v>0.0535040406134423</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.00432956659956543</v>
+        <v>0.00651465114415884</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0126866288263845</v>
+        <v>0.00673148004139817</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0697589430306654</v>
+        <v>0.0939253182393451</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.000289218321754673</v>
+        <v>0.013681118532596</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0396317664756518</v>
+        <v>0.0516109351655206</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0326807209160431</v>
+        <v>0.0533459778348189</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0294837609299596</v>
+        <v>0.0394359289739344</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.195684536907471</v>
+        <v>0.219706138057632</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0157193569610947</v>
+        <v>0.0496118200767794</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.10866297211696</v>
+        <v>0.121379680940504</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0830465246249105</v>
+        <v>0.0960158223361906</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">budget_gain_over_gdp_both_taxes</t>
+    <t xml:space="preserve">net_gain_over_gdp_both_taxes_pop</t>
   </si>
 </sst>
 </file>
@@ -1415,524 +1415,528 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.455626614160475</v>
+        <v>0.476385680281345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0926297049529778</v>
+        <v>0.0667359429155302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0259248911875146</v>
+        <v>0.0144131471629146</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0153722796760863</v>
+        <v>-0.00886600952785279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0163409332566377</v>
+        <v>0.00150502905338282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0251945815111548</v>
+        <v>0.0145372510489369</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0154758875659647</v>
+        <v>-0.00996821165568082</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00550703935815766</v>
+        <v>-0.00980689584272435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.034156004807428</v>
+        <v>0.01671133711557</v>
       </c>
       <c r="K2" t="n">
-        <v>0.682498189554441</v>
+        <v>0.738841461534576</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0135252205546187</v>
+        <v>-0.00755339752207493</v>
       </c>
       <c r="M2" t="n">
-        <v>0.111717975557713</v>
+        <v>0.108935670554963</v>
       </c>
       <c r="N2" t="n">
-        <v>0.185953733047955</v>
+        <v>0.192633546606301</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0643612469920816</v>
+        <v>0.0593775871797521</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0156197859229501</v>
+        <v>0.000253104412203457</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0148980868994689</v>
+        <v>-0.00804251291047833</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00204076035067683</v>
+        <v>-0.00869351165932713</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0303658064776569</v>
+        <v>0.0125681470252394</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0342605996219096</v>
+        <v>0.0135635628151962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.023826423496797</v>
+        <v>0.0131505363145368</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0552069012411672</v>
+        <v>0.0402550506454992</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0298043597815067</v>
+        <v>0.00817073467047036</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00383886535151779</v>
+        <v>-0.00527693830426079</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0109196782493715</v>
+        <v>-0.00925797857790893</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0599086137543758</v>
+        <v>0.0446827153606573</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02212622226321</v>
+        <v>0.0104612077905938</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.316460905195384</v>
+        <v>0.3434738613694</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0118564343934166</v>
+        <v>-0.0101398897706139</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0110027529868353</v>
+        <v>-0.0126169807391846</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.015007493003202</v>
+        <v>-0.00166503490179962</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0196325987869093</v>
+        <v>-0.00138620697725792</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0582658191999419</v>
+        <v>0.0524322970683115</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0992241916123686</v>
+        <v>0.0935311444349303</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.224412171312107</v>
+        <v>0.244106492446272</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0902702593421681</v>
+        <v>0.0585328741499303</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0328378798063286</v>
+        <v>0.0161299396617198</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.106402164100443</v>
+        <v>0.101681640348237</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0437699912687561</v>
+        <v>0.0333573356766083</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0122855742324817</v>
+        <v>0.000189949498573846</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0356046392139005</v>
+        <v>-0.00124702137092362</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00458190958304446</v>
+        <v>-0.00832691735875476</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00667379775247055</v>
+        <v>-0.00774538664348714</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0057705490145851</v>
+        <v>-0.00964327633914889</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0508711658847368</v>
+        <v>0.0427636128531381</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0123258827418404</v>
+        <v>-0.0108881729967841</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0144849826481364</v>
+        <v>0.00582342993381989</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0427414207604852</v>
+        <v>0.0253404561203713</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0312387074571612</v>
+        <v>0.0167429058961402</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0505823686141382</v>
+        <v>0.0352270622827318</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.283193745738959</v>
+        <v>0.286393332877714</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00730142971398444</v>
+        <v>-0.00640329161952246</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0123585001186336</v>
+        <v>-0.0076143484993343</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.147736320218695</v>
+        <v>0.147114032980727</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.00669396180987515</v>
+        <v>-0.0079614636681658</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0557429138917159</v>
+        <v>0.0211853586921247</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00772809383720141</v>
+        <v>-0.0107088600386092</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0322022420312148</v>
+        <v>0.00854440771017192</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0278023255116985</v>
+        <v>-0.00815160642716294</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0335166958134733</v>
+        <v>0.0172084053492746</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0759643695812041</v>
+        <v>0.0655811542496082</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.157400904881635</v>
+        <v>0.117601264394959</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.194983919548228</v>
+        <v>0.199185335166753</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.186888580438005</v>
+        <v>0.188187404251381</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0701630900901558</v>
+        <v>0.0203485527099747</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0151136400240429</v>
+        <v>-0.00564683491398565</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0282617114275652</v>
+        <v>0.0200346600851354</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0030699270823821</v>
-      </c>
-      <c r="BQ2"/>
+        <v>-0.00577366661790672</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.0247587047353458</v>
+      </c>
       <c r="BR2" t="n">
-        <v>0.0642301318712439</v>
+        <v>0.0539930281724929</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00703404331673748</v>
+        <v>-0.00469280676754711</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.104369437720632</v>
+        <v>0.098197497057226</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0104460470392387</v>
+        <v>-0.00255310414779226</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0445671252693678</v>
+        <v>0.0288660822285336</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0876553486820567</v>
+        <v>0.0629948857588729</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0153860048088264</v>
+        <v>-0.0104682869984857</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0618723274634004</v>
+        <v>0.030384859293544</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0491485473934421</v>
+        <v>0.0182546651001775</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0173435266010548</v>
+        <v>-0.0119587013935011</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0118320052456187</v>
+        <v>-0.00960480461934614</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00303095792914676</v>
+        <v>-0.00764317709217149</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0359058465233394</v>
+        <v>0.0202753760389537</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0469193126791338</v>
+        <v>0.0290959848203732</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0061415647314759</v>
+        <v>-0.00706351535912649</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0302112562986506</v>
+        <v>0.0022604110958893</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0805440606548447</v>
+        <v>0.0733806802634047</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.118666047232868</v>
+        <v>0.0992056868301996</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.11201700950177</v>
+        <v>0.097065542786664</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00750041865322334</v>
+        <v>-0.00707500077739481</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0105716492852346</v>
+        <v>-0.00832244146778309</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0881376135446467</v>
+        <v>0.0790935221291381</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0656057682321444</v>
+        <v>0.0402442753283096</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.244006787010072</v>
+        <v>0.234097101779499</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0325302623662337</v>
+        <v>0.0116326023539129</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0631946048060054</v>
+        <v>0.0451784314613319</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.167566474233628</v>
+        <v>0.151815019244921</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0048971582504088</v>
+        <v>-0.00671717415594553</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0770024452269112</v>
+        <v>-0.0121537445816004</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0132049832582108</v>
+        <v>-0.00549122840219737</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0592797317654585</v>
+        <v>0.0408817489143784</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0342644260761965</v>
+        <v>0.0205519797433942</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.325159401558145</v>
+        <v>0.332464811999485</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0136300626068656</v>
+        <v>0.00412696417776345</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0153661628534226</v>
+        <v>0.00166933626364945</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0289293847618465</v>
+        <v>0.0141413823565348</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.173958593435625</v>
+        <v>0.182544429296439</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0136485857748725</v>
+        <v>-0.00872053412814055</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.176588161151411</v>
+        <v>0.158457124098133</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.015825391161808</v>
+        <v>0.00381181871448315</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0468457789530909</v>
+        <v>0.0249360615287897</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.323615111615138</v>
+        <v>0.318206534556099</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.102602429625608</v>
+        <v>0.0687850176264529</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0317811629391862</v>
+        <v>0.00396031413745776</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.251274256527639</v>
+        <v>0.263020083934846</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0318644379370592</v>
+        <v>0.00201770745040254</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0394593161503596</v>
+        <v>0.0238611915955421</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.242230637622513</v>
+        <v>0.26265446318257</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0823178940133509</v>
+        <v>0.0783686003879658</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0856505915728947</v>
+        <v>0.0736941755042146</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00797859533404999</v>
+        <v>-0.00863170966909949</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0000546031346171696</v>
+        <v>-0.00995636175226407</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.143402383780648</v>
+        <v>0.132272122399588</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0100481425323492</v>
+        <v>-0.00876529839104959</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.019469621196205</v>
+        <v>-0.0060927254643505</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.11820437366571</v>
+        <v>0.112861531732514</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0132318730399093</v>
+        <v>-0.00416626006124504</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0316281380366489</v>
+        <v>0.0144187047836491</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0435206807883309</v>
+        <v>0.0329521884728035</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.065599448401177</v>
+        <v>0.052952011085048</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.013011114066751</v>
+        <v>-0.00185295912090385</v>
       </c>
       <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>0.00551353957135101</v>
+        <v>-0.00457900945145431</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0272285273439721</v>
+        <v>0.0174368898694624</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0214238617556632</v>
+        <v>-0.0115279235424369</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.00695042708537913</v>
+        <v>0.000375011872714245</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.021233145082503</v>
+        <v>-0.00149079240013984</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.173735179805506</v>
+        <v>0.173958280885759</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0101654080987471</v>
+        <v>-0.00589006725873077</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.171553148032306</v>
+        <v>0.168244424501374</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0985297428987308</v>
+        <v>0.0936747175166235</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0446016838973511</v>
+        <v>-0.0114046879383514</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0783193621458199</v>
+        <v>0.0662838973163915</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.75810943787694</v>
+        <v>-1.12306040581543</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0466668481032426</v>
+        <v>0.0273062449283127</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.244365308022179</v>
+        <v>0.263588936889916</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.021527446616561</v>
-      </c>
-      <c r="EQ2"/>
+        <v>0.00734051817913787</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.155510851445077</v>
+      </c>
       <c r="ER2" t="n">
-        <v>0.0499790025829476</v>
+        <v>0.0234118411948603</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00600768445951934</v>
+        <v>-0.00590986615910928</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.002880796197849</v>
+        <v>-0.00820927993013272</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00964221870136086</v>
+        <v>-0.0109958373183545</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0452043784447061</v>
+        <v>0.0347816102908417</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.385369820954975</v>
+        <v>0.335640304216488</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.210630735853343</v>
+        <v>0.223456047111162</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.168366707736113</v>
+        <v>0.162534838046708</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0409918358254696</v>
+        <v>0.016230317108651</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.125331323967164</v>
+        <v>0.117204928577298</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0392180059608293</v>
+        <v>0.0127369292292861</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.082512539719686</v>
+        <v>0.0745856260671223</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0442896626149958</v>
+        <v>-0.00341334646973259</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0613806746307939</v>
+        <v>0.0408042256586509</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0180396760350649</v>
+        <v>0.00481945972545257</v>
       </c>
       <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.129183616573319</v>
+        <v>0.130969238445196</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.156043740572572</v>
+        <v>0.162785244885314</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0535040406134423</v>
+        <v>0.0298431833844609</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00651465114415884</v>
+        <v>-0.00446372478487396</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00673148004139817</v>
+        <v>-0.0126866288263845</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0939253182393451</v>
+        <v>0.0701992874550549</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.013681118532596</v>
+        <v>0.000263192049167165</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0516109351655206</v>
+        <v>0.0383308508227008</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0533459778348189</v>
+        <v>0.0353554250869674</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0394359289739344</v>
+        <v>0.0314858024237062</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.219706138057632</v>
+        <v>0.209506574162166</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0496118200767794</v>
+        <v>0.0157063884843269</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.121379680940504</v>
+        <v>0.119692596841751</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0960158223361906</v>
+        <v>0.0898999756118952</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">net_gain_over_gdp_both_taxes_pop</t>
+    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,528 +1415,532 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.476385680281345</v>
+        <v>0.107796440282475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0667359429155302</v>
+        <v>0.0297449066259704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0144131471629146</v>
+        <v>0.0111730789720125</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00886600952785279</v>
+        <v>-0.0237379688147157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00150502905338282</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0145372510489369</v>
+        <v>0.0132030970603002</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00996821165568082</v>
+        <v>-0.0262828371757164</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00980689584272435</v>
+        <v>-0.00669300450020158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01671133711557</v>
+        <v>0.00315869403604525</v>
       </c>
       <c r="K2" t="n">
-        <v>0.738841461534576</v>
+        <v>0.226454585206834</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00755339752207493</v>
+        <v>-0.00895804466365094</v>
       </c>
       <c r="M2" t="n">
-        <v>0.108935670554963</v>
+        <v>0.0865091137579374</v>
       </c>
       <c r="N2" t="n">
-        <v>0.192633546606301</v>
+        <v>0.115828396129408</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0593775871797521</v>
+        <v>0.0573707520757573</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000253104412203457</v>
+        <v>-0.00109148296842516</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00804251291047833</v>
+        <v>-0.0352863778471014</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00869351165932713</v>
+        <v>-0.00120563421065129</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0125681470252394</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0135635628151962</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0131505363145368</v>
+        <v>0.0211439205402582</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0402550506454992</v>
+        <v>0.0147561000979103</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00817073467047036</v>
+        <v>0.00499117357405254</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.00527693830426079</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00925797857790893</v>
+        <v>-0.0192995713023439</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0446827153606573</v>
+        <v>0.0100490624284153</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0104612077905938</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3434738613694</v>
+        <v>0.253199071962925</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0101398897706139</v>
+        <v>-0.0253481064945171</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0126169807391846</v>
+        <v>-0.000858742892946077</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00166503490179962</v>
+        <v>-0.00132666044587976</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00138620697725792</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0524322970683115</v>
+        <v>0.0271239974285094</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0935311444349303</v>
+        <v>0.0506936113885496</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.244106492446272</v>
+        <v>0.141987854404952</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0585328741499303</v>
+        <v>0.0344381756561546</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0161299396617198</v>
+        <v>0.0125520880797592</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.101681640348237</v>
+        <v>0.0674366969066466</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0333573356766083</v>
+        <v>0.0243327538520452</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000189949498573846</v>
+        <v>0.0112175942390412</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.00124702137092362</v>
+        <v>0.0085219297331081</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.00832691735875476</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.00774538664348714</v>
+        <v>-0.016783083423211</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00964327633914889</v>
+        <v>-0.0108922359496041</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0427636128531381</v>
+        <v>0.0451896962349804</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0108881729967841</v>
+        <v>-0.00322840015997134</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00582342993381989</v>
+        <v>0.0124085790584684</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0253404561203713</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0167429058961402</v>
+        <v>0.00757224543399562</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0352270622827318</v>
+        <v>0.0019934433949371</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.286393332877714</v>
+        <v>0.14158833980916</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00640329161952246</v>
+        <v>-0.000907587293111814</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0076143484993343</v>
+        <v>-0.0352930039250691</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.147114032980727</v>
+        <v>0.128234908658334</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0079614636681658</v>
+        <v>-0.00825552796401699</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0211853586921247</v>
+        <v>0.0227917118003022</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0107088600386092</v>
+        <v>-0.00218712952584388</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00854440771017192</v>
+        <v>0.00548561358999576</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00815160642716294</v>
+        <v>-0.00445945783216894</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0172084053492746</v>
+        <v>0.00606029694531942</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0655811542496082</v>
+        <v>0.0329492333731584</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.117601264394959</v>
+        <v>0.0416109158677515</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.199185335166753</v>
+        <v>0.083586711312652</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.188187404251381</v>
+        <v>0.116927269343903</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0203485527099747</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00564683491398565</v>
+        <v>-0.000480958154669364</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0200346600851354</v>
+        <v>0.0251473985649843</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00577366661790672</v>
+        <v>0.00164988613579134</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.0247587047353458</v>
+        <v>-0.000527723431510221</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0539930281724929</v>
+        <v>0.0419527673569509</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00469280676754711</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.098197497057226</v>
+        <v>0.118663932095835</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00255310414779226</v>
+        <v>-0.00135166954280592</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0288660822285336</v>
+        <v>0.00812563196038103</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0629948857588729</v>
+        <v>0.0227828297536658</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0104682869984857</v>
+        <v>-0.00502396553866903</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.030384859293544</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0182546651001775</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0119587013935011</v>
+        <v>-0.0126663213781415</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00960480461934614</v>
+        <v>-0.000444133779737025</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.00764317709217149</v>
+        <v>-0.00255119584963261</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0202753760389537</v>
+        <v>0.0213620250436944</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0290959848203732</v>
+        <v>0.00269614545833666</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00706351535912649</v>
+        <v>-0.0130313524221156</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0022604110958893</v>
+        <v>-0.0384608003628143</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0733806802634047</v>
+        <v>0.0665415863418327</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0992056868301996</v>
+        <v>0.0251654384926395</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.097065542786664</v>
+        <v>0.0580674236393053</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00707500077739481</v>
+        <v>-0.0122682004266057</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.00832244146778309</v>
+        <v>-0.045805669913588</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0790935221291381</v>
+        <v>0.0316129077886263</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0402442753283096</v>
+        <v>0.0019115892120773</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.234097101779499</v>
+        <v>0.165649219515679</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0116326023539129</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0451784314613319</v>
+        <v>0.014380212009145</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.151815019244921</v>
+        <v>0.0363558138884052</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00671717415594553</v>
+        <v>-0.00311821344903322</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0121537445816004</v>
+        <v>-0.0114444259383785</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00549122840219737</v>
+        <v>-0.000769638923129764</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0408817489143784</v>
+        <v>0.0105843211186412</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0205519797433942</v>
+        <v>0.00724780642544782</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.332464811999485</v>
+        <v>0.131466553084905</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00412696417776345</v>
+        <v>0.0114443552469856</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00166933626364945</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0141413823565348</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.182544429296439</v>
+        <v>0.0709026647301634</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00872053412814055</v>
+        <v>-0.00103475291602172</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.158457124098133</v>
+        <v>0.0391064820628059</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00381181871448315</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0249360615287897</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.318206534556099</v>
+        <v>0.118291315600917</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0687850176264529</v>
+        <v>0.0478061858499682</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00396031413745776</v>
+        <v>-0.0000182421118753593</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.263020083934846</v>
+        <v>0.192567738295597</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00201770745040254</v>
+        <v>-0.00337203423823297</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0238611915955421</v>
+        <v>0.00782648294796226</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.26265446318257</v>
+        <v>0.201976914362105</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0783686003879658</v>
+        <v>0.0295234807526511</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0736941755042146</v>
+        <v>0.032697208352781</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00863170966909949</v>
+        <v>-0.0107703485993832</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00995636175226407</v>
+        <v>-0.00704253225308531</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.132272122399588</v>
+        <v>0.0947790356629186</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00876529839104959</v>
+        <v>-0.00863800251778507</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0060927254643505</v>
+        <v>-0.0283921286827553</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.112861531732514</v>
+        <v>0.0423366862338456</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00416626006124504</v>
+        <v>0.000941081521648168</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0144187047836491</v>
+        <v>0.0044516405748441</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0329521884728035</v>
+        <v>0.0280460506759528</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.052952011085048</v>
+        <v>0.0518669821518876</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00185295912090385</v>
-      </c>
-      <c r="EA2"/>
+        <v>-0.0121472464974879</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.0529042310643741</v>
+      </c>
       <c r="EB2" t="n">
-        <v>-0.00457900945145431</v>
+        <v>-0.00056710978576976</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0174368898694624</v>
+        <v>0.0187062828851886</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0115279235424369</v>
+        <v>-0.0404851393114377</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.000375011872714245</v>
+        <v>-0.000510234989955001</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00149079240013984</v>
+        <v>-0.014184416483791</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.173958280885759</v>
+        <v>0.102087474038517</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00589006725873077</v>
+        <v>-0.0297291484638848</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.168244424501374</v>
+        <v>0.0417979657028384</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0936747175166235</v>
+        <v>0.0521067484189574</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0114046879383514</v>
+        <v>-0.00833059013603422</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0662838973163915</v>
+        <v>0.0960232009116457</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.12306040581543</v>
+        <v>0.143163183755553</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0273062449283127</v>
+        <v>0.0284342149547912</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.263588936889916</v>
+        <v>0.107570133186378</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00734051817913787</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.155510851445077</v>
+        <v>0.0938337421525753</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0234118411948603</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00590986615910928</v>
+        <v>-0.00807681928707533</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00820927993013272</v>
+        <v>-0.00543450902781031</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0109958373183545</v>
+        <v>-0.00124245450829231</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0347816102908417</v>
+        <v>0.0202434228060335</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.335640304216488</v>
+        <v>0.0100212572637192</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.223456047111162</v>
+        <v>0.130619341958137</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.162534838046708</v>
+        <v>0.111629754328152</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.016230317108651</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.117204928577298</v>
+        <v>0.051551961596043</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0127369292292861</v>
+        <v>-0.0238072489824164</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0745856260671223</v>
+        <v>0.0246017735287238</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00341334646973259</v>
+        <v>-0.0930271229580623</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0408042256586509</v>
+        <v>0.00427202774364228</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00481945972545257</v>
-      </c>
-      <c r="FG2"/>
+        <v>-0.00309079992513577</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-0.00720986857185064</v>
+      </c>
       <c r="FH2" t="n">
-        <v>0.130969238445196</v>
+        <v>0.0668555836572077</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.162785244885314</v>
+        <v>0.0932408791473608</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0298431833844609</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.00446372478487396</v>
+        <v>0.00356598221503565</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0126866288263845</v>
+        <v>-0.0216763610210202</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0701992874550549</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.000263192049167165</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0383308508227008</v>
+        <v>0.0164473921399044</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0353554250869674</v>
+        <v>0.0769688436873187</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0314858024237062</v>
+        <v>0.0327369679825809</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.209506574162166</v>
+        <v>0.0592846102637472</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0157063884843269</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.119692596841751</v>
+        <v>0.0425105235056597</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0898999756118952</v>
+        <v>0.050460434028453</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">net_gain_over_gdp_both_taxes_pop</t>
   </si>
 </sst>
 </file>
@@ -1415,532 +1415,528 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.107796440282475</v>
+        <v>0.476385680281345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297449066259704</v>
+        <v>0.0667359429155302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0111730789720125</v>
+        <v>0.0144131471629146</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0237379688147157</v>
+        <v>-0.00886600952785279</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.00150502905338282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0132030970603002</v>
+        <v>0.0145372510489369</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0262828371757164</v>
+        <v>-0.00996821165568082</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00669300450020158</v>
+        <v>-0.00980689584272435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00315869403604525</v>
+        <v>0.01671133711557</v>
       </c>
       <c r="K2" t="n">
-        <v>0.226454585206834</v>
+        <v>0.738841461534576</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00895804466365094</v>
+        <v>-0.00755339752207493</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0865091137579374</v>
+        <v>0.108935670554963</v>
       </c>
       <c r="N2" t="n">
-        <v>0.115828396129408</v>
+        <v>0.192633546606301</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0573707520757573</v>
+        <v>0.0593775871797521</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00109148296842516</v>
+        <v>0.000253104412203457</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0352863778471014</v>
+        <v>-0.00804251291047833</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00120563421065129</v>
+        <v>-0.00869351165932713</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0125681470252394</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0135635628151962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0211439205402582</v>
+        <v>0.0131505363145368</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0147561000979103</v>
+        <v>0.0402550506454992</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00499117357405254</v>
+        <v>0.00817073467047036</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0.00527693830426079</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0192995713023439</v>
+        <v>-0.00925797857790893</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0100490624284153</v>
+        <v>0.0446827153606573</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.0104612077905938</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.253199071962925</v>
+        <v>0.3434738613694</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0253481064945171</v>
+        <v>-0.0101398897706139</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.000858742892946077</v>
+        <v>-0.0126169807391846</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00132666044587976</v>
+        <v>-0.00166503490179962</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>-0.00138620697725792</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0271239974285094</v>
+        <v>0.0524322970683115</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0506936113885496</v>
+        <v>0.0935311444349303</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.141987854404952</v>
+        <v>0.244106492446272</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0344381756561546</v>
+        <v>0.0585328741499303</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0125520880797592</v>
+        <v>0.0161299396617198</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0674366969066466</v>
+        <v>0.101681640348237</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0243327538520452</v>
+        <v>0.0333573356766083</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0112175942390412</v>
+        <v>0.000189949498573846</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0085219297331081</v>
+        <v>-0.00124702137092362</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-0.00832691735875476</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.016783083423211</v>
+        <v>-0.00774538664348714</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0108922359496041</v>
+        <v>-0.00964327633914889</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0451896962349804</v>
+        <v>0.0427636128531381</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00322840015997134</v>
+        <v>-0.0108881729967841</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0124085790584684</v>
+        <v>0.00582342993381989</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.0253404561203713</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00757224543399562</v>
+        <v>0.0167429058961402</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0019934433949371</v>
+        <v>0.0352270622827318</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.14158833980916</v>
+        <v>0.286393332877714</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000907587293111814</v>
+        <v>-0.00640329161952246</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0352930039250691</v>
+        <v>-0.0076143484993343</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.128234908658334</v>
+        <v>0.147114032980727</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00825552796401699</v>
+        <v>-0.0079614636681658</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0227917118003022</v>
+        <v>0.0211853586921247</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00218712952584388</v>
+        <v>-0.0107088600386092</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00548561358999576</v>
+        <v>0.00854440771017192</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00445945783216894</v>
+        <v>-0.00815160642716294</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00606029694531942</v>
+        <v>0.0172084053492746</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0329492333731584</v>
+        <v>0.0655811542496082</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0416109158677515</v>
+        <v>0.117601264394959</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.083586711312652</v>
+        <v>0.199185335166753</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.116927269343903</v>
+        <v>0.188187404251381</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.0203485527099747</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000480958154669364</v>
+        <v>-0.00564683491398565</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0251473985649843</v>
+        <v>0.0200346600851354</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00164988613579134</v>
+        <v>-0.00577366661790672</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.000527723431510221</v>
+        <v>-0.0247587047353458</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0419527673569509</v>
+        <v>0.0539930281724929</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0.00469280676754711</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.118663932095835</v>
+        <v>0.098197497057226</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00135166954280592</v>
+        <v>-0.00255310414779226</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00812563196038103</v>
+        <v>0.0288660822285336</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0227828297536658</v>
+        <v>0.0629948857588729</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00502396553866903</v>
+        <v>-0.0104682869984857</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>0.030384859293544</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.0182546651001775</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0126663213781415</v>
+        <v>-0.0119587013935011</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.000444133779737025</v>
+        <v>-0.00960480461934614</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.00255119584963261</v>
+        <v>-0.00764317709217149</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0213620250436944</v>
+        <v>0.0202753760389537</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00269614545833666</v>
+        <v>0.0290959848203732</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0130313524221156</v>
+        <v>-0.00706351535912649</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0384608003628143</v>
+        <v>0.0022604110958893</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0665415863418327</v>
+        <v>0.0733806802634047</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0251654384926395</v>
+        <v>0.0992056868301996</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0580674236393053</v>
+        <v>0.097065542786664</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0122682004266057</v>
+        <v>-0.00707500077739481</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.045805669913588</v>
+        <v>-0.00832244146778309</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0316129077886263</v>
+        <v>0.0790935221291381</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0019115892120773</v>
+        <v>0.0402442753283096</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.165649219515679</v>
+        <v>0.234097101779499</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.0116326023539129</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.014380212009145</v>
+        <v>0.0451784314613319</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0363558138884052</v>
+        <v>0.151815019244921</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00311821344903322</v>
+        <v>-0.00671717415594553</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0114444259383785</v>
+        <v>-0.0121537445816004</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.000769638923129764</v>
+        <v>-0.00549122840219737</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0105843211186412</v>
+        <v>0.0408817489143784</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00724780642544782</v>
+        <v>0.0205519797433942</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.131466553084905</v>
+        <v>0.332464811999485</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0114443552469856</v>
+        <v>0.00412696417776345</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>0.00166933626364945</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.0141413823565348</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0709026647301634</v>
+        <v>0.182544429296439</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00103475291602172</v>
+        <v>-0.00872053412814055</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0391064820628059</v>
+        <v>0.158457124098133</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>0.00381181871448315</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.0249360615287897</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.118291315600917</v>
+        <v>0.318206534556099</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0478061858499682</v>
+        <v>0.0687850176264529</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.0000182421118753593</v>
+        <v>0.00396031413745776</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.192567738295597</v>
+        <v>0.263020083934846</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.00337203423823297</v>
+        <v>0.00201770745040254</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.00782648294796226</v>
+        <v>0.0238611915955421</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.201976914362105</v>
+        <v>0.26265446318257</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0295234807526511</v>
+        <v>0.0783686003879658</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.032697208352781</v>
+        <v>0.0736941755042146</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0107703485993832</v>
+        <v>-0.00863170966909949</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00704253225308531</v>
+        <v>-0.00995636175226407</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0947790356629186</v>
+        <v>0.132272122399588</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00863800251778507</v>
+        <v>-0.00876529839104959</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0283921286827553</v>
+        <v>-0.0060927254643505</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0423366862338456</v>
+        <v>0.112861531732514</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.000941081521648168</v>
+        <v>-0.00416626006124504</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0044516405748441</v>
+        <v>0.0144187047836491</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0280460506759528</v>
+        <v>0.0329521884728035</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0518669821518876</v>
+        <v>0.052952011085048</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0121472464974879</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.0529042310643741</v>
-      </c>
+        <v>-0.00185295912090385</v>
+      </c>
+      <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>-0.00056710978576976</v>
+        <v>-0.00457900945145431</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0187062828851886</v>
+        <v>0.0174368898694624</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0404851393114377</v>
+        <v>-0.0115279235424369</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.000510234989955001</v>
+        <v>0.000375011872714245</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.014184416483791</v>
+        <v>-0.00149079240013984</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.102087474038517</v>
+        <v>0.173958280885759</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0297291484638848</v>
+        <v>-0.00589006725873077</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0417979657028384</v>
+        <v>0.168244424501374</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0521067484189574</v>
+        <v>0.0936747175166235</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00833059013603422</v>
+        <v>-0.0114046879383514</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0960232009116457</v>
+        <v>0.0662838973163915</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.143163183755553</v>
+        <v>-1.12306040581543</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0284342149547912</v>
+        <v>0.0273062449283127</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.107570133186378</v>
+        <v>0.263588936889916</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.00734051817913787</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0938337421525753</v>
+        <v>0.155510851445077</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>0.0234118411948603</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00807681928707533</v>
+        <v>-0.00590986615910928</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00543450902781031</v>
+        <v>-0.00820927993013272</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00124245450829231</v>
+        <v>-0.0109958373183545</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0202434228060335</v>
+        <v>0.0347816102908417</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0100212572637192</v>
+        <v>0.335640304216488</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.130619341958137</v>
+        <v>0.223456047111162</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.111629754328152</v>
+        <v>0.162534838046708</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>0.016230317108651</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.051551961596043</v>
+        <v>0.117204928577298</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0238072489824164</v>
+        <v>0.0127369292292861</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0246017735287238</v>
+        <v>0.0745856260671223</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0930271229580623</v>
+        <v>-0.00341334646973259</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00427202774364228</v>
+        <v>0.0408042256586509</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.00309079992513577</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-0.00720986857185064</v>
-      </c>
+        <v>0.00481945972545257</v>
+      </c>
+      <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.0668555836572077</v>
+        <v>0.130969238445196</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0932408791473608</v>
+        <v>0.162785244885314</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>0.0298431833844609</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00356598221503565</v>
+        <v>-0.00446372478487396</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0216763610210202</v>
+        <v>-0.0126866288263845</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>0.0701992874550549</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.000263192049167165</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0164473921399044</v>
+        <v>0.0383308508227008</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0769688436873187</v>
+        <v>0.0353554250869674</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0327369679825809</v>
+        <v>0.0314858024237062</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0592846102637472</v>
+        <v>0.209506574162166</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.0157063884843269</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0425105235056597</v>
+        <v>0.119692596841751</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.050460434028453</v>
+        <v>0.0898999756118952</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">net_gain_over_gdp_both_taxes_pop</t>
+    <t xml:space="preserve">gain_euro_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,528 +1415,532 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.476385680281345</v>
+        <v>39.2980325887004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0667359429155302</v>
+        <v>25.0868515483899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0144131471629146</v>
+        <v>16.2962237448967</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00886600952785279</v>
+        <v>-161.433042529147</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00150502905338282</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0145372510489369</v>
+        <v>19.108455609987</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00996821165568082</v>
+        <v>-137.405196165695</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00980689584272435</v>
+        <v>-35.3921725660155</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01671133711557</v>
+        <v>5.94991361594123</v>
       </c>
       <c r="K2" t="n">
-        <v>0.738841461534576</v>
+        <v>42.5053403643977</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00755339752207493</v>
+        <v>-44.5079010468466</v>
       </c>
       <c r="M2" t="n">
-        <v>0.108935670554963</v>
+        <v>32.8591619729683</v>
       </c>
       <c r="N2" t="n">
-        <v>0.192633546606301</v>
+        <v>40.5509246263128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0593775871797521</v>
+        <v>37.4965821684436</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000253104412203457</v>
+        <v>-3.20953670867697</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00804251291047833</v>
+        <v>-175.65405721959</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00869351165932713</v>
+        <v>-3.74097562049228</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0125681470252394</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0135635628151962</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0131505363145368</v>
+        <v>23.769210953682</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0402550506454992</v>
+        <v>16.2085917335496</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00817073467047036</v>
+        <v>10.1955455365162</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.00527693830426079</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00925797857790893</v>
+        <v>-128.033460622318</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0446827153606573</v>
+        <v>18.0751935341724</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0104612077905938</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3434738613694</v>
+        <v>41.2898887453057</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0101398897706139</v>
+        <v>-116.190040915662</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0126169807391846</v>
+        <v>-5.60071921605039</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00166503490179962</v>
+        <v>-4.3208161754896</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00138620697725792</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0524322970683115</v>
+        <v>29.0336710546184</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0935311444349303</v>
+        <v>33.084361336396</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.244106492446272</v>
+        <v>41.975184277184</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0585328741499303</v>
+        <v>32.0672715618451</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0161299396617198</v>
+        <v>22.0236918015429</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.101681640348237</v>
+        <v>39.6174919017462</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0333573356766083</v>
+        <v>25.3000895849436</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000189949498573846</v>
+        <v>23.2667708612162</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.00124702137092362</v>
+        <v>8.61041750192703</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.00832691735875476</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.00774538664348714</v>
+        <v>-74.2425594448387</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.00964327633914889</v>
+        <v>-53.9678487979498</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0427636128531381</v>
+        <v>30.2198237226496</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0108881729967841</v>
+        <v>-15.8733305322641</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00582342993381989</v>
+        <v>26.3527977027588</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0253404561203713</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0167429058961402</v>
+        <v>11.0902489850537</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0352270622827318</v>
+        <v>4.12893340082629</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.286393332877714</v>
+        <v>41.0884802312134</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00640329161952246</v>
+        <v>-3.04402418710654</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0076143484993343</v>
+        <v>-141.743194671576</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.147114032980727</v>
+        <v>41.1806312874337</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0079614636681658</v>
+        <v>-35.6015212036924</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0211853586921247</v>
+        <v>29.163260813039</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0107088600386092</v>
+        <v>-9.40350186406103</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00854440771017192</v>
+        <v>10.0407161204612</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00815160642716294</v>
+        <v>-20.0206706656436</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0172084053492746</v>
+        <v>11.672153685678</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0655811542496082</v>
+        <v>35.164180719545</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.117601264394959</v>
+        <v>34.5096762568852</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.199185335166753</v>
+        <v>38.7161493489351</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.188187404251381</v>
+        <v>40.3634122336793</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0203485527099747</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.00564683491398565</v>
+        <v>-1.39095927889403</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0200346600851354</v>
+        <v>29.1014506243509</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00577366661790672</v>
+        <v>2.03094316919178</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.0247587047353458</v>
+        <v>-3.09329455114821</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0539930281724929</v>
+        <v>28.471281297144</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00469280676754711</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.098197497057226</v>
+        <v>38.5777151006888</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00255310414779226</v>
+        <v>-4.51648024048737</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0288660822285336</v>
+        <v>16.7975575172441</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0629948857588729</v>
+        <v>24.9260534637574</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0104682869984857</v>
+        <v>-36.5043348553966</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.030384859293544</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0182546651001775</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0119587013935011</v>
+        <v>-67.7664457572695</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00960480461934614</v>
+        <v>-1.5505643248501</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.00764317709217149</v>
+        <v>-9.51878630468101</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0202753760389537</v>
+        <v>18.6048468956749</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0290959848203732</v>
+        <v>4.28098171398446</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00706351535912649</v>
+        <v>-52.8324438511029</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0022604110958893</v>
+        <v>-178.115549485985</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0733806802634047</v>
+        <v>37.3462652635893</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0992056868301996</v>
+        <v>19.9095784449286</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.097065542786664</v>
+        <v>38.0722147702131</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.00707500077739481</v>
+        <v>-53.6746941396604</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.00832244146778309</v>
+        <v>-244.191690474444</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0790935221291381</v>
+        <v>40.3486757317925</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0402442753283096</v>
+        <v>3.83502045319446</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.234097101779499</v>
+        <v>37.6581883872595</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0116326023539129</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0451784314613319</v>
+        <v>30.6302178996166</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.151815019244921</v>
+        <v>22.2005947950429</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00671717415594553</v>
+        <v>-12.0369070618128</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0121537445816004</v>
+        <v>-113.487153156348</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00549122840219737</v>
+        <v>-2.61877345358546</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0408817489143784</v>
+        <v>15.5980125302809</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0205519797433942</v>
+        <v>8.11682864436135</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.332464811999485</v>
+        <v>41.2318432434972</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00412696417776345</v>
+        <v>21.4062907672758</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00166933626364945</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0141413823565348</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.182544429296439</v>
+        <v>39.0527142726106</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00872053412814055</v>
+        <v>-4.61272731676446</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.158457124098133</v>
+        <v>38.7875395797006</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00381181871448315</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0249360615287897</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.318206534556099</v>
+        <v>35.6414794180521</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0687850176264529</v>
+        <v>29.1335489360801</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00396031413745776</v>
+        <v>-0.0541147869757597</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.263020083934846</v>
+        <v>42.2740809642663</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00201770745040254</v>
+        <v>-12.2027928160899</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0238611915955421</v>
+        <v>16.6453964160942</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.26265446318257</v>
+        <v>39.299808029259</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0783686003879658</v>
+        <v>31.3363360589665</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0736941755042146</v>
+        <v>29.4731796414631</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00863170966909949</v>
+        <v>-55.5303087990905</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00995636175226407</v>
+        <v>-41.2127825874493</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.132272122399588</v>
+        <v>40.4231233456738</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00876529839104959</v>
+        <v>-35.6388274545991</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0060927254643505</v>
+        <v>-117.2912807642</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.112861531732514</v>
+        <v>34.0805180771018</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00416626006124504</v>
+        <v>3.28345434333933</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0144187047836491</v>
+        <v>9.19579328070629</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0329521884728035</v>
+        <v>32.4478982061553</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.052952011085048</v>
+        <v>34.665614794866</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00185295912090385</v>
-      </c>
-      <c r="EA2"/>
+        <v>-43.8864070472487</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>16.7287747539803</v>
+      </c>
       <c r="EB2" t="n">
-        <v>-0.00457900945145431</v>
+        <v>-1.72201367572349</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0174368898694624</v>
+        <v>27.4686063392184</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0115279235424369</v>
+        <v>-449.362084331232</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.000375011872714245</v>
+        <v>-1.70205087957636</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.00149079240013984</v>
+        <v>-50.7732542733931</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.173958280885759</v>
+        <v>42.1823186595507</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00589006725873077</v>
+        <v>-166.568968881999</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.168244424501374</v>
+        <v>35.304859045281</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0936747175166235</v>
+        <v>32.7702970206539</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0114046879383514</v>
+        <v>-69.7633358487309</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0662838973163915</v>
+        <v>39.3344734226551</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.12306040581543</v>
+        <v>40.483120793073</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0273062449283127</v>
+        <v>27.7457022518397</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.263588936889916</v>
+        <v>42.5944663568929</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00734051817913787</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.155510851445077</v>
+        <v>39.9423733850213</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0234118411948603</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00590986615910928</v>
+        <v>-31.2258560812249</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00820927993013272</v>
+        <v>-19.3256775969936</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0109958373183545</v>
+        <v>-6.33473404861406</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0347816102908417</v>
+        <v>28.6090062326162</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.335640304216488</v>
+        <v>8.72457768215396</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.223456047111162</v>
+        <v>42.3282667414039</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.162534838046708</v>
+        <v>34.9801805110388</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.016230317108651</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.117204928577298</v>
+        <v>38.3526099221255</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0127369292292861</v>
+        <v>-132.007947652933</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0745856260671223</v>
+        <v>37.7811788227097</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00341334646973259</v>
+        <v>-511.224212987059</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0408042256586509</v>
+        <v>8.40944458078421</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00481945972545257</v>
-      </c>
-      <c r="FG2"/>
+        <v>-11.1847825377517</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-39.2371880510609</v>
+      </c>
       <c r="FH2" t="n">
-        <v>0.130969238445196</v>
+        <v>38.8690710359395</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.162785244885314</v>
+        <v>40.8284063161004</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0298431833844609</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.00446372478487396</v>
+        <v>10.5827886245899</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0126866288263845</v>
+        <v>-133.044131213035</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0701992874550549</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.000263192049167165</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0383308508227008</v>
+        <v>18.5544397050757</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0353554250869674</v>
+        <v>37.1821102428954</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0314858024237062</v>
+        <v>31.0946433215327</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.209506574162166</v>
+        <v>25.34400507862</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0157063884843269</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.119692596841751</v>
+        <v>37.8122158114216</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0898999756118952</v>
+        <v>25.9045130055981</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">net_gain_over_gdp_both_taxes_pop</t>
+    <t xml:space="preserve">budget_gain_union_South_over_gdp</t>
   </si>
 </sst>
 </file>
@@ -1415,528 +1415,416 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.476385680281345</v>
+        <v>0.0214284981557183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0667359429155302</v>
+        <v>0.0186723885951863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0144131471629146</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.00886600952785279</v>
-      </c>
+        <v>0.0179829081647013</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.00150502905338282</v>
+        <v>0.0194861710380727</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0145372510489369</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.00996821165568082</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.00980689584272435</v>
-      </c>
+        <v>0.0177138687548305</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.01671133711557</v>
+        <v>0.020932594220479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.738841461534576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.00755339752207493</v>
-      </c>
+        <v>0.0128489858487392</v>
+      </c>
+      <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.108935670554963</v>
+        <v>0.0151790516578906</v>
       </c>
       <c r="N2" t="n">
-        <v>0.192633546606301</v>
+        <v>0.0126315727709372</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0593775871797521</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.000253104412203457</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.00804251291047833</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.00869351165932713</v>
-      </c>
+        <v>0.0038643877011698</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2" t="n">
-        <v>0.0125681470252394</v>
+        <v>0.0242052886705164</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0135635628151962</v>
+        <v>0.0247679100390795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0131505363145368</v>
+        <v>0.0162670962427494</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0402550506454992</v>
+        <v>0.0180239165484989</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00817073467047036</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.00527693830426079</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.00925797857790893</v>
-      </c>
+        <v>0.0181890337613738</v>
+      </c>
+      <c r="X2"/>
+      <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.0446827153606573</v>
+        <v>0.0197355060238185</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0104612077905938</v>
+        <v>0.0198387153615439</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3434738613694</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0.0101398897706139</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-0.0126169807391846</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.00166503490179962</v>
-      </c>
+        <v>0.0119932248942358</v>
+      </c>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
       <c r="AF2" t="n">
-        <v>-0.00138620697725792</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0524322970683115</v>
+        <v>0.0146906888710939</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0935311444349303</v>
+        <v>0.0152139362691223</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.244106492446272</v>
+        <v>0.0106121688301273</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0585328741499303</v>
+        <v>0.0151929138091447</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0161299396617198</v>
+        <v>0.0173440942080102</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.101681640348237</v>
+        <v>0.0130904737177665</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0333573356766083</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.000189949498573846</v>
-      </c>
+        <v>0.0166645061421868</v>
+      </c>
+      <c r="AN2"/>
       <c r="AO2" t="n">
-        <v>-0.00124702137092362</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-0.00832691735875476</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-0.00774538664348714</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-0.00964327633914889</v>
-      </c>
+        <v>0.133603814115384</v>
+      </c>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
       <c r="AS2" t="n">
-        <v>0.0427636128531381</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-0.0108881729967841</v>
-      </c>
+        <v>0.0148149092110056</v>
+      </c>
+      <c r="AT2"/>
       <c r="AU2" t="n">
-        <v>0.00582342993381989</v>
+        <v>0.0166398674538388</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0253404561203713</v>
+        <v>0.021994286482584</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0167429058961402</v>
+        <v>0.0181497788600161</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0352270622827318</v>
+        <v>0.0179847329320835</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.286393332877714</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>-0.00640329161952246</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>-0.0076143484993343</v>
-      </c>
+        <v>0.0141603123900679</v>
+      </c>
+      <c r="AZ2"/>
+      <c r="BA2"/>
       <c r="BB2" t="n">
-        <v>0.147114032980727</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>-0.0079614636681658</v>
-      </c>
+        <v>0.0118470729493669</v>
+      </c>
+      <c r="BC2"/>
       <c r="BD2" t="n">
-        <v>0.0211853586921247</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>-0.0107088600386092</v>
-      </c>
+        <v>0.016584700840761</v>
+      </c>
+      <c r="BE2"/>
       <c r="BF2" t="n">
-        <v>0.00854440771017192</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-0.00815160642716294</v>
-      </c>
+        <v>0.0176393684929927</v>
+      </c>
+      <c r="BG2"/>
       <c r="BH2" t="n">
-        <v>0.0172084053492746</v>
+        <v>0.0189734702682531</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0655811542496082</v>
+        <v>0.0148061405669356</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.117601264394959</v>
+        <v>0.0143174710095281</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.199185335166753</v>
+        <v>0.0146724857931829</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.188187404251381</v>
+        <v>0.0129486312146707</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0203485527099747</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>-0.00564683491398565</v>
-      </c>
+        <v>0.0259811496979189</v>
+      </c>
+      <c r="BN2"/>
       <c r="BO2" t="n">
-        <v>0.0200346600851354</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-0.00577366661790672</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.0247587047353458</v>
-      </c>
+        <v>0.0154180236533553</v>
+      </c>
+      <c r="BP2"/>
+      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0539930281724929</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>-0.00469280676754711</v>
-      </c>
+        <v>0.015900343623887</v>
+      </c>
+      <c r="BS2"/>
       <c r="BT2" t="n">
-        <v>0.098197497057226</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>-0.00255310414779226</v>
-      </c>
+        <v>0.0126890128116388</v>
+      </c>
+      <c r="BU2"/>
       <c r="BV2" t="n">
-        <v>0.0288660822285336</v>
+        <v>0.0133129413324884</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0629948857588729</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>-0.0104682869984857</v>
-      </c>
+        <v>0.0359943211410928</v>
+      </c>
+      <c r="BX2"/>
       <c r="BY2" t="n">
-        <v>0.030384859293544</v>
+        <v>0.0320017907928367</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0182546651001775</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>-0.0119587013935011</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>-0.00960480461934614</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>-0.00764317709217149</v>
-      </c>
+        <v>0.0253615540296049</v>
+      </c>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
       <c r="CD2" t="n">
-        <v>0.0202753760389537</v>
+        <v>0.0175147316947502</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0290959848203732</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>-0.00706351535912649</v>
-      </c>
+        <v>0.019329964375222</v>
+      </c>
+      <c r="CF2"/>
       <c r="CG2" t="n">
-        <v>0.0022604110958893</v>
+        <v>0.0299472992919045</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0733806802634047</v>
+        <v>0.0135435516370565</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0992056868301996</v>
+        <v>0.021811559074732</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.097065542786664</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-0.00707500077739481</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>-0.00832244146778309</v>
-      </c>
+        <v>0.0147252423365338</v>
+      </c>
+      <c r="CK2"/>
+      <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0790935221291381</v>
+        <v>0.0148557521535067</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0402442753283096</v>
+        <v>0.0232910694655057</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.234097101779499</v>
+        <v>0.0136207001133145</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0116326023539129</v>
+        <v>0.0218550634499403</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0451784314613319</v>
+        <v>0.0183681376602682</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.151815019244921</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-0.00671717415594553</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>-0.0121537445816004</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-0.00549122840219737</v>
-      </c>
+        <v>0.0232802290197877</v>
+      </c>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
       <c r="CV2" t="n">
-        <v>0.0408817489143784</v>
+        <v>0.0188085759053582</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0205519797433942</v>
+        <v>0.0183787079009506</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.332464811999485</v>
+        <v>0.0135628624837391</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00412696417776345</v>
+        <v>0.0174297771294526</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00166933626364945</v>
+        <v>0.0176722766833171</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0141413823565348</v>
+        <v>0.0209524630627762</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.182544429296439</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>-0.00872053412814055</v>
-      </c>
+        <v>0.0141054536589468</v>
+      </c>
+      <c r="DC2"/>
       <c r="DD2" t="n">
-        <v>0.158457124098133</v>
+        <v>0.0181134815017659</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00381181871448315</v>
+        <v>0.0194367518824672</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0249360615287897</v>
+        <v>0.0277303267988699</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.318206534556099</v>
+        <v>0.0179728218748887</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0687850176264529</v>
+        <v>0.015701943265992</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00396031413745776</v>
+        <v>0.0196288604715948</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.263020083934846</v>
+        <v>0.011103289096077</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00201770745040254</v>
+        <v>0.0184456545749455</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0238611915955421</v>
+        <v>0.0180185455108469</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.26265446318257</v>
+        <v>0.0130943674683238</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0783686003879658</v>
+        <v>0.0125426268338062</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0736941755042146</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>-0.00863170966909949</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>-0.00995636175226407</v>
-      </c>
+        <v>0.0167907909862704</v>
+      </c>
+      <c r="DP2"/>
+      <c r="DQ2"/>
       <c r="DR2" t="n">
-        <v>0.132272122399588</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>-0.00876529839104959</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>-0.0060927254643505</v>
-      </c>
+        <v>0.0134859262075148</v>
+      </c>
+      <c r="DS2"/>
+      <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.112861531732514</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>-0.00416626006124504</v>
-      </c>
+        <v>0.00874641701215005</v>
+      </c>
+      <c r="DV2"/>
       <c r="DW2" t="n">
-        <v>0.0144187047836491</v>
+        <v>0.0182284074560409</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0329521884728035</v>
+        <v>0.0116274711942677</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.052952011085048</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>-0.00185295912090385</v>
-      </c>
+        <v>0.0148373706412688</v>
+      </c>
+      <c r="DZ2"/>
       <c r="EA2"/>
-      <c r="EB2" t="n">
-        <v>-0.00457900945145431</v>
-      </c>
+      <c r="EB2"/>
       <c r="EC2" t="n">
-        <v>0.0174368898694624</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-0.0115279235424369</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.000375011872714245</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>-0.00149079240013984</v>
-      </c>
+        <v>0.0156802425805567</v>
+      </c>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.173958280885759</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>-0.00589006725873077</v>
-      </c>
+        <v>0.0118405235089844</v>
+      </c>
+      <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.168244424501374</v>
+        <v>0.0173844063581014</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0936747175166235</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-0.0114046879383514</v>
-      </c>
+        <v>0.0154617307089299</v>
+      </c>
+      <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0662838973163915</v>
+        <v>0.012898173454468</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.12306040581543</v>
+        <v>12.7122032401506</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0273062449283127</v>
+        <v>0.0221185034801441</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.263588936889916</v>
+        <v>0.011428090293695</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00734051817913787</v>
+        <v>0.020736809530893</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.155510851445077</v>
+        <v>0.0133016687722711</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0234118411948603</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-0.00590986615910928</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-0.00820927993013272</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>-0.0109958373183545</v>
-      </c>
+        <v>0.0234270742215086</v>
+      </c>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
       <c r="EV2" t="n">
-        <v>0.0347816102908417</v>
+        <v>0.0168623542888802</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.335640304216488</v>
+        <v>0.0564708090675029</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.223456047111162</v>
+        <v>0.0113941437621259</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.162534838046708</v>
+        <v>0.0154055150342135</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.016230317108651</v>
+        <v>0.0217288465294929</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.117204928577298</v>
+        <v>0.0147851969841383</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0127369292292861</v>
+        <v>0.0327799877782023</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0745856260671223</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>-0.00341334646973259</v>
-      </c>
+        <v>0.0155883244090371</v>
+      </c>
+      <c r="FD2"/>
       <c r="FE2" t="n">
-        <v>0.0408042256586509</v>
+        <v>0.0209776212023168</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00481945972545257</v>
+        <v>0.0103217938708374</v>
       </c>
       <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.130969238445196</v>
+        <v>0.0133040448457398</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.162785244885314</v>
+        <v>0.0122458735154148</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0298431833844609</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>-0.00446372478487396</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>-0.0126866288263845</v>
-      </c>
+        <v>0.0244242696084108</v>
+      </c>
+      <c r="FK2"/>
+      <c r="FL2"/>
       <c r="FM2" t="n">
-        <v>0.0701992874550549</v>
+        <v>0.0282317755755401</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.000263192049167165</v>
+        <v>0.0197417774044138</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0383308508227008</v>
+        <v>0.0122612577617512</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0353554250869674</v>
+        <v>0.0136393900959178</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0314858024237062</v>
+        <v>0.0160095192220425</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.209506574162166</v>
+        <v>0.0244330323530223</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0157063884843269</v>
+        <v>0.0226714653917532</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.119692596841751</v>
+        <v>0.0146293349987009</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0898999756118952</v>
+        <v>0.0170272626588648</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">budget_gain_union_South_over_gdp</t>
+    <t xml:space="preserve">SSouth_npv_over_gdp_gcs_adj</t>
   </si>
 </sst>
 </file>
@@ -1414,418 +1414,198 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0214284981557183</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0186723885951863</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0179829081647013</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="n">
-        <v>0.0194861710380727</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0177138687548305</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>0.020932594220479</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0128489858487392</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="n">
-        <v>0.0151790516578906</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0126315727709372</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0038643877011698</v>
-      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2" t="n">
-        <v>0.0242052886705164</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0247679100390795</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0162670962427494</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0180239165484989</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0181890337613738</v>
-      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2" t="n">
-        <v>0.0197355060238185</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0198387153615439</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0119932248942358</v>
-      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0146906888710939</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.0152139362691223</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.0106121688301273</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0151929138091447</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.0173440942080102</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0130904737177665</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.0166645061421868</v>
-      </c>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2" t="n">
-        <v>0.133603814115384</v>
-      </c>
+      <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
       <c r="AR2"/>
-      <c r="AS2" t="n">
-        <v>0.0148149092110056</v>
-      </c>
+      <c r="AS2"/>
       <c r="AT2"/>
-      <c r="AU2" t="n">
-        <v>0.0166398674538388</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.021994286482584</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.0181497788600161</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.0179847329320835</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.0141603123900679</v>
-      </c>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
       <c r="AZ2"/>
       <c r="BA2"/>
-      <c r="BB2" t="n">
-        <v>0.0118470729493669</v>
-      </c>
+      <c r="BB2"/>
       <c r="BC2"/>
-      <c r="BD2" t="n">
-        <v>0.016584700840761</v>
-      </c>
+      <c r="BD2"/>
       <c r="BE2"/>
-      <c r="BF2" t="n">
-        <v>0.0176393684929927</v>
-      </c>
+      <c r="BF2"/>
       <c r="BG2"/>
-      <c r="BH2" t="n">
-        <v>0.0189734702682531</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.0148061405669356</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.0143174710095281</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.0146724857931829</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.0129486312146707</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0259811496979189</v>
-      </c>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
       <c r="BN2"/>
-      <c r="BO2" t="n">
-        <v>0.0154180236533553</v>
-      </c>
+      <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
-      <c r="BR2" t="n">
-        <v>0.015900343623887</v>
-      </c>
+      <c r="BR2"/>
       <c r="BS2"/>
-      <c r="BT2" t="n">
-        <v>0.0126890128116388</v>
-      </c>
+      <c r="BT2"/>
       <c r="BU2"/>
-      <c r="BV2" t="n">
-        <v>0.0133129413324884</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.0359943211410928</v>
-      </c>
+      <c r="BV2"/>
+      <c r="BW2"/>
       <c r="BX2"/>
-      <c r="BY2" t="n">
-        <v>0.0320017907928367</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.0253615540296049</v>
-      </c>
+      <c r="BY2"/>
+      <c r="BZ2"/>
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2"/>
-      <c r="CD2" t="n">
-        <v>0.0175147316947502</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.019329964375222</v>
-      </c>
+      <c r="CD2"/>
+      <c r="CE2"/>
       <c r="CF2"/>
       <c r="CG2" t="n">
-        <v>0.0299472992919045</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.0135435516370565</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.021811559074732</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.0147252423365338</v>
-      </c>
+        <v>-0.0146475264587702</v>
+      </c>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
       <c r="CK2"/>
       <c r="CL2"/>
-      <c r="CM2" t="n">
-        <v>0.0148557521535067</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.0232910694655057</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.0136207001133145</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.0218550634499403</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.0183681376602682</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.0232802290197877</v>
-      </c>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
       <c r="CS2"/>
       <c r="CT2"/>
       <c r="CU2"/>
-      <c r="CV2" t="n">
-        <v>0.0188085759053582</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.0183787079009506</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.0135628624837391</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.0174297771294526</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.0176722766833171</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.0209524630627762</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.0141054536589468</v>
-      </c>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
       <c r="DC2"/>
-      <c r="DD2" t="n">
-        <v>0.0181134815017659</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.0194367518824672</v>
-      </c>
+      <c r="DD2"/>
+      <c r="DE2"/>
       <c r="DF2" t="n">
-        <v>0.0277303267988699</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.0179728218748887</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.015701943265992</v>
-      </c>
+        <v>-0.000815436189506648</v>
+      </c>
+      <c r="DG2"/>
+      <c r="DH2"/>
       <c r="DI2" t="n">
-        <v>0.0196288604715948</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.011103289096077</v>
-      </c>
+        <v>0.00332321187159937</v>
+      </c>
+      <c r="DJ2"/>
       <c r="DK2" t="n">
-        <v>0.0184456545749455</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.0180185455108469</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.0130943674683238</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.0125426268338062</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.0167907909862704</v>
-      </c>
+        <v>0.00171709185136277</v>
+      </c>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
       <c r="DP2"/>
       <c r="DQ2"/>
-      <c r="DR2" t="n">
-        <v>0.0134859262075148</v>
-      </c>
+      <c r="DR2"/>
       <c r="DS2"/>
       <c r="DT2"/>
-      <c r="DU2" t="n">
-        <v>0.00874641701215005</v>
-      </c>
+      <c r="DU2"/>
       <c r="DV2"/>
-      <c r="DW2" t="n">
-        <v>0.0182284074560409</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.0116274711942677</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.0148373706412688</v>
-      </c>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
       <c r="DZ2"/>
       <c r="EA2"/>
       <c r="EB2"/>
-      <c r="EC2" t="n">
-        <v>0.0156802425805567</v>
-      </c>
+      <c r="EC2"/>
       <c r="ED2"/>
       <c r="EE2"/>
       <c r="EF2"/>
-      <c r="EG2" t="n">
-        <v>0.0118405235089844</v>
-      </c>
+      <c r="EG2"/>
       <c r="EH2"/>
-      <c r="EI2" t="n">
-        <v>0.0173844063581014</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.0154617307089299</v>
-      </c>
+      <c r="EI2"/>
+      <c r="EJ2"/>
       <c r="EK2"/>
-      <c r="EL2" t="n">
-        <v>0.012898173454468</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>12.7122032401506</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.0221185034801441</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.011428090293695</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.020736809530893</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.0133016687722711</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.0234270742215086</v>
-      </c>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
       <c r="ES2"/>
       <c r="ET2"/>
       <c r="EU2"/>
-      <c r="EV2" t="n">
-        <v>0.0168623542888802</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.0564708090675029</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.0113941437621259</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.0154055150342135</v>
-      </c>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
       <c r="EZ2" t="n">
-        <v>0.0217288465294929</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.0147851969841383</v>
-      </c>
+        <v>0.00502223396563899</v>
+      </c>
+      <c r="FA2"/>
       <c r="FB2" t="n">
-        <v>0.0327799877782023</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.0155883244090371</v>
-      </c>
+        <v>-0.0145800293781548</v>
+      </c>
+      <c r="FC2"/>
       <c r="FD2"/>
-      <c r="FE2" t="n">
-        <v>0.0209776212023168</v>
-      </c>
+      <c r="FE2"/>
       <c r="FF2" t="n">
-        <v>0.0103217938708374</v>
-      </c>
-      <c r="FG2"/>
-      <c r="FH2" t="n">
-        <v>0.0133040448457398</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.0122458735154148</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.0244242696084108</v>
-      </c>
+        <v>-0.000217053336298642</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.00114693102188278</v>
+      </c>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
       <c r="FK2"/>
       <c r="FL2"/>
-      <c r="FM2" t="n">
-        <v>0.0282317755755401</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.0197417774044138</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.0122612577617512</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.0136393900959178</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.0160095192220425</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.0244330323530223</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.0226714653917532</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.0146293349987009</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.0170272626588648</v>
-      </c>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -17,50 +17,45 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">États-Unis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allemagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royaume-Uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiements des pays du Nord indemnisant les pays du Sud
-pour les dégâts causés par le changement climatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiements des pays du Nord des énergies
-renouvelables dans les pays du Sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiements des pays du Nord de 100 milliards $/an pour aider
-les pays du Sud à s'adapter au changement climatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annulation de la dette publique
-des pays à faibles revenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limite maximale de patrimoine à 100 millions € (Eu) /
- 10 milliards $ (U.S.)  pour chaque humain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxe nationale sur les millionnaires
-finançant les services publics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxe mondiale sur les millionnaires
-finançant les pays à faible revenu</t>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe PNR/Non-voter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. PNR/Non-voter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universalist</t>
   </si>
 </sst>
 </file>
@@ -420,22 +415,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.331058438535599</v>
+        <v>0.153621490337775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.213958779914946</v>
+        <v>0.277163614268964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230529928550509</v>
+        <v>0.289858651736075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.164823800704706</v>
+        <v>0.26233509366456</v>
       </c>
       <c r="F2" t="n">
-        <v>0.205972307701843</v>
+        <v>0.466149104056159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.238313963423222</v>
+        <v>0.741156060705</v>
       </c>
     </row>
     <row r="3">
@@ -443,22 +438,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245434327058097</v>
+        <v>0.0576635085621428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142248606097258</v>
+        <v>0.13161303175407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.149087083860728</v>
+        <v>0.19642586372266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.116451692291737</v>
+        <v>0.129103144019663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.134774093805854</v>
+        <v>0.219591613402193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.160307486129539</v>
+        <v>0.498473088751495</v>
       </c>
     </row>
     <row r="4">
@@ -466,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.298543301488354</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.178497600286045</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16139731522685</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.162456495722803</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166864360745894</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2243653016945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -489,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.368313523343685</v>
+        <v>0.199541385518588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328345689763679</v>
+        <v>0.235407197992704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.40129213538184</v>
+        <v>0.360022360990976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.274329246862058</v>
+        <v>0.263509715038285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.319806805207884</v>
+        <v>0.337874194394221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.278909520866357</v>
+        <v>0.615258954575612</v>
       </c>
     </row>
     <row r="6">
@@ -512,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.38911686217687</v>
+        <v>0.0570432872770611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.276479958146891</v>
+        <v>0.146714122769711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292521864346683</v>
+        <v>0.204610110362681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.238985480395989</v>
+        <v>0.108494874464687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.284713606946689</v>
+        <v>0.19979913819748</v>
       </c>
       <c r="G6" t="n">
-        <v>0.259980376885473</v>
+        <v>0.483956310247765</v>
       </c>
     </row>
     <row r="7">
@@ -535,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224419922630978</v>
+        <v>0.223983812459547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.129696906968094</v>
+        <v>0.377928616489582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12105613125329</v>
+        <v>0.460749023692988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0982664018462934</v>
+        <v>0.248648369619572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.167636383394181</v>
+        <v>0.364953924308581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.118092923885629</v>
+        <v>0.657473832721559</v>
       </c>
     </row>
     <row r="8">
@@ -558,22 +553,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.260397843252789</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.136808410283919</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133317535127324</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11281931477433</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.132838609114996</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.160894234267265</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,50 +12,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe PNR/Non-voter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. PNR/Non-voter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -409,166 +899,1002 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.153621490337775</v>
+        <v>0.0602539379246936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.277163614268964</v>
+        <v>0.00919476233109707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289858651736075</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.26233509366456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.466149104056159</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741156060705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0576635085621428</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.13161303175407</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19642586372266</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.129103144019663</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.219591613402193</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.498473088751495</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.199541385518588</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.235407197992704</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.360022360990976</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.263509715038285</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.337874194394221</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.615258954575612</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0570432872770611</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.146714122769711</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.204610110362681</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.108494874464687</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.19979913819748</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.483956310247765</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.223983812459547</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.377928616489582</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.460749023692988</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.248648369619572</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.364953924308581</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.657473832721559</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+        <v>0.00122745922314158</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="n">
+        <v>-0.00997065256583056</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.134115398300378</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.0124464306666243</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0408787631925795</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0663218410364673</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0308523540196601</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.00148938867985068</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.00572623517633694</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2" t="n">
+        <v>0.000413190618205813</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.146915333393305</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.0291292663993191</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.00323237221728468</v>
+      </c>
+      <c r="AE2"/>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0109320096231916</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0241366182446171</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0833595936521522</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0158247395492878</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.00267396841929944</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0379342703509041</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0076634436128279</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.00286133240705008</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.0207011087907609</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.0143903209565396</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.019272028319799</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.00675347000184205</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.00424757207512773</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.081863384000915</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.00378106091772179</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.0396085408128965</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0742637561137584</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.0122745901248543</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.00924639120906593</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.00621831995397111</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-0.00832003169097946</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0167089636969823</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0207124303128232</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0461675966795285</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0667188719038916</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-0.000796225475666029</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.01017032880033</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2"/>
+      <c r="BR2" t="n">
+        <v>0.0164138767918856</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0653512343568594</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>-0.00351046729830037</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.00694110116913078</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-0.00740930744346611</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-0.0159058678955022</v>
+      </c>
+      <c r="CB2"/>
+      <c r="CC2" t="n">
+        <v>-0.00713489501709371</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00146149036341768</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-0.0173063632152238</v>
+      </c>
+      <c r="CG2"/>
+      <c r="CH2" t="n">
+        <v>0.0356603699790905</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.00325803722330961</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.031632817661781</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-0.0162297008779972</v>
+      </c>
+      <c r="CL2"/>
+      <c r="CM2" t="n">
+        <v>0.0180334138784742</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.089410008033753</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0062432248954705</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.00797285376954848</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>-0.00737689918695424</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-0.0131922420434728</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.00329825304455296</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2"/>
+      <c r="CX2" t="n">
+        <v>0.0762039991412263</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0021782263813209</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.0394353445420146</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.00396953466696668</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.0216319746086165</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.0607677808656162</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.0193655612998362</v>
+      </c>
+      <c r="DI2"/>
+      <c r="DJ2" t="n">
+        <v>0.113616711894446</v>
+      </c>
+      <c r="DK2"/>
+      <c r="DL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.1129011147142</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.0131941732268614</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.0134692970914142</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.0141319645611682</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.0100042613513262</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.054141174297298</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>-0.0128388638397801</v>
+      </c>
+      <c r="DT2"/>
+      <c r="DU2" t="n">
+        <v>0.0208059391452624</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>-0.000802940021502653</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0130653002408472</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.0259347143227404</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>-0.0155517776456952</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>-0.00168493499111396</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00690309561115699</v>
+      </c>
+      <c r="ED2"/>
+      <c r="EE2" t="n">
+        <v>-0.00246248636930816</v>
+      </c>
+      <c r="EF2"/>
+      <c r="EG2" t="n">
+        <v>0.0601414853320166</v>
+      </c>
+      <c r="EH2"/>
+      <c r="EI2" t="n">
+        <v>0.0212783563292222</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0245478394088726</v>
+      </c>
+      <c r="EK2"/>
+      <c r="EL2" t="n">
+        <v>0.0537123982717972</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.081870902017009</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.0106721298566644</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.0637990846399723</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.0531169462501482</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-0.0122741343525067</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-0.00879519664513139</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-0.00402099362335433</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.0079794946078441</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0771351508705039</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.0563194117625924</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.0282550314505932</v>
+      </c>
+      <c r="FB2"/>
+      <c r="FC2" t="n">
+        <v>0.0133157919379066</v>
+      </c>
+      <c r="FD2"/>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2"/>
+      <c r="FG2" t="n">
+        <v>-0.010394637282127</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.0370442126792002</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.0536593692327684</v>
+      </c>
+      <c r="FJ2"/>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2"/>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.00108362810937718</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.0410907504987343</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.0144895550642628</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.0187416787438705</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.0230249698193009</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.0166987597843326</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_RUS_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0602539379246936</v>
+        <v>0.0659313104765436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00919476233109707</v>
+        <v>0.011648794394413</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.000708910561717473</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00122745922314158</v>
+        <v>0.00265755133390007</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00997065256583056</v>
+        <v>-0.00957924638736759</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.134115398300378</v>
+        <v>0.145142246682436</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0124464306666243</v>
+        <v>-0.0120298588422282</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0408787631925795</v>
+        <v>0.0463277927342198</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0663218410364673</v>
+        <v>0.0722337544419952</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0308523540196601</v>
+        <v>0.0340190957302608</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00148938867985068</v>
+        <v>-0.00144187206098887</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00572623517633694</v>
+        <v>0.00756736551986542</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.000861529161200472</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,47 +1477,47 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000413190618205813</v>
+        <v>0.00156387540372119</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.146915333393305</v>
+        <v>0.159607395235616</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0291292663993191</v>
+        <v>-0.0286777324582546</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00323237221728468</v>
+        <v>-0.00291502613735243</v>
       </c>
       <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0109320096231916</v>
+        <v>0.0128656046711341</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0241366182446171</v>
+        <v>0.0273079688563367</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0833595936521522</v>
+        <v>0.0903607917770583</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0158247395492878</v>
+        <v>0.0180474961567015</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00267396841929944</v>
+        <v>0.00385358166309002</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0379342703509041</v>
+        <v>0.0414573551368089</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0076634436128279</v>
+        <v>0.00965403896892014</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00286133240705008</v>
+        <v>0.00385921028911854</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0207011087907609</v>
+        <v>-0.0202332308168213</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0143903209565396</v>
+        <v>-0.0139725909083196</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.019272028319799</v>
+        <v>0.0223670327712324</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00675347000184205</v>
+        <v>-0.00633251751152125</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00424757207512773</v>
+        <v>0.00522213325186165</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1550,80 +1550,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.081863384000915</v>
+        <v>0.0889955459181492</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00378106091772179</v>
+        <v>-0.00343791994962431</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0396085408128965</v>
+        <v>-0.0390931932931327</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0742637561137584</v>
+        <v>0.0807088173716273</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0122745901248543</v>
+        <v>-0.0117946466623836</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00924639120906593</v>
+        <v>0.0108639297801737</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00621831995397111</v>
+        <v>-0.00573692817287181</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00832003169097946</v>
+        <v>-0.00785901439122824</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0167089636969823</v>
+        <v>0.0186483244104823</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0207124303128232</v>
+        <v>0.0232080601678084</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0461675966795285</v>
+        <v>0.0506360668650877</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0667188719038916</v>
+        <v>0.0727145970626797</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000796225475666029</v>
+        <v>-0.000758577267306025</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01017032880033</v>
+        <v>0.0119588422477101</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0164138767918856</v>
+        <v>0.0194636488717742</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0653512343568594</v>
+        <v>0.0717176650619692</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00351046729830037</v>
+        <v>-0.00325267062134372</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.000742683412611473</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00694110116913078</v>
+        <v>0.00883286938870947</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00740930744346611</v>
+        <v>-0.00712445759363788</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1632,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0159058678955022</v>
+        <v>-0.0155190116812521</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00713489501709371</v>
+        <v>-0.00658752442133832</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00146149036341768</v>
+        <v>0.00383794813820389</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0173063632152238</v>
+        <v>-0.0167958551912034</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0356603699790905</v>
+        <v>0.0393481054042511</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00325803722330961</v>
+        <v>0.00587414854435158</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.031632817661781</v>
+        <v>0.0347895531921564</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0162297008779972</v>
+        <v>-0.0157566312495285</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0180334138784742</v>
+        <v>0.0196550333172939</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.089410008033753</v>
+        <v>0.0985142491901155</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0062432248954705</v>
+        <v>0.00721491769670925</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00797285376954848</v>
+        <v>0.0113622554780741</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00737689918695424</v>
+        <v>-0.00686834064846009</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0131922420434728</v>
+        <v>-0.0129835234719077</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00329825304455296</v>
+        <v>-0.00299629408793025</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.000227831513638528</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0762039991412263</v>
+        <v>0.0828032753960577</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0021782263813209</v>
+        <v>0.00328475765491549</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0394353445420146</v>
+        <v>0.043193070598839</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00396953466696668</v>
+        <v>-0.00350524110703338</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0216319746086165</v>
+        <v>0.0237187240235067</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,135 +1720,137 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0607677808656162</v>
+        <v>0.0676370561665646</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0193655612998362</v>
+        <v>0.022761849109074</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.113616711894446</v>
+        <v>0.123044789256825</v>
       </c>
       <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>0.000650335858326751</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.1129011147142</v>
+        <v>0.123538259897458</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0131941732268614</v>
+        <v>0.0151441665536738</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0134692970914142</v>
+        <v>0.0157654323432606</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0141319645611682</v>
+        <v>-0.0137305312069103</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0100042613513262</v>
+        <v>-0.00965058119873709</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.054141174297298</v>
+        <v>0.058994016853771</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0128388638397801</v>
+        <v>-0.0123372105068499</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0208059391452624</v>
+        <v>0.0233770716368095</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000802940021502653</v>
+        <v>-0.000684645172283357</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0130653002408472</v>
+        <v>0.0148542532220414</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0259347143227404</v>
+        <v>0.02903146224889</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0155517776456952</v>
+        <v>-0.0151452194980552</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.00463780925817208</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00168493499111396</v>
+        <v>-0.00155144790432101</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00690309561115699</v>
+        <v>0.00831259423093177</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00246248636930816</v>
-      </c>
-      <c r="EF2"/>
+        <v>-0.002229354795542</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-0.0168915771684388</v>
+      </c>
       <c r="EG2" t="n">
-        <v>0.0601414853320166</v>
+        <v>0.0651505402435639</v>
       </c>
       <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0212783563292222</v>
+        <v>0.0237287420105595</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0245478394088726</v>
+        <v>0.0278388355873096</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0537123982717972</v>
+        <v>0.0587650180886189</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.081870902017009</v>
+        <v>0.0891902289502854</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0106721298566644</v>
+        <v>0.0127932208678367</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0637990846399723</v>
+        <v>0.0690260823211825</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0531169462501482</v>
+        <v>0.0579792149148493</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0122741343525067</v>
+        <v>-0.0117729045021169</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00879519664513139</v>
+        <v>-0.00839387415078023</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00402099362335433</v>
+        <v>-0.00361504984246981</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0079794946078441</v>
+        <v>0.00944401342526523</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0771351508705039</v>
+        <v>0.0835220607591276</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0563194117625924</v>
+        <v>0.0629243947807766</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0282550314505932</v>
+        <v>0.0310370758359471</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0133157919379066</v>
+        <v>0.0146635275203165</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1856,13 +1858,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.010394637282127</v>
+        <v>-0.0100143224572227</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0370442126792002</v>
+        <v>0.0406041906132572</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0536593692327684</v>
+        <v>0.0583860657002526</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1876,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00108362810937718</v>
+        <v>0.00291831934089034</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0410907504987343</v>
+        <v>0.0453751968652442</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0144895550642628</v>
+        <v>0.0166686023610397</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0187416787438705</v>
+        <v>0.0235831850838246</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0230249698193009</v>
+        <v>0.0253518718999699</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0166987597843326</v>
+        <v>0.0207304702150457</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_RUS_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,48 +1415,56 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0659313104765436</v>
+        <v>0.107796440282475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.011648794394413</v>
+        <v>0.0297449066259704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000708910561717473</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0111730789720125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0237379688147157</v>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00265755133390007</v>
-      </c>
-      <c r="H2"/>
+        <v>0.0132030970603002</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.0262828371757164</v>
+      </c>
       <c r="I2" t="n">
-        <v>-0.00957924638736759</v>
+        <v>-0.00669300450020158</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.00315869403604525</v>
       </c>
       <c r="K2" t="n">
-        <v>0.145142246682436</v>
+        <v>0.226454585206834</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120298588422282</v>
+        <v>-0.00895804466365094</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0463277927342198</v>
+        <v>0.0865091137579374</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0722337544419952</v>
+        <v>0.115828396129408</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0340190957302608</v>
+        <v>0.0573707520757573</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00144187206098887</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
+        <v>-0.00109148296842516</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.0352863778471014</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.00120563421065129</v>
+      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -1464,166 +1472,172 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00756736551986542</v>
+        <v>0.0211439205402582</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000861529161200472</v>
+        <v>0.0147561000979103</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.00499117357405254</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2"/>
+      <c r="Y2" t="n">
+        <v>-0.0192995713023439</v>
+      </c>
       <c r="Z2" t="n">
-        <v>0.00156387540372119</v>
+        <v>0.0100490624284153</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.159607395235616</v>
+        <v>0.253199071962925</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0286777324582546</v>
+        <v>-0.0253481064945171</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00291502613735243</v>
-      </c>
-      <c r="AE2"/>
+        <v>-0.000858742892946077</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.00132666044587976</v>
+      </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0128656046711341</v>
+        <v>0.0271239974285094</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0273079688563367</v>
+        <v>0.0506936113885496</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0903607917770583</v>
+        <v>0.141987854404952</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0180474961567015</v>
+        <v>0.0344381756561546</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00385358166309002</v>
+        <v>0.0125520880797592</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0414573551368089</v>
+        <v>0.0674366969066466</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00965403896892014</v>
+        <v>0.0243327538520452</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00385921028911854</v>
+        <v>0.0112175942390412</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>0.0085219297331081</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0202332308168213</v>
+        <v>-0.016783083423211</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0139725909083196</v>
+        <v>-0.0108922359496041</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0223670327712324</v>
+        <v>0.0451896962349804</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00633251751152125</v>
+        <v>-0.00322840015997134</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00522213325186165</v>
+        <v>0.0124085790584684</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.00757224543399562</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.0019934433949371</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0889955459181492</v>
+        <v>0.14158833980916</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00343791994962431</v>
+        <v>-0.000907587293111814</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0390931932931327</v>
+        <v>-0.0352930039250691</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0807088173716273</v>
+        <v>0.128234908658334</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0117946466623836</v>
+        <v>-0.00825552796401699</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0108639297801737</v>
+        <v>0.0227917118003022</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00573692817287181</v>
+        <v>-0.00218712952584388</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.00548561358999576</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00785901439122824</v>
+        <v>-0.00445945783216894</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.00606029694531942</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0186483244104823</v>
+        <v>0.0329492333731584</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0232080601678084</v>
+        <v>0.0416109158677515</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0506360668650877</v>
+        <v>0.083586711312652</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0727145970626797</v>
+        <v>0.116927269343903</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000758577267306025</v>
+        <v>-0.000480958154669364</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0119588422477101</v>
+        <v>0.0251473985649843</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2"/>
+        <v>0.00164988613579134</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-0.000527723431510221</v>
+      </c>
       <c r="BR2" t="n">
-        <v>0.0194636488717742</v>
+        <v>0.0419527673569509</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0717176650619692</v>
+        <v>0.118663932095835</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00325267062134372</v>
+        <v>-0.00135166954280592</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.000742683412611473</v>
+        <v>0.00812563196038103</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00883286938870947</v>
+        <v>0.0227828297536658</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00712445759363788</v>
+        <v>-0.00502396553866903</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1646,79 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0155190116812521</v>
-      </c>
-      <c r="CB2"/>
+        <v>-0.0126663213781415</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-0.000444133779737025</v>
+      </c>
       <c r="CC2" t="n">
-        <v>-0.00658752442133832</v>
+        <v>-0.00255119584963261</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00383794813820389</v>
+        <v>0.0213620250436944</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.00269614545833666</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0167958551912034</v>
-      </c>
-      <c r="CG2"/>
+        <v>-0.0130313524221156</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-0.0384608003628143</v>
+      </c>
       <c r="CH2" t="n">
-        <v>0.0393481054042511</v>
+        <v>0.0665415863418327</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00587414854435158</v>
+        <v>0.0251654384926395</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0347895531921564</v>
+        <v>0.0580674236393053</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0157566312495285</v>
-      </c>
-      <c r="CL2"/>
+        <v>-0.0122682004266057</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-0.045805669913588</v>
+      </c>
       <c r="CM2" t="n">
-        <v>0.0196550333172939</v>
+        <v>0.0316129077886263</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.0019115892120773</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0985142491901155</v>
+        <v>0.165649219515679</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00721491769670925</v>
+        <v>0.014380212009145</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0113622554780741</v>
+        <v>0.0363558138884052</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00686834064846009</v>
+        <v>-0.00311821344903322</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0129835234719077</v>
+        <v>-0.0114444259383785</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00299629408793025</v>
+        <v>-0.000769638923129764</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.000227831513638528</v>
-      </c>
-      <c r="CW2"/>
+        <v>0.0105843211186412</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.00724780642544782</v>
+      </c>
       <c r="CX2" t="n">
-        <v>0.0828032753960577</v>
+        <v>0.131466553084905</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00328475765491549</v>
+        <v>0.0114443552469856</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.043193070598839</v>
+        <v>0.0709026647301634</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00350524110703338</v>
+        <v>-0.00103475291602172</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0237187240235067</v>
+        <v>0.0391064820628059</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,157 +1742,179 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0676370561665646</v>
+        <v>0.118291315600917</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.022761849109074</v>
-      </c>
-      <c r="DI2"/>
+        <v>0.0478061858499682</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.0000182421118753593</v>
+      </c>
       <c r="DJ2" t="n">
-        <v>0.123044789256825</v>
-      </c>
-      <c r="DK2"/>
+        <v>0.192567738295597</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.00337203423823297</v>
+      </c>
       <c r="DL2" t="n">
-        <v>0.000650335858326751</v>
+        <v>0.00782648294796226</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.123538259897458</v>
+        <v>0.201976914362105</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0151441665536738</v>
+        <v>0.0295234807526511</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0157654323432606</v>
+        <v>0.032697208352781</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0137305312069103</v>
+        <v>-0.0107703485993832</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00965058119873709</v>
+        <v>-0.00704253225308531</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.058994016853771</v>
+        <v>0.0947790356629186</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0123372105068499</v>
-      </c>
-      <c r="DT2"/>
+        <v>-0.00863800251778507</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-0.0283921286827553</v>
+      </c>
       <c r="DU2" t="n">
-        <v>0.0233770716368095</v>
+        <v>0.0423366862338456</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000684645172283357</v>
+        <v>0.000941081521648168</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.0044516405748441</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0148542532220414</v>
+        <v>0.0280460506759528</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.02903146224889</v>
+        <v>0.0518669821518876</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0151452194980552</v>
+        <v>-0.0121472464974879</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00463780925817208</v>
+        <v>0.0529042310643741</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00155144790432101</v>
+        <v>-0.00056710978576976</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00831259423093177</v>
-      </c>
-      <c r="ED2"/>
+        <v>0.0187062828851886</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-0.0404851393114377</v>
+      </c>
       <c r="EE2" t="n">
-        <v>-0.002229354795542</v>
+        <v>-0.000510234989955001</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0168915771684388</v>
+        <v>-0.014184416483791</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0651505402435639</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.102087474038517</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-0.0297291484638848</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0237287420105595</v>
+        <v>0.0417979657028384</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0278388355873096</v>
-      </c>
-      <c r="EK2"/>
+        <v>0.0521067484189574</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>-0.00833059013603422</v>
+      </c>
       <c r="EL2" t="n">
-        <v>0.0587650180886189</v>
+        <v>0.0960232009116457</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0891902289502854</v>
+        <v>0.143163183755553</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0127932208678367</v>
+        <v>0.0284342149547912</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0690260823211825</v>
+        <v>0.107570133186378</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0579792149148493</v>
+        <v>0.0938337421525753</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0117729045021169</v>
+        <v>-0.00807681928707533</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00839387415078023</v>
+        <v>-0.00543450902781031</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00361504984246981</v>
+        <v>-0.00124245450829231</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00944401342526523</v>
+        <v>0.0202434228060335</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>0.0100212572637192</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0835220607591276</v>
+        <v>0.130619341958137</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0629243947807766</v>
+        <v>0.111629754328152</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0310370758359471</v>
-      </c>
-      <c r="FB2"/>
+        <v>0.051551961596043</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-0.0238072489824164</v>
+      </c>
       <c r="FC2" t="n">
-        <v>0.0146635275203165</v>
-      </c>
-      <c r="FD2"/>
+        <v>0.0246017735287238</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>-0.0930271229580623</v>
+      </c>
       <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2"/>
+        <v>0.00427202774364228</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>-0.00309079992513577</v>
+      </c>
       <c r="FG2" t="n">
-        <v>-0.0100143224572227</v>
+        <v>-0.00720986857185064</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0406041906132572</v>
+        <v>0.0668555836572077</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0583860657002526</v>
-      </c>
-      <c r="FJ2"/>
+        <v>0.0932408791473608</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
       <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2"/>
+        <v>0.00356598221503565</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-0.0216763610210202</v>
+      </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
@@ -1878,25 +1922,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00291831934089034</v>
+        <v>0.0164473921399044</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0453751968652442</v>
+        <v>0.0769688436873187</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0166686023610397</v>
+        <v>0.0327369679825809</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0235831850838246</v>
+        <v>0.0592846102637472</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0253518718999699</v>
+        <v>0.0425105235056597</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0207304702150457</v>
+        <v>0.050460434028453</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_RUS_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,56 +1415,48 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.107796440282475</v>
+        <v>0.0659313104765436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297449066259704</v>
+        <v>0.011648794394413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0111730789720125</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0237379688147157</v>
-      </c>
+        <v>0.000708910561717473</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0132030970603002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.0262828371757164</v>
-      </c>
+        <v>0.00265755133390007</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00669300450020158</v>
+        <v>-0.00957924638736759</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00315869403604525</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.226454585206834</v>
+        <v>0.145142246682436</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00895804466365094</v>
+        <v>-0.0120298588422282</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0865091137579374</v>
+        <v>0.0463277927342198</v>
       </c>
       <c r="N2" t="n">
-        <v>0.115828396129408</v>
+        <v>0.0722337544419952</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0573707520757573</v>
+        <v>0.0340190957302608</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00109148296842516</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.0352863778471014</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.00120563421065129</v>
-      </c>
+        <v>-0.00144187206098887</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -1472,172 +1464,166 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0211439205402582</v>
+        <v>0.00756736551986542</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0147561000979103</v>
+        <v>0.000861529161200472</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00499117357405254</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>-0.0192995713023439</v>
-      </c>
+      <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.0100490624284153</v>
+        <v>0.00156387540372119</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.253199071962925</v>
+        <v>0.159607395235616</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0253481064945171</v>
+        <v>-0.0286777324582546</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.000858742892946077</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.00132666044587976</v>
-      </c>
+        <v>-0.00291502613735243</v>
+      </c>
+      <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0271239974285094</v>
+        <v>0.0128656046711341</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0506936113885496</v>
+        <v>0.0273079688563367</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.141987854404952</v>
+        <v>0.0903607917770583</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0344381756561546</v>
+        <v>0.0180474961567015</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0125520880797592</v>
+        <v>0.00385358166309002</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0674366969066466</v>
+        <v>0.0414573551368089</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0243327538520452</v>
+        <v>0.00965403896892014</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0112175942390412</v>
+        <v>0.00385921028911854</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0085219297331081</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.016783083423211</v>
+        <v>-0.0202332308168213</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0108922359496041</v>
+        <v>-0.0139725909083196</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0451896962349804</v>
+        <v>0.0223670327712324</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00322840015997134</v>
+        <v>-0.00633251751152125</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0124085790584684</v>
+        <v>0.00522213325186165</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00757224543399562</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0019934433949371</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.14158833980916</v>
+        <v>0.0889955459181492</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.000907587293111814</v>
+        <v>-0.00343791994962431</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0352930039250691</v>
+        <v>-0.0390931932931327</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.128234908658334</v>
+        <v>0.0807088173716273</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00825552796401699</v>
+        <v>-0.0117946466623836</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0227917118003022</v>
+        <v>0.0108639297801737</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00218712952584388</v>
+        <v>-0.00573692817287181</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00548561358999576</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00445945783216894</v>
+        <v>-0.00785901439122824</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00606029694531942</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0329492333731584</v>
+        <v>0.0186483244104823</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0416109158677515</v>
+        <v>0.0232080601678084</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.083586711312652</v>
+        <v>0.0506360668650877</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.116927269343903</v>
+        <v>0.0727145970626797</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000480958154669364</v>
+        <v>-0.000758577267306025</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0251473985649843</v>
+        <v>0.0119588422477101</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00164988613579134</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.000527723431510221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0419527673569509</v>
+        <v>0.0194636488717742</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.118663932095835</v>
+        <v>0.0717176650619692</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00135166954280592</v>
+        <v>-0.00325267062134372</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00812563196038103</v>
+        <v>0.000742683412611473</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0227828297536658</v>
+        <v>0.00883286938870947</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00502396553866903</v>
+        <v>-0.00712445759363788</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1646,79 +1632,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0126663213781415</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>-0.000444133779737025</v>
-      </c>
+        <v>-0.0155190116812521</v>
+      </c>
+      <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00255119584963261</v>
+        <v>-0.00658752442133832</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0213620250436944</v>
+        <v>0.00383794813820389</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00269614545833666</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0130313524221156</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-0.0384608003628143</v>
-      </c>
+        <v>-0.0167958551912034</v>
+      </c>
+      <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0665415863418327</v>
+        <v>0.0393481054042511</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0251654384926395</v>
+        <v>0.00587414854435158</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0580674236393053</v>
+        <v>0.0347895531921564</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0122682004266057</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>-0.045805669913588</v>
-      </c>
+        <v>-0.0157566312495285</v>
+      </c>
+      <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0316129077886263</v>
+        <v>0.0196550333172939</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0019115892120773</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.165649219515679</v>
+        <v>0.0985142491901155</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.014380212009145</v>
+        <v>0.00721491769670925</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0363558138884052</v>
+        <v>0.0113622554780741</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00311821344903322</v>
+        <v>-0.00686834064846009</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0114444259383785</v>
+        <v>-0.0129835234719077</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.000769638923129764</v>
+        <v>-0.00299629408793025</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0105843211186412</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.00724780642544782</v>
-      </c>
+        <v>0.000227831513638528</v>
+      </c>
+      <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.131466553084905</v>
+        <v>0.0828032753960577</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0114443552469856</v>
+        <v>0.00328475765491549</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1727,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0709026647301634</v>
+        <v>0.043193070598839</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00103475291602172</v>
+        <v>-0.00350524110703338</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0391064820628059</v>
+        <v>0.0237187240235067</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1742,179 +1720,157 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.118291315600917</v>
+        <v>0.0676370561665646</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0478061858499682</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>-0.0000182421118753593</v>
-      </c>
+        <v>0.022761849109074</v>
+      </c>
+      <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.192567738295597</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>-0.00337203423823297</v>
-      </c>
+        <v>0.123044789256825</v>
+      </c>
+      <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>0.00782648294796226</v>
+        <v>0.000650335858326751</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.201976914362105</v>
+        <v>0.123538259897458</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0295234807526511</v>
+        <v>0.0151441665536738</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.032697208352781</v>
+        <v>0.0157654323432606</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0107703485993832</v>
+        <v>-0.0137305312069103</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00704253225308531</v>
+        <v>-0.00965058119873709</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0947790356629186</v>
+        <v>0.058994016853771</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00863800251778507</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>-0.0283921286827553</v>
-      </c>
+        <v>-0.0123372105068499</v>
+      </c>
+      <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0423366862338456</v>
+        <v>0.0233770716368095</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.000941081521648168</v>
+        <v>-0.000684645172283357</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0044516405748441</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0280460506759528</v>
+        <v>0.0148542532220414</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0518669821518876</v>
+        <v>0.02903146224889</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0121472464974879</v>
+        <v>-0.0151452194980552</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0529042310643741</v>
+        <v>0.00463780925817208</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00056710978576976</v>
+        <v>-0.00155144790432101</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0187062828851886</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-0.0404851393114377</v>
-      </c>
+        <v>0.00831259423093177</v>
+      </c>
+      <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.000510234989955001</v>
+        <v>-0.002229354795542</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.014184416483791</v>
+        <v>-0.0168915771684388</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.102087474038517</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>-0.0297291484638848</v>
-      </c>
+        <v>0.0651505402435639</v>
+      </c>
+      <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0417979657028384</v>
+        <v>0.0237287420105595</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0521067484189574</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-0.00833059013603422</v>
-      </c>
+        <v>0.0278388355873096</v>
+      </c>
+      <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0960232009116457</v>
+        <v>0.0587650180886189</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.143163183755553</v>
+        <v>0.0891902289502854</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0284342149547912</v>
+        <v>0.0127932208678367</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.107570133186378</v>
+        <v>0.0690260823211825</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0938337421525753</v>
+        <v>0.0579792149148493</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00807681928707533</v>
+        <v>-0.0117729045021169</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00543450902781031</v>
+        <v>-0.00839387415078023</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00124245450829231</v>
+        <v>-0.00361504984246981</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0202434228060335</v>
+        <v>0.00944401342526523</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0100212572637192</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.130619341958137</v>
+        <v>0.0835220607591276</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.111629754328152</v>
+        <v>0.0629243947807766</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.051551961596043</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-0.0238072489824164</v>
-      </c>
+        <v>0.0310370758359471</v>
+      </c>
+      <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0246017735287238</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>-0.0930271229580623</v>
-      </c>
+        <v>0.0146635275203165</v>
+      </c>
+      <c r="FD2"/>
       <c r="FE2" t="n">
-        <v>0.00427202774364228</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-0.00309079992513577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.00720986857185064</v>
+        <v>-0.0100143224572227</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0668555836572077</v>
+        <v>0.0406041906132572</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0932408791473608</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0583860657002526</v>
+      </c>
+      <c r="FJ2"/>
       <c r="FK2" t="n">
-        <v>0.00356598221503565</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>-0.0216763610210202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FL2"/>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
@@ -1922,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0164473921399044</v>
+        <v>0.00291831934089034</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0769688436873187</v>
+        <v>0.0453751968652442</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0327369679825809</v>
+        <v>0.0166686023610397</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0592846102637472</v>
+        <v>0.0235831850838246</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0425105235056597</v>
+        <v>0.0253518718999699</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.050460434028453</v>
+        <v>0.0207304702150457</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -404,148 +404,148 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shigh_RUS_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_USA_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0659313104765436</v>
+        <v>0.0917173574580132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.011648794394413</v>
+        <v>0.0227947576900713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000708910561717473</v>
+        <v>0.00715412020278838</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00265755133390007</v>
+        <v>0.00915288381720362</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00957924638736759</v>
+        <v>-0.0078015194521509</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0000468017134822232</v>
       </c>
       <c r="K2" t="n">
-        <v>0.145142246682436</v>
+        <v>0.195225067184432</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120298588422282</v>
+        <v>-0.0101378321103318</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0463277927342198</v>
+        <v>0.0710767290565977</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0722337544419952</v>
+        <v>0.0990850620553466</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0340190957302608</v>
+        <v>0.0484021135403426</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00144187206098887</v>
+        <v>-0.00122605642529097</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,166 +1464,168 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00756736551986542</v>
+        <v>0.0159295917263813</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000861529161200472</v>
+        <v>0.00941963134844353</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.00212158347146337</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.00156387540372119</v>
+        <v>0.00679016831812451</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.159607395235616</v>
+        <v>0.217253445405582</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0286777324582546</v>
+        <v>-0.0266269113589374</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00291502613735243</v>
-      </c>
-      <c r="AE2"/>
+        <v>-0.00147367261478823</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.00179304043893845</v>
+      </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0128656046711341</v>
+        <v>0.0216477961327698</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0273079688563367</v>
+        <v>0.0417119198251463</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0903607917770583</v>
+        <v>0.122159519467842</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0180474961567015</v>
+        <v>0.0281430299240714</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00385358166309002</v>
+        <v>0.00921126468398595</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0414573551368089</v>
+        <v>0.0574588468443486</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00965403896892014</v>
+        <v>0.0186951200155679</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00385921028911854</v>
+        <v>0.00839146983590517</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>0.00272041499177162</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0202332308168213</v>
+        <v>-0.0181081767874409</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0139725909083196</v>
+        <v>-0.0120753036419659</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0223670327712324</v>
+        <v>0.0364242272680972</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00633251751152125</v>
+        <v>-0.00442059424186691</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00522213325186165</v>
+        <v>0.00964849070155692</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.00356993246023151</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0889955459181492</v>
+        <v>0.121389097794064</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00343791994962431</v>
+        <v>-0.00187940867635142</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0390931932931327</v>
+        <v>-0.0367525374289895</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0807088173716273</v>
+        <v>0.109981628143875</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0117946466623836</v>
+        <v>-0.00961479241489604</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0108639297801737</v>
+        <v>0.0182106249649617</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00573692817287181</v>
+        <v>-0.00355049580991639</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.00228312062008204</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00785901439122824</v>
+        <v>-0.005765120844154</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.00301681613053057</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0186483244104823</v>
+        <v>0.0274567029369245</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0232080601678084</v>
+        <v>0.0345429563898356</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0506360668650877</v>
+        <v>0.0709314026190498</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0727145970626797</v>
+        <v>0.099946569109698</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000758577267306025</v>
+        <v>-0.000587582945430341</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0119588422477101</v>
+        <v>0.0200820878793719</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0194636488717742</v>
+        <v>0.0333154025512393</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0717176650619692</v>
+        <v>0.100633343884691</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00325267062134372</v>
+        <v>-0.00208178441245743</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.000742683412611473</v>
+        <v>0.00529007306593541</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00883286938870947</v>
+        <v>0.0174250876626734</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00712445759363788</v>
+        <v>-0.00583069863326423</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0155190116812521</v>
+        <v>-0.0137619502193486</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00658752442133832</v>
+        <v>-0.00410142301271677</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00383794813820389</v>
+        <v>0.0146315769287167</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0167958551912034</v>
+        <v>-0.0144771798230498</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0393481054042511</v>
+        <v>0.0560974235192715</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00587414854435158</v>
+        <v>0.0177562592948889</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0347895531921564</v>
+        <v>0.0491271239523859</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0157566312495285</v>
+        <v>-0.0136079972548777</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0196550333172939</v>
+        <v>0.0270202633869402</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0985142491901155</v>
+        <v>0.139864783798258</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00721491769670925</v>
+        <v>0.0116282472775086</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0113622554780741</v>
+        <v>0.0267565722851746</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00686834064846009</v>
+        <v>-0.00455851964469943</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0129835234719077</v>
+        <v>-0.0120355450112503</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00299629408793025</v>
+        <v>-0.00162482730979687</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.000227831513638528</v>
+        <v>0.00660671840006736</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0828032753960577</v>
+        <v>0.112776514953029</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00328475765491549</v>
+        <v>0.00831050982227637</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.043193070598839</v>
+        <v>0.0602602790231287</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00350524110703338</v>
+        <v>-0.00139646712042357</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0237187240235067</v>
+        <v>0.0331965269965345</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,183 +1722,185 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0676370561665646</v>
+        <v>0.0988366038483847</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.022761849109074</v>
+        <v>0.0381874418831573</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.123044789256825</v>
-      </c>
-      <c r="DK2"/>
+        <v>0.165866154878151</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.00408693881226427</v>
+      </c>
       <c r="DL2" t="n">
-        <v>0.000650335858326751</v>
+        <v>0.00507035000511338</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.123538259897458</v>
+        <v>0.171851088224149</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0151441665536738</v>
+        <v>0.0240008373251473</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0157654323432606</v>
+        <v>0.0261942444282849</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0137305312069103</v>
+        <v>-0.0119072618621056</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00965058119873709</v>
+        <v>-0.00804420202460587</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.058994016853771</v>
+        <v>0.0810351327065805</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0123372105068499</v>
+        <v>-0.0100587522423604</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0233770716368095</v>
+        <v>0.0350548931320735</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000684645172283357</v>
+        <v>-0.000147362034392287</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.00161399236770713</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0148542532220414</v>
+        <v>0.0229794951714499</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.02903146224889</v>
+        <v>0.0430965754300642</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0151452194980552</v>
+        <v>-0.0132986738644895</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00463780925817208</v>
+        <v>-0.000945163173131248</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00155144790432101</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.00831259423093177</v>
-      </c>
-      <c r="ED2"/>
-      <c r="EE2" t="n">
-        <v>-0.002229354795542</v>
-      </c>
+        <v>0.0147143931789303</v>
+      </c>
+      <c r="EC2"/>
+      <c r="ED2" t="n">
+        <v>-0.0011704949692586</v>
+      </c>
+      <c r="EE2"/>
       <c r="EF2" t="n">
-        <v>-0.0168915771684388</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.0651505402435639</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.0879011566778915</v>
+      </c>
+      <c r="EG2"/>
+      <c r="EH2" t="n">
+        <v>0.0348581438112382</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0237287420105595</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.0278388355873096</v>
-      </c>
-      <c r="EK2"/>
+        <v>0.0427862045150995</v>
+      </c>
+      <c r="EJ2"/>
+      <c r="EK2" t="n">
+        <v>0.0817135018786446</v>
+      </c>
       <c r="EL2" t="n">
-        <v>0.0587650180886189</v>
+        <v>0.122433865236352</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0891902289502854</v>
+        <v>0.0224269998679904</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0127932208678367</v>
+        <v>0.092766572582967</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0690260823211825</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.0800631431896729</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0579792149148493</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.00949636965212647</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0117729045021169</v>
+        <v>-0.00657110832036323</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00839387415078023</v>
+        <v>-0.00177129460003595</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00361504984246981</v>
+        <v>0.0160957084983605</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00944401342526523</v>
+        <v>0.00328830618823471</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>0.112530753944287</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0835220607591276</v>
+        <v>0.0929235538747497</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0629243947807766</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.0310370758359471</v>
-      </c>
-      <c r="FB2"/>
-      <c r="FC2" t="n">
-        <v>0.0146635275203165</v>
-      </c>
-      <c r="FD2"/>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2"/>
+        <v>0.04367283763775</v>
+      </c>
+      <c r="FA2"/>
+      <c r="FB2" t="n">
+        <v>0.0207848050530541</v>
+      </c>
+      <c r="FC2"/>
+      <c r="FD2" t="n">
+        <v>0.00129423537369792</v>
+      </c>
+      <c r="FE2"/>
+      <c r="FF2" t="n">
+        <v>-0.00828697131843983</v>
+      </c>
       <c r="FG2" t="n">
-        <v>-0.0100143224572227</v>
+        <v>0.0567732472362327</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0406041906132572</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.0583860657002526</v>
-      </c>
-      <c r="FJ2"/>
+        <v>0.0798542388850433</v>
+      </c>
+      <c r="FI2"/>
+      <c r="FJ2" t="n">
+        <v>0.00159080206592413</v>
+      </c>
       <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2"/>
+        <v>-0.0226313938814775</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.0112512997574868</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00291831934089034</v>
+        <v>0.0648347152053626</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0453751968652442</v>
+        <v>0.026565612898286</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0166686023610397</v>
+        <v>0.0455728129976133</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0235831850838246</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.035920423782981</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0253518718999699</v>
+        <v>0.0390420877163794</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0207304702150457</v>
+        <v>0.0343666128255219</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -404,6 +404,9 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
@@ -542,10 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shigh_USA_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0917173574580132</v>
+        <v>0.0608432878477711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227947576900713</v>
+        <v>0.00944950756659759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00715412020278838</v>
+        <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00915288381720362</v>
+        <v>0.00137591252046742</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.0078015194521509</v>
+        <v>-0.0099300219397685</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0000468017134822232</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.195225067184432</v>
+        <v>0.135260060234469</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0101378321103318</v>
+        <v>-0.0124031876751838</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0710767290565977</v>
+        <v>0.0414444095566123</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0990850620553466</v>
+        <v>0.0669355378969373</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0484021135403426</v>
+        <v>0.0311810833687568</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00122605642529097</v>
+        <v>-0.0014844561313143</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,168 +1464,168 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0159295917263813</v>
+        <v>0.00591735704061917</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00941963134844353</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00212158347146337</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.00679016831812451</v>
+        <v>0.000532639532934698</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.217253445405582</v>
+        <v>0.148232855821532</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0266269113589374</v>
+        <v>-0.0290823941021424</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00147367261478823</v>
+        <v>-0.00319942953365965</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00179304043893845</v>
+        <v>-0.00268855472465453</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0216477961327698</v>
+        <v>0.0111327299533022</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0417119198251463</v>
+        <v>0.0244658260290278</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.122159519467842</v>
+        <v>0.0840863656824675</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0281430299240714</v>
+        <v>0.0160554768179162</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00921126468398595</v>
+        <v>0.00279642030494551</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0574588468443486</v>
+        <v>0.0382999905372414</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0186951200155679</v>
+        <v>0.00787008096298898</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00839146983590517</v>
+        <v>0.00296491892487447</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00272041499177162</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0181081767874409</v>
+        <v>-0.0206525398716997</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0120753036419659</v>
+        <v>-0.0143469577335809</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0364242272680972</v>
+        <v>0.0195933108529988</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00442059424186691</v>
+        <v>-0.00670977226745451</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00964849070155692</v>
+        <v>0.00434873816019562</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00356993246023151</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.121389097794064</v>
+        <v>0.0826037509644903</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00187940867635142</v>
+        <v>-0.00374544054909068</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0367525374289895</v>
+        <v>-0.0395550442318008</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.109981628143875</v>
+        <v>0.0749327973510324</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00961479241489604</v>
+        <v>-0.0122247687259404</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0182106249649617</v>
+        <v>0.00941430272513277</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00355049580991639</v>
+        <v>-0.00616834820972322</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00228312062008204</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.005765120844154</v>
+        <v>-0.00827217495660728</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00301681613053057</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0274567029369245</v>
+        <v>0.016910282542431</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0345429563898356</v>
+        <v>0.0209714936823015</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0709314026190498</v>
+        <v>0.0466314543066409</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.099946569109698</v>
+        <v>0.0673412689949499</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000587582945430341</v>
+        <v>-0.000792317335324992</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0200820878793719</v>
+        <v>0.0103559886725703</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0333154025512393</v>
+        <v>0.0167304638969718</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.100633343884691</v>
+        <v>0.0660121132074313</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00208178441245743</v>
+        <v>-0.00348370624812328</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00529007306593541</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0174250876626734</v>
+        <v>0.00713747958969541</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00583069863326423</v>
+        <v>-0.00737973808976389</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0137619502193486</v>
+        <v>-0.0158657095867021</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00410142301271677</v>
+        <v>-0.00707807422269327</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0146315769287167</v>
+        <v>0.00170818285963426</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0144771798230498</v>
+        <v>-0.017253369006734</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0560974235192715</v>
+        <v>0.0360431820227428</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0177562592948889</v>
+        <v>0.00352960738921603</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0491271239523859</v>
+        <v>0.0319605083012471</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0136079972548777</v>
+        <v>-0.0161805930298506</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0270202633869402</v>
+        <v>0.0182017490163926</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.139864783798258</v>
+        <v>0.0903550902484887</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0116282472775086</v>
+        <v>0.00634409322363376</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0267565722851746</v>
+        <v>0.00832469674232429</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00455851964469943</v>
+        <v>-0.0073241073483344</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0120355450112503</v>
+        <v>-0.0131705756347646</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00162482730979687</v>
+        <v>-0.00326690764908473</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00660671840006736</v>
+        <v>0</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.112776514953029</v>
+        <v>0.0768890489450983</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00831050982227637</v>
+        <v>0.00229309186091029</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0602602790231287</v>
+        <v>0.0398254220897377</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00139646712042357</v>
+        <v>-0.00392133783448245</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0331965269965345</v>
+        <v>0.0218485934047086</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1722,185 +1722,183 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0988366038483847</v>
+        <v>0.0614808584086592</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0381874418831573</v>
+        <v>0.0197181190967473</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.165866154878151</v>
+        <v>0.114595410512079</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.00408693881226427</v>
+        <v>-0.00545965477027544</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.00507035000511338</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.171851088224149</v>
+        <v>0.114005322803112</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0240008373251473</v>
+        <v>0.01339659580996</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0261942444282849</v>
+        <v>0.0137076515629048</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0119072618621056</v>
+        <v>-0.0140902930459925</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00804420202460587</v>
+        <v>-0.0099675469435929</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0810351327065805</v>
+        <v>0.0546449323933619</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0100587522423604</v>
+        <v>-0.0127867888085092</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0350548931320735</v>
+        <v>0.0210728402024463</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000147362034392287</v>
+        <v>-0.000790660210788954</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00161399236770713</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0229794951714499</v>
+        <v>0.0132510057396898</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0430965754300642</v>
+        <v>0.0262561778404854</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0132986738644895</v>
+        <v>-0.0155095741420763</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.000945163173131248</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0147143931789303</v>
-      </c>
-      <c r="EC2"/>
-      <c r="ED2" t="n">
-        <v>-0.0011704949692586</v>
-      </c>
-      <c r="EE2"/>
-      <c r="EF2" t="n">
-        <v>0.0879011566778915</v>
-      </c>
-      <c r="EG2"/>
-      <c r="EH2" t="n">
-        <v>0.0348581438112382</v>
-      </c>
+        <v>-0.00167107812270964</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00704941116391591</v>
+      </c>
+      <c r="ED2"/>
+      <c r="EE2" t="n">
+        <v>-0.00243828572476506</v>
+      </c>
+      <c r="EF2"/>
+      <c r="EG2" t="n">
+        <v>0.0606614593340486</v>
+      </c>
+      <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0427862045150995</v>
-      </c>
-      <c r="EJ2"/>
-      <c r="EK2" t="n">
-        <v>0.0817135018786446</v>
-      </c>
+        <v>0.0215327230454483</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0248894672176692</v>
+      </c>
+      <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.122433865236352</v>
+        <v>0.0542368946075914</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0224269998679904</v>
+        <v>0.0826306979834901</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.092766572582967</v>
+        <v>0.010892313544252</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>0.0643416825852743</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0800631431896729</v>
+        <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>0.0536216828404201</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.00949636965212647</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00657110832036323</v>
+        <v>-0.0122221032816066</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00177129460003595</v>
+        <v>-0.00875353663796873</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0160957084983605</v>
+        <v>-0.00397885389518726</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00328830618823471</v>
+        <v>0.00813152163170245</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.112530753944287</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0929235538747497</v>
+        <v>0.0777981555997492</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.0570050539673526</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.04367283763775</v>
-      </c>
-      <c r="FA2"/>
-      <c r="FB2" t="n">
-        <v>0.0207848050530541</v>
-      </c>
-      <c r="FC2"/>
-      <c r="FD2" t="n">
-        <v>0.00129423537369792</v>
-      </c>
-      <c r="FE2"/>
-      <c r="FF2" t="n">
-        <v>-0.00828697131843983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.0285438265982663</v>
+      </c>
+      <c r="FB2"/>
+      <c r="FC2" t="n">
+        <v>0.0134556960668973</v>
+      </c>
+      <c r="FD2"/>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>0.0567732472362327</v>
+        <v>-0.0103551580140755</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0798542388850433</v>
-      </c>
-      <c r="FI2"/>
-      <c r="FJ2" t="n">
-        <v>0.00159080206592413</v>
-      </c>
+        <v>0.0374137626254884</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.0541500325059783</v>
+      </c>
+      <c r="FJ2"/>
       <c r="FK2" t="n">
-        <v>-0.0226313938814775</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FL2"/>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0112512997574868</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0648347152053626</v>
+        <v>0.00127408154999401</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.026565612898286</v>
+        <v>0.0415355052005743</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0455728129976133</v>
+        <v>0.0147157550088692</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>0.0192442600634814</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.035920423782981</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0390420877163794</v>
+        <v>0.0232665180970874</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0343666128255219</v>
+        <v>0.017117278775382</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_USA_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0608432878477711</v>
+        <v>0.0913743720374256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00944950756659759</v>
+        <v>0.0226465029803997</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.00706839116719381</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00137591252046742</v>
+        <v>0.00906648808755794</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.0099300219397685</v>
+        <v>-0.00782516535727949</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.135260060234469</v>
+        <v>0.194558905470447</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0124031876751838</v>
+        <v>-0.0101629983401486</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0414444095566123</v>
+        <v>0.0707475384544195</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0669355378969373</v>
+        <v>0.0987279073878743</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0311810833687568</v>
+        <v>0.048210802114576</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0014844561313143</v>
+        <v>-0.00122892703266372</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,168 +1464,166 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00591735704061917</v>
+        <v>0.0158183640661451</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.00930579830221383</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.00206037179794969</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000532639532934698</v>
+        <v>0.00672065234017533</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.148232855821532</v>
+        <v>0.216486683645745</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0290823941021424</v>
+        <v>-0.0266541897447173</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00319942953365965</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.00268855472465453</v>
-      </c>
+        <v>-0.00149284434919588</v>
+      </c>
+      <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0111327299533022</v>
+        <v>0.0215309824298275</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0244658260290278</v>
+        <v>0.0415203299632063</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0840863656824675</v>
+        <v>0.121736558166367</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0160554768179162</v>
+        <v>0.0280087471897792</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00279642030494551</v>
+        <v>0.00914000105968489</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0382999905372414</v>
+        <v>0.0572460077702833</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00787008096298898</v>
+        <v>0.0185748627699506</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00296491892487447</v>
+        <v>0.00833118533599777</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>0.00259666197704277</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0206525398716997</v>
+        <v>-0.0181364425604212</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0143469577335809</v>
+        <v>-0.0121005398432143</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0195933108529988</v>
+        <v>0.0362372496840474</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00670977226745451</v>
+        <v>-0.00444602511955222</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00434873816019562</v>
+        <v>0.00958961482683888</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.00348455849869304</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0826037509644903</v>
+        <v>0.120958224615927</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00374544054909068</v>
+        <v>-0.00190013874967123</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0395550442318008</v>
+        <v>-0.0367836709655332</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0749327973510324</v>
+        <v>0.109592264573658</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0122247687259404</v>
+        <v>-0.00964378709664898</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00941430272513277</v>
+        <v>0.0181129050880184</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00616834820972322</v>
+        <v>-0.00357957798851218</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.00221480774364462</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00827217495660728</v>
+        <v>-0.00579297214526367</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.00295189516714562</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.016910282542431</v>
+        <v>0.0273395409145425</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0209714936823015</v>
+        <v>0.0343921886451394</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0466314543066409</v>
+        <v>0.0706614502578158</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0673412689949499</v>
+        <v>0.099584351147686</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000792317335324992</v>
+        <v>-0.000589857375452467</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0103559886725703</v>
+        <v>0.0199740389480443</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0167304638969718</v>
+        <v>0.0331311575770081</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0660121132074313</v>
+        <v>0.100248730598687</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00348370624812328</v>
+        <v>-0.00209735860648196</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.00522958731742415</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00713747958969541</v>
+        <v>0.0173108008314816</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00737973808976389</v>
+        <v>-0.00584790718258091</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,71 +1632,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0158657095867021</v>
+        <v>-0.0137853212488415</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00707807422269327</v>
+        <v>-0.00413449114983263</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00170818285963426</v>
+        <v>0.0144880086914821</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.017253369006734</v>
+        <v>-0.0145080209925754</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0360431820227428</v>
+        <v>0.0558746374550732</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00352960738921603</v>
+        <v>0.0175982129391924</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0319605083012471</v>
+        <v>0.0489364170270113</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0161805930298506</v>
+        <v>-0.01363657666974</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0182017490163926</v>
+        <v>0.0269222969737487</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0903550902484887</v>
+        <v>0.139314771983175</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00634409322363376</v>
+        <v>0.0115695446891068</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00832469674232429</v>
+        <v>0.0265518093671308</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0073241073483344</v>
+        <v>-0.00458924304053541</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0131705756347646</v>
+        <v>-0.0120481542642805</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00326690764908473</v>
+        <v>-0.00164306946649727</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.00652187153683181</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0768890489450983</v>
+        <v>0.112377834838035</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00229309186091029</v>
+        <v>0.00824366127731987</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1707,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0398254220897377</v>
+        <v>0.0600332646357018</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00392133783448245</v>
+        <v>-0.00142451634926586</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0218485934047086</v>
+        <v>0.0330704608243412</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1722,157 +1720,157 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0614808584086592</v>
+        <v>0.0984216123612645</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0197181190967473</v>
+        <v>0.0379822629571577</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.114595410512079</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>-0.00545965477027544</v>
-      </c>
+        <v>0.165296579242602</v>
+      </c>
+      <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>0.00501155850394889</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.114005322803112</v>
+        <v>0.171208469533688</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01339659580996</v>
+        <v>0.0238830329578574</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0137076515629048</v>
+        <v>0.0260555286917557</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0140902930459925</v>
+        <v>-0.0119315135360253</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0099675469435929</v>
+        <v>-0.008065568798546</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0546449323933619</v>
+        <v>0.0807419593715428</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0127867888085092</v>
+        <v>-0.0100890584760649</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0210728402024463</v>
+        <v>0.034899564069035</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000790660210788954</v>
+        <v>-0.000154508545959438</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.00155346205174137</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0132510057396898</v>
+        <v>0.0228714196866966</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0262561778404854</v>
+        <v>0.0429094925179946</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0155095741420763</v>
+        <v>-0.0133232351410286</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.0339711840030103</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00167107812270964</v>
+        <v>-0.00095322748883161</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00704941116391591</v>
+        <v>0.0146292415577347</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00243828572476506</v>
+        <v>-0.00118457907773486</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0606614593340486</v>
+        <v>0.0875985461322751</v>
       </c>
       <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0215327230454483</v>
+        <v>0.0347101093893574</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0248894672176692</v>
+        <v>0.0425873865410975</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0542368946075914</v>
+        <v>0.0814082594593539</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0826306979834901</v>
+        <v>0.121991684913729</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.010892313544252</v>
+        <v>0.0222988590271477</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0643416825852743</v>
+        <v>0.0924507955255823</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0536216828404201</v>
+        <v>0.0797694003979605</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0122221032816066</v>
+        <v>-0.00952665030210618</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00875353663796873</v>
+        <v>-0.00659535329693632</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00397885389518726</v>
+        <v>-0.00179581876101887</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00813152163170245</v>
+        <v>0.0160072329583173</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>0.00314468455995954</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0777981555997492</v>
+        <v>0.112144903455456</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0570050539673526</v>
+        <v>0.0925245289987571</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0285438265982663</v>
+        <v>0.0435047668171566</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0134556960668973</v>
+        <v>0.0207033847038781</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>0.00123071562076313</v>
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.0103551580140755</v>
+        <v>-0.00830994716492237</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0374137626254884</v>
+        <v>0.0565581793473732</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0541500325059783</v>
+        <v>0.0795686863761875</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2"/>
+        <v>0.00154866919046257</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-0.0226517658362025</v>
+      </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
@@ -1880,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00127408154999401</v>
+        <v>0.011140461101411</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0415355052005743</v>
+        <v>0.0645758802204146</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0147157550088692</v>
+        <v>0.0264339707615864</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0192442600634814</v>
+        <v>0.0452803245140549</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0232665180970874</v>
+        <v>0.0357798493391664</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.017117278775382</v>
+        <v>0.0387985211924044</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_USA_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0913743720374256</v>
+        <v>0.0654800488368511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0226465029803997</v>
+        <v>0.0114537375221299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00706839116719381</v>
+        <v>0.000596117938913311</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00906648808755794</v>
+        <v>0.00254388155004877</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00782516535727949</v>
+        <v>-0.0096103570098018</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.194558905470447</v>
+        <v>0.144265786024608</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0101629983401486</v>
+        <v>-0.0120629697368911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0707475384544195</v>
+        <v>0.0458946807650411</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0987279073878743</v>
+        <v>0.0717638505009144</v>
       </c>
       <c r="O2" t="n">
-        <v>0.048210802114576</v>
+        <v>0.0337673896736726</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00122892703266372</v>
+        <v>-0.00144564888330313</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,166 +1464,168 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0158183640661451</v>
+        <v>0.00742102467467331</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00930579830221383</v>
+        <v>0.000711760442154618</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00206037179794969</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.00672065234017533</v>
+        <v>0.00147241409863005</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.216486683645745</v>
+        <v>0.15859857635228</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0266541897447173</v>
+        <v>-0.0287136222901725</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00149284434919588</v>
-      </c>
-      <c r="AE2"/>
+        <v>-0.00294025014917697</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.0025540636854883</v>
+      </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0215309824298275</v>
+        <v>0.0127119143392302</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0415203299632063</v>
+        <v>0.0270558964647481</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.121736558166367</v>
+        <v>0.0898043068684491</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0280087471897792</v>
+        <v>0.0178708220381479</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00914000105968489</v>
+        <v>0.00375982100149271</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0572460077702833</v>
+        <v>0.041177325421876</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0185748627699506</v>
+        <v>0.00949581801087121</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00833118533599777</v>
+        <v>0.00377989472453959</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00259666197704277</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0181364425604212</v>
+        <v>-0.0202704197417628</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0121005398432143</v>
+        <v>-0.0140057938635224</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0362372496840474</v>
+        <v>0.0221210286961336</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00444602511955222</v>
+        <v>-0.00636597660008377</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00958961482683888</v>
+        <v>0.00514467099787406</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00348455849869304</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.120958224615927</v>
+        <v>0.0884286514521035</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00190013874967123</v>
+        <v>-0.00346519424851789</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0367836709655332</v>
+        <v>-0.039134155298824</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.109592264573658</v>
+        <v>0.0801965365789574</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00964378709664898</v>
+        <v>-0.0118327946035054</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0181129050880184</v>
+        <v>0.0107353609569729</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00357957798851218</v>
+        <v>-0.00577519123249832</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00221480774364462</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00579297214526367</v>
+        <v>-0.00789565800069941</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00295189516714562</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0273395409145425</v>
+        <v>0.0184941757990363</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0343921886451394</v>
+        <v>0.0230096969266892</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0706614502578158</v>
+        <v>0.0502808939106204</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.099584351147686</v>
+        <v>0.0722380314081291</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000589857375452467</v>
+        <v>-0.000761569706516392</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0199740389480443</v>
+        <v>0.0118166836164937</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0331311575770081</v>
+        <v>0.0192212400573288</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.100248730598687</v>
+        <v>0.0712116341589875</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00209735860648196</v>
+        <v>-0.00327316139415954</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00522958731742415</v>
+        <v>0.000663103067754655</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0173108008314816</v>
+        <v>0.00868250363044917</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00584790718258091</v>
+        <v>-0.00714709866732569</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0137853212488415</v>
+        <v>-0.0155497606532411</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00413449114983263</v>
+        <v>-0.00663103175687146</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0144880086914821</v>
+        <v>0.00364905719925002</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0145080209925754</v>
+        <v>-0.0168364325332559</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0558746374550732</v>
+        <v>0.0390549885584722</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0175982129391924</v>
+        <v>0.00566620892552796</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0489364170270113</v>
+        <v>0.0345386424691938</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.01363657666974</v>
+        <v>-0.0157942328291821</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0269222969737487</v>
+        <v>0.0195261401294265</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.139314771983175</v>
+        <v>0.0977906055054964</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0115695446891068</v>
+        <v>0.00713768343336652</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0265518093671308</v>
+        <v>0.0110928514608818</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00458924304053541</v>
+        <v>-0.00690876303713805</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0120481542642805</v>
+        <v>-0.01300011330884</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00164306946649727</v>
+        <v>-0.00302029506596031</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00652187153683181</v>
+        <v>0.00011619955400349</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.112377834838035</v>
+        <v>0.0822787369416333</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00824366127731987</v>
+        <v>0.00319680585814102</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0600332646357018</v>
+        <v>0.0428943906009295</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00142451634926586</v>
+        <v>-0.00354214512755355</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0330704608243412</v>
+        <v>0.0235528603332185</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,157 +1722,159 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0984216123612645</v>
+        <v>0.0670910570432915</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0379822629571577</v>
+        <v>0.0224918977554034</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.165296579242602</v>
-      </c>
-      <c r="DK2"/>
+        <v>0.122295405697646</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.00525349614319629</v>
+      </c>
       <c r="DL2" t="n">
-        <v>0.00501155850394889</v>
+        <v>0.000572984613571161</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.171208469533688</v>
+        <v>0.122692774502021</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0238830329578574</v>
+        <v>0.0149891728170447</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0260555286917557</v>
+        <v>0.015582925778958</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0119315135360253</v>
+        <v>-0.013762438831787</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.008065568798546</v>
+        <v>-0.00967869319669502</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0807419593715428</v>
+        <v>0.0586082923537134</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0100890584760649</v>
+        <v>-0.012377084040515</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.034899564069035</v>
+        <v>0.0231727071260422</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000154508545959438</v>
+        <v>-0.000694047748411372</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00155346205174137</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0228714196866966</v>
+        <v>0.014712059654814</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0429094925179946</v>
+        <v>0.0287853195950292</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0133232351410286</v>
+        <v>-0.0151775344632365</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0339711840030103</v>
+        <v>0.00411754848871261</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00095322748883161</v>
+        <v>-0.001562058023899</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0146292415577347</v>
+        <v>0.00820056130505014</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00118457907773486</v>
+        <v>-0.00224788508138831</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0875985461322751</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.0647523993232613</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-0.0324825109268032</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0347101093893574</v>
+        <v>0.0235339749681749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0425873865410975</v>
+        <v>0.0275772532588398</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0814082594593539</v>
+        <v>0.0583634144449512</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.121991684913729</v>
+        <v>0.088608457815277</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0222988590271477</v>
+        <v>0.0126246275618845</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0924507955255823</v>
+        <v>0.0686106183855767</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0797694003979605</v>
+        <v>0.0575927411877476</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.00952665030210618</v>
+        <v>-0.0118127443755943</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00659535329693632</v>
+        <v>-0.00842577296404154</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00179581876101887</v>
+        <v>-0.00364731597517678</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0160072329583173</v>
+        <v>0.00932760726081605</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00314468455995954</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.112144903455456</v>
+        <v>0.0830144020838185</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0925245289987571</v>
+        <v>0.0623994027286071</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0435047668171566</v>
+        <v>0.0308159471536973</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0207033847038781</v>
+        <v>0.0145564037824896</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
-        <v>0.00123071562076313</v>
+        <v>0</v>
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.00830994716492237</v>
+        <v>-0.0100445514918542</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0565581793473732</v>
+        <v>0.0403212284745003</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0795686863761875</v>
+        <v>0.0580103678261452</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
-        <v>0.00154866919046257</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>-0.0226517658362025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="FL2"/>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
@@ -1878,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.011140461101411</v>
+        <v>0.00277249030361988</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0645758802204146</v>
+        <v>0.0450346509040855</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0264339707615864</v>
+        <v>0.0164954024438015</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0452803245140549</v>
+        <v>0.0231983616343159</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0357798493391664</v>
+        <v>0.0251669198576763</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0387985211924044</v>
+        <v>0.0204100127775404</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0654800488368511</v>
+        <v>0.0602539379246936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0114537375221299</v>
+        <v>0.00919476233109707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000596117938913311</v>
+        <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00254388155004877</v>
+        <v>0.00122745922314158</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.0096103570098018</v>
+        <v>-0.00997065256583056</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.144265786024608</v>
+        <v>0.134115398300378</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120629697368911</v>
+        <v>-0.0124464306666243</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0458946807650411</v>
+        <v>0.0408787631925795</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0717638505009144</v>
+        <v>0.0663218410364673</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0337673896736726</v>
+        <v>0.0308523540196601</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00144564888330313</v>
+        <v>-0.00148938867985068</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00742102467467331</v>
+        <v>0.00572623517633694</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000711760442154618</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,49 +1477,47 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.00147241409863005</v>
+        <v>0.000413190618205813</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.15859857635228</v>
+        <v>0.146915333393305</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0287136222901725</v>
+        <v>-0.0291292663993191</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00294025014917697</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.0025540636854883</v>
-      </c>
+        <v>-0.00323237221728468</v>
+      </c>
+      <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0127119143392302</v>
+        <v>0.0109320096231916</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0270558964647481</v>
+        <v>0.0241366182446171</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0898043068684491</v>
+        <v>0.0833595936521522</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0178708220381479</v>
+        <v>0.0158247395492878</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00375982100149271</v>
+        <v>0.00267396841929944</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.041177325421876</v>
+        <v>0.0379342703509041</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00949581801087121</v>
+        <v>0.0076634436128279</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00377989472453959</v>
+        <v>0.00286133240705008</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1528,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0202704197417628</v>
+        <v>-0.0207011087907609</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0140057938635224</v>
+        <v>-0.0143903209565396</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0221210286961336</v>
+        <v>0.019272028319799</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00636597660008377</v>
+        <v>-0.00675347000184205</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00514467099787406</v>
+        <v>0.00424757207512773</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1552,80 +1550,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0884286514521035</v>
+        <v>0.081863384000915</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00346519424851789</v>
+        <v>-0.00378106091772179</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.039134155298824</v>
+        <v>-0.0396085408128965</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0801965365789574</v>
+        <v>0.0742637561137584</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0118327946035054</v>
+        <v>-0.0122745901248543</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0107353609569729</v>
+        <v>0.00924639120906593</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00577519123249832</v>
+        <v>-0.00621831995397111</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00789565800069941</v>
+        <v>-0.00832003169097946</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0184941757990363</v>
+        <v>0.0167089636969823</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0230096969266892</v>
+        <v>0.0207124303128232</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0502808939106204</v>
+        <v>0.0461675966795285</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0722380314081291</v>
+        <v>0.0667188719038916</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000761569706516392</v>
+        <v>-0.000796225475666029</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0118166836164937</v>
+        <v>0.01017032880033</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0192212400573288</v>
+        <v>0.0164138767918856</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0712116341589875</v>
+        <v>0.0653512343568594</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00327316139415954</v>
+        <v>-0.00351046729830037</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.000663103067754655</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00868250363044917</v>
+        <v>0.00694110116913078</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00714709866732569</v>
+        <v>-0.00740930744346611</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,71 +1632,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0155497606532411</v>
+        <v>-0.0159058678955022</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00663103175687146</v>
+        <v>-0.00713489501709371</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00364905719925002</v>
+        <v>0.00146149036341768</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0168364325332559</v>
+        <v>-0.0173063632152238</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0390549885584722</v>
+        <v>0.0356603699790905</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00566620892552796</v>
+        <v>0.00325803722330961</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0345386424691938</v>
+        <v>0.031632817661781</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0157942328291821</v>
+        <v>-0.0162297008779972</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0195261401294265</v>
+        <v>0.0180334138784742</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0977906055054964</v>
+        <v>0.089410008033753</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00713768343336652</v>
+        <v>0.0062432248954705</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0110928514608818</v>
+        <v>0.00797285376954848</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00690876303713805</v>
+        <v>-0.00737689918695424</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.01300011330884</v>
+        <v>-0.0131922420434728</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00302029506596031</v>
+        <v>-0.00329825304455296</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00011619955400349</v>
+        <v>0</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0822787369416333</v>
+        <v>0.0762039991412263</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00319680585814102</v>
+        <v>0.0021782263813209</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1707,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0428943906009295</v>
+        <v>0.0394353445420146</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00354214512755355</v>
+        <v>-0.00396953466696668</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0235528603332185</v>
+        <v>0.0216319746086165</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1722,139 +1720,135 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0670910570432915</v>
+        <v>0.0607677808656162</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0224918977554034</v>
+        <v>0.0193655612998362</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.122295405697646</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>-0.00525349614319629</v>
-      </c>
+        <v>0.113616711894446</v>
+      </c>
+      <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>0.000572984613571161</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.122692774502021</v>
+        <v>0.1129011147142</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0149891728170447</v>
+        <v>0.0131941732268614</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.015582925778958</v>
+        <v>0.0134692970914142</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.013762438831787</v>
+        <v>-0.0141319645611682</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00967869319669502</v>
+        <v>-0.0100042613513262</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0586082923537134</v>
+        <v>0.054141174297298</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.012377084040515</v>
+        <v>-0.0128388638397801</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0231727071260422</v>
+        <v>0.0208059391452624</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000694047748411372</v>
+        <v>-0.000802940021502653</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.014712059654814</v>
+        <v>0.0130653002408472</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0287853195950292</v>
+        <v>0.0259347143227404</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0151775344632365</v>
+        <v>-0.0155517776456952</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00411754848871261</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.001562058023899</v>
+        <v>-0.00168493499111396</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00820056130505014</v>
+        <v>0.00690309561115699</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00224788508138831</v>
+        <v>-0.00246248636930816</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0647523993232613</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>-0.0324825109268032</v>
-      </c>
+        <v>0.0601414853320166</v>
+      </c>
+      <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0235339749681749</v>
+        <v>0.0212783563292222</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0275772532588398</v>
+        <v>0.0245478394088726</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0583634144449512</v>
+        <v>0.0537123982717972</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.088608457815277</v>
+        <v>0.081870902017009</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0126246275618845</v>
+        <v>0.0106721298566644</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0686106183855767</v>
+        <v>0.0637990846399723</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0575927411877476</v>
+        <v>0.0531169462501482</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0118127443755943</v>
+        <v>-0.0122741343525067</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00842577296404154</v>
+        <v>-0.00879519664513139</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00364731597517678</v>
+        <v>-0.00402099362335433</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00932760726081605</v>
+        <v>0.0079794946078441</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0830144020838185</v>
+        <v>0.0771351508705039</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0623994027286071</v>
+        <v>0.0563194117625924</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0308159471536973</v>
+        <v>0.0282550314505932</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0145564037824896</v>
+        <v>0.0133157919379066</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1862,13 +1856,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.0100445514918542</v>
+        <v>-0.010394637282127</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0403212284745003</v>
+        <v>0.0370442126792002</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0580103678261452</v>
+        <v>0.0536593692327684</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1882,25 +1876,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00277249030361988</v>
+        <v>0.00108362810937718</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0450346509040855</v>
+        <v>0.0410907504987343</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0164954024438015</v>
+        <v>0.0144895550642628</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0231983616343159</v>
+        <v>0.0187416787438705</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0251669198576763</v>
+        <v>0.0230249698193009</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0204100127775404</v>
+        <v>0.0166987597843326</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0602539379246936</v>
+        <v>0.0649634551940703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00919476233109707</v>
+        <v>0.0112304410321583</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.000466995614372459</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00122745922314158</v>
+        <v>0.00241375507230544</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00997065256583056</v>
+        <v>-0.00964597171390876</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.134115398300378</v>
+        <v>0.143262434611246</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0124464306666243</v>
+        <v>-0.0121008743052948</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0408787631925795</v>
+        <v>0.0453988644354223</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0663218410364673</v>
+        <v>0.0712259155928078</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0308523540196601</v>
+        <v>0.0334792425385173</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00148938867985068</v>
+        <v>-0.00144997250008295</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00572623517633694</v>
+        <v>0.00725349713930173</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.000540308757940453</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,47 +1477,47 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000413190618205813</v>
+        <v>0.00136771136164863</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.146915333393305</v>
+        <v>0.157443704375562</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0291292663993191</v>
+        <v>-0.0287547081201623</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00323237221728468</v>
+        <v>-0.00296912600080679</v>
       </c>
       <c r="AE2"/>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0109320096231916</v>
+        <v>0.0125359732854492</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0241366182446171</v>
+        <v>0.0267673299579562</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0833595936521522</v>
+        <v>0.0891672561182747</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0158247395492878</v>
+        <v>0.0176685696894862</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00267396841929944</v>
+        <v>0.00365248601561377</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0379342703509041</v>
+        <v>0.0408567540331297</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0076634436128279</v>
+        <v>0.00931469040352912</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00286133240705008</v>
+        <v>0.00368909614378057</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0207011087907609</v>
+        <v>-0.0203129927426936</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0143903209565396</v>
+        <v>-0.0140438038206528</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.019272028319799</v>
+        <v>0.021839409054409</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00675347000184205</v>
+        <v>-0.00640427977262115</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00424757207512773</v>
+        <v>0.00505599404320817</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1550,80 +1550,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.081863384000915</v>
+        <v>0.0877796840869927</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00378106091772179</v>
+        <v>-0.0034964172202496</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0396085408128965</v>
+        <v>-0.03918104763328</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0742637561137584</v>
+        <v>0.0796100896543033</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0122745901248543</v>
+        <v>-0.0118764654634573</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00924639120906593</v>
+        <v>0.0105881784116748</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00621831995397111</v>
+        <v>-0.00581899387738937</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00832003169097946</v>
+        <v>-0.00793760673738851</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0167089636969823</v>
+        <v>0.018317710117684</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0207124303128232</v>
+        <v>0.022782615383943</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0461675966795285</v>
+        <v>0.0498743003200583</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0667188719038916</v>
+        <v>0.0716924703281394</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000796225475666029</v>
+        <v>-0.000764995380086912</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01017032880033</v>
+        <v>0.0116539437806794</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0164138767918856</v>
+        <v>0.0189437361848927</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0653512343568594</v>
+        <v>0.0706323419601</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00351046729830037</v>
+        <v>-0.00329661874581818</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.000572001372801464</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00694110116913078</v>
+        <v>0.00851036846987551</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00740930744346611</v>
+        <v>-0.00717301763252032</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1632,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0159058678955022</v>
+        <v>-0.0155849613484794</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00713489501709371</v>
+        <v>-0.00668083792467707</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00146149036341768</v>
+        <v>0.00343281932379272</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0173063632152238</v>
+        <v>-0.0168828845138841</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0356603699790905</v>
+        <v>0.0387194353321343</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00325803722330961</v>
+        <v>0.00542816457227922</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.031632817661781</v>
+        <v>0.0342514058131458</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0162297008779972</v>
+        <v>-0.0158372782274588</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0180334138784742</v>
+        <v>0.0193785862591364</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.089410008033753</v>
+        <v>0.0969621953455558</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0062432248954705</v>
+        <v>0.00704926747699384</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00797285376954848</v>
+        <v>0.0107844441193759</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00737689918695424</v>
+        <v>-0.00695503763081121</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0131922420434728</v>
+        <v>-0.0130191049614427</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00329825304455296</v>
+        <v>-0.00304777081745405</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0762039991412263</v>
+        <v>0.0816782577359681</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0021782263813209</v>
+        <v>0.00309612072320287</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0394353445420146</v>
+        <v>0.0425524688097244</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00396953466696668</v>
+        <v>-0.00358439197664706</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0216319746086165</v>
+        <v>0.0233629835069289</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,135 +1720,137 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0607677808656162</v>
+        <v>0.0664660101719487</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0193655612998362</v>
+        <v>0.0221828638360537</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.113616711894446</v>
+        <v>0.121437529138626</v>
       </c>
       <c r="DK2"/>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>0.000484434739646236</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.1129011147142</v>
+        <v>0.121724882835793</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0131941732268614</v>
+        <v>0.0148117396563887</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0134692970914142</v>
+        <v>0.0153739965844696</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0141319645611682</v>
+        <v>-0.0137989659254234</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0100042613513262</v>
+        <v>-0.00971087514648546</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.054141174297298</v>
+        <v>0.0581667240769806</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0128388638397801</v>
+        <v>-0.0124227303179619</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0208059391452624</v>
+        <v>0.0229387554718659</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000802940021502653</v>
+        <v>-0.000704811594983408</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0130653002408472</v>
+        <v>0.0145492798250814</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0259347143227404</v>
+        <v>0.0285035413116185</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0155517776456952</v>
+        <v>-0.015214527870411</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.00352196627553315</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00168493499111396</v>
+        <v>-0.00157420423762741</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00690309561115699</v>
+        <v>0.00807230866356253</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00246248636930816</v>
+        <v>-0.00226909811397322</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0601414853320166</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.0642966170225556</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-0.0325161236592698</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0212783563292222</v>
+        <v>0.0233110102686102</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0245478394088726</v>
+        <v>0.0272778000014272</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0537123982717972</v>
+        <v>0.0579036681005074</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.081870902017009</v>
+        <v>0.0879424599917005</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0106721298566644</v>
+        <v>0.0124316259361987</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0637990846399723</v>
+        <v>0.0681350051070253</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0531169462501482</v>
+        <v>0.0571503152136306</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0122741343525067</v>
+        <v>-0.0118583521196552</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00879519664513139</v>
+        <v>-0.00846228997034918</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00402099362335433</v>
+        <v>-0.00368425348009056</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0079794946078441</v>
+        <v>0.00919434823934033</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0771351508705039</v>
+        <v>0.0824332464497036</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0563194117625924</v>
+        <v>0.0617984042549808</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0282550314505932</v>
+        <v>0.0305628042728519</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0133157919379066</v>
+        <v>0.0144337710632759</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1856,13 +1858,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.010394637282127</v>
+        <v>-0.0100791569751136</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0370442126792002</v>
+        <v>0.0399973001163772</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0536593692327684</v>
+        <v>0.0575802777934485</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1876,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00108362810937718</v>
+        <v>0.0026055486738414</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0410907504987343</v>
+        <v>0.0446448019492106</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0144895550642628</v>
+        <v>0.0162971272785639</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0187416787438705</v>
+        <v>0.0227578248589217</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0230249698193009</v>
+        <v>0.0249551911378734</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0166987597843326</v>
+        <v>0.020043160689005</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0602539379246936</v>
+        <v>0.0654800488368511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00919476233109707</v>
+        <v>0.0114537375221299</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.000596117938913311</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00122745922314158</v>
+        <v>0.00254388155004877</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.00997065256583056</v>
+        <v>-0.0096103570098018</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.134115398300378</v>
+        <v>0.144265786024608</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0124464306666243</v>
+        <v>-0.0120629697368911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0408787631925795</v>
+        <v>0.0458946807650411</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0663218410364673</v>
+        <v>0.0717638505009144</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0308523540196601</v>
+        <v>0.0337673896736726</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00148938867985068</v>
+        <v>-0.00144564888330313</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00572623517633694</v>
+        <v>0.00742102467467331</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.000711760442154618</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,47 +1477,49 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000413190618205813</v>
+        <v>0.00147241409863005</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.146915333393305</v>
+        <v>0.15859857635228</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0291292663993191</v>
+        <v>-0.0287136222901725</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00323237221728468</v>
-      </c>
-      <c r="AE2"/>
+        <v>-0.00294025014917697</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.0025540636854883</v>
+      </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0109320096231916</v>
+        <v>0.0127119143392302</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0241366182446171</v>
+        <v>0.0270558964647481</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0833595936521522</v>
+        <v>0.0898043068684491</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0158247395492878</v>
+        <v>0.0178708220381479</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00267396841929944</v>
+        <v>0.00375982100149271</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0379342703509041</v>
+        <v>0.041177325421876</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0076634436128279</v>
+        <v>0.00949581801087121</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00286133240705008</v>
+        <v>0.00377989472453959</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1526,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0207011087907609</v>
+        <v>-0.0202704197417628</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0143903209565396</v>
+        <v>-0.0140057938635224</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.019272028319799</v>
+        <v>0.0221210286961336</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00675347000184205</v>
+        <v>-0.00636597660008377</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00424757207512773</v>
+        <v>0.00514467099787406</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1550,80 +1552,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.081863384000915</v>
+        <v>0.0884286514521035</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00378106091772179</v>
+        <v>-0.00346519424851789</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0396085408128965</v>
+        <v>-0.039134155298824</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0742637561137584</v>
+        <v>0.0801965365789574</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0122745901248543</v>
+        <v>-0.0118327946035054</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00924639120906593</v>
+        <v>0.0107353609569729</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00621831995397111</v>
+        <v>-0.00577519123249832</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00832003169097946</v>
+        <v>-0.00789565800069941</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0167089636969823</v>
+        <v>0.0184941757990363</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0207124303128232</v>
+        <v>0.0230096969266892</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0461675966795285</v>
+        <v>0.0502808939106204</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0667188719038916</v>
+        <v>0.0722380314081291</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000796225475666029</v>
+        <v>-0.000761569706516392</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01017032880033</v>
+        <v>0.0118166836164937</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0164138767918856</v>
+        <v>0.0192212400573288</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0653512343568594</v>
+        <v>0.0712116341589875</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00351046729830037</v>
+        <v>-0.00327316139415954</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.000663103067754655</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00694110116913078</v>
+        <v>0.00868250363044917</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00740930744346611</v>
+        <v>-0.00714709866732569</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1632,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0159058678955022</v>
+        <v>-0.0155497606532411</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00713489501709371</v>
+        <v>-0.00663103175687146</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00146149036341768</v>
+        <v>0.00364905719925002</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0173063632152238</v>
+        <v>-0.0168364325332559</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0356603699790905</v>
+        <v>0.0390549885584722</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00325803722330961</v>
+        <v>0.00566620892552796</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.031632817661781</v>
+        <v>0.0345386424691938</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0162297008779972</v>
+        <v>-0.0157942328291821</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0180334138784742</v>
+        <v>0.0195261401294265</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.089410008033753</v>
+        <v>0.0977906055054964</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0062432248954705</v>
+        <v>0.00713768343336652</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00797285376954848</v>
+        <v>0.0110928514608818</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00737689918695424</v>
+        <v>-0.00690876303713805</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0131922420434728</v>
+        <v>-0.01300011330884</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00329825304455296</v>
+        <v>-0.00302029506596031</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.00011619955400349</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0762039991412263</v>
+        <v>0.0822787369416333</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0021782263813209</v>
+        <v>0.00319680585814102</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1705,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0394353445420146</v>
+        <v>0.0428943906009295</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00396953466696668</v>
+        <v>-0.00354214512755355</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0216319746086165</v>
+        <v>0.0235528603332185</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1720,135 +1722,139 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0607677808656162</v>
+        <v>0.0670910570432915</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0193655612998362</v>
+        <v>0.0224918977554034</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.113616711894446</v>
-      </c>
-      <c r="DK2"/>
+        <v>0.122295405697646</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.00525349614319629</v>
+      </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>0.000572984613571161</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.1129011147142</v>
+        <v>0.122692774502021</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0131941732268614</v>
+        <v>0.0149891728170447</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0134692970914142</v>
+        <v>0.015582925778958</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0141319645611682</v>
+        <v>-0.013762438831787</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0100042613513262</v>
+        <v>-0.00967869319669502</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.054141174297298</v>
+        <v>0.0586082923537134</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0128388638397801</v>
+        <v>-0.012377084040515</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0208059391452624</v>
+        <v>0.0231727071260422</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000802940021502653</v>
+        <v>-0.000694047748411372</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0130653002408472</v>
+        <v>0.014712059654814</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0259347143227404</v>
+        <v>0.0287853195950292</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0155517776456952</v>
+        <v>-0.0151775344632365</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.00411754848871261</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00168493499111396</v>
+        <v>-0.001562058023899</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00690309561115699</v>
+        <v>0.00820056130505014</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00246248636930816</v>
+        <v>-0.00224788508138831</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0601414853320166</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.0647523993232613</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-0.0324825109268032</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0212783563292222</v>
+        <v>0.0235339749681749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0245478394088726</v>
+        <v>0.0275772532588398</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0537123982717972</v>
+        <v>0.0583634144449512</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.081870902017009</v>
+        <v>0.088608457815277</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0106721298566644</v>
+        <v>0.0126246275618845</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0637990846399723</v>
+        <v>0.0686106183855767</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0531169462501482</v>
+        <v>0.0575927411877476</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0122741343525067</v>
+        <v>-0.0118127443755943</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00879519664513139</v>
+        <v>-0.00842577296404154</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00402099362335433</v>
+        <v>-0.00364731597517678</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0079794946078441</v>
+        <v>0.00932760726081605</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0771351508705039</v>
+        <v>0.0830144020838185</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0563194117625924</v>
+        <v>0.0623994027286071</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0282550314505932</v>
+        <v>0.0308159471536973</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0133157919379066</v>
+        <v>0.0145564037824896</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1856,13 +1862,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.010394637282127</v>
+        <v>-0.0100445514918542</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0370442126792002</v>
+        <v>0.0403212284745003</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0536593692327684</v>
+        <v>0.0580103678261452</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1876,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00108362810937718</v>
+        <v>0.00277249030361988</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0410907504987343</v>
+        <v>0.0450346509040855</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0144895550642628</v>
+        <v>0.0164954024438015</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0187416787438705</v>
+        <v>0.0231983616343159</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0230249698193009</v>
+        <v>0.0251669198576763</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0166987597843326</v>
+        <v>0.0204100127775404</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0654800488368511</v>
+        <v>0.0608432878477711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0114537375221299</v>
+        <v>0.00944950756659759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000596117938913311</v>
+        <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00254388155004877</v>
+        <v>0.00137591252046742</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.0096103570098018</v>
+        <v>-0.0099300219397685</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.144265786024608</v>
+        <v>0.135260060234469</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120629697368911</v>
+        <v>-0.0124031876751838</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0458946807650411</v>
+        <v>0.0414444095566123</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0717638505009144</v>
+        <v>0.0669355378969373</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0337673896736726</v>
+        <v>0.0311810833687568</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00144564888330313</v>
+        <v>-0.0014844561313143</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00742102467467331</v>
+        <v>0.00591735704061917</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000711760442154618</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,49 +1477,49 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.00147241409863005</v>
+        <v>0.000532639532934698</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.15859857635228</v>
+        <v>0.148232855821532</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0287136222901725</v>
+        <v>-0.0290823941021424</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00294025014917697</v>
+        <v>-0.00319942953365965</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0025540636854883</v>
+        <v>-0.00268855472465453</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0127119143392302</v>
+        <v>0.0111327299533022</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0270558964647481</v>
+        <v>0.0244658260290278</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0898043068684491</v>
+        <v>0.0840863656824675</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0178708220381479</v>
+        <v>0.0160554768179162</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00375982100149271</v>
+        <v>0.00279642030494551</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.041177325421876</v>
+        <v>0.0382999905372414</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00949581801087121</v>
+        <v>0.00787008096298898</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00377989472453959</v>
+        <v>0.00296491892487447</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0202704197417628</v>
+        <v>-0.0206525398716997</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0140057938635224</v>
+        <v>-0.0143469577335809</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0221210286961336</v>
+        <v>0.0195933108529988</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00636597660008377</v>
+        <v>-0.00670977226745451</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00514467099787406</v>
+        <v>0.00434873816019562</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1552,80 +1552,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0884286514521035</v>
+        <v>0.0826037509644903</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00346519424851789</v>
+        <v>-0.00374544054909068</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.039134155298824</v>
+        <v>-0.0395550442318008</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0801965365789574</v>
+        <v>0.0749327973510324</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0118327946035054</v>
+        <v>-0.0122247687259404</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0107353609569729</v>
+        <v>0.00941430272513277</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00577519123249832</v>
+        <v>-0.00616834820972322</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00789565800069941</v>
+        <v>-0.00827217495660728</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0184941757990363</v>
+        <v>0.016910282542431</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0230096969266892</v>
+        <v>0.0209714936823015</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0502808939106204</v>
+        <v>0.0466314543066409</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0722380314081291</v>
+        <v>0.0673412689949499</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000761569706516392</v>
+        <v>-0.000792317335324992</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0118166836164937</v>
+        <v>0.0103559886725703</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0192212400573288</v>
+        <v>0.0167304638969718</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0712116341589875</v>
+        <v>0.0660121132074313</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00327316139415954</v>
+        <v>-0.00348370624812328</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.000663103067754655</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00868250363044917</v>
+        <v>0.00713747958969541</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00714709866732569</v>
+        <v>-0.00737973808976389</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0155497606532411</v>
+        <v>-0.0158657095867021</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00663103175687146</v>
+        <v>-0.00707807422269327</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00364905719925002</v>
+        <v>0.00170818285963426</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0168364325332559</v>
+        <v>-0.017253369006734</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0390549885584722</v>
+        <v>0.0360431820227428</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00566620892552796</v>
+        <v>0.00352960738921603</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0345386424691938</v>
+        <v>0.0319605083012471</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0157942328291821</v>
+        <v>-0.0161805930298506</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0195261401294265</v>
+        <v>0.0182017490163926</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0977906055054964</v>
+        <v>0.0903550902484887</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00713768343336652</v>
+        <v>0.00634409322363376</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0110928514608818</v>
+        <v>0.00832469674232429</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00690876303713805</v>
+        <v>-0.0073241073483344</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.01300011330884</v>
+        <v>-0.0131705756347646</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00302029506596031</v>
+        <v>-0.00326690764908473</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00011619955400349</v>
+        <v>0</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0822787369416333</v>
+        <v>0.0768890489450983</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00319680585814102</v>
+        <v>0.00229309186091029</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0428943906009295</v>
+        <v>0.0398254220897377</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00354214512755355</v>
+        <v>-0.00392133783448245</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0235528603332185</v>
+        <v>0.0218485934047086</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1722,139 +1722,137 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0670910570432915</v>
+        <v>0.0614808584086592</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0224918977554034</v>
+        <v>0.0197181190967473</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.122295405697646</v>
+        <v>0.114595410512079</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.00525349614319629</v>
+        <v>-0.00545965477027544</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.000572984613571161</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.122692774502021</v>
+        <v>0.114005322803112</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0149891728170447</v>
+        <v>0.01339659580996</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.015582925778958</v>
+        <v>0.0137076515629048</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.013762438831787</v>
+        <v>-0.0140902930459925</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00967869319669502</v>
+        <v>-0.0099675469435929</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0586082923537134</v>
+        <v>0.0546449323933619</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.012377084040515</v>
+        <v>-0.0127867888085092</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0231727071260422</v>
+        <v>0.0210728402024463</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000694047748411372</v>
+        <v>-0.000790660210788954</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.014712059654814</v>
+        <v>0.0132510057396898</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0287853195950292</v>
+        <v>0.0262561778404854</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0151775344632365</v>
+        <v>-0.0155095741420763</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00411754848871261</v>
+        <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.001562058023899</v>
+        <v>-0.00167107812270964</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00820056130505014</v>
+        <v>0.00704941116391591</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00224788508138831</v>
+        <v>-0.00243828572476506</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0647523993232613</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>-0.0324825109268032</v>
-      </c>
+        <v>0.0606614593340486</v>
+      </c>
+      <c r="EH2"/>
       <c r="EI2" t="n">
-        <v>0.0235339749681749</v>
+        <v>0.0215327230454483</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0275772532588398</v>
+        <v>0.0248894672176692</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0583634144449512</v>
+        <v>0.0542368946075914</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.088608457815277</v>
+        <v>0.0826306979834901</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0126246275618845</v>
+        <v>0.010892313544252</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0686106183855767</v>
+        <v>0.0643416825852743</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0575927411877476</v>
+        <v>0.0536216828404201</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0118127443755943</v>
+        <v>-0.0122221032816066</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00842577296404154</v>
+        <v>-0.00875353663796873</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00364731597517678</v>
+        <v>-0.00397885389518726</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00932760726081605</v>
+        <v>0.00813152163170245</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0830144020838185</v>
+        <v>0.0777981555997492</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0623994027286071</v>
+        <v>0.0570050539673526</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0308159471536973</v>
+        <v>0.0285438265982663</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0145564037824896</v>
+        <v>0.0134556960668973</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1862,13 +1860,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.0100445514918542</v>
+        <v>-0.0103551580140755</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0403212284745003</v>
+        <v>0.0374137626254884</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0580103678261452</v>
+        <v>0.0541500325059783</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1882,25 +1880,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00277249030361988</v>
+        <v>0.00127408154999401</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0450346509040855</v>
+        <v>0.0415355052005743</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0164954024438015</v>
+        <v>0.0147157550088692</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0231983616343159</v>
+        <v>0.0192442600634814</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0251669198576763</v>
+        <v>0.0232665180970874</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0204100127775404</v>
+        <v>0.017117278775382</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
   </si>
 </sst>
 </file>
@@ -1415,45 +1415,45 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0608432878477711</v>
+        <v>0.0654800488368511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00944950756659759</v>
+        <v>0.0114537375221299</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.000596117938913311</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00137591252046742</v>
+        <v>0.00254388155004877</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-0.0099300219397685</v>
+        <v>-0.0096103570098018</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.135260060234469</v>
+        <v>0.144265786024608</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0124031876751838</v>
+        <v>-0.0120629697368911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0414444095566123</v>
+        <v>0.0458946807650411</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0669355378969373</v>
+        <v>0.0717638505009144</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0311810833687568</v>
+        <v>0.0337673896736726</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0014844561313143</v>
+        <v>-0.00144564888330313</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00591735704061917</v>
+        <v>0.00742102467467331</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.000711760442154618</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -1477,49 +1477,49 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.000532639532934698</v>
+        <v>0.00147241409863005</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.148232855821532</v>
+        <v>0.15859857635228</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0290823941021424</v>
+        <v>-0.0287136222901725</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00319942953365965</v>
+        <v>-0.00294025014917697</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.00268855472465453</v>
+        <v>-0.0025540636854883</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0111327299533022</v>
+        <v>0.0127119143392302</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0244658260290278</v>
+        <v>0.0270558964647481</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0840863656824675</v>
+        <v>0.0898043068684491</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0160554768179162</v>
+        <v>0.0178708220381479</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00279642030494551</v>
+        <v>0.00375982100149271</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0382999905372414</v>
+        <v>0.041177325421876</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00787008096298898</v>
+        <v>0.00949581801087121</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00296491892487447</v>
+        <v>0.00377989472453959</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0206525398716997</v>
+        <v>-0.0202704197417628</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0143469577335809</v>
+        <v>-0.0140057938635224</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0195933108529988</v>
+        <v>0.0221210286961336</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00670977226745451</v>
+        <v>-0.00636597660008377</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00434873816019562</v>
+        <v>0.00514467099787406</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1552,80 +1552,80 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0826037509644903</v>
+        <v>0.0884286514521035</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00374544054909068</v>
+        <v>-0.00346519424851789</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0395550442318008</v>
+        <v>-0.039134155298824</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0749327973510324</v>
+        <v>0.0801965365789574</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0122247687259404</v>
+        <v>-0.0118327946035054</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00941430272513277</v>
+        <v>0.0107353609569729</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00616834820972322</v>
+        <v>-0.00577519123249832</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00827217495660728</v>
+        <v>-0.00789565800069941</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.016910282542431</v>
+        <v>0.0184941757990363</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0209714936823015</v>
+        <v>0.0230096969266892</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0466314543066409</v>
+        <v>0.0502808939106204</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0673412689949499</v>
+        <v>0.0722380314081291</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000792317335324992</v>
+        <v>-0.000761569706516392</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0103559886725703</v>
+        <v>0.0118166836164937</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0167304638969718</v>
+        <v>0.0192212400573288</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0660121132074313</v>
+        <v>0.0712116341589875</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00348370624812328</v>
+        <v>-0.00327316139415954</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.000663103067754655</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00713747958969541</v>
+        <v>0.00868250363044917</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00737973808976389</v>
+        <v>-0.00714709866732569</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1634,71 +1634,71 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0158657095867021</v>
+        <v>-0.0155497606532411</v>
       </c>
       <c r="CB2"/>
       <c r="CC2" t="n">
-        <v>-0.00707807422269327</v>
+        <v>-0.00663103175687146</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00170818285963426</v>
+        <v>0.00364905719925002</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.017253369006734</v>
+        <v>-0.0168364325332559</v>
       </c>
       <c r="CG2"/>
       <c r="CH2" t="n">
-        <v>0.0360431820227428</v>
+        <v>0.0390549885584722</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00352960738921603</v>
+        <v>0.00566620892552796</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0319605083012471</v>
+        <v>0.0345386424691938</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0161805930298506</v>
+        <v>-0.0157942328291821</v>
       </c>
       <c r="CL2"/>
       <c r="CM2" t="n">
-        <v>0.0182017490163926</v>
+        <v>0.0195261401294265</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0903550902484887</v>
+        <v>0.0977906055054964</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00634409322363376</v>
+        <v>0.00713768343336652</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00832469674232429</v>
+        <v>0.0110928514608818</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0073241073483344</v>
+        <v>-0.00690876303713805</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.0131705756347646</v>
+        <v>-0.01300011330884</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00326690764908473</v>
+        <v>-0.00302029506596031</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>0.00011619955400349</v>
       </c>
       <c r="CW2"/>
       <c r="CX2" t="n">
-        <v>0.0768890489450983</v>
+        <v>0.0822787369416333</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00229309186091029</v>
+        <v>0.00319680585814102</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0398254220897377</v>
+        <v>0.0428943906009295</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00392133783448245</v>
+        <v>-0.00354214512755355</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0218485934047086</v>
+        <v>0.0235528603332185</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
@@ -1722,137 +1722,139 @@
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0614808584086592</v>
+        <v>0.0670910570432915</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0197181190967473</v>
+        <v>0.0224918977554034</v>
       </c>
       <c r="DI2"/>
       <c r="DJ2" t="n">
-        <v>0.114595410512079</v>
+        <v>0.122295405697646</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.00545965477027544</v>
+        <v>-0.00525349614319629</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>0.000572984613571161</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.114005322803112</v>
+        <v>0.122692774502021</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01339659580996</v>
+        <v>0.0149891728170447</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0137076515629048</v>
+        <v>0.015582925778958</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0140902930459925</v>
+        <v>-0.013762438831787</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0099675469435929</v>
+        <v>-0.00967869319669502</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0546449323933619</v>
+        <v>0.0586082923537134</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0127867888085092</v>
+        <v>-0.012377084040515</v>
       </c>
       <c r="DT2"/>
       <c r="DU2" t="n">
-        <v>0.0210728402024463</v>
+        <v>0.0231727071260422</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000790660210788954</v>
+        <v>-0.000694047748411372</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0132510057396898</v>
+        <v>0.014712059654814</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0262561778404854</v>
+        <v>0.0287853195950292</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0155095741420763</v>
+        <v>-0.0151775344632365</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.00411754848871261</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.00167107812270964</v>
+        <v>-0.001562058023899</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00704941116391591</v>
+        <v>0.00820056130505014</v>
       </c>
       <c r="ED2"/>
       <c r="EE2" t="n">
-        <v>-0.00243828572476506</v>
+        <v>-0.00224788508138831</v>
       </c>
       <c r="EF2"/>
       <c r="EG2" t="n">
-        <v>0.0606614593340486</v>
-      </c>
-      <c r="EH2"/>
+        <v>0.0647523993232613</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-0.0324825109268032</v>
+      </c>
       <c r="EI2" t="n">
-        <v>0.0215327230454483</v>
+        <v>0.0235339749681749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0248894672176692</v>
+        <v>0.0275772532588398</v>
       </c>
       <c r="EK2"/>
       <c r="EL2" t="n">
-        <v>0.0542368946075914</v>
+        <v>0.0583634144449512</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0826306979834901</v>
+        <v>0.088608457815277</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.010892313544252</v>
+        <v>0.0126246275618845</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0643416825852743</v>
+        <v>0.0686106183855767</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0536216828404201</v>
+        <v>0.0575927411877476</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0122221032816066</v>
+        <v>-0.0118127443755943</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00875353663796873</v>
+        <v>-0.00842577296404154</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00397885389518726</v>
+        <v>-0.00364731597517678</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00813152163170245</v>
+        <v>0.00932760726081605</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0777981555997492</v>
+        <v>0.0830144020838185</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0570050539673526</v>
+        <v>0.0623994027286071</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0285438265982663</v>
+        <v>0.0308159471536973</v>
       </c>
       <c r="FB2"/>
       <c r="FC2" t="n">
-        <v>0.0134556960668973</v>
+        <v>0.0145564037824896</v>
       </c>
       <c r="FD2"/>
       <c r="FE2" t="n">
@@ -1860,13 +1862,13 @@
       </c>
       <c r="FF2"/>
       <c r="FG2" t="n">
-        <v>-0.0103551580140755</v>
+        <v>-0.0100445514918542</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0374137626254884</v>
+        <v>0.0403212284745003</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0541500325059783</v>
+        <v>0.0580103678261452</v>
       </c>
       <c r="FJ2"/>
       <c r="FK2" t="n">
@@ -1880,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00127408154999401</v>
+        <v>0.00277249030361988</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0415355052005743</v>
+        <v>0.0450346509040855</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0147157550088692</v>
+        <v>0.0164954024438015</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0192442600634814</v>
+        <v>0.0231983616343159</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0232665180970874</v>
+        <v>0.0251669198576763</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.017117278775382</v>
+        <v>0.0204100127775404</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -545,7 +545,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Shigh_SAU_gain_adj_over_gdp_2030</t>
+    <t xml:space="preserve">budget_gain_over_gdp_both_taxes_pop</t>
   </si>
 </sst>
 </file>
@@ -1415,492 +1415,524 @@
         <v>177</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0654800488368511</v>
+        <v>0.476856873993071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0114537375221299</v>
+        <v>0.107397031561235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000596117938913311</v>
-      </c>
-      <c r="E2"/>
+        <v>0.0327123332353865</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0334231630277939</v>
+      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.024678643551008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00254388155004877</v>
-      </c>
-      <c r="H2"/>
+        <v>0.0354238889054595</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0246949431148153</v>
+      </c>
       <c r="I2" t="n">
-        <v>-0.0096103570098018</v>
+        <v>0.0152445767360406</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0420214111994607</v>
       </c>
       <c r="K2" t="n">
-        <v>0.144265786024608</v>
+        <v>0.802503861274238</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120629697368911</v>
+        <v>0.0148565181786644</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0458946807650411</v>
+        <v>0.132369270903566</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0717638505009144</v>
+        <v>0.207811246319691</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0337673896736726</v>
+        <v>0.0638850152856799</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00144564888330313</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
+        <v>0.0249199157937318</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.025576749670401</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0127191067193463</v>
+      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.037186467070477</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.041594443442989</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00742102467467331</v>
+        <v>0.033605621530454</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000711760442154618</v>
+        <v>0.0629348926575691</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.0358703420909474</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2"/>
+        <v>0.0131250094065487</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0222380464882366</v>
+      </c>
       <c r="Z2" t="n">
-        <v>0.00147241409863005</v>
+        <v>0.0657780460343649</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.0283693555709704</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.15859857635228</v>
+        <v>0.322510916783072</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0287136222901725</v>
+        <v>0.0242738797967521</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.00294025014917697</v>
+        <v>0.0296255006294935</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0025540636854883</v>
+        <v>0.0215972902297294</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.0343423693905308</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0127119143392302</v>
+        <v>0.0758317202601664</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0270558964647481</v>
+        <v>0.111177406264219</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0898043068684491</v>
+        <v>0.270024924638564</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0178708220381479</v>
+        <v>0.10300042968212</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00375982100149271</v>
+        <v>0.040746577493648</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.041177325421876</v>
+        <v>0.118064279404514</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00949581801087121</v>
+        <v>0.0456098508174919</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00377989472453959</v>
+        <v>0.0208502248328664</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>0.134923699176072</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>0.014925002934785</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0202704197417628</v>
+        <v>0.0126303516280692</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0140057938635224</v>
+        <v>0.0154164157852496</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0221210286961336</v>
+        <v>0.0597568963975836</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00636597660008377</v>
+        <v>0.0220462650937407</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.00514467099787406</v>
+        <v>0.0232280472613901</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.0510471548630055</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.0387186476046751</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>0.0573751280969474</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0884286514521035</v>
+        <v>0.288660704100691</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.00346519424851789</v>
+        <v>0.0108819379435483</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.039134155298824</v>
+        <v>0.0227496563925462</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0801965365789574</v>
+        <v>0.167019162920659</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0118327946035054</v>
+        <v>0.00836560363930897</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0107353609569729</v>
+        <v>0.0626916128569344</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00577519123249832</v>
+        <v>0.0233710050495614</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.0416174979942574</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00789565800069941</v>
+        <v>0.0321813441834787</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.0407242126741012</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0184941757990363</v>
+        <v>0.0856757128903284</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0230096969266892</v>
+        <v>0.174686554822661</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0502808939106204</v>
+        <v>0.208837505017312</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0722380314081291</v>
+        <v>0.19737442681269</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.0863633281968772</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.000761569706516392</v>
+        <v>0.0252760616235968</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0118166836164937</v>
+        <v>0.0376407848931566</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>0.0186584190680676</v>
       </c>
       <c r="BQ2"/>
       <c r="BR2" t="n">
-        <v>0.0192212400573288</v>
+        <v>0.0723452000833387</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>0.0170406403709969</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0712116341589875</v>
+        <v>0.111781664525451</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00327316139415954</v>
+        <v>0.0149336727411018</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.000663103067754655</v>
+        <v>0.0489809391767009</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00868250363044917</v>
+        <v>0.10178653028816</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00714709866732569</v>
+        <v>0.0236139570281611</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>0.0692299294762357</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.0581733795093361</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0155497606532411</v>
-      </c>
-      <c r="CB2"/>
+        <v>0.0300666019472384</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.017291518579654</v>
+      </c>
       <c r="CC2" t="n">
-        <v>-0.00663103175687146</v>
+        <v>0.00813497008101037</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00364905719925002</v>
+        <v>0.0426688161419081</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.0559500990666387</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0168364325332559</v>
-      </c>
-      <c r="CG2"/>
+        <v>0.0113634867337095</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0374367731268203</v>
+      </c>
       <c r="CH2" t="n">
-        <v>0.0390549885584722</v>
+        <v>0.0918745083433875</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00566620892552796</v>
+        <v>0.124017718308494</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0345386424691938</v>
+        <v>0.0895524017383139</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0157942328291821</v>
-      </c>
-      <c r="CL2"/>
+        <v>0.0128535627028676</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.023243312055857</v>
+      </c>
       <c r="CM2" t="n">
-        <v>0.0195261401294265</v>
+        <v>0.0965448942151482</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.0652278912461664</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0977906055054964</v>
+        <v>0.274791436825517</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.0523450048113142</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00713768343336652</v>
+        <v>0.0692677054421867</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0110928514608818</v>
+        <v>0.165368721879093</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00690876303713805</v>
+        <v>0.0151821677897138</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.01300011330884</v>
+        <v>0.0942965455407739</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00302029506596031</v>
+        <v>0.02272509445252</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00011619955400349</v>
-      </c>
-      <c r="CW2"/>
+        <v>0.0652611357175624</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0406205322008383</v>
+      </c>
       <c r="CX2" t="n">
-        <v>0.0822787369416333</v>
+        <v>0.365619258008749</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00319680585814102</v>
+        <v>0.0222220853816657</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>0.0228657405077065</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.0351043518414059</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0428943906009295</v>
+        <v>0.20681867125672</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.00354214512755355</v>
+        <v>0.0244501523882075</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0235528603332185</v>
+        <v>0.176827306536459</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>0.0242205983737763</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.0562425457738618</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0670910570432915</v>
+        <v>0.351499411721486</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0224918977554034</v>
-      </c>
-      <c r="DI2"/>
+        <v>0.116529795439902</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.0400930414298921</v>
+      </c>
       <c r="DJ2" t="n">
-        <v>0.122295405697646</v>
+        <v>0.29934283713796</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.00525349614319629</v>
+        <v>0.0376237371465732</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.000572984613571161</v>
+        <v>0.055460925309362</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.122692774502021</v>
+        <v>0.272947099699755</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0149891728170447</v>
+        <v>0.0988181932916351</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.015582925778958</v>
+        <v>0.089931980383748</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.013762438831787</v>
+        <v>0.0111704093129657</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.00967869319669502</v>
+        <v>0.00526257938364951</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0586082923537134</v>
+        <v>0.144127568903385</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.012377084040515</v>
-      </c>
-      <c r="DT2"/>
+        <v>0.0211803288521644</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.0310436397625985</v>
+      </c>
       <c r="DU2" t="n">
-        <v>0.0231727071260422</v>
+        <v>0.128081707944893</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.000694047748411372</v>
+        <v>0.0232267019967182</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.0391798231196298</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.014712059654814</v>
+        <v>0.0476178852222121</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0287853195950292</v>
+        <v>0.0752771462496949</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0151775344632365</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.00411754848871261</v>
-      </c>
+        <v>0.0144785849562027</v>
+      </c>
+      <c r="EA2"/>
       <c r="EB2" t="n">
-        <v>-0.001562058023899</v>
+        <v>0.0116657657074069</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00820056130505014</v>
-      </c>
-      <c r="ED2"/>
+        <v>0.0353500308390415</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.0310963454961043</v>
+      </c>
       <c r="EE2" t="n">
-        <v>-0.00224788508138831</v>
-      </c>
-      <c r="EF2"/>
+        <v>0.00958918310702964</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.0314707353401105</v>
+      </c>
       <c r="EG2" t="n">
-        <v>0.0647523993232613</v>
+        <v>0.188464628721927</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0324825109268032</v>
+        <v>0.0117979955280415</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0235339749681749</v>
+        <v>0.214433309553778</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0275772532588398</v>
-      </c>
-      <c r="EK2"/>
+        <v>0.114976445009324</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0559687161532934</v>
+      </c>
       <c r="EL2" t="n">
-        <v>0.0583634144449512</v>
+        <v>0.0971891226178407</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.088608457815277</v>
+        <v>7.61424935486216</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0126246275618845</v>
+        <v>0.0536011783632085</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0686106183855767</v>
+        <v>0.290742922328</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.0575927411877476</v>
-      </c>
+        <v>0.0275491263646958</v>
+      </c>
+      <c r="EQ2"/>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>0.0594317194559274</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0118127443755943</v>
+        <v>0.0162148725795203</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00842577296404154</v>
+        <v>0.0136701290396092</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.00364731597517678</v>
+        <v>0.0184242620852437</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00932760726081605</v>
+        <v>0.0568169302650267</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>0.314401321038932</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0830144020838185</v>
+        <v>0.258395376185435</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0623994027286071</v>
+        <v>0.191467066612336</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>0.0478986872620342</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0308159471536973</v>
-      </c>
-      <c r="FB2"/>
+        <v>0.141039094503463</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.0413899728167516</v>
+      </c>
       <c r="FC2" t="n">
-        <v>0.0145564037824896</v>
-      </c>
-      <c r="FD2"/>
+        <v>0.0980818034875118</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.0464745691705364</v>
+      </c>
       <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2"/>
-      <c r="FG2" t="n">
-        <v>-0.0100445514918542</v>
-      </c>
+        <v>0.0667298123626552</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.0198649400938047</v>
+      </c>
+      <c r="FG2"/>
       <c r="FH2" t="n">
-        <v>0.0403212284745003</v>
+        <v>0.146538355958246</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0580103678261452</v>
-      </c>
-      <c r="FJ2"/>
+        <v>0.181108023915719</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.0606433399644432</v>
+      </c>
       <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2"/>
+        <v>0.0162798738803285</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.0259181302285738</v>
+      </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>0.0883036950122291</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>0.0230120253756278</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00277249030361988</v>
+        <v>0.0571672142623785</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0450346509040855</v>
+        <v>0.0607817384751831</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0164954024438015</v>
+        <v>0.046885015828484</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0231983616343159</v>
+        <v>0.265848431494365</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.0588806445311511</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0251669198576763</v>
+        <v>0.142066640691575</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0204100127775404</v>
+        <v>0.0920664746438403</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -218,9 +218,6 @@
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -404,148 +401,148 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">budget_gain_over_gdp_both_taxes_pop</t>
+    <t xml:space="preserve">diff_npv_ede_ffu_nl</t>
   </si>
 </sst>
 </file>
@@ -1406,534 +1403,186 @@
       <c r="FT1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.476856873993071</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.107397031561235</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0327123332353865</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0334231630277939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.024678643551008</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0354238889054595</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0246949431148153</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0152445767360406</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0420214111994607</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.802503861274238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0148565181786644</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.132369270903566</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.207811246319691</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0638850152856799</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0249199157937318</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.025576749670401</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0127191067193463</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.037186467070477</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.041594443442989</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.033605621530454</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0629348926575691</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0358703420909474</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0131250094065487</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.0222380464882366</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.0657780460343649</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0283693555709704</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.322510916783072</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0242738797967521</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.0296255006294935</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0215972902297294</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0343423693905308</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0758317202601664</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.111177406264219</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.270024924638564</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.10300042968212</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.040746577493648</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.118064279404514</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.0456098508174919</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.0208502248328664</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.134923699176072</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.014925002934785</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0126303516280692</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.0154164157852496</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.0597568963975836</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.0220462650937407</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.0232280472613901</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.0510471548630055</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.0387186476046751</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.0573751280969474</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.288660704100691</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.0108819379435483</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.0227496563925462</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.167019162920659</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.00836560363930897</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.0626916128569344</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.0233710050495614</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.0416174979942574</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.0321813441834787</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.0407242126741012</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.0856757128903284</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.174686554822661</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.208837505017312</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.19737442681269</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0863633281968772</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.0252760616235968</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.0376407848931566</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.0186584190680676</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
       <c r="BQ2"/>
-      <c r="BR2" t="n">
-        <v>0.0723452000833387</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.0170406403709969</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.111781664525451</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.0149336727411018</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.0489809391767009</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.10178653028816</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.0236139570281611</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.0692299294762357</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.0581733795093361</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.0300666019472384</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.017291518579654</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.00813497008101037</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.0426688161419081</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.0559500990666387</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.0113634867337095</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.0374367731268203</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.0918745083433875</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.124017718308494</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.0895524017383139</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.0128535627028676</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.023243312055857</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.0965448942151482</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.0652278912461664</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.274791436825517</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.0523450048113142</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.0692677054421867</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.165368721879093</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.0151821677897138</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.0942965455407739</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.02272509445252</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.0652611357175624</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.0406205322008383</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.365619258008749</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.0222220853816657</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.0228657405077065</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.0351043518414059</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.20681867125672</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.0244501523882075</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.176827306536459</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.0242205983737763</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.0562425457738618</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.351499411721486</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.116529795439902</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.0400930414298921</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.29934283713796</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.0376237371465732</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.055460925309362</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.272947099699755</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.0988181932916351</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.089931980383748</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.0111704093129657</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.00526257938364951</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.144127568903385</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.0211803288521644</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.0310436397625985</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.128081707944893</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.0232267019967182</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.0391798231196298</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.0476178852222121</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.0752771462496949</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.0144785849562027</v>
-      </c>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
       <c r="EA2"/>
-      <c r="EB2" t="n">
-        <v>0.0116657657074069</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.0353500308390415</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.0310963454961043</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.00958918310702964</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.0314707353401105</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.188464628721927</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.0117979955280415</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.214433309553778</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.114976445009324</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.0559687161532934</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.0971891226178407</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>7.61424935486216</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.0536011783632085</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.290742922328</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.0275491263646958</v>
-      </c>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
       <c r="EQ2"/>
-      <c r="ER2" t="n">
-        <v>0.0594317194559274</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.0162148725795203</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.0136701290396092</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.0184242620852437</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.0568169302650267</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.314401321038932</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.258395376185435</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.191467066612336</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.0478986872620342</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.141039094503463</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.0413899728167516</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.0980818034875118</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.0464745691705364</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.0667298123626552</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.0198649400938047</v>
-      </c>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
       <c r="FG2"/>
-      <c r="FH2" t="n">
-        <v>0.146538355958246</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.181108023915719</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.0606433399644432</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.0162798738803285</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.0259181302285738</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.0883036950122291</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.0230120253756278</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.0571672142623785</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.0607817384751831</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.046885015828484</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.265848431494365</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.0588806445311511</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.142066640691575</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.0920664746438403</v>
-      </c>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -26,24 +26,15 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
@@ -62,18 +53,12 @@
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t xml:space="preserve">Central African Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t xml:space="preserve">Iceland</t>
   </si>
   <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
@@ -263,30 +236,18 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laos</t>
   </si>
   <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
@@ -323,9 +284,6 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mali</t>
   </si>
   <si>
@@ -335,9 +293,6 @@
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
@@ -377,12 +332,6 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
@@ -407,21 +356,12 @@
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
@@ -431,24 +371,15 @@
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
@@ -476,27 +407,18 @@
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
     <t xml:space="preserve">Timor</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
@@ -509,24 +431,12 @@
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yemen</t>
   </si>
   <si>
@@ -539,10 +449,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff_npv_ede_ffu_nl</t>
+    <t xml:space="preserve">var_npv_ede_ffu_nl</t>
   </si>
 </sst>
 </file>
@@ -1310,279 +1217,443 @@
       <c r="EO1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
+        <v>145</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0656079504467915</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0391166854042482</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0129286246946276</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00136068220315266</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00872715026990734</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00629086318825545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0810785478101901</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0182250352117515</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0351476795119592</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0487678225825015</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0172271049918031</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00253663314960306</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.00136513964738461</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00332613995776176</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0434609087680879</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.00608673463028953</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0445387903860612</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0113952279005103</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.00356645063245842</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.00264501781271731</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.296717582549456</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0170665095967044</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.00170942308016087</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.00072208234962079</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.00896541335303613</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0331962937258419</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0552975235699222</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0285398715513854</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0314083173189506</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.120116279358921</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.041001221500407</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.00510810930960659</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0107539148437896</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00184832886376585</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00125506446455415</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.00558181499722066</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.051927724524224</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.00643193310603629</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0132724380570359</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00235336220110605</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.00339767411864567</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.00088519400453313</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.344639463863832</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.003792354193215</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.00217773426386692</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0309816256657294</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.00767482202819081</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.00506482484017678</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0100349263505839</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.00649899256229869</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.00290360146289292</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0343591107276262</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.02717606626305</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0774829944736659</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0824739773582075</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00388494496677194</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.00198918299507955</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0147610132907379</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.00814799852900494</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.056745558245042</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0030830470220613</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.148557846953803</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0068640414365293</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.00177105304622516</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0146784206641895</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.00284531434310376</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.00249235117837743</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.00121911545742015</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.00503832408425176</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.00480773960680159</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0633543498092817</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.000405711072794634</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.00786297248891388</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.0597530131975494</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.00354824934859344</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0123816661873386</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.0000495229558548083</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.0697529256284615</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.00112306824749209</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.00358263722263885</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.097170665199986</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00756352852810194</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.00473389212253994</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0130301396567034</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00656317233035719</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.00515443826730255</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.060480791071591</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.00259138863071251</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.00170518275024323</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.043191266584927</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0285063041487605</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.0441827045522818</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.0010669070339866</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0784769435090162</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.0187954251304934</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.00778870179764768</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.143916655526452</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.00189348340512652</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.00307595508318204</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0568294983616955</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.0280734979011859</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0162346522668952</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.00596818088522455</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.00327496557471663</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.02918106885752</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.0104483872817385</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.000618608601498982</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0121732663607992</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.00969498968895199</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.0303645786869644</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.00165985801577606</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.00383031294799463</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.00658384768715825</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.00194609236577281</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.109972713877576</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0107027259693802</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.0271633003882585</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.00728009835758614</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.0694502194874673</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.0278441858113012</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.0023831489322117</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.00684098547820011</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.0013077524846119</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.00113502982667968</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00625760454447577</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.0394019771820868</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.00700263318740513</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.0838217030329316</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.034700893204366</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.000877659949023002</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.00154498507669132</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.0257127124097538</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.00860451595746947</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.000994181285744133</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.0359059876804442</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.0654032732469625</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.00146069093507495</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.00348262511251551</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.000809795471241159</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0100467749835336</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0848436922823579</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.0164095623454905</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.0661717087922591</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.0447822002980227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0656079504467915</v>
+        <v>0.0685271540660919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0391166854042482</v>
+        <v>0.0383727285495903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0129286246946276</v>
+        <v>0.0116830580021328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00136068220315266</v>
+        <v>0.00105359962828633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00872715026990734</v>
+        <v>0.00846987956327538</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00629086318825545</v>
+        <v>0.00755896571618675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0810785478101901</v>
+        <v>0.0815211020559163</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0182250352117515</v>
+        <v>0.0206027434757696</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0351476795119592</v>
+        <v>0.0312640253278136</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0487678225825015</v>
+        <v>0.0428851625633972</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0172271049918031</v>
+        <v>0.0134609216819188</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00253663314960306</v>
+        <v>0.00428950894132907</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00136513964738461</v>
+        <v>0.000223418008657328</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00332613995776176</v>
+        <v>0.00436153451111543</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0434609087680879</v>
+        <v>0.0401576554286707</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00608673463028953</v>
+        <v>0.00434172931039423</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0445387903860612</v>
+        <v>0.0414931919964285</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0113952279005103</v>
+        <v>0.0086867765015044</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00356645063245842</v>
+        <v>0.00335666270645185</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00264501781271731</v>
+        <v>-0.00141409861666542</v>
       </c>
       <c r="V2" t="n">
-        <v>0.296717582549456</v>
+        <v>0.297107975116057</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0170665095967044</v>
+        <v>0.0194836925530693</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00170942308016087</v>
+        <v>0.00373833837208504</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00072208234962079</v>
+        <v>0.00737049766439957</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00896541335303613</v>
+        <v>0.00282013204622844</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0331962937258419</v>
+        <v>0.029613596298941</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0552975235699222</v>
+        <v>0.0526303565058748</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0285398715513854</v>
+        <v>0.0256325462981901</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0314083173189506</v>
+        <v>0.0282726542350844</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.120116279358921</v>
+        <v>0.118403528852998</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.041001221500407</v>
+        <v>0.0401832995247262</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00510810930960659</v>
+        <v>0.0029211543154779</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0107539148437896</v>
+        <v>0.0108308059680022</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00184832886376585</v>
+        <v>0.000336375593958049</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00125506446455415</v>
+        <v>0.00330663625815131</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00558181499722066</v>
+        <v>0.00728874328294848</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.051927724524224</v>
+        <v>0.0461114927421569</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00643193310603629</v>
+        <v>0.00806935843019674</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0132724380570359</v>
+        <v>0.0096824892976628</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00235336220110605</v>
+        <v>0.00310110939488339</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00339767411864567</v>
+        <v>0.00246828534517318</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00088519400453313</v>
+        <v>-0.000903396551021673</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.344639463863832</v>
+        <v>0.355208627832584</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.003792354193215</v>
+        <v>0.00330129698480031</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00217773426386692</v>
+        <v>0.00626742078253195</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0309816256657294</v>
+        <v>0.0287343574951873</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00767482202819081</v>
+        <v>0.0101292502538097</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00506482484017678</v>
+        <v>0.00539557825986581</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0100349263505839</v>
+        <v>0.00700968893483545</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00649899256229869</v>
+        <v>0.00779931101513864</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00290360146289292</v>
+        <v>0.00302780158921467</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0343591107276262</v>
+        <v>0.0293556105086294</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.02717606626305</v>
+        <v>0.0238968362909746</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0774829944736659</v>
+        <v>0.074275316143535</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0824739773582075</v>
+        <v>0.0781624725623766</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00388494496677194</v>
+        <v>0.00176616961577181</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00198918299507955</v>
+        <v>0.000388431074406226</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0147610132907379</v>
+        <v>0.0116582380664734</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00814799852900494</v>
+        <v>0.00476495196396143</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.056745558245042</v>
+        <v>0.0531170170301298</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0030830470220613</v>
+        <v>0.00335068830245655</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.148557846953803</v>
+        <v>0.1469850200543</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0068640414365293</v>
+        <v>0.00735279675464717</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00177105304622516</v>
+        <v>-0.000515411100244889</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0146784206641895</v>
+        <v>0.0109949010531698</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00284531434310376</v>
+        <v>0.00414538912447049</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00249235117837743</v>
+        <v>0.00699941147434413</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00121911545742015</v>
+        <v>0.00432915298817682</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00503832408425176</v>
+        <v>0.0070187809940625</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00480773960680159</v>
+        <v>0.00435683083180294</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0633543498092817</v>
+        <v>0.061399070659601</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.000405711072794634</v>
+        <v>-0.000584795650812819</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00786297248891388</v>
+        <v>0.00908131543496538</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0597530131975494</v>
+        <v>0.0581284390574919</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.00354824934859344</v>
+        <v>0.00244832555738994</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0123816661873386</v>
+        <v>0.0149835762743455</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0000495229558548083</v>
+        <v>-0.000453124005781569</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0697529256284615</v>
+        <v>0.0680596572368899</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00112306824749209</v>
+        <v>0.00142673593949372</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00358263722263885</v>
+        <v>0.000690690542401118</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.097170665199986</v>
+        <v>0.098935482111743</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00756352852810194</v>
+        <v>0.0090159830329648</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00473389212253994</v>
+        <v>0.00664883089231783</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0130301396567034</v>
+        <v>0.0148211910482094</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00656317233035719</v>
+        <v>0.00633584359088646</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00515443826730255</v>
+        <v>0.00526014372239469</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.060480791071591</v>
+        <v>0.0591890550055723</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00259138863071251</v>
+        <v>0.000283525347884117</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.00170518275024323</v>
+        <v>0.000630858872544993</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.043191266584927</v>
+        <v>0.0375200589555753</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0285063041487605</v>
+        <v>0.0306525688386328</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0441827045522818</v>
+        <v>0.0404063738506133</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0010669070339866</v>
+        <v>0.0152629589714586</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0784769435090162</v>
+        <v>0.0782899021844752</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0187954251304934</v>
+        <v>0.0146295296037722</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00778870179764768</v>
+        <v>0.00480739317043732</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.143916655526452</v>
+        <v>0.144462106515119</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00189348340512652</v>
+        <v>-0.0000115527313808705</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00307595508318204</v>
+        <v>0.00123879502883839</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0568294983616955</v>
+        <v>0.0531899570573153</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0280734979011859</v>
+        <v>0.022819819539486</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0162346522668952</v>
+        <v>0.0124780011255556</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00596818088522455</v>
+        <v>0.00791336278481869</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00327496557471663</v>
+        <v>0.00512443910307558</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02918106885752</v>
+        <v>0.0273436114961283</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0104483872817385</v>
+        <v>0.00796343614149464</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.000618608601498982</v>
+        <v>-0.00254818429992043</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0121732663607992</v>
+        <v>0.0110939399259153</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00969498968895199</v>
+        <v>0.00751872206514248</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0303645786869644</v>
+        <v>0.0304174406311173</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00165985801577606</v>
+        <v>0.0045234608310738</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00383031294799463</v>
+        <v>0.00349054889725653</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00658384768715825</v>
+        <v>0.00337812961471684</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00194609236577281</v>
+        <v>0.00243952672424474</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.109972713877576</v>
+        <v>0.108802564595635</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0107027259693802</v>
+        <v>0.00439487852367249</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0271633003882585</v>
+        <v>0.0235016741332703</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00728009835758614</v>
+        <v>-0.00816095010642148</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0694502194874673</v>
+        <v>0.0662928021296003</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0278441858113012</v>
+        <v>0.0239711181105442</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0023831489322117</v>
+        <v>0.00331777975143721</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.00684098547820011</v>
+        <v>0.00513469812168355</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0013077524846119</v>
+        <v>0.00247629724060294</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00113502982667968</v>
+        <v>0.00217194627436035</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00625760454447577</v>
+        <v>0.00782536594856076</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0394019771820868</v>
+        <v>0.0346324655990184</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00700263318740513</v>
+        <v>0.00713537910393036</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0838217030329316</v>
+        <v>0.0798127644557469</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.034700893204366</v>
+        <v>0.0323834685063038</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.000877659949023002</v>
+        <v>-0.00179092881653087</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.00154498507669132</v>
+        <v>0.0064118947399463</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0257127124097538</v>
+        <v>0.0244483023693898</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00860451595746947</v>
+        <v>0.0072199251131988</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.000994181285744133</v>
+        <v>0.0012519080131459</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0359059876804442</v>
+        <v>0.0339665513702003</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0654032732469625</v>
+        <v>0.0638336213405439</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00146069093507495</v>
+        <v>0.00180377391226116</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00348262511251551</v>
+        <v>0.00239252367383735</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.000809795471241159</v>
+        <v>0.0013278521749982</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0100467749835336</v>
+        <v>0.00781141234361726</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0848436922823579</v>
+        <v>0.0850384735936947</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0164095623454905</v>
+        <v>0.0240564819850335</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0661717087922591</v>
+        <v>0.0612932062753766</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0447822002980227</v>
+        <v>0.0424098493508203</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -449,7 +449,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">var_npv_ede_ffu_nl</t>
+    <t xml:space="preserve">mean_transfer_over_gdp</t>
   </si>
 </sst>
 </file>
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0685271540660919</v>
+        <v>0.0410787122763203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0383727285495903</v>
+        <v>0.0140652014955864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0116830580021328</v>
+        <v>0.00935036284310786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00105359962828633</v>
+        <v>0.0000644936198308251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00846987956327538</v>
+        <v>0.00562797566308832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00755896571618675</v>
+        <v>-0.00559618489253139</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0815211020559163</v>
+        <v>0.0463850225910695</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0206027434757696</v>
+        <v>-0.0117507532520217</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0312640253278136</v>
+        <v>0.0109393084323845</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0428851625633972</v>
+        <v>0.0200242774430874</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0134609216819188</v>
+        <v>0.00898946304283904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00428950894132907</v>
+        <v>-0.0000303147541204129</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000223418008657328</v>
+        <v>0.0006356845061253</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00436153451111543</v>
+        <v>-0.00677641243571583</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0401576554286707</v>
+        <v>0.00964836705359552</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00434172931039423</v>
+        <v>0.00195777701316212</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0414931919964285</v>
+        <v>0.00700508596357451</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0086867765015044</v>
+        <v>0.00433119140666081</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00335666270645185</v>
+        <v>0.0000219950667090879</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00141409861666542</v>
+        <v>0.00252010544506766</v>
       </c>
       <c r="V2" t="n">
-        <v>0.297107975116057</v>
+        <v>0.0536548125943242</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0194836925530693</v>
+        <v>-0.00939624314155158</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00373833837208504</v>
+        <v>-0.000260951267471323</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00737049766439957</v>
+        <v>-0.00696781463676664</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00282013204622844</v>
+        <v>0.00314670193555532</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.029613596298941</v>
+        <v>0.0121237212677372</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0526303565058748</v>
+        <v>0.024258522455616</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0256325462981901</v>
+        <v>0.0114473853283363</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0282726542350844</v>
+        <v>0.00554516375143671</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.118403528852998</v>
+        <v>0.0197101607499422</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0401832995247262</v>
+        <v>0.0107117176650077</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0029211543154779</v>
+        <v>0.00398267958163719</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0108308059680022</v>
+        <v>0.00913632078209806</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000336375593958049</v>
+        <v>0.00103748341040161</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00330663625815131</v>
+        <v>-0.00318216358997923</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00728874328294848</v>
+        <v>-0.0058892242479794</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0461114927421569</v>
+        <v>0.0153664082440481</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00806935843019674</v>
+        <v>-0.00452821358577836</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0096824892976628</v>
+        <v>0.00220538650213804</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00310110939488339</v>
+        <v>-0.000662666231116774</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00246828534517318</v>
+        <v>0.00149003964270302</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.000903396551021673</v>
+        <v>-0.000748827854131937</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.355208627832584</v>
+        <v>0.125382523449997</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00330129698480031</v>
+        <v>-0.00403688701203543</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00626742078253195</v>
+        <v>-0.00460075529003221</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0287343574951873</v>
+        <v>0.0172170493099786</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0101292502538097</v>
+        <v>-0.00637258889393303</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00539557825986581</v>
+        <v>-0.00407608215721415</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00700968893483545</v>
+        <v>0.00348373568096781</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00779931101513864</v>
+        <v>-0.00526288666750147</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00302780158921467</v>
+        <v>-0.0000193455857257988</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0293556105086294</v>
+        <v>0.011807438628815</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0238968362909746</v>
+        <v>0.0140757257105435</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.074275316143535</v>
+        <v>0.0205299716039569</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0781624725623766</v>
+        <v>0.0192015437388326</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00176616961577181</v>
+        <v>0.000793066574719928</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000388431074406226</v>
+        <v>-0.00491778361316285</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0116582380664734</v>
+        <v>0.00512186946868836</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00476495196396143</v>
+        <v>0.00312574894311448</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0531170170301298</v>
+        <v>0.0105327170425013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00335068830245655</v>
+        <v>0.0026065870609654</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1469850200543</v>
+        <v>0.0269214096863704</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00735279675464717</v>
+        <v>-0.00605523727507564</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000515411100244889</v>
+        <v>-0.000598793671979655</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0109949010531698</v>
+        <v>0.00291829888634061</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00414538912447049</v>
+        <v>-0.00282777479585406</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00699941147434413</v>
+        <v>-0.00664456538304963</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00432915298817682</v>
+        <v>-0.00322649968185966</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0070187809940625</v>
+        <v>-0.00671115226468654</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00435683083180294</v>
+        <v>-0.00479647570718739</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.061399070659601</v>
+        <v>0.00885274680436465</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.000584795650812819</v>
+        <v>-0.00132582655616416</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00908131543496538</v>
+        <v>-0.00250036418437642</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0581284390574919</v>
+        <v>0.0149503182108951</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.00244832555738994</v>
+        <v>-0.00113442277803968</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0149835762743455</v>
+        <v>-0.00930964829259959</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.000453124005781569</v>
+        <v>-0.0115415433980648</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0680596572368899</v>
+        <v>0.0360448365600536</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00142673593949372</v>
+        <v>-0.00132042599095014</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.000690690542401118</v>
+        <v>0.00171005063384185</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.098935482111743</v>
+        <v>0.0174053971075622</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0090159830329648</v>
+        <v>-0.00622773863047864</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00664883089231783</v>
+        <v>-0.00518586804509109</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0148211910482094</v>
+        <v>-0.00888399532132285</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00633584359088646</v>
+        <v>0.00117789109742916</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00526014372239469</v>
+        <v>-0.00414160157718963</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0591890550055723</v>
+        <v>0.0263801245694001</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.000283525347884117</v>
+        <v>0.000511173721201345</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.000630858872544993</v>
+        <v>0.000334501518323316</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0375200589555753</v>
+        <v>0.0216730773060237</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0306525688386328</v>
+        <v>-0.0127235407310875</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0404063738506133</v>
+        <v>0.0189222752704291</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0152629589714586</v>
+        <v>-0.0475907191999822</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0782899021844752</v>
+        <v>0.0239198926934871</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0146295296037722</v>
+        <v>0.00812553330024969</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00480739317043732</v>
+        <v>0.00406798700961651</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.144462106515119</v>
+        <v>0.0441949736864228</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.0000115527313808705</v>
+        <v>-0.00317278609983879</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00123879502883839</v>
+        <v>0.00253017308598046</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0531899570573153</v>
+        <v>0.033522725233671</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.022819819539486</v>
+        <v>0.00977777069246189</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0124780011255556</v>
+        <v>0.00604069770929157</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00791336278481869</v>
+        <v>-0.00587237541971616</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00512443910307558</v>
+        <v>-0.00446269322763417</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0273436114961283</v>
+        <v>0.0146406677889198</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00796343614149464</v>
+        <v>0.00484079810144369</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.00254818429992043</v>
+        <v>0.000305102872737172</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0110939399259153</v>
+        <v>0.00299171046498357</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00751872206514248</v>
+        <v>0.00381064413154297</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0304174406311173</v>
+        <v>0.00826471362812326</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0045234608310738</v>
+        <v>-0.000900347545206357</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00349054889725653</v>
+        <v>-0.00441348938555728</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00337812961471684</v>
+        <v>0.00164041249043951</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00243952672424474</v>
+        <v>0.00140461025531733</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.108802564595635</v>
+        <v>0.0252129093124955</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00439487852367249</v>
+        <v>0.00544533765226755</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0235016741332703</v>
+        <v>0.0107984316059893</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00816095010642148</v>
+        <v>-0.00867741897235032</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0662928021296003</v>
+        <v>0.0351529907266325</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0239711181105442</v>
+        <v>0.0132454864415177</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00331777975143721</v>
+        <v>-0.00298324326942496</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.00513469812168355</v>
+        <v>-0.000563022057647277</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00247629724060294</v>
+        <v>-0.000835618051798154</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00217194627436035</v>
+        <v>-0.00371970735453774</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00782536594856076</v>
+        <v>-0.00392350086610299</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0346324655990184</v>
+        <v>0.0079330229550106</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00713537910393036</v>
+        <v>0.00220538476938449</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0798127644557469</v>
+        <v>0.0296821886521848</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0323834685063038</v>
+        <v>0.00873676686369696</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00179092881653087</v>
+        <v>-0.0018448885276211</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0064118947399463</v>
+        <v>-0.0128705438769076</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0244483023693898</v>
+        <v>0.01412111448539</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0072199251131988</v>
+        <v>0.00376725578419078</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0012519080131459</v>
+        <v>-0.00149056889839908</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0339665513702003</v>
+        <v>0.0168657938883851</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0638336213405439</v>
+        <v>0.024588709320323</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00180377391226116</v>
+        <v>-0.00608914559031427</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00239252367383735</v>
+        <v>0.00219086624811246</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0013278521749982</v>
+        <v>-0.00247689974918584</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00781141234361726</v>
+        <v>0.00267872535215592</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0850384735936947</v>
+        <v>0.0414352516454427</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0240564819850335</v>
+        <v>-0.00148925167550217</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0612932062753766</v>
+        <v>0.010378280110838</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0424098493508203</v>
+        <v>0.0180173859098438</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -449,7 +449,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">var_npv_ede_ffu_nl</t>
+    <t xml:space="preserve">mean_transfer_over_gdp</t>
   </si>
 </sst>
 </file>
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0685271540660919</v>
+        <v>0.0413938306792532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0383727285495903</v>
+        <v>0.0141816551975709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0116830580021328</v>
+        <v>0.00946516095329444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00105359962828633</v>
+        <v>0.0000951480991964588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00846987956327538</v>
+        <v>0.00570157453184357</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00755896571618675</v>
+        <v>-0.00558446480532269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0815211020559163</v>
+        <v>0.0466764060485216</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0206027434757696</v>
+        <v>-0.0117502348337724</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0312640253278136</v>
+        <v>0.0110454972958553</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0428851625633972</v>
+        <v>0.0201651903787048</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0134609216819188</v>
+        <v>0.00909981356802385</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00428950894132907</v>
+        <v>-0.000614566868231799</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000223418008657328</v>
+        <v>0.000596282677563316</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00436153451111543</v>
+        <v>-0.0090000876383852</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0401576554286707</v>
+        <v>0.00975849017381169</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00434172931039423</v>
+        <v>0.00201405372162403</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0414931919964285</v>
+        <v>0.00707880875164765</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0086867765015044</v>
+        <v>0.00440608485326436</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00335666270645185</v>
+        <v>0.0000697596300239161</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.00141409861666542</v>
+        <v>0.00279507500689928</v>
       </c>
       <c r="V2" t="n">
-        <v>0.297107975116057</v>
+        <v>0.0540020919258936</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0194836925530693</v>
+        <v>-0.00938714470721567</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00373833837208504</v>
+        <v>-0.000906456666114651</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00737049766439957</v>
+        <v>-0.00695717879217674</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00282013204622844</v>
+        <v>0.00318292080179674</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.029613596298941</v>
+        <v>0.0122116098361174</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0526303565058748</v>
+        <v>0.0244086955570301</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0256325462981901</v>
+        <v>0.0115402027407016</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0282726542350844</v>
+        <v>0.00561471468871215</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.118403528852998</v>
+        <v>0.019851765516985</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0401832995247262</v>
+        <v>0.010803810441459</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0029211543154779</v>
+        <v>0.00403852327272275</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0108308059680022</v>
+        <v>0.00925337714862955</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000336375593958049</v>
+        <v>0.00108322795466306</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00330663625815131</v>
+        <v>-0.00500658095829559</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00728874328294848</v>
+        <v>-0.00587626998158726</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0461114927421569</v>
+        <v>0.0154741353681295</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00806935843019674</v>
+        <v>-0.00451588879885965</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0096824892976628</v>
+        <v>0.00225786505456608</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00310110939488339</v>
+        <v>-0.000600497116212502</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00246828534517318</v>
+        <v>0.00154689264000408</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.000903396551021673</v>
+        <v>-0.000233546381607169</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.355208627832584</v>
+        <v>0.126207069066058</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00330129698480031</v>
+        <v>-0.00401873659003747</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00626742078253195</v>
+        <v>-0.0078412996344824</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0287343574951873</v>
+        <v>0.017336762032432</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0101292502538097</v>
+        <v>-0.00635801641070753</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00539557825986581</v>
+        <v>-0.00406078344217508</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00700968893483545</v>
+        <v>0.00352505633088435</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00779931101513864</v>
+        <v>-0.00524855333424494</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00302780158921467</v>
+        <v>0.0000289666060314453</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0293556105086294</v>
+        <v>0.0118990747943195</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0238968362909746</v>
+        <v>0.0141833634476714</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.074275316143535</v>
+        <v>0.0206760931891854</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0781624725623766</v>
+        <v>0.0193347431369358</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00176616961577181</v>
+        <v>0.000818420431837212</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000388431074406226</v>
+        <v>-0.00491683176873893</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0116582380664734</v>
+        <v>0.00519281975663479</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00476495196396143</v>
+        <v>0.00318990704348918</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0531170170301298</v>
+        <v>0.0106347377438979</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00335068830245655</v>
+        <v>0.00266474871843922</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1469850200543</v>
+        <v>0.0271336846630891</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00735279675464717</v>
+        <v>-0.00603801781059794</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000515411100244889</v>
+        <v>-0.000268201758402401</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0109949010531698</v>
+        <v>0.0030050304162045</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00414538912447049</v>
+        <v>-0.00282755398221118</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00699941147434413</v>
+        <v>-0.00950535657251373</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00432915298817682</v>
+        <v>-0.00543362439791557</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0070187809940625</v>
+        <v>-0.00670007859783028</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00435683083180294</v>
+        <v>-0.00477957394433243</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.061399070659601</v>
+        <v>0.00897559131079077</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.000584795650812819</v>
+        <v>-0.000962947433063889</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00908131543496538</v>
+        <v>-0.0024773543506846</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0581284390574919</v>
+        <v>0.015064405996304</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.00244832555738994</v>
+        <v>-0.00102448425189035</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0149835762743455</v>
+        <v>-0.00929553248775824</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.000453124005781569</v>
+        <v>-0.00984292562693678</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0680596572368899</v>
+        <v>0.0362906630147998</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00142673593949372</v>
+        <v>-0.00193661000946414</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.000690690542401118</v>
+        <v>0.00176802813629976</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.098935482111743</v>
+        <v>0.0175641219813685</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0090159830329648</v>
+        <v>-0.00620934815514835</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00664883089231783</v>
+        <v>-0.00518009841146406</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0148211910482094</v>
+        <v>-0.00886440422467589</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00633584359088646</v>
+        <v>0.00123563251979544</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00526014372239469</v>
+        <v>-0.0041397522227783</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0591890550055723</v>
+        <v>0.0265627884023923</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.000283525347884117</v>
+        <v>0.000556142824684237</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.000630858872544993</v>
+        <v>0.000373370310322225</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0375200589555753</v>
+        <v>0.0218207436079144</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0306525688386328</v>
+        <v>-0.0127230324997295</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0404063738506133</v>
+        <v>0.0190793745517016</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0152629589714586</v>
+        <v>-0.0470765908001615</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0782899021844752</v>
+        <v>0.024122335582292</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0146295296037722</v>
+        <v>0.00820554873850347</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00480739317043732</v>
+        <v>0.00411233350432648</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.144462106515119</v>
+        <v>0.0444877632232503</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.0000115527313808705</v>
+        <v>-0.00308437358337995</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00123879502883839</v>
+        <v>0.00248851482897805</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0531899570573153</v>
+        <v>0.0337354487010322</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.022819819539486</v>
+        <v>0.00985667921352351</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0124780011255556</v>
+        <v>0.00612261163841476</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00791336278481869</v>
+        <v>-0.00586034852731582</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00512443910307558</v>
+        <v>-0.00445129181313277</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0273436114961283</v>
+        <v>0.0148199127783998</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00796343614149464</v>
+        <v>0.00493873512489233</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.00254818429992043</v>
+        <v>0.00116064989934569</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0110939399259153</v>
+        <v>0.00304186596491245</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00751872206514248</v>
+        <v>0.00388963246416255</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0304174406311173</v>
+        <v>0.00837324206125399</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0045234608310738</v>
+        <v>-0.00268143860403829</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00349054889725653</v>
+        <v>-0.00441264506610488</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00337812961471684</v>
+        <v>0.00168510515869718</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00243952672424474</v>
+        <v>0.00144328622335737</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.108802564595635</v>
+        <v>0.0253838478729565</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00439487852367249</v>
+        <v>0.00549058552739496</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0235016741332703</v>
+        <v>0.0108974049950124</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00816095010642148</v>
+        <v>-0.00867154915547672</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0662928021296003</v>
+        <v>0.035386186290345</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0239711181105442</v>
+        <v>0.0133581836310892</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00331777975143721</v>
+        <v>-0.00397936067700838</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.00513469812168355</v>
+        <v>-0.00153202620773999</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00247629724060294</v>
+        <v>-0.00189172803418685</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.00217194627436035</v>
+        <v>-0.00369209911200715</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00782536594856076</v>
+        <v>-0.0039116880717559</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0346324655990184</v>
+        <v>0.00799742707693966</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00713537910393036</v>
+        <v>0.00227001630721897</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0798127644557469</v>
+        <v>0.0298743651470338</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0323834685063038</v>
+        <v>0.00887485960809664</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00179092881653087</v>
+        <v>-0.000735188787234849</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0064118947399463</v>
+        <v>-0.0152771608710901</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0244483023693898</v>
+        <v>0.0142548253190453</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0072199251131988</v>
+        <v>0.00383363549703493</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0012519080131459</v>
+        <v>-0.00197227514491281</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0339665513702003</v>
+        <v>0.0169875835668753</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0638336213405439</v>
+        <v>0.0247565183559394</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00180377391226116</v>
+        <v>-0.00687259229937567</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00239252367383735</v>
+        <v>0.00223217824763678</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0013278521749982</v>
+        <v>-0.00242635687211382</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00781141234361726</v>
+        <v>0.00274728260881245</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0850384735936947</v>
+        <v>0.0417343023927944</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0240564819850335</v>
+        <v>-0.00145577258648795</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0612932062753766</v>
+        <v>0.0104602450626872</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0424098493508203</v>
+        <v>0.0181627895729295</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0413938306792532</v>
+        <v>0.0424498916038607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0141816551975709</v>
+        <v>0.0139002182504224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00946516095329444</v>
+        <v>0.00811432431720253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000951480991964588</v>
+        <v>0.0000283380127950479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00570157453184357</v>
+        <v>0.00516950715658639</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00558446480532269</v>
+        <v>-0.00558828994922515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0466764060485216</v>
+        <v>0.0460149832064852</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0117502348337724</v>
+        <v>-0.0117543058139538</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0110454972958553</v>
+        <v>0.0107909389046028</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0201651903787048</v>
+        <v>0.0198422640643351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00909981356802385</v>
+        <v>0.00946438593716158</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.000614566868231799</v>
+        <v>-0.00128748257993057</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000596282677563316</v>
+        <v>0.000587535037910135</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0090000876383852</v>
+        <v>-0.00883027582478247</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00975849017381169</v>
+        <v>0.00961333632218084</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00201405372162403</v>
+        <v>0.0019339503365479</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00707880875164765</v>
+        <v>0.00696345270493793</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00440608485326436</v>
+        <v>0.00426970459635497</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0000697596300239161</v>
+        <v>0.000239053114634251</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00279507500689928</v>
+        <v>0.00277719645729019</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0540020919258936</v>
+        <v>0.053209273644918</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.00938714470721567</v>
+        <v>-0.00939011280914366</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.000906456666114651</v>
+        <v>-0.000976976742457389</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00695717879217674</v>
+        <v>-0.00699010995409791</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00318292080179674</v>
+        <v>0.00309300845560275</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0122116098361174</v>
+        <v>0.0120014366115822</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0244086955570301</v>
+        <v>0.024067113473481</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0115402027407016</v>
+        <v>0.0113166189338025</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00561471468871215</v>
+        <v>0.00551941403714049</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.019851765516985</v>
+        <v>0.0195257526497707</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.010803810441459</v>
+        <v>0.0105693967501186</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00403852327272275</v>
+        <v>0.00396252810557472</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00925337714862955</v>
+        <v>0.00906357467509606</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00108322795466306</v>
+        <v>0.000415168384837881</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.00500658095829559</v>
+        <v>-0.00514703795633721</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.00587626998158726</v>
+        <v>-0.00588048183630699</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0154741353681295</v>
+        <v>0.0152082366863701</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.00451588879885965</v>
+        <v>-0.0045199112869298</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00225786505456608</v>
+        <v>0.00219060058048412</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.000600497116212502</v>
+        <v>-0.000798266428020521</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00154689264000408</v>
+        <v>0.00145979689727887</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.000233546381607169</v>
+        <v>-0.000219970997598418</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.126207069066058</v>
+        <v>0.124326009692489</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00401873659003747</v>
+        <v>-0.00402463208316252</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0078412996344824</v>
+        <v>-0.00819282491227215</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.017336762032432</v>
+        <v>0.0170637580725548</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00635801641070753</v>
+        <v>-0.00636277184787186</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00406078344217508</v>
+        <v>-0.00406578074144554</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00352505633088435</v>
+        <v>0.00341087961498402</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00524855333424494</v>
+        <v>-0.00525324557175815</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0000289666060314453</v>
+        <v>-0.000338262591235706</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0118990747943195</v>
+        <v>0.0116817202536655</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0141833634476714</v>
+        <v>0.0139259475966386</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0206760931891854</v>
+        <v>0.0203386168632195</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0193347431369358</v>
+        <v>0.019028426380425</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.000818420431837212</v>
+        <v>0.000717212996239861</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00491683176873893</v>
+        <v>-0.00492414733399136</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00519281975663479</v>
+        <v>0.00510525203921848</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00318990704348918</v>
+        <v>0.00308315492494035</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0106347377438979</v>
+        <v>0.0105073434268738</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00266474871843922</v>
+        <v>0.00188304380269801</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0271336846630891</v>
+        <v>0.0268991729878762</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.00603801781059794</v>
+        <v>-0.00604366497968119</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000268201758402401</v>
+        <v>-0.000259344801746969</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0030050304162045</v>
+        <v>0.00322967202731135</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00282755398221118</v>
+        <v>-0.00282930700024042</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00950535657251373</v>
+        <v>-0.00960756217464279</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.00543362439791557</v>
+        <v>-0.00543621366211666</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.00670007859783028</v>
+        <v>-0.00670371526394678</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00477957394433243</v>
+        <v>-0.00478507180173214</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00897559131079077</v>
+        <v>0.00880107432785082</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.000962947433063889</v>
+        <v>-0.000953099200338444</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0024773543506846</v>
+        <v>-0.00234712884059057</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.015064405996304</v>
+        <v>0.0147994180560168</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00102448425189035</v>
+        <v>-0.000660544604969128</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00929553248775824</v>
+        <v>-0.00934915205727872</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.00984292562693678</v>
+        <v>-0.00985953842766364</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0362906630147998</v>
+        <v>0.0357124001001386</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00193661000946414</v>
+        <v>-0.00187167252939708</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00176802813629976</v>
+        <v>0.00195748534447272</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0175641219813685</v>
+        <v>0.0171530343607791</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00620934815514835</v>
+        <v>-0.0062153387017937</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00518009841146406</v>
+        <v>-0.00518197988892471</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.00886440422467589</v>
+        <v>-0.0088707970650635</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00123563251979544</v>
+        <v>0.00107381384751663</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0041397522227783</v>
+        <v>-0.00415597634562263</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0265627884023923</v>
+        <v>0.026144316316074</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.000556142824684237</v>
+        <v>0.000707497712193125</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.000373370310322225</v>
+        <v>0.000396712723966989</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0218207436079144</v>
+        <v>0.0214813645936657</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0127230324997295</v>
+        <v>-0.0127270373688912</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0190793745517016</v>
+        <v>0.0195775958151254</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.0470765908001615</v>
+        <v>-0.0469029320768788</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.024122335582292</v>
+        <v>0.0236447122734385</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00820554873850347</v>
+        <v>0.00800979416198059</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00411233350432648</v>
+        <v>0.0039592354179764</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0444877632232503</v>
+        <v>0.0438241786104405</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00308437358337995</v>
+        <v>-0.00312692363952995</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00248851482897805</v>
+        <v>0.0025248711726769</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0337354487010322</v>
+        <v>0.0332421167767735</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00985667921352351</v>
+        <v>0.00966497771080281</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00612261163841476</v>
+        <v>0.00602151608153314</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.00586034852731582</v>
+        <v>-0.00586426583340594</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00445129181313277</v>
+        <v>-0.0044550044307788</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0148199127783998</v>
+        <v>0.0154012741722403</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00493873512489233</v>
+        <v>0.00527267841759318</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00116064989934569</v>
+        <v>0.00118591271720098</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00304186596491245</v>
+        <v>0.00296341237438184</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00388963246416255</v>
+        <v>0.00415200700799983</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.00837324206125399</v>
+        <v>0.00874192019924958</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.00268143860403829</v>
+        <v>-0.00321423518068142</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00441264506610488</v>
+        <v>-0.00441907479973818</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00168510515869718</v>
+        <v>0.00162846527973404</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00144328622335737</v>
+        <v>0.000912424313080347</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0253838478729565</v>
+        <v>0.0249975873765906</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00549058552739496</v>
+        <v>0.00538445975804549</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0108974049950124</v>
+        <v>0.0106591261598705</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00867154915547672</v>
+        <v>-0.00862194557503558</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.035386186290345</v>
+        <v>0.0348536583455763</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0133581836310892</v>
+        <v>0.0132163078888564</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00397936067700838</v>
+        <v>-0.00483164228510463</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00153202620773999</v>
+        <v>-0.00154374280959857</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00189172803418685</v>
+        <v>-0.0019612735032829</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.00369209911200715</v>
+        <v>-0.00415779069636034</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.0039116880717559</v>
+        <v>-0.00391555572490689</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00799742707693966</v>
+        <v>0.00783800256214045</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00227001630721897</v>
+        <v>0.00239623485822962</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0298743651470338</v>
+        <v>0.0294390198061278</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.00887485960809664</v>
+        <v>0.00854692430995132</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.000735188787234849</v>
+        <v>-0.000763019333485598</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0152771608710901</v>
+        <v>-0.0152842298904181</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0142548253190453</v>
+        <v>0.0147122708155662</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00383363549703493</v>
+        <v>0.00363267985847136</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.00197227514491281</v>
+        <v>-0.00197062319351024</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0169875835668753</v>
+        <v>0.0167050868850177</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0247565183559394</v>
+        <v>0.0243727317470006</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00687259229937567</v>
+        <v>-0.00720292098215056</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00223217824763678</v>
+        <v>0.00216739793920217</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.00242635687211382</v>
+        <v>-0.00284644802547234</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00274728260881245</v>
+        <v>0.00298602529207911</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0417343023927944</v>
+        <v>0.0423028730208448</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.00145577258648795</v>
+        <v>-0.00165832509439864</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0104602450626872</v>
+        <v>0.0102681621545474</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0181627895729295</v>
+        <v>0.0177963340869877</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -449,7 +449,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_transfer_over_gdp</t>
+    <t xml:space="preserve">diff_ede_ffu_bau</t>
   </si>
 </sst>
 </file>
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410787122763203</v>
+        <v>0.0675694152768285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0140652014955864</v>
+        <v>0.0462736450020746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00935036284310786</v>
+        <v>0.0130507216675175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000644936198308251</v>
+        <v>0.00210340214060256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00562797566308832</v>
+        <v>0.00783321880079524</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00559618489253139</v>
+        <v>-0.00990359012664077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0463850225910695</v>
+        <v>0.0912473172144268</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0117507532520217</v>
+        <v>-0.0214229528057513</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0109393084323845</v>
+        <v>0.0498317448001098</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0200242774430874</v>
+        <v>0.0656484237808204</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00898946304283904</v>
+        <v>0.0225540370328967</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0000303147541204129</v>
+        <v>0.00371371219567584</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006356845061253</v>
+        <v>0.00333769615120572</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.00677641243571583</v>
+        <v>-0.019939395540155</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00964836705359552</v>
+        <v>0.0550913182775254</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00195777701316212</v>
+        <v>0.00709438159482145</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00700508596357451</v>
+        <v>0.0538099201892417</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00433119140666081</v>
+        <v>0.0155226886610023</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0000219950667090879</v>
+        <v>0.00145376709408329</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00252010544506766</v>
+        <v>0.0813257525615527</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0536548125943242</v>
+        <v>0.322736647020276</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.00939624314155158</v>
+        <v>-0.0176173966021934</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.000260951267471323</v>
+        <v>0.00640589676935766</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.00696781463676664</v>
+        <v>-0.0131776640284952</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00314670193555532</v>
+        <v>0.0221332844574607</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0121237212677372</v>
+        <v>0.0438342137389869</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.024258522455616</v>
+        <v>0.0681451340467825</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0114473853283363</v>
+        <v>0.0372781614057149</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00554516375143671</v>
+        <v>0.0417956223474787</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0197101607499422</v>
+        <v>0.134655207569213</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0107117176650077</v>
+        <v>0.0460489538447653</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00398267958163719</v>
+        <v>0.00868687707616345</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00913632078209806</v>
+        <v>0.0103530778673002</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00103748341040161</v>
+        <v>0.00191993243385524</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.00318216358997923</v>
+        <v>-0.00828823687829994</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0058892242479794</v>
+        <v>-0.0103854832959681</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0153664082440481</v>
+        <v>0.0638557512270259</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.00452821358577836</v>
+        <v>-0.00820699773608424</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00220538650213804</v>
+        <v>0.0293610769830355</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.000662666231116774</v>
+        <v>0.00140393925450355</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00149003964270302</v>
+        <v>0.00384319422114343</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.000748827854131937</v>
+        <v>0.000839420667012813</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.125382523449997</v>
+        <v>0.363794991658628</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00403688701203543</v>
+        <v>-0.00567926413732722</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.00460075529003221</v>
+        <v>-0.0135959241594295</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0172170493099786</v>
+        <v>0.0385588142926485</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00637258889393303</v>
+        <v>-0.0122046116847867</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00407608215721415</v>
+        <v>-0.00668862869889575</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00348373568096781</v>
+        <v>0.0169822320021966</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00526288666750147</v>
+        <v>-0.00975206503816828</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0000193455857257988</v>
+        <v>0.00330597496924101</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.011807438628815</v>
+        <v>0.0459774744200951</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0140757257105435</v>
+        <v>0.0367476335667025</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0205299716039569</v>
+        <v>0.0925832982825103</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0192015437388326</v>
+        <v>0.100570422352198</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.000793066574719928</v>
+        <v>0.0107294419659143</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00491778361316285</v>
+        <v>-0.0071658982835715</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00512186946868836</v>
+        <v>0.0207310926099631</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00312574894311448</v>
+        <v>0.0135608955399382</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0105327170425013</v>
+        <v>0.0714012059165354</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0026065870609654</v>
+        <v>0.00297122589678023</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0269214096863704</v>
+        <v>0.16640947407536</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.00605523727507564</v>
+        <v>-0.0107964576467771</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000598793671979655</v>
+        <v>0.00190077319016502</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00291829888634061</v>
+        <v>0.0248235717398428</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00282777479585406</v>
+        <v>-0.00544504456848749</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00664456538304963</v>
+        <v>-0.00966825985738851</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.00322649968185966</v>
+        <v>-0.00471609300281783</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.00671115226468654</v>
+        <v>-0.0136256418174444</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00479647570718739</v>
+        <v>-0.00725901586035593</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00885274680436465</v>
+        <v>0.0814894808964206</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00132582655616416</v>
+        <v>-0.00176414357686672</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00250036418437642</v>
+        <v>-0.00628651696121429</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0149503182108951</v>
+        <v>0.0692116076176088</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.00113442277803968</v>
+        <v>-0.000656453488844355</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00930964829259959</v>
+        <v>-0.020889133634073</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0115415433980648</v>
+        <v>-0.0195310630688137</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0360448365600536</v>
+        <v>0.0814825496522362</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.00132042599095014</v>
+        <v>0.00000779318675259155</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00171005063384185</v>
+        <v>0.00896336985569812</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0174053971075622</v>
+        <v>0.110134167909852</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.00622773863047864</v>
+        <v>-0.0121091403953741</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00518586804509109</v>
+        <v>-0.00880413345893338</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.00888399532132285</v>
+        <v>-0.0172988091596131</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00117789109742916</v>
+        <v>0.00751953732034938</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.00414160157718963</v>
+        <v>-0.00948019239942888</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0263801245694001</v>
+        <v>0.0711122680418186</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.000511173721201345</v>
+        <v>0.00501497885738278</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.000334501518323316</v>
+        <v>0.00462413214218405</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0216730773060237</v>
+        <v>0.0576739386078737</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0127235407310875</v>
+        <v>-0.0234918078319171</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0189222752704291</v>
+        <v>0.0517704315568952</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.0475907191999822</v>
+        <v>-0.108848228510001</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0239198926934871</v>
+        <v>0.0964546837459963</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00812553330024969</v>
+        <v>0.0291345324129195</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00406798700961651</v>
+        <v>0.0121786812004974</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0441949736864228</v>
+        <v>0.160738605530547</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.00317278609983879</v>
+        <v>0.00381879838836885</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00253017308598046</v>
+        <v>0.0954620609881354</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.033522725233671</v>
+        <v>0.0727808928422569</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00977777069246189</v>
+        <v>0.0408960563234104</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.00604069770929157</v>
+        <v>0.0233793960706501</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.00587237541971616</v>
+        <v>-0.0105392267083708</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00446269322763417</v>
+        <v>-0.00818381006612356</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0146406677889198</v>
+        <v>0.0322072508773774</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00484079810144369</v>
+        <v>0.0110118678793434</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.000305102872737172</v>
+        <v>0.0102294563220144</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00299171046498357</v>
+        <v>0.0192723264979411</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.00381064413154297</v>
+        <v>0.0119423729781261</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.00826471362812326</v>
+        <v>0.0367102578058125</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.000900347545206357</v>
+        <v>-0.00340583146726814</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00441348938555728</v>
+        <v>-0.00715325059479122</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00164041249043951</v>
+        <v>0.0183855307358873</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00140461025531733</v>
+        <v>0.000625989724116538</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0252129093124955</v>
+        <v>0.12291724005159</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00544533765226755</v>
+        <v>0.0205413836837904</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0107984316059893</v>
+        <v>0.0383042231126445</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.00867741897235032</v>
+        <v>-0.0147094272051</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0351529907266325</v>
+        <v>0.08154078081526</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0132454864415177</v>
+        <v>0.0339684772948716</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00298324326942496</v>
+        <v>-0.0120098376772487</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.000563022057647277</v>
+        <v>0.0242079222426488</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.000835618051798154</v>
+        <v>-0.00121306776385788</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.00371970735453774</v>
+        <v>-0.00887992209143407</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00392350086610299</v>
+        <v>-0.00742316877325067</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0079330229550106</v>
+        <v>0.0514302966464528</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00220538476938449</v>
+        <v>0.00780319081448866</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0296821886521848</v>
+        <v>0.100744212485177</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.00873676686369696</v>
+        <v>0.0609325394683855</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0018448885276211</v>
+        <v>-0.00333398595984302</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0128705438769076</v>
+        <v>-0.0258251108550936</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01412111448539</v>
+        <v>0.0298628337898994</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00376725578419078</v>
+        <v>0.0108599294999929</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.00149056889839908</v>
+        <v>-0.00109061732166849</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0168657938883851</v>
+        <v>0.0449476959531117</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.024588709320323</v>
+        <v>0.0761523208589139</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.00608914559031427</v>
+        <v>-0.0178419244569111</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00219086624811246</v>
+        <v>0.00676897913364294</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.00247689974918584</v>
+        <v>-0.00432803448067864</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00267872535215592</v>
+        <v>0.0140600376357183</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0414352516454427</v>
+        <v>0.0922329652154852</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.00148925167550217</v>
+        <v>0.0661650665320701</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.010378280110838</v>
+        <v>0.0863474546971486</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0180173859098438</v>
+        <v>0.0541840456558456</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/'folder' missing.xlsx
+++ b/xlsx/'folder' missing.xlsx
@@ -449,7 +449,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">diff_ede_ffu_bau</t>
+    <t xml:space="preserve">diff_ede_cs_bau</t>
   </si>
 </sst>
 </file>
@@ -1223,436 +1223,436 @@
         <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0675694152768285</v>
+        <v>0.0960242610498829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0462736450020746</v>
+        <v>0.0959752570803243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0130507216675175</v>
+        <v>0.00611961280230622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00210340214060256</v>
+        <v>0.0060634451538677</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00783321880079524</v>
+        <v>0.0065092089808696</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00990359012664077</v>
+        <v>-0.00745990614656611</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0912473172144268</v>
+        <v>0.172955752391303</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0214229528057513</v>
+        <v>-0.0216771845038177</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0498317448001098</v>
+        <v>0.0916140579861662</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0656484237808204</v>
+        <v>0.115182025322397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0225540370328967</v>
+        <v>0.0277748798714754</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00371371219567584</v>
+        <v>-0.000194441770287823</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00333769615120572</v>
+        <v>0.00695000026225823</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.019939395540155</v>
+        <v>-0.0340767121784475</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0550913182775254</v>
+        <v>0.081439782269296</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00709438159482145</v>
+        <v>0.0151415341665564</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0538099201892417</v>
+        <v>0.0616821629292419</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0155226886610023</v>
+        <v>0.0176577463997194</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00145376709408329</v>
+        <v>0.00195943736368354</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0813257525615527</v>
+        <v>0.101664719841149</v>
       </c>
       <c r="V2" t="n">
-        <v>0.322736647020276</v>
+        <v>0.468009267714899</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0176173966021934</v>
+        <v>-0.0170292220616327</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00640589676935766</v>
+        <v>0.00682492695399195</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0131776640284952</v>
+        <v>-0.008576176594564</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0221332844574607</v>
+        <v>0.0439445644559844</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0438342137389869</v>
+        <v>0.0791741444624203</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0681451340467825</v>
+        <v>0.123984288043975</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0372781614057149</v>
+        <v>0.0672542159979814</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0417956223474787</v>
+        <v>0.0458315339684319</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.134655207569213</v>
+        <v>0.201685603243885</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0460489538447653</v>
+        <v>0.0572300157181291</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00868687707616345</v>
+        <v>0.0105193754873296</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0103530778673002</v>
+        <v>0.00947520006068769</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00191993243385524</v>
+        <v>0.00167817652248559</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.00828823687829994</v>
+        <v>-0.0128869324864236</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0103854832959681</v>
+        <v>-0.00711768269476165</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0638557512270259</v>
+        <v>0.0804098038607584</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.00820699773608424</v>
+        <v>-0.00564136505508195</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0293610769830355</v>
+        <v>0.0338205547649848</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00140393925450355</v>
+        <v>0.00894006982703099</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00384319422114343</v>
+        <v>0.00908157241898122</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.000839420667012813</v>
+        <v>0.00820203733097591</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.363794991658628</v>
+        <v>0.485956022784829</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00567926413732722</v>
+        <v>0.000892405538883256</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0135959241594295</v>
+        <v>-0.0199654777490027</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0385588142926485</v>
+        <v>0.0617937692109494</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0122046116847867</v>
+        <v>-0.010214925428934</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.00668862869889575</v>
+        <v>-0.00247037517420234</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0169822320021966</v>
+        <v>0.0313277257247468</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00975206503816828</v>
+        <v>-0.00579282957333804</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00330597496924101</v>
+        <v>0.00113291541613059</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0459774744200951</v>
+        <v>0.0707291194797013</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0367476335667025</v>
+        <v>0.0745887757889936</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0925832982825103</v>
+        <v>0.165507537106996</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.100570422352198</v>
+        <v>0.165735819020308</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0107294419659143</v>
+        <v>0.0272019456457899</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.0071658982835715</v>
+        <v>0.000830765228872155</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0207310926099631</v>
+        <v>0.0341950264677471</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0135608955399382</v>
+        <v>0.0185349492947831</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0714012059165354</v>
+        <v>0.0961004698005625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00297122589678023</v>
+        <v>-0.00105540130368376</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.16640947407536</v>
+        <v>0.2047714825147</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.0107964576467771</v>
+        <v>-0.00650577522574336</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00190077319016502</v>
+        <v>0.00629826830978408</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0248235717398428</v>
+        <v>0.0301419262810749</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.00544504456848749</v>
+        <v>-0.00417905428755339</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.00966825985738851</v>
+        <v>-0.0160484565684872</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.00471609300281783</v>
+        <v>-0.0000852280322277688</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0136256418174444</v>
+        <v>-0.0129511453503541</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00725901586035593</v>
+        <v>-0.00159747613728356</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0814894808964206</v>
+        <v>0.0870020442926498</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.00176414357686672</v>
+        <v>-0.00110284023894514</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.00628651696121429</v>
+        <v>-0.00624691302999958</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0692116076176088</v>
+        <v>0.103434867884581</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.000656453488844355</v>
+        <v>0.00735383503363507</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.020889133634073</v>
+        <v>-0.0225244430405954</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0195310630688137</v>
+        <v>-0.023025176281813</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0814825496522362</v>
+        <v>0.119170049125987</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00000779318675259155</v>
+        <v>-0.000642888688260679</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00896336985569812</v>
+        <v>0.0099512776689592</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.110134167909852</v>
+        <v>0.135743600309572</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0121091403953741</v>
+        <v>-0.0065176101056349</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00880413345893338</v>
+        <v>-0.00832292079493158</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0172988091596131</v>
+        <v>-0.01343006089095</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00751953732034938</v>
+        <v>0.0129916867258328</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.00948019239942888</v>
+        <v>0.00645824287541141</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0711122680418186</v>
+        <v>0.120245866701605</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00501497885738278</v>
+        <v>0.00702300377402398</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.00462413214218405</v>
+        <v>0.00987458605750646</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0576739386078737</v>
+        <v>0.104735534066873</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0234918078319171</v>
+        <v>-0.0240595696763997</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0517704315568952</v>
+        <v>0.0626352621351323</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.108848228510001</v>
+        <v>-0.127641488593322</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0964546837459963</v>
+        <v>0.189332007355825</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0291345324129195</v>
+        <v>0.0562625526786968</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0121786812004974</v>
+        <v>0.0136283392915764</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.160738605530547</v>
+        <v>0.249356023124768</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00381879838836885</v>
+        <v>-0.000859678431296973</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0954620609881354</v>
+        <v>0.145799501504007</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0727808928422569</v>
+        <v>0.152119145033544</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0408960563234104</v>
+        <v>0.0705105048130981</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0233793960706501</v>
+        <v>0.0345409079774266</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0105392267083708</v>
+        <v>-0.00842065251594071</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.00818381006612356</v>
+        <v>-0.00541838038628684</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0322072508773774</v>
+        <v>0.035918581267216</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0110118678793434</v>
+        <v>0.0240419657590165</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0102294563220144</v>
+        <v>0.0109744867400441</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0192723264979411</v>
+        <v>0.0278916070678241</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0119423729781261</v>
+        <v>0.0180943367158475</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0367102578058125</v>
+        <v>0.0605127701684631</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.00340583146726814</v>
+        <v>-0.00846478685918872</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.00715325059479122</v>
+        <v>-0.000334856589360832</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0183855307358873</v>
+        <v>0.0244104038576813</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.000625989724116538</v>
+        <v>-0.00151676522287658</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.12291724005159</v>
+        <v>0.182462963647733</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0205413836837904</v>
+        <v>0.0355851304603196</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0383042231126445</v>
+        <v>0.0734981425150578</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0147094272051</v>
+        <v>-0.0121521664227525</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.08154078081526</v>
+        <v>0.116980873172267</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0339684772948716</v>
+        <v>0.0399995905194728</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0120098376772487</v>
+        <v>-0.0222366634426961</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0242079222426488</v>
+        <v>0.0243509683230503</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.00121306776385788</v>
+        <v>-0.00613511906924613</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.00887992209143407</v>
+        <v>-0.0118242947285556</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.00742316877325067</v>
+        <v>-0.00472446717258612</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0514302966464528</v>
+        <v>0.0759976411500201</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00780319081448866</v>
+        <v>0.0235361047719815</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.100744212485177</v>
+        <v>0.173619946260374</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0609325394683855</v>
+        <v>0.115423896054483</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.00333398595984302</v>
+        <v>-0.00418654102039206</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0258251108550936</v>
+        <v>-0.0387291123777438</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0298628337898994</v>
+        <v>0.0453812173641039</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0108599294999929</v>
+        <v>0.0155453367915745</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.00109061732166849</v>
+        <v>-0.00171021306032937</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0449476959531117</v>
+        <v>0.0855779641240968</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0761523208589139</v>
+        <v>0.121299291038749</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0178419244569111</v>
+        <v>-0.0251690158847151</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00676897913364294</v>
+        <v>0.00874291404039651</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.00432803448067864</v>
+        <v>-0.00154414262321056</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0140600376357183</v>
+        <v>0.0200996705705383</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0922329652154852</v>
+        <v>0.127960242665282</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0661650665320701</v>
+        <v>0.119046311288415</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0863474546971486</v>
+        <v>0.15088511714125</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0541840456558456</v>
+        <v>0.0976650944282682</v>
       </c>
     </row>
   </sheetData>
